--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1309,6 +1309,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1330,6 +1331,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1617,12 +1619,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1633,6 +1629,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1913,9 +1915,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F76" sqref="F76:F77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3964,7 +3966,7 @@
         <v>57</v>
       </c>
       <c r="B57" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>97</v>
@@ -3999,7 +4001,7 @@
         <v>58</v>
       </c>
       <c r="B58" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>100</v>
@@ -4034,7 +4036,7 @@
         <v>59</v>
       </c>
       <c r="B59" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>102</v>
@@ -4069,7 +4071,7 @@
         <v>60</v>
       </c>
       <c r="B60" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>104</v>
@@ -4835,107 +4837,107 @@
       </c>
     </row>
     <row r="82" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="40">
+      <c r="A82" s="38">
         <v>82</v>
       </c>
-      <c r="B82" s="40">
+      <c r="B82" s="38">
         <v>1</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="39" t="s">
         <v>372</v>
       </c>
-      <c r="D82" s="40" t="s">
+      <c r="D82" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="F82" s="40">
+      <c r="F82" s="38">
         <v>82</v>
       </c>
-      <c r="G82" s="40" t="b">
+      <c r="G82" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H82" s="40">
+      <c r="H82" s="38">
         <v>1</v>
       </c>
-      <c r="I82" s="40">
+      <c r="I82" s="38">
         <v>946677600</v>
       </c>
-      <c r="J82" s="40">
+      <c r="J82" s="38">
         <v>32503651200</v>
       </c>
-      <c r="K82" s="40">
+      <c r="K82" s="38">
         <v>259200</v>
       </c>
     </row>
     <row r="83" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="40">
+      <c r="A83" s="38">
         <v>83</v>
       </c>
-      <c r="B83" s="40">
+      <c r="B83" s="38">
         <v>1</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="39" t="s">
         <v>370</v>
       </c>
-      <c r="D83" s="41" t="s">
+      <c r="D83" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F83" s="40">
+      <c r="F83" s="38">
         <v>83</v>
       </c>
-      <c r="G83" s="40" t="b">
+      <c r="G83" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H83" s="40">
+      <c r="H83" s="38">
         <v>1</v>
       </c>
-      <c r="I83" s="40">
+      <c r="I83" s="38">
         <v>946677600</v>
       </c>
-      <c r="J83" s="40">
+      <c r="J83" s="38">
         <v>32503651200</v>
       </c>
-      <c r="K83" s="40">
+      <c r="K83" s="38">
         <v>259200</v>
       </c>
     </row>
     <row r="84" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="40">
+      <c r="A84" s="38">
         <v>84</v>
       </c>
-      <c r="B84" s="40">
+      <c r="B84" s="38">
         <v>1</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="39" t="s">
         <v>371</v>
       </c>
-      <c r="D84" s="41" t="s">
+      <c r="D84" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F84" s="40">
+      <c r="F84" s="38">
         <v>84</v>
       </c>
-      <c r="G84" s="40" t="b">
+      <c r="G84" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H84" s="40">
+      <c r="H84" s="38">
         <v>1</v>
       </c>
-      <c r="I84" s="40">
+      <c r="I84" s="38">
         <v>946677600</v>
       </c>
-      <c r="J84" s="40">
+      <c r="J84" s="38">
         <v>32503651200</v>
       </c>
-      <c r="K84" s="40">
+      <c r="K84" s="38">
         <v>259200</v>
       </c>
     </row>
@@ -4950,8 +4952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H83" sqref="H83:H85"/>
     </sheetView>
   </sheetViews>
@@ -7100,83 +7102,83 @@
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="40">
+      <c r="A83" s="38">
         <v>82</v>
       </c>
-      <c r="B83" s="40">
+      <c r="B83" s="38">
         <v>82</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C83" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="42">
+      <c r="D83" s="40">
         <v>82</v>
       </c>
-      <c r="E83" s="42"/>
-      <c r="F83" s="42">
+      <c r="E83" s="40"/>
+      <c r="F83" s="40">
         <v>200000000</v>
       </c>
-      <c r="G83" s="42">
+      <c r="G83" s="40">
         <v>100000000</v>
       </c>
-      <c r="H83" s="42">
+      <c r="H83" s="40">
         <v>98</v>
       </c>
-      <c r="I83" s="42" t="s">
+      <c r="I83" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="40">
+      <c r="A84" s="38">
         <v>83</v>
       </c>
-      <c r="B84" s="40">
+      <c r="B84" s="38">
         <v>83</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C84" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D84" s="42">
+      <c r="D84" s="40">
         <v>83</v>
       </c>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42">
+      <c r="E84" s="40"/>
+      <c r="F84" s="40">
         <v>1000000000</v>
       </c>
-      <c r="G84" s="42">
+      <c r="G84" s="40">
         <v>500000000</v>
       </c>
-      <c r="H84" s="42">
+      <c r="H84" s="40">
         <v>99</v>
       </c>
-      <c r="I84" s="42" t="s">
+      <c r="I84" s="40" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="40">
+      <c r="A85" s="38">
         <v>84</v>
       </c>
-      <c r="B85" s="40">
+      <c r="B85" s="38">
         <v>84</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C85" s="40" t="s">
         <v>174</v>
       </c>
-      <c r="D85" s="42">
+      <c r="D85" s="40">
         <v>84</v>
       </c>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42">
+      <c r="E85" s="40"/>
+      <c r="F85" s="40">
         <v>4000000000</v>
       </c>
-      <c r="G85" s="42">
+      <c r="G85" s="40">
         <v>2000000000</v>
       </c>
-      <c r="H85" s="42">
+      <c r="H85" s="40">
         <v>100</v>
       </c>
-      <c r="I85" s="42" t="s">
+      <c r="I85" s="40" t="s">
         <v>152</v>
       </c>
     </row>
@@ -8707,44 +8709,44 @@
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="42">
+      <c r="A89" s="40">
         <v>88</v>
       </c>
-      <c r="B89" s="42">
+      <c r="B89" s="40">
         <v>82</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="D89" s="40">
+      <c r="D89" s="38">
         <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="42">
+      <c r="A90" s="40">
         <v>89</v>
       </c>
-      <c r="B90" s="42">
+      <c r="B90" s="40">
         <v>83</v>
       </c>
-      <c r="C90" s="43" t="s">
+      <c r="C90" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="D90" s="42">
+      <c r="D90" s="40">
         <v>34</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="42">
+      <c r="A91" s="40">
         <v>90</v>
       </c>
-      <c r="B91" s="42">
+      <c r="B91" s="40">
         <v>84</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="41" t="s">
         <v>377</v>
       </c>
-      <c r="D91" s="40">
+      <c r="D91" s="38">
         <v>35</v>
       </c>
     </row>
@@ -9868,53 +9870,53 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="40">
+      <c r="A65" s="38">
         <v>64</v>
       </c>
-      <c r="B65" s="40">
+      <c r="B65" s="38">
         <v>33</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="41" t="s">
         <v>379</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="38">
         <v>2</v>
       </c>
-      <c r="E65" s="42">
+      <c r="E65" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="40">
+      <c r="A66" s="38">
         <v>65</v>
       </c>
-      <c r="B66" s="42">
+      <c r="B66" s="40">
         <v>34</v>
       </c>
-      <c r="C66" s="42" t="s">
+      <c r="C66" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="38">
         <v>3</v>
       </c>
-      <c r="E66" s="42">
+      <c r="E66" s="40">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="40">
+      <c r="A67" s="38">
         <v>66</v>
       </c>
-      <c r="B67" s="40">
+      <c r="B67" s="38">
         <v>35</v>
       </c>
-      <c r="C67" s="42" t="s">
+      <c r="C67" s="40" t="s">
         <v>216</v>
       </c>
-      <c r="D67" s="40">
+      <c r="D67" s="38">
         <v>4</v>
       </c>
-      <c r="E67" s="42">
+      <c r="E67" s="40">
         <v>2</v>
       </c>
     </row>
@@ -11644,53 +11646,53 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" s="40">
+      <c r="A94" s="38">
         <v>93</v>
       </c>
-      <c r="B94" s="42">
+      <c r="B94" s="40">
         <v>98</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C94" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D94" s="42">
+      <c r="D94" s="40">
         <v>1000</v>
       </c>
-      <c r="E94" s="42">
+      <c r="E94" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="40">
+      <c r="A95" s="38">
         <v>94</v>
       </c>
-      <c r="B95" s="42">
+      <c r="B95" s="40">
         <v>99</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C95" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D95" s="42">
+      <c r="D95" s="40">
         <v>5000</v>
       </c>
-      <c r="E95" s="42">
+      <c r="E95" s="40">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="40">
+      <c r="A96" s="38">
         <v>95</v>
       </c>
-      <c r="B96" s="42">
+      <c r="B96" s="40">
         <v>100</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C96" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="42">
+      <c r="D96" s="40">
         <v>20000</v>
       </c>
-      <c r="E96" s="42">
+      <c r="E96" s="40">
         <v>1</v>
       </c>
     </row>
@@ -11838,10 +11840,10 @@
       <c r="A2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="38">
+      <c r="C2" s="42">
         <v>1</v>
       </c>
     </row>
@@ -11849,8 +11851,8 @@
       <c r="A3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -11900,10 +11902,10 @@
       <c r="A8" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="42" t="s">
         <v>283</v>
       </c>
     </row>
@@ -11911,17 +11913,17 @@
       <c r="A9" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="38">
+      <c r="C10" s="42">
         <v>1</v>
       </c>
     </row>
@@ -11929,8 +11931,8 @@
       <c r="A11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -12035,10 +12037,10 @@
       <c r="A21" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="43" t="s">
         <v>306</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="43">
         <v>1</v>
       </c>
     </row>
@@ -12046,8 +12048,8 @@
       <c r="A22" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -45053,10 +45055,10 @@
       <c r="A45" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="42" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="42" t="s">
         <v>283</v>
       </c>
     </row>
@@ -45064,8 +45066,8 @@
       <c r="A46" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -45168,16 +45170,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1916,8 +1916,8 @@
   <dimension ref="A1:S84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B60"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3821,38 +3821,38 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="24">
+    <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
         <v>53</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="14">
         <v>1</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="D53" s="24" t="s">
+      <c r="D53" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E53" s="24" t="s">
+      <c r="E53" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="F53" s="24">
+      <c r="F53" s="14">
         <v>53</v>
       </c>
-      <c r="G53" s="24" t="b">
+      <c r="G53" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="H53" s="24">
+      <c r="H53" s="14">
         <v>1</v>
       </c>
-      <c r="I53" s="24">
+      <c r="I53" s="14">
         <v>946656000</v>
       </c>
-      <c r="J53" s="24">
+      <c r="J53" s="14">
         <v>32503651200</v>
       </c>
-      <c r="K53" s="24">
+      <c r="K53" s="14">
         <v>-1</v>
       </c>
     </row>
@@ -4346,38 +4346,38 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="14">
+    <row r="68" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="24">
         <v>68</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="24">
         <v>1</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E68" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="24">
         <v>68</v>
       </c>
-      <c r="G68" s="14" t="b">
+      <c r="G68" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="24">
         <v>1</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="24">
         <v>946677600</v>
       </c>
-      <c r="J68" s="14">
+      <c r="J68" s="24">
         <v>32503651200</v>
       </c>
-      <c r="K68" s="14">
+      <c r="K68" s="24">
         <v>259200</v>
       </c>
     </row>
@@ -4626,73 +4626,73 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="14">
+    <row r="76" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="24">
         <v>76</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="24">
         <v>1</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="D76" s="32" t="s">
+      <c r="D76" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="E76" s="14" t="s">
+      <c r="E76" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F76" s="14">
+      <c r="F76" s="24">
         <v>76</v>
       </c>
-      <c r="G76" s="14" t="b">
+      <c r="G76" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="24">
         <v>1</v>
       </c>
-      <c r="I76" s="14">
+      <c r="I76" s="24">
         <v>946677600</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="24">
         <v>32503651200</v>
       </c>
-      <c r="K76" s="14">
+      <c r="K76" s="24">
         <v>259200</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="14">
+    <row r="77" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="24">
         <v>77</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="24">
         <v>1</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="D77" s="32" t="s">
+      <c r="D77" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="E77" s="14" t="s">
+      <c r="E77" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="F77" s="14">
+      <c r="F77" s="24">
         <v>77</v>
       </c>
-      <c r="G77" s="14" t="b">
+      <c r="G77" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="24">
         <v>1</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="24">
         <v>946677600</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J77" s="24">
         <v>32503651200</v>
       </c>
-      <c r="K77" s="14">
+      <c r="K77" s="24">
         <v>259200</v>
       </c>
     </row>
@@ -4802,37 +4802,37 @@
       </c>
     </row>
     <row r="81" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="24">
+      <c r="A81" s="14">
         <v>81</v>
       </c>
-      <c r="B81" s="24">
+      <c r="B81" s="14">
         <v>1</v>
       </c>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="D81" s="35" t="s">
+      <c r="D81" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="E81" s="35" t="s">
+      <c r="E81" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="F81" s="24">
+      <c r="F81" s="14">
         <v>81</v>
       </c>
-      <c r="G81" s="24" t="b">
+      <c r="G81" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="H81" s="24">
+      <c r="H81" s="14">
         <v>1</v>
       </c>
-      <c r="I81" s="24">
+      <c r="I81" s="14">
         <v>946677600</v>
       </c>
-      <c r="J81" s="24">
+      <c r="J81" s="14">
         <v>32503651200</v>
       </c>
-      <c r="K81" s="24">
+      <c r="K81" s="14">
         <v>259200</v>
       </c>
     </row>
@@ -4952,9 +4952,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H83" sqref="H83:H85"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6740,10 +6740,10 @@
         <v>28</v>
       </c>
       <c r="F69" s="4">
-        <v>20000000</v>
+        <v>200000000</v>
       </c>
       <c r="G69" s="4">
-        <v>10000000</v>
+        <v>100000000</v>
       </c>
       <c r="H69" s="4">
         <v>72</v>
@@ -6950,10 +6950,10 @@
         <v>29</v>
       </c>
       <c r="F77" s="15">
-        <v>100000000</v>
+        <v>1000000000</v>
       </c>
       <c r="G77" s="15">
-        <v>50000000</v>
+        <v>500000000</v>
       </c>
       <c r="H77" s="15">
         <v>92</v>
@@ -6979,10 +6979,10 @@
         <v>30</v>
       </c>
       <c r="F78" s="15">
-        <v>400000000</v>
+        <v>4000000000</v>
       </c>
       <c r="G78" s="15">
-        <v>200000000</v>
+        <v>2000000000</v>
       </c>
       <c r="H78" s="15">
         <v>93</v>
@@ -7089,10 +7089,10 @@
         <v>0</v>
       </c>
       <c r="F82" s="18">
-        <v>5000000</v>
+        <v>1000000000</v>
       </c>
       <c r="G82" s="18">
-        <v>2500000</v>
+        <v>500000000</v>
       </c>
       <c r="H82" s="18">
         <v>97</v>
@@ -7116,10 +7116,10 @@
       </c>
       <c r="E83" s="40"/>
       <c r="F83" s="40">
-        <v>200000000</v>
+        <v>2000000000</v>
       </c>
       <c r="G83" s="40">
-        <v>100000000</v>
+        <v>1000000000</v>
       </c>
       <c r="H83" s="40">
         <v>98</v>
@@ -7143,10 +7143,10 @@
       </c>
       <c r="E84" s="40"/>
       <c r="F84" s="40">
-        <v>1000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="G84" s="40">
-        <v>500000000</v>
+        <v>5000000000</v>
       </c>
       <c r="H84" s="40">
         <v>99</v>
@@ -7170,10 +7170,10 @@
       </c>
       <c r="E85" s="40"/>
       <c r="F85" s="40">
-        <v>4000000000</v>
+        <v>40000000000</v>
       </c>
       <c r="G85" s="40">
-        <v>2000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="H85" s="40">
         <v>100</v>
@@ -45170,16 +45170,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="384">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1378,6 +1378,35 @@
     <t>fish_game_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>西游白骨精进度</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000,30000,50000,80000,1000000,-1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiyou_task_money</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1516,7 +1545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1631,10 +1660,19 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1913,11 +1951,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
+      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4941,6 +4979,41 @@
         <v>259200</v>
       </c>
     </row>
+    <row r="85" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
+        <v>85</v>
+      </c>
+      <c r="B85" s="14">
+        <v>1</v>
+      </c>
+      <c r="C85" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="14">
+        <v>85</v>
+      </c>
+      <c r="G85" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="14">
+        <v>1</v>
+      </c>
+      <c r="I85" s="14">
+        <v>946677600</v>
+      </c>
+      <c r="J85" s="14">
+        <v>32503651200</v>
+      </c>
+      <c r="K85" s="14">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4950,11 +5023,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7182,6 +7255,31 @@
         <v>152</v>
       </c>
     </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <v>85</v>
+      </c>
+      <c r="B86" s="42">
+        <v>85</v>
+      </c>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42">
+        <v>85</v>
+      </c>
+      <c r="E86" s="42">
+        <v>0</v>
+      </c>
+      <c r="F86" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="G86" s="42"/>
+      <c r="H86" s="46">
+        <v>101102103104105</v>
+      </c>
+      <c r="I86" s="45" t="s">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7191,10 +7289,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8748,6 +8846,20 @@
       </c>
       <c r="D91" s="38">
         <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <v>91</v>
+      </c>
+      <c r="B92" s="42">
+        <v>83</v>
+      </c>
+      <c r="C92" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="D92" s="15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9928,11 +10040,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94:B96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11693,6 +11805,91 @@
         <v>20000</v>
       </c>
       <c r="E96" s="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4">
+        <v>101</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D97" s="4">
+        <v>100</v>
+      </c>
+      <c r="E97" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+      <c r="B98" s="42">
+        <v>102</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E98" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+      <c r="B99" s="42">
+        <v>103</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D99" s="4">
+        <v>3000</v>
+      </c>
+      <c r="E99" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+      <c r="B100" s="42">
+        <v>104</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D100" s="4">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+      <c r="B101" s="42">
+        <v>105</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="D101" s="42">
+        <v>10000</v>
+      </c>
+      <c r="E101" s="4">
         <v>1</v>
       </c>
     </row>
@@ -11840,10 +12037,10 @@
       <c r="A2" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="C2" s="42">
+      <c r="C2" s="43">
         <v>1</v>
       </c>
     </row>
@@ -11851,8 +12048,8 @@
       <c r="A3" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -11902,10 +12099,10 @@
       <c r="A8" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>289</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="43" t="s">
         <v>283</v>
       </c>
     </row>
@@ -11913,17 +12110,17 @@
       <c r="A9" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="43" t="s">
         <v>291</v>
       </c>
-      <c r="C10" s="42">
+      <c r="C10" s="43">
         <v>1</v>
       </c>
     </row>
@@ -11931,8 +12128,8 @@
       <c r="A11" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -12037,10 +12234,10 @@
       <c r="A21" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>306</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="44">
         <v>1</v>
       </c>
     </row>
@@ -12048,8 +12245,8 @@
       <c r="A22" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -45055,10 +45252,10 @@
       <c r="A45" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B45" s="42" t="s">
+      <c r="B45" s="43" t="s">
         <v>341</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C45" s="43" t="s">
         <v>283</v>
       </c>
     </row>
@@ -45066,8 +45263,8 @@
       <c r="A46" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -45170,16 +45367,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -466,9 +466,6 @@
   </si>
   <si>
     <t>shuihu_xiaoxiaole_daily_task</t>
-  </si>
-  <si>
-    <t>新玩家捕鱼红包任务(深海寻宝)</t>
   </si>
   <si>
     <t>新玩家捕鱼红包任务(海底遗迹)</t>
@@ -1407,6 +1404,10 @@
     <t>xiyou_task_money</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>新玩家捕鱼红包任务(深海寻宝)</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1663,16 +1664,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1953,9 +1954,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K85" sqref="K85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B76" sqref="B76:B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4389,7 +4390,7 @@
         <v>68</v>
       </c>
       <c r="B68" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>121</v>
@@ -4398,7 +4399,7 @@
         <v>122</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F68" s="24">
         <v>68</v>
@@ -4669,13 +4670,13 @@
         <v>76</v>
       </c>
       <c r="B76" s="24">
-        <v>1</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>133</v>
+        <v>0</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>383</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>122</v>
@@ -4704,13 +4705,13 @@
         <v>77</v>
       </c>
       <c r="B77" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>122</v>
@@ -4742,10 +4743,10 @@
         <v>1</v>
       </c>
       <c r="C78" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="D78" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="E78" s="28" t="s">
         <v>37</v>
@@ -4777,10 +4778,10 @@
         <v>1</v>
       </c>
       <c r="C79" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>138</v>
       </c>
       <c r="E79" s="28" t="s">
         <v>37</v>
@@ -4812,10 +4813,10 @@
         <v>1</v>
       </c>
       <c r="C80" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D80" s="28" t="s">
         <v>139</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>140</v>
       </c>
       <c r="E80" s="28" t="s">
         <v>37</v>
@@ -4847,13 +4848,13 @@
         <v>1</v>
       </c>
       <c r="C81" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="E81" s="32" t="s">
         <v>361</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>365</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>362</v>
       </c>
       <c r="F81" s="14">
         <v>81</v>
@@ -4882,13 +4883,13 @@
         <v>1</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>122</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F82" s="38">
         <v>82</v>
@@ -4917,10 +4918,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E83" s="38" t="s">
         <v>122</v>
@@ -4952,10 +4953,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D84" s="39" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E84" s="38" t="s">
         <v>122</v>
@@ -4987,7 +4988,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>14</v>
@@ -5043,31 +5044,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>147</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>148</v>
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="21"/>
@@ -5080,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -5089,14 +5090,14 @@
         <v>1</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -5107,7 +5108,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -5116,14 +5117,14 @@
         <v>2</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -5134,7 +5135,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -5143,14 +5144,14 @@
         <v>3</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -5161,7 +5162,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
@@ -5170,14 +5171,14 @@
         <v>4</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -5188,7 +5189,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -5204,7 +5205,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="22"/>
     </row>
@@ -5216,7 +5217,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
@@ -5231,7 +5232,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -5242,7 +5243,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="4">
         <v>7</v>
@@ -5257,7 +5258,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -5268,7 +5269,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -5283,7 +5284,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -5295,7 +5296,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="4">
         <v>9</v>
@@ -5310,7 +5311,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -5321,7 +5322,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
@@ -5336,7 +5337,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -5347,7 +5348,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="4">
         <v>11</v>
@@ -5362,7 +5363,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -5373,7 +5374,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
@@ -5388,7 +5389,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -5399,7 +5400,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="4">
         <v>13</v>
@@ -5414,7 +5415,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -5425,7 +5426,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="4">
         <v>14</v>
@@ -5440,7 +5441,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -5451,7 +5452,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="4">
         <v>15</v>
@@ -5466,7 +5467,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -5477,7 +5478,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="4">
         <v>16</v>
@@ -5492,7 +5493,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -5503,7 +5504,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="4">
         <v>17</v>
@@ -5518,7 +5519,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -5529,7 +5530,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="4">
         <v>18</v>
@@ -5544,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -5555,7 +5556,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="4">
         <v>19</v>
@@ -5570,7 +5571,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -5581,7 +5582,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="4">
         <v>20</v>
@@ -5596,7 +5597,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -5607,7 +5608,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="4">
         <v>21</v>
@@ -5622,7 +5623,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -5633,7 +5634,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="4">
         <v>22</v>
@@ -5648,7 +5649,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -5659,7 +5660,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="4">
         <v>23</v>
@@ -5674,7 +5675,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -5685,7 +5686,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="4">
         <v>24</v>
@@ -5700,7 +5701,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -5711,7 +5712,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="4">
         <v>25</v>
@@ -5726,7 +5727,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -5737,7 +5738,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="4">
         <v>26</v>
@@ -5752,7 +5753,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -5763,7 +5764,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="4">
         <v>27</v>
@@ -5778,7 +5779,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -5789,7 +5790,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="4">
         <v>28</v>
@@ -5804,7 +5805,7 @@
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -5815,7 +5816,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="4">
         <v>29</v>
@@ -5830,7 +5831,7 @@
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -5841,7 +5842,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" s="4">
         <v>30</v>
@@ -5856,7 +5857,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -5867,7 +5868,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="4">
         <v>31</v>
@@ -5882,7 +5883,7 @@
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -5893,7 +5894,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="4">
         <v>32</v>
@@ -5908,7 +5909,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -5919,7 +5920,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" s="4">
         <v>33</v>
@@ -5934,7 +5935,7 @@
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -5945,7 +5946,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="4">
         <v>34</v>
@@ -5960,7 +5961,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -5971,7 +5972,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="4">
         <v>35</v>
@@ -5986,7 +5987,7 @@
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -5997,7 +5998,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37" s="4">
         <v>36</v>
@@ -6012,7 +6013,7 @@
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6023,7 +6024,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" s="4">
         <v>37</v>
@@ -6038,7 +6039,7 @@
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -6049,7 +6050,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="4">
         <v>38</v>
@@ -6064,7 +6065,7 @@
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6075,7 +6076,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="4">
         <v>39</v>
@@ -6090,7 +6091,7 @@
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6101,7 +6102,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" s="4">
         <v>40</v>
@@ -6116,7 +6117,7 @@
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6127,7 +6128,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="4">
         <v>41</v>
@@ -6142,7 +6143,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6153,7 +6154,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D43" s="4">
         <v>42</v>
@@ -6168,7 +6169,7 @@
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6179,7 +6180,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="4">
         <v>43</v>
@@ -6194,7 +6195,7 @@
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6205,7 +6206,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="4">
         <v>44</v>
@@ -6220,7 +6221,7 @@
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6231,7 +6232,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="4">
         <v>45</v>
@@ -6246,7 +6247,7 @@
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6257,7 +6258,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" s="4">
         <v>46</v>
@@ -6272,7 +6273,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6283,7 +6284,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="4">
         <v>47</v>
@@ -6298,7 +6299,7 @@
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6309,7 +6310,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="4">
         <v>48</v>
@@ -6324,7 +6325,7 @@
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -6335,7 +6336,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="4">
         <v>49</v>
@@ -6350,7 +6351,7 @@
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -6361,7 +6362,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="4">
         <v>50</v>
@@ -6370,14 +6371,14 @@
         <v>0</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -6388,7 +6389,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="4">
         <v>51</v>
@@ -6403,7 +6404,7 @@
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -6414,7 +6415,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="4">
         <v>52</v>
@@ -6429,7 +6430,7 @@
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -6440,7 +6441,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="4">
         <v>53</v>
@@ -6455,7 +6456,7 @@
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -6466,7 +6467,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="4">
         <v>54</v>
@@ -6481,7 +6482,7 @@
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -6492,7 +6493,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="4">
         <v>55</v>
@@ -6507,7 +6508,7 @@
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -6518,7 +6519,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="4">
         <v>56</v>
@@ -6533,7 +6534,7 @@
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -6544,7 +6545,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="4">
         <v>57</v>
@@ -6556,7 +6557,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -6567,7 +6568,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="4">
         <v>58</v>
@@ -6579,7 +6580,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -6590,7 +6591,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="4">
         <v>59</v>
@@ -6602,7 +6603,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -6613,7 +6614,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61" s="4">
         <v>60</v>
@@ -6625,7 +6626,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -6636,7 +6637,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="4">
         <v>61</v>
@@ -6645,10 +6646,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="H62" s="4" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -6659,7 +6660,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D63" s="4">
         <v>62</v>
@@ -6671,7 +6672,7 @@
         <v>99999</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -6682,7 +6683,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D64" s="4">
         <v>63</v>
@@ -6694,7 +6695,7 @@
         <v>99999</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -6705,7 +6706,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" s="4">
         <v>64</v>
@@ -6717,7 +6718,7 @@
         <v>99999</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -6728,7 +6729,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66" s="4">
         <v>65</v>
@@ -6743,7 +6744,7 @@
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -6754,7 +6755,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D67" s="4">
         <v>66</v>
@@ -6769,7 +6770,7 @@
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -6780,7 +6781,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D68" s="4">
         <v>67</v>
@@ -6793,7 +6794,7 @@
       </c>
       <c r="G68" s="23"/>
       <c r="I68" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -6804,7 +6805,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D69" s="4">
         <v>68</v>
@@ -6822,7 +6823,7 @@
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -6833,7 +6834,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D70" s="15">
         <v>69</v>
@@ -6842,14 +6843,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -6860,7 +6861,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" s="15">
         <v>70</v>
@@ -6876,7 +6877,7 @@
         <v>88</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -6887,7 +6888,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" s="15">
         <v>71</v>
@@ -6903,7 +6904,7 @@
         <v>89</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -6914,7 +6915,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D73" s="15">
         <v>72</v>
@@ -6930,7 +6931,7 @@
         <v>90</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -6941,7 +6942,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="15">
         <v>73</v>
@@ -6957,7 +6958,7 @@
         <v>91</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -6968,7 +6969,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="15">
         <v>74</v>
@@ -6991,7 +6992,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D76" s="15">
         <v>75</v>
@@ -7014,7 +7015,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D77" s="15">
         <v>76</v>
@@ -7032,7 +7033,7 @@
         <v>92</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -7043,7 +7044,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D78" s="15">
         <v>77</v>
@@ -7061,7 +7062,7 @@
         <v>93</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -7072,7 +7073,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D79" s="15">
         <v>78</v>
@@ -7088,7 +7089,7 @@
         <v>94</v>
       </c>
       <c r="I79" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -7099,7 +7100,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="15">
         <v>79</v>
@@ -7115,7 +7116,7 @@
         <v>95</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -7126,7 +7127,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D81" s="15">
         <v>80</v>
@@ -7142,7 +7143,7 @@
         <v>96</v>
       </c>
       <c r="I81" s="37" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -7153,7 +7154,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D82" s="18">
         <v>81</v>
@@ -7171,7 +7172,7 @@
         <v>97</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -7182,7 +7183,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D83" s="40">
         <v>82</v>
@@ -7198,7 +7199,7 @@
         <v>98</v>
       </c>
       <c r="I83" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -7209,7 +7210,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D84" s="40">
         <v>83</v>
@@ -7225,7 +7226,7 @@
         <v>99</v>
       </c>
       <c r="I84" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
@@ -7236,7 +7237,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D85" s="40">
         <v>84</v>
@@ -7252,7 +7253,7 @@
         <v>100</v>
       </c>
       <c r="I85" s="40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -7269,15 +7270,15 @@
       <c r="E86" s="42">
         <v>0</v>
       </c>
-      <c r="F86" s="45" t="s">
-        <v>382</v>
+      <c r="F86" s="43" t="s">
+        <v>381</v>
       </c>
       <c r="G86" s="42"/>
-      <c r="H86" s="46">
+      <c r="H86" s="44">
         <v>101102103104105</v>
       </c>
-      <c r="I86" s="45" t="s">
-        <v>381</v>
+      <c r="I86" s="43" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -7307,19 +7308,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -7334,7 +7335,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -7351,7 +7352,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D3" s="14">
         <v>2</v>
@@ -7368,7 +7369,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="14">
         <v>3</v>
@@ -7385,7 +7386,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" s="14">
         <v>4</v>
@@ -7402,7 +7403,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D6" s="14">
         <v>5</v>
@@ -7419,7 +7420,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="15">
         <v>6</v>
@@ -7436,7 +7437,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D8" s="15">
         <v>15</v>
@@ -7453,7 +7454,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D9" s="15">
         <v>7</v>
@@ -7470,7 +7471,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
@@ -7487,7 +7488,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="15">
         <v>7</v>
@@ -7504,7 +7505,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D12" s="15">
         <v>10</v>
@@ -7521,7 +7522,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D13" s="15">
         <v>7</v>
@@ -7538,7 +7539,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D14" s="15">
         <v>7</v>
@@ -7555,7 +7556,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="15">
         <v>18</v>
@@ -7572,7 +7573,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D16" s="15">
         <v>0</v>
@@ -7589,7 +7590,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="15">
         <v>19</v>
@@ -7606,7 +7607,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="15">
         <v>10</v>
@@ -7623,7 +7624,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D19" s="15">
         <v>12</v>
@@ -7640,7 +7641,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D20" s="15">
         <v>11</v>
@@ -7657,7 +7658,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="15">
         <v>10</v>
@@ -7674,7 +7675,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="15">
         <v>8</v>
@@ -7691,7 +7692,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D23" s="15">
         <v>11</v>
@@ -7708,7 +7709,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D24" s="15">
         <v>9</v>
@@ -7725,7 +7726,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" s="15">
         <v>9</v>
@@ -7742,7 +7743,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D26" s="15">
         <v>20</v>
@@ -7759,7 +7760,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D27" s="15">
         <v>13</v>
@@ -7776,7 +7777,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="15">
         <v>11</v>
@@ -7793,7 +7794,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="15">
         <v>14</v>
@@ -7810,7 +7811,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D30" s="15">
         <v>12</v>
@@ -7827,7 +7828,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D31" s="15">
         <v>21</v>
@@ -7844,7 +7845,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D32" s="15">
         <v>7</v>
@@ -7861,7 +7862,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" s="15">
         <v>0</v>
@@ -7878,7 +7879,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D34" s="15">
         <v>7</v>
@@ -7895,7 +7896,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D35" s="15">
         <v>10</v>
@@ -7912,7 +7913,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D36" s="15">
         <v>7</v>
@@ -7929,7 +7930,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
@@ -7946,7 +7947,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D38" s="15">
         <v>0</v>
@@ -7963,7 +7964,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D39" s="15">
         <v>24</v>
@@ -7980,7 +7981,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D40" s="15">
         <v>10</v>
@@ -7997,7 +7998,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D41" s="15">
         <v>7</v>
@@ -8014,7 +8015,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
@@ -8031,7 +8032,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D43" s="15">
         <v>7</v>
@@ -8048,7 +8049,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D44" s="15">
         <v>0</v>
@@ -8065,7 +8066,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -8082,7 +8083,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="15">
         <v>18</v>
@@ -8099,7 +8100,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" s="15">
         <v>10</v>
@@ -8116,7 +8117,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D48" s="15">
         <v>25</v>
@@ -8133,7 +8134,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D49" s="15">
         <v>26</v>
@@ -8150,7 +8151,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D50" s="15">
         <v>27</v>
@@ -8167,7 +8168,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="15">
         <v>0</v>
@@ -8184,7 +8185,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D52" s="15">
         <v>15</v>
@@ -8201,7 +8202,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D53" s="15">
         <v>17</v>
@@ -8218,7 +8219,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D54" s="15">
         <v>22</v>
@@ -8235,7 +8236,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="15">
         <v>22</v>
@@ -8252,7 +8253,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="15">
         <v>23</v>
@@ -8269,7 +8270,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D57" s="15">
         <v>0</v>
@@ -8286,7 +8287,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
@@ -8303,7 +8304,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59" s="15">
         <v>0</v>
@@ -8320,7 +8321,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="15">
         <v>0</v>
@@ -8337,7 +8338,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
@@ -8354,7 +8355,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" s="15">
         <v>0</v>
@@ -8371,7 +8372,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D63" s="15">
         <v>0</v>
@@ -8388,7 +8389,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D64" s="15">
         <v>0</v>
@@ -8405,7 +8406,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D65" s="15">
         <v>0</v>
@@ -8422,7 +8423,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D66" s="15">
         <v>0</v>
@@ -8439,7 +8440,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D67" s="15">
         <v>0</v>
@@ -8456,7 +8457,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
@@ -8473,7 +8474,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D69" s="15">
         <v>28</v>
@@ -8490,7 +8491,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D70" s="15">
         <v>0</v>
@@ -8507,7 +8508,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
@@ -8524,7 +8525,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D72" s="15">
         <v>0</v>
@@ -8541,7 +8542,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
@@ -8558,7 +8559,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="15">
         <v>0</v>
@@ -8575,7 +8576,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D75" s="15">
         <v>0</v>
@@ -8592,7 +8593,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D76" s="15">
         <v>0</v>
@@ -8609,7 +8610,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D77" s="15">
         <v>29</v>
@@ -8626,7 +8627,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D78" s="15">
         <v>30</v>
@@ -8643,7 +8644,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D79" s="15">
         <v>31</v>
@@ -8660,7 +8661,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D80" s="15">
         <v>32</v>
@@ -8677,7 +8678,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
@@ -8694,7 +8695,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D82" s="15">
         <v>0</v>
@@ -8711,7 +8712,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D83" s="15">
         <v>0</v>
@@ -8728,7 +8729,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D84" s="15">
         <v>0</v>
@@ -8745,7 +8746,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D85" s="15">
         <v>0</v>
@@ -8762,7 +8763,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D86" s="15">
         <v>0</v>
@@ -8781,7 +8782,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D87" s="15">
         <v>0</v>
@@ -8800,7 +8801,7 @@
         <v>81</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D88" s="18">
         <v>0</v>
@@ -8814,7 +8815,7 @@
         <v>82</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D89" s="38">
         <v>33</v>
@@ -8828,7 +8829,7 @@
         <v>83</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D90" s="40">
         <v>34</v>
@@ -8842,7 +8843,7 @@
         <v>84</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D91" s="38">
         <v>35</v>
@@ -8855,8 +8856,8 @@
       <c r="B92" s="42">
         <v>83</v>
       </c>
-      <c r="C92" s="45" t="s">
-        <v>383</v>
+      <c r="C92" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="D92" s="15">
         <v>0</v>
@@ -8889,19 +8890,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>12</v>
@@ -8915,10 +8916,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -8932,7 +8933,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -8949,10 +8950,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -8966,7 +8967,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -8983,10 +8984,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -9000,7 +9001,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -9017,10 +9018,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -9034,7 +9035,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -9051,10 +9052,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -9068,10 +9069,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -9085,7 +9086,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -9102,10 +9103,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -9119,10 +9120,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -9136,10 +9137,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -9153,7 +9154,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -9170,10 +9171,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -9187,7 +9188,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -9204,7 +9205,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -9221,10 +9222,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -9238,7 +9239,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -9255,7 +9256,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -9272,10 +9273,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -9289,10 +9290,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -9306,7 +9307,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -9323,10 +9324,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -9340,7 +9341,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -9357,7 +9358,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -9374,10 +9375,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
@@ -9394,7 +9395,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
@@ -9411,10 +9412,10 @@
         <v>16</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
@@ -9428,10 +9429,10 @@
         <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -9445,7 +9446,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="4">
         <v>96</v>
@@ -9462,10 +9463,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -9479,7 +9480,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -9496,10 +9497,10 @@
         <v>18</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -9513,10 +9514,10 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
@@ -9530,7 +9531,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -9547,10 +9548,10 @@
         <v>19</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
@@ -9564,10 +9565,10 @@
         <v>19</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -9581,7 +9582,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D41" s="4">
         <v>3</v>
@@ -9598,10 +9599,10 @@
         <v>20</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -9615,10 +9616,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -9632,7 +9633,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D44" s="4">
         <v>96</v>
@@ -9649,10 +9650,10 @@
         <v>21</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
@@ -9666,10 +9667,10 @@
         <v>21</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
@@ -9683,7 +9684,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -9700,10 +9701,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>211</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -9717,7 +9718,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -9734,10 +9735,10 @@
         <v>23</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -9751,10 +9752,10 @@
         <v>23</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -9768,7 +9769,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -9785,10 +9786,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -9802,10 +9803,10 @@
         <v>24</v>
       </c>
       <c r="C54" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>207</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -9819,7 +9820,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D55" s="4">
         <v>10</v>
@@ -9836,7 +9837,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -9853,7 +9854,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -9870,7 +9871,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D58" s="4">
         <v>74</v>
@@ -9887,7 +9888,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -9904,7 +9905,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -9921,7 +9922,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D61" s="4">
         <v>3</v>
@@ -9938,10 +9939,10 @@
         <v>31</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>197</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>198</v>
       </c>
       <c r="E62" s="4">
         <v>2</v>
@@ -9955,10 +9956,10 @@
         <v>32</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E63" s="4">
         <v>2</v>
@@ -9972,10 +9973,10 @@
         <v>32</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E64" s="4">
         <v>2</v>
@@ -9989,7 +9990,7 @@
         <v>33</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D65" s="38">
         <v>2</v>
@@ -10006,7 +10007,7 @@
         <v>34</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D66" s="38">
         <v>3</v>
@@ -10023,7 +10024,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D67" s="38">
         <v>4</v>
@@ -10042,7 +10043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A97" sqref="A97:E101"/>
     </sheetView>
@@ -10063,31 +10064,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -10098,7 +10099,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -10107,7 +10108,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10118,7 +10119,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -10127,7 +10128,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -10138,7 +10139,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
@@ -10147,10 +10148,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -10161,7 +10162,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D5" s="4">
         <v>75</v>
@@ -10179,7 +10180,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -10188,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -10199,7 +10200,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -10208,7 +10209,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -10219,7 +10220,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -10236,7 +10237,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -10253,7 +10254,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
@@ -10270,7 +10271,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
@@ -10287,7 +10288,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D12" s="4">
         <v>70</v>
@@ -10304,7 +10305,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D13" s="4">
         <v>50</v>
@@ -10321,7 +10322,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -10338,7 +10339,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D15" s="4">
         <v>150</v>
@@ -10355,7 +10356,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D16" s="4">
         <v>150</v>
@@ -10372,7 +10373,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -10389,7 +10390,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
@@ -10406,7 +10407,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19" s="4">
         <v>50</v>
@@ -10423,7 +10424,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -10440,7 +10441,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D21" s="4">
         <v>30</v>
@@ -10457,7 +10458,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D22" s="4">
         <v>50</v>
@@ -10474,7 +10475,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D23" s="4">
         <v>50</v>
@@ -10491,7 +10492,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -10508,7 +10509,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D25" s="4">
         <v>80</v>
@@ -10525,7 +10526,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D26" s="4">
         <v>50</v>
@@ -10542,7 +10543,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -10559,7 +10560,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" s="4">
         <v>250</v>
@@ -10576,7 +10577,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D29" s="4">
         <v>666</v>
@@ -10585,7 +10586,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -10596,7 +10597,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" s="4">
         <v>50</v>
@@ -10613,7 +10614,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D31" s="4">
         <v>80</v>
@@ -10630,7 +10631,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D32" s="4">
         <v>30</v>
@@ -10639,7 +10640,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -10650,7 +10651,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D33" s="4">
         <v>20</v>
@@ -10659,7 +10660,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -10670,7 +10671,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D34" s="4">
         <v>2000</v>
@@ -10679,7 +10680,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -10690,7 +10691,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" s="4">
         <v>1000</v>
@@ -10699,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -10710,7 +10711,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D36" s="4">
         <v>2000</v>
@@ -10719,7 +10720,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -10730,7 +10731,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D37" s="4">
         <v>2000</v>
@@ -10739,7 +10740,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -10750,7 +10751,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -10759,7 +10760,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -10770,7 +10771,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D39" s="4">
         <v>1000</v>
@@ -10779,7 +10780,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -10790,7 +10791,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D40" s="4">
         <v>5000</v>
@@ -10799,7 +10800,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -10810,7 +10811,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D41" s="4">
         <v>5000</v>
@@ -10819,7 +10820,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -10830,7 +10831,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D42" s="4">
         <v>8000</v>
@@ -10839,7 +10840,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -10850,7 +10851,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D43" s="4">
         <v>1000</v>
@@ -10859,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -10870,7 +10871,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D44" s="4">
         <v>20000</v>
@@ -10879,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -10890,7 +10891,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D45" s="4">
         <v>5000</v>
@@ -10899,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -10910,7 +10911,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D46" s="4">
         <v>10000</v>
@@ -10919,7 +10920,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -10930,7 +10931,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -10939,7 +10940,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -10950,7 +10951,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D48" s="4">
         <v>180</v>
@@ -10959,7 +10960,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -10970,7 +10971,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D49" s="4">
         <v>280</v>
@@ -10979,7 +10980,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -10990,7 +10991,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D50" s="4">
         <v>480</v>
@@ -10999,7 +11000,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -11010,7 +11011,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D51" s="4">
         <v>1800</v>
@@ -11019,7 +11020,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -11030,7 +11031,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D52" s="4">
         <v>500</v>
@@ -11039,7 +11040,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -11050,7 +11051,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D53" s="4">
         <v>200000</v>
@@ -11059,7 +11060,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -11070,7 +11071,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D54" s="4">
         <v>50000</v>
@@ -11087,7 +11088,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -11104,7 +11105,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D56" s="4">
         <v>1000</v>
@@ -11113,7 +11114,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -11124,7 +11125,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D57" s="4">
         <v>500</v>
@@ -11133,7 +11134,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -11144,7 +11145,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D58" s="4">
         <v>50</v>
@@ -11161,7 +11162,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D59" s="4">
         <v>200</v>
@@ -11178,7 +11179,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D60" s="4">
         <v>300</v>
@@ -11195,7 +11196,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D61" s="4">
         <v>1000</v>
@@ -11212,7 +11213,7 @@
         <v>70</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D62" s="4">
         <v>6666</v>
@@ -11229,7 +11230,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -11246,7 +11247,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -11263,7 +11264,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D65" s="4">
         <v>30000</v>
@@ -11280,7 +11281,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -11297,7 +11298,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -11314,7 +11315,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D68" s="4">
         <v>1000</v>
@@ -11323,7 +11324,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -11334,7 +11335,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -11351,7 +11352,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D70" s="4">
         <v>688</v>
@@ -11368,7 +11369,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D71" s="4">
         <v>1888</v>
@@ -11385,7 +11386,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" s="4">
         <v>3888</v>
@@ -11402,7 +11403,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D73" s="4">
         <v>8888</v>
@@ -11419,7 +11420,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="4">
         <v>16888</v>
@@ -11436,7 +11437,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D75" s="4">
         <v>22888</v>
@@ -11453,7 +11454,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="4">
         <v>36888</v>
@@ -11470,7 +11471,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="4">
         <v>48888</v>
@@ -11487,7 +11488,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D78" s="4">
         <v>88888</v>
@@ -11504,7 +11505,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D79" s="4">
         <v>128888</v>
@@ -11521,7 +11522,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D80" s="4">
         <v>158888</v>
@@ -11538,7 +11539,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D81" s="4">
         <v>188888</v>
@@ -11555,7 +11556,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D82" s="4">
         <v>288888</v>
@@ -11572,7 +11573,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D83" s="4">
         <v>388888</v>
@@ -11589,7 +11590,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D84" s="4">
         <v>5</v>
@@ -11606,7 +11607,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
@@ -11623,7 +11624,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D86" s="4">
         <v>10</v>
@@ -11640,7 +11641,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" s="4">
         <v>10</v>
@@ -11657,7 +11658,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -11674,7 +11675,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D89" s="4">
         <v>20000</v>
@@ -11691,7 +11692,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D90" s="15">
         <v>100</v>
@@ -11710,7 +11711,7 @@
         <v>95</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="15">
         <v>1000</v>
@@ -11729,7 +11730,7 @@
         <v>96</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D92" s="15">
         <v>500</v>
@@ -11748,7 +11749,7 @@
         <v>97</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D93" s="18">
         <v>1000</v>
@@ -11765,7 +11766,7 @@
         <v>98</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D94" s="40">
         <v>1000</v>
@@ -11782,7 +11783,7 @@
         <v>99</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D95" s="40">
         <v>5000</v>
@@ -11799,7 +11800,7 @@
         <v>100</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D96" s="40">
         <v>20000</v>
@@ -11816,7 +11817,7 @@
         <v>101</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D97" s="4">
         <v>100</v>
@@ -11833,7 +11834,7 @@
         <v>102</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D98" s="4">
         <v>1000</v>
@@ -11850,7 +11851,7 @@
         <v>103</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D99" s="4">
         <v>3000</v>
@@ -11867,7 +11868,7 @@
         <v>104</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D100" s="4">
         <v>5000</v>
@@ -11884,7 +11885,7 @@
         <v>105</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D101" s="42">
         <v>10000</v>
@@ -11916,82 +11917,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B1" t="s">
         <v>262</v>
-      </c>
-      <c r="B1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>269</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>271</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -12019,13 +12020,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>278</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>279</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -12035,50 +12036,50 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="43">
+        <v>148</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="C2" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
+        <v>158</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -12086,10 +12087,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -12097,57 +12098,57 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="B8" s="43" t="s">
-        <v>289</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>283</v>
+      <c r="C8" s="45" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
+        <v>159</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>290</v>
       </c>
-      <c r="B10" s="43" t="s">
-        <v>291</v>
-      </c>
-      <c r="C10" s="43">
+      <c r="C10" s="45">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
+        <v>162</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -12155,10 +12156,10 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -12166,10 +12167,10 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -12177,21 +12178,21 @@
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -12199,32 +12200,32 @@
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="C19" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -12232,39 +12233,39 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>306</v>
-      </c>
-      <c r="C21" s="44">
+        <v>167</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+        <v>306</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>309</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>310</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -12272,21 +12273,21 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>312</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -12294,32 +12295,32 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>317</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -12327,10 +12328,10 @@
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>319</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -12338,32 +12339,32 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>321</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>324</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -12371,32 +12372,32 @@
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="36" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>329</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -12404,21 +12405,21 @@
     </row>
     <row r="37" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>331</v>
-      </c>
       <c r="C37" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="38" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>332</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>333</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -12426,10 +12427,10 @@
     </row>
     <row r="39" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -12437,10 +12438,10 @@
     </row>
     <row r="40" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -12448,10 +12449,10 @@
     </row>
     <row r="41" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -12459,21 +12460,21 @@
     </row>
     <row r="42" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="43" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -28862,7 +28863,7 @@
     </row>
     <row r="44" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -45250,28 +45251,28 @@
     </row>
     <row r="45" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B45" s="45" t="s">
         <v>340</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>341</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>283</v>
+      <c r="C45" s="45" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="46" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
+        <v>341</v>
+      </c>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -45279,10 +45280,10 @@
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>346</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -45290,10 +45291,10 @@
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>348</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -45301,21 +45302,21 @@
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>350</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -45323,10 +45324,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>353</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>354</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -45334,10 +45335,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>355</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -45345,10 +45346,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -45356,10 +45357,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="385">
   <si>
     <t>id|任务id</t>
   </si>
@@ -679,9 +679,6 @@
   </si>
   <si>
     <t>5,30,60,85,240</t>
-  </si>
-  <si>
-    <t>73,74,75,76,77</t>
   </si>
   <si>
     <t>read_invite_msg</t>
@@ -1408,6 +1405,14 @@
     <t>新玩家捕鱼红包任务(深海寻宝)</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>73,74,75,76,77</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,102,103,104,105</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1667,7 +1672,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1954,9 +1959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76:B77"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4399,7 +4404,7 @@
         <v>122</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F68" s="24">
         <v>68</v>
@@ -4673,10 +4678,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>122</v>
@@ -4711,7 +4716,7 @@
         <v>133</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>122</v>
@@ -4848,13 +4853,13 @@
         <v>1</v>
       </c>
       <c r="C81" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="D81" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="E81" s="32" t="s">
         <v>360</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>364</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>361</v>
       </c>
       <c r="F81" s="14">
         <v>81</v>
@@ -4883,13 +4888,13 @@
         <v>1</v>
       </c>
       <c r="C82" s="39" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D82" s="38" t="s">
         <v>122</v>
       </c>
       <c r="E82" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F82" s="38">
         <v>82</v>
@@ -4918,10 +4923,10 @@
         <v>1</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D83" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E83" s="38" t="s">
         <v>122</v>
@@ -4953,10 +4958,10 @@
         <v>1</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D84" s="39" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E84" s="38" t="s">
         <v>122</v>
@@ -4988,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>14</v>
@@ -5026,9 +5031,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H87" sqref="H87"/>
+      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6846,8 +6851,8 @@
         <v>175</v>
       </c>
       <c r="G70" s="15"/>
-      <c r="H70" s="16" t="s">
-        <v>176</v>
+      <c r="H70" s="37" t="s">
+        <v>383</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>172</v>
@@ -6861,7 +6866,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D71" s="15">
         <v>70</v>
@@ -6888,7 +6893,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D72" s="15">
         <v>71</v>
@@ -6915,7 +6920,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D73" s="15">
         <v>72</v>
@@ -6942,7 +6947,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D74" s="15">
         <v>73</v>
@@ -7015,7 +7020,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D77" s="15">
         <v>76</v>
@@ -7127,7 +7132,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D81" s="15">
         <v>80</v>
@@ -7143,7 +7148,7 @@
         <v>96</v>
       </c>
       <c r="I81" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -7154,7 +7159,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D82" s="18">
         <v>81</v>
@@ -7172,7 +7177,7 @@
         <v>97</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -7271,14 +7276,14 @@
         <v>0</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G86" s="42"/>
-      <c r="H86" s="44">
-        <v>101102103104105</v>
+      <c r="H86" s="44" t="s">
+        <v>384</v>
       </c>
       <c r="I86" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -7293,7 +7298,7 @@
   <dimension ref="A1:I92"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7308,19 +7313,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -8474,7 +8479,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D69" s="15">
         <v>28</v>
@@ -8508,7 +8513,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
@@ -8525,7 +8530,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D72" s="15">
         <v>0</v>
@@ -8542,7 +8547,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
@@ -8559,7 +8564,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D74" s="15">
         <v>0</v>
@@ -8678,7 +8683,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D81" s="15">
         <v>0</v>
@@ -8695,7 +8700,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D82" s="15">
         <v>0</v>
@@ -8712,7 +8717,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D83" s="15">
         <v>0</v>
@@ -8729,7 +8734,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D84" s="15">
         <v>0</v>
@@ -8763,7 +8768,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D86" s="15">
         <v>0</v>
@@ -8782,7 +8787,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D87" s="15">
         <v>0</v>
@@ -8801,7 +8806,7 @@
         <v>81</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D88" s="18">
         <v>0</v>
@@ -8815,7 +8820,7 @@
         <v>82</v>
       </c>
       <c r="C89" s="41" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D89" s="38">
         <v>33</v>
@@ -8829,7 +8834,7 @@
         <v>83</v>
       </c>
       <c r="C90" s="41" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D90" s="40">
         <v>34</v>
@@ -8843,7 +8848,7 @@
         <v>84</v>
       </c>
       <c r="C91" s="41" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D91" s="38">
         <v>35</v>
@@ -8854,10 +8859,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="42">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D92" s="15">
         <v>0</v>
@@ -8873,7 +8878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
@@ -8890,19 +8895,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>195</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>12</v>
@@ -8916,10 +8921,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -8933,7 +8938,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -8950,10 +8955,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -8967,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -8984,10 +8989,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -9001,7 +9006,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -9018,10 +9023,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -9035,7 +9040,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -9052,10 +9057,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -9069,10 +9074,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -9086,7 +9091,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -9103,10 +9108,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -9120,10 +9125,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -9137,10 +9142,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -9154,7 +9159,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -9171,10 +9176,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -9188,7 +9193,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -9205,7 +9210,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -9222,10 +9227,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -9239,7 +9244,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -9256,7 +9261,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -9273,10 +9278,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -9290,10 +9295,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -9307,7 +9312,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -9324,10 +9329,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -9341,7 +9346,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -9358,7 +9363,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -9375,10 +9380,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
@@ -9395,7 +9400,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
@@ -9412,10 +9417,10 @@
         <v>16</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
@@ -9429,10 +9434,10 @@
         <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -9446,7 +9451,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D33" s="4">
         <v>96</v>
@@ -9463,10 +9468,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -9480,7 +9485,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -9497,10 +9502,10 @@
         <v>18</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -9514,10 +9519,10 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
@@ -9531,7 +9536,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -9548,10 +9553,10 @@
         <v>19</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
@@ -9565,10 +9570,10 @@
         <v>19</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -9582,7 +9587,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D41" s="4">
         <v>3</v>
@@ -9599,10 +9604,10 @@
         <v>20</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -9616,10 +9621,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -9633,7 +9638,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D44" s="4">
         <v>96</v>
@@ -9650,10 +9655,10 @@
         <v>21</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
@@ -9667,10 +9672,10 @@
         <v>21</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
@@ -9684,7 +9689,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -9701,10 +9706,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -9718,7 +9723,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -9735,10 +9740,10 @@
         <v>23</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -9752,10 +9757,10 @@
         <v>23</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -9769,7 +9774,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -9786,10 +9791,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -9803,10 +9808,10 @@
         <v>24</v>
       </c>
       <c r="C54" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -9820,7 +9825,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D55" s="4">
         <v>10</v>
@@ -9837,7 +9842,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -9854,7 +9859,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -9871,7 +9876,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D58" s="4">
         <v>74</v>
@@ -9888,7 +9893,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -9905,7 +9910,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -9922,7 +9927,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D61" s="4">
         <v>3</v>
@@ -9939,10 +9944,10 @@
         <v>31</v>
       </c>
       <c r="C62" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="E62" s="4">
         <v>2</v>
@@ -9956,10 +9961,10 @@
         <v>32</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E63" s="4">
         <v>2</v>
@@ -9973,10 +9978,10 @@
         <v>32</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D64" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E64" s="4">
         <v>2</v>
@@ -9990,7 +9995,7 @@
         <v>33</v>
       </c>
       <c r="C65" s="41" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D65" s="38">
         <v>2</v>
@@ -10007,7 +10012,7 @@
         <v>34</v>
       </c>
       <c r="C66" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D66" s="38">
         <v>3</v>
@@ -10024,7 +10029,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D67" s="38">
         <v>4</v>
@@ -10045,7 +10050,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97:E101"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -10064,31 +10069,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -10099,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -10108,7 +10113,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -10119,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -10128,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -10139,7 +10144,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
@@ -10148,10 +10153,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -10162,7 +10167,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D5" s="4">
         <v>75</v>
@@ -10180,7 +10185,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -10189,7 +10194,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -10200,7 +10205,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -10209,7 +10214,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -10220,7 +10225,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -10237,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -10254,7 +10259,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
@@ -10271,7 +10276,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
@@ -10288,7 +10293,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D12" s="4">
         <v>70</v>
@@ -10305,7 +10310,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D13" s="4">
         <v>50</v>
@@ -10322,7 +10327,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -10339,7 +10344,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D15" s="4">
         <v>150</v>
@@ -10356,7 +10361,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D16" s="4">
         <v>150</v>
@@ -10373,7 +10378,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -10390,7 +10395,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
@@ -10407,7 +10412,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D19" s="4">
         <v>50</v>
@@ -10424,7 +10429,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -10441,7 +10446,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" s="4">
         <v>30</v>
@@ -10458,7 +10463,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="4">
         <v>50</v>
@@ -10475,7 +10480,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D23" s="4">
         <v>50</v>
@@ -10492,7 +10497,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -10509,7 +10514,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D25" s="4">
         <v>80</v>
@@ -10526,7 +10531,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D26" s="4">
         <v>50</v>
@@ -10543,7 +10548,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -10560,7 +10565,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D28" s="4">
         <v>250</v>
@@ -10577,7 +10582,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D29" s="4">
         <v>666</v>
@@ -10586,7 +10591,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -10597,7 +10602,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D30" s="4">
         <v>50</v>
@@ -10614,7 +10619,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D31" s="4">
         <v>80</v>
@@ -10631,7 +10636,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D32" s="4">
         <v>30</v>
@@ -10640,7 +10645,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -10651,7 +10656,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D33" s="4">
         <v>20</v>
@@ -10660,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -10671,7 +10676,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D34" s="4">
         <v>2000</v>
@@ -10680,7 +10685,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -10691,7 +10696,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D35" s="4">
         <v>1000</v>
@@ -10700,7 +10705,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -10711,7 +10716,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D36" s="4">
         <v>2000</v>
@@ -10720,7 +10725,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -10731,7 +10736,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D37" s="4">
         <v>2000</v>
@@ -10740,7 +10745,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -10751,7 +10756,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -10760,7 +10765,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -10771,7 +10776,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" s="4">
         <v>1000</v>
@@ -10780,7 +10785,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -10791,7 +10796,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D40" s="4">
         <v>5000</v>
@@ -10800,7 +10805,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -10811,7 +10816,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D41" s="4">
         <v>5000</v>
@@ -10820,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -10831,7 +10836,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D42" s="4">
         <v>8000</v>
@@ -10840,7 +10845,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -10851,7 +10856,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D43" s="4">
         <v>1000</v>
@@ -10860,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -10871,7 +10876,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D44" s="4">
         <v>20000</v>
@@ -10880,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -10891,7 +10896,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D45" s="4">
         <v>5000</v>
@@ -10900,7 +10905,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -10911,7 +10916,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D46" s="4">
         <v>10000</v>
@@ -10920,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -10931,7 +10936,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -10940,7 +10945,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -10951,7 +10956,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D48" s="4">
         <v>180</v>
@@ -10960,7 +10965,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -10971,7 +10976,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D49" s="4">
         <v>280</v>
@@ -10980,7 +10985,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -10991,7 +10996,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D50" s="4">
         <v>480</v>
@@ -11000,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -11011,7 +11016,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D51" s="4">
         <v>1800</v>
@@ -11020,7 +11025,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -11031,7 +11036,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D52" s="4">
         <v>500</v>
@@ -11040,7 +11045,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -11051,7 +11056,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" s="4">
         <v>200000</v>
@@ -11060,7 +11065,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -11071,7 +11076,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D54" s="4">
         <v>50000</v>
@@ -11088,7 +11093,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -11105,7 +11110,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D56" s="4">
         <v>1000</v>
@@ -11114,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -11125,7 +11130,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D57" s="4">
         <v>500</v>
@@ -11134,7 +11139,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -11145,7 +11150,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D58" s="4">
         <v>50</v>
@@ -11162,7 +11167,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D59" s="4">
         <v>200</v>
@@ -11179,7 +11184,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D60" s="4">
         <v>300</v>
@@ -11196,7 +11201,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D61" s="4">
         <v>1000</v>
@@ -11213,7 +11218,7 @@
         <v>70</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D62" s="4">
         <v>6666</v>
@@ -11230,7 +11235,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -11247,7 +11252,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -11264,7 +11269,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D65" s="4">
         <v>30000</v>
@@ -11281,7 +11286,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -11298,7 +11303,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -11315,7 +11320,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D68" s="4">
         <v>1000</v>
@@ -11324,7 +11329,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -11335,7 +11340,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -11352,7 +11357,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D70" s="4">
         <v>688</v>
@@ -11369,7 +11374,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71" s="4">
         <v>1888</v>
@@ -11386,7 +11391,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72" s="4">
         <v>3888</v>
@@ -11403,7 +11408,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="4">
         <v>8888</v>
@@ -11420,7 +11425,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="4">
         <v>16888</v>
@@ -11437,7 +11442,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="4">
         <v>22888</v>
@@ -11454,7 +11459,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="4">
         <v>36888</v>
@@ -11471,7 +11476,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D77" s="4">
         <v>48888</v>
@@ -11488,7 +11493,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D78" s="4">
         <v>88888</v>
@@ -11505,7 +11510,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D79" s="4">
         <v>128888</v>
@@ -11522,7 +11527,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D80" s="4">
         <v>158888</v>
@@ -11539,7 +11544,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D81" s="4">
         <v>188888</v>
@@ -11556,7 +11561,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D82" s="4">
         <v>288888</v>
@@ -11573,7 +11578,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D83" s="4">
         <v>388888</v>
@@ -11590,7 +11595,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D84" s="4">
         <v>5</v>
@@ -11607,7 +11612,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
@@ -11624,7 +11629,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D86" s="4">
         <v>10</v>
@@ -11641,7 +11646,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D87" s="4">
         <v>10</v>
@@ -11658,7 +11663,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -11675,7 +11680,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D89" s="4">
         <v>20000</v>
@@ -11692,7 +11697,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D90" s="15">
         <v>100</v>
@@ -11711,7 +11716,7 @@
         <v>95</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="15">
         <v>1000</v>
@@ -11730,7 +11735,7 @@
         <v>96</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D92" s="15">
         <v>500</v>
@@ -11749,7 +11754,7 @@
         <v>97</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D93" s="18">
         <v>1000</v>
@@ -11766,7 +11771,7 @@
         <v>98</v>
       </c>
       <c r="C94" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D94" s="40">
         <v>1000</v>
@@ -11783,7 +11788,7 @@
         <v>99</v>
       </c>
       <c r="C95" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D95" s="40">
         <v>5000</v>
@@ -11800,7 +11805,7 @@
         <v>100</v>
       </c>
       <c r="C96" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D96" s="40">
         <v>20000</v>
@@ -11817,7 +11822,7 @@
         <v>101</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D97" s="4">
         <v>100</v>
@@ -11834,7 +11839,7 @@
         <v>102</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D98" s="4">
         <v>1000</v>
@@ -11851,7 +11856,7 @@
         <v>103</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D99" s="4">
         <v>3000</v>
@@ -11868,7 +11873,7 @@
         <v>104</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D100" s="4">
         <v>5000</v>
@@ -11885,7 +11890,7 @@
         <v>105</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D101" s="42">
         <v>10000</v>
@@ -11917,10 +11922,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
         <v>261</v>
-      </c>
-      <c r="B1" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -11928,7 +11933,7 @@
         <v>156</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -11936,7 +11941,7 @@
         <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -11944,55 +11949,55 @@
         <v>148</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -12020,13 +12025,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -12039,7 +12044,7 @@
         <v>148</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" s="45">
         <v>1</v>
@@ -12054,24 +12059,24 @@
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>284</v>
-      </c>
       <c r="C5" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -12079,7 +12084,7 @@
         <v>156</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -12090,7 +12095,7 @@
         <v>157</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -12098,13 +12103,13 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="45" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>288</v>
-      </c>
       <c r="C8" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -12116,10 +12121,10 @@
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="45" t="s">
         <v>289</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>290</v>
       </c>
       <c r="C10" s="45">
         <v>1</v>
@@ -12137,18 +12142,18 @@
         <v>163</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -12156,10 +12161,10 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -12167,10 +12172,10 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -12181,18 +12186,18 @@
         <v>161</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>299</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>300</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -12203,21 +12208,21 @@
         <v>173</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>303</v>
-      </c>
       <c r="C19" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -12225,7 +12230,7 @@
         <v>166</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -12236,7 +12241,7 @@
         <v>167</v>
       </c>
       <c r="B21" s="46" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C21" s="46">
         <v>1</v>
@@ -12244,28 +12249,28 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>308</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>309</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -12273,13 +12278,13 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>311</v>
-      </c>
       <c r="C25" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -12287,7 +12292,7 @@
         <v>168</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -12295,32 +12300,32 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>316</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -12328,10 +12333,10 @@
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>317</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -12339,32 +12344,32 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>320</v>
-      </c>
       <c r="C31" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>323</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -12372,32 +12377,32 @@
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>325</v>
-      </c>
       <c r="C34" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>327</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>328</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -12405,21 +12410,21 @@
     </row>
     <row r="37" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>330</v>
-      </c>
       <c r="C37" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>332</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -12427,10 +12432,10 @@
     </row>
     <row r="39" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -12438,10 +12443,10 @@
     </row>
     <row r="40" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -12449,10 +12454,10 @@
     </row>
     <row r="41" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -12463,18 +12468,18 @@
         <v>174</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -45251,28 +45256,28 @@
     </row>
     <row r="45" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B45" s="45" t="s">
         <v>339</v>
       </c>
-      <c r="B45" s="45" t="s">
-        <v>340</v>
-      </c>
       <c r="C45" s="45" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B46" s="45"/>
       <c r="C46" s="45"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>343</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -45280,10 +45285,10 @@
     </row>
     <row r="48" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>345</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -45291,10 +45296,10 @@
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>346</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>347</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -45302,21 +45307,21 @@
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B50" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="C50" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>350</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>351</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -45324,10 +45329,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>352</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>353</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -45335,10 +45340,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>355</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -45346,10 +45351,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>357</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -45357,10 +45362,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>359</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="386">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1413,6 +1413,10 @@
     <t>101,102,103,104,105</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>is_auto_get_award|是否自动领奖 1自动领奖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5031,9 +5035,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B86" sqref="B86"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5075,7 +5079,9 @@
       <c r="I1" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -7124,7 +7130,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -7151,7 +7157,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -7180,7 +7186,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" s="38">
         <v>82</v>
       </c>
@@ -7207,7 +7213,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="38">
         <v>83</v>
       </c>
@@ -7234,7 +7240,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="38">
         <v>84</v>
       </c>
@@ -7261,7 +7267,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -7284,6 +7290,9 @@
       </c>
       <c r="I86" s="43" t="s">
         <v>379</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8878,7 +8887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
@@ -45373,16 +45382,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1963,9 +1963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
+      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4889,7 +4889,7 @@
         <v>82</v>
       </c>
       <c r="B82" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" s="39" t="s">
         <v>370</v>
@@ -4924,7 +4924,7 @@
         <v>83</v>
       </c>
       <c r="B83" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" s="39" t="s">
         <v>368</v>
@@ -4959,7 +4959,7 @@
         <v>84</v>
       </c>
       <c r="B84" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" s="39" t="s">
         <v>369</v>
@@ -5035,7 +5035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
@@ -45382,16 +45382,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TTHLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="386">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1394,10 +1394,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>10000,30000,50000,80000,1000000,-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>xiyou_task_money</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1410,11 +1406,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>101,102,103,104,105</t>
+    <t>is_auto_get_award|是否自动领奖 1自动领奖</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>is_auto_get_award|是否自动领奖 1自动领奖</t>
+    <t>800000,2500000,12500000,25000000,75000000,230000000,-1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>101,102,103,104,105,106,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1555,7 +1555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1677,6 +1677,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1963,9 +1966,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C83" sqref="C83"/>
+      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4682,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>364</v>
@@ -5036,8 +5039,8 @@
   <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5080,7 +5083,7 @@
         <v>147</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K1" s="21"/>
     </row>
@@ -6858,7 +6861,7 @@
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="37" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>172</v>
@@ -7282,11 +7285,11 @@
         <v>0</v>
       </c>
       <c r="F86" s="43" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="G86" s="42"/>
       <c r="H86" s="44" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I86" s="43" t="s">
         <v>379</v>
@@ -8871,7 +8874,7 @@
         <v>85</v>
       </c>
       <c r="C92" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D92" s="15">
         <v>0</v>
@@ -10055,11 +10058,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11834,7 +11837,7 @@
         <v>222</v>
       </c>
       <c r="D97" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E97" s="4">
         <v>1</v>
@@ -11851,7 +11854,7 @@
         <v>222</v>
       </c>
       <c r="D98" s="4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E98" s="4">
         <v>1</v>
@@ -11868,7 +11871,7 @@
         <v>222</v>
       </c>
       <c r="D99" s="4">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="E99" s="4">
         <v>1</v>
@@ -11885,7 +11888,7 @@
         <v>222</v>
       </c>
       <c r="D100" s="4">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E100" s="4">
         <v>1</v>
@@ -11902,9 +11905,26 @@
         <v>222</v>
       </c>
       <c r="D101" s="42">
+        <v>3000</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+      <c r="B102" s="45">
+        <v>106</v>
+      </c>
+      <c r="C102" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D102" s="45">
         <v>10000</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E102" s="45">
         <v>1</v>
       </c>
     </row>
@@ -12052,10 +12072,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="45">
+      <c r="C2" s="46">
         <v>1</v>
       </c>
     </row>
@@ -12063,8 +12083,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -12114,10 +12134,10 @@
       <c r="A8" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>281</v>
       </c>
     </row>
@@ -12125,17 +12145,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="C10" s="45">
+      <c r="C10" s="46">
         <v>1</v>
       </c>
     </row>
@@ -12143,8 +12163,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -12249,10 +12269,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="47" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="46">
+      <c r="C21" s="47">
         <v>1</v>
       </c>
     </row>
@@ -12260,8 +12280,8 @@
       <c r="A22" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -45267,10 +45287,10 @@
       <c r="A45" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="46" t="s">
         <v>281</v>
       </c>
     </row>
@@ -45278,8 +45298,8 @@
       <c r="A46" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
@@ -45382,16 +45402,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="391">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1417,6 +1417,122 @@
     <t>101,102,103,104,105,106,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>buyu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_challenge_task1</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu_3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_challenge_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu_3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_challenge_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕鱼挑战任务4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>buyu_3d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_challenge_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1555,7 +1671,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1681,6 +1797,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1964,11 +2089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5027,6 +5152,146 @@
         <v>-1</v>
       </c>
     </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
+        <v>86</v>
+      </c>
+      <c r="B86" s="11">
+        <v>1</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="48" t="s">
+        <v>386</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F86" s="14">
+        <v>86</v>
+      </c>
+      <c r="G86" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="11">
+        <v>1</v>
+      </c>
+      <c r="I86" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J86" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K86" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>87</v>
+      </c>
+      <c r="B87" s="11">
+        <v>1</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D87" s="48" t="s">
+        <v>387</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F87" s="14">
+        <v>87</v>
+      </c>
+      <c r="G87" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="11">
+        <v>1</v>
+      </c>
+      <c r="I87" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J87" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K87" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>88</v>
+      </c>
+      <c r="B88" s="11">
+        <v>1</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D88" s="48" t="s">
+        <v>388</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F88" s="14">
+        <v>88</v>
+      </c>
+      <c r="G88" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="11">
+        <v>1</v>
+      </c>
+      <c r="I88" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J88" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K88" s="11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>89</v>
+      </c>
+      <c r="B89" s="11">
+        <v>1</v>
+      </c>
+      <c r="C89" s="48" t="s">
+        <v>389</v>
+      </c>
+      <c r="D89" s="48" t="s">
+        <v>390</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89" s="11">
+        <v>89</v>
+      </c>
+      <c r="G89" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="11">
+        <v>1</v>
+      </c>
+      <c r="I89" s="11">
+        <v>946677600</v>
+      </c>
+      <c r="J89" s="11">
+        <v>32503651200</v>
+      </c>
+      <c r="K89" s="11">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5036,11 +5301,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H86" sqref="H86"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95:C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7271,14 +7536,14 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
+      <c r="A86" s="14">
         <v>85</v>
       </c>
-      <c r="B86" s="42">
+      <c r="B86" s="14">
         <v>85</v>
       </c>
       <c r="C86" s="42"/>
-      <c r="D86" s="42">
+      <c r="D86" s="15">
         <v>85</v>
       </c>
       <c r="E86" s="42">
@@ -7296,6 +7561,106 @@
       </c>
       <c r="J86">
         <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87" s="14">
+        <v>86</v>
+      </c>
+      <c r="B87" s="14">
+        <v>86</v>
+      </c>
+      <c r="C87" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D87" s="15">
+        <v>86</v>
+      </c>
+      <c r="E87" s="46">
+        <v>0</v>
+      </c>
+      <c r="F87" s="46">
+        <v>99999</v>
+      </c>
+      <c r="G87" s="46"/>
+      <c r="H87" s="46"/>
+      <c r="I87" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A88" s="14">
+        <v>87</v>
+      </c>
+      <c r="B88" s="14">
+        <v>87</v>
+      </c>
+      <c r="C88" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="15">
+        <v>87</v>
+      </c>
+      <c r="E88" s="46">
+        <v>0</v>
+      </c>
+      <c r="F88" s="46">
+        <v>99999</v>
+      </c>
+      <c r="G88" s="46"/>
+      <c r="H88" s="46"/>
+      <c r="I88" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A89" s="14">
+        <v>88</v>
+      </c>
+      <c r="B89" s="14">
+        <v>88</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89" s="15">
+        <v>88</v>
+      </c>
+      <c r="E89" s="46">
+        <v>0</v>
+      </c>
+      <c r="F89" s="46">
+        <v>99999</v>
+      </c>
+      <c r="G89" s="46"/>
+      <c r="H89" s="46"/>
+      <c r="I89" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A90" s="14">
+        <v>89</v>
+      </c>
+      <c r="B90" s="14">
+        <v>89</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="15">
+        <v>89</v>
+      </c>
+      <c r="E90" s="47">
+        <v>0</v>
+      </c>
+      <c r="F90" s="47">
+        <v>99999</v>
+      </c>
+      <c r="G90" s="47"/>
+      <c r="H90" s="47"/>
+      <c r="I90" s="47" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -7307,10 +7672,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I92"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G98" sqref="G98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8880,6 +9245,71 @@
         <v>0</v>
       </c>
     </row>
+    <row r="93" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="15">
+        <v>92</v>
+      </c>
+      <c r="B93" s="15">
+        <v>86</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="15">
+        <v>0</v>
+      </c>
+      <c r="E93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+    </row>
+    <row r="94" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="15">
+        <v>87</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="15">
+        <v>0</v>
+      </c>
+      <c r="E94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+    </row>
+    <row r="95" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+      <c r="B95" s="15">
+        <v>88</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0</v>
+      </c>
+      <c r="E95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4">
+        <v>89</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8891,7 +9321,7 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
@@ -10060,7 +10490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
@@ -12072,10 +12502,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="49" t="s">
         <v>278</v>
       </c>
-      <c r="C2" s="46">
+      <c r="C2" s="49">
         <v>1</v>
       </c>
     </row>
@@ -12083,8 +12513,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -12134,10 +12564,10 @@
       <c r="A8" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="49" t="s">
         <v>287</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="49" t="s">
         <v>281</v>
       </c>
     </row>
@@ -12145,17 +12575,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="49" t="s">
         <v>289</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10" s="49">
         <v>1</v>
       </c>
     </row>
@@ -12163,8 +12593,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -12269,10 +12699,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="50" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="47">
+      <c r="C21" s="50">
         <v>1</v>
       </c>
     </row>
@@ -12280,8 +12710,8 @@
       <c r="A22" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -45287,10 +45717,10 @@
       <c r="A45" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B45" s="46" t="s">
+      <c r="B45" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="49" t="s">
         <v>281</v>
       </c>
     </row>
@@ -45298,8 +45728,8 @@
       <c r="A46" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B46" s="46"/>
-      <c r="C46" s="46"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="397">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1546,6 +1546,18 @@
     <t>jing_bi</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>all_return_gift_lb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_return_gift_lb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>all_return_gift_lb</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1696,7 +1708,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1866,6 +1878,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2145,9 +2160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F78" sqref="F78"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4939,8 +4954,8 @@
       <c r="D78" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="50" t="s">
-        <v>37</v>
+      <c r="E78" s="62" t="s">
+        <v>394</v>
       </c>
       <c r="F78" s="49">
         <v>78</v>
@@ -4974,8 +4989,8 @@
       <c r="D79" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="E79" s="50" t="s">
-        <v>37</v>
+      <c r="E79" s="62" t="s">
+        <v>395</v>
       </c>
       <c r="F79" s="49">
         <v>79</v>
@@ -5009,8 +5024,8 @@
       <c r="D80" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="E80" s="50" t="s">
-        <v>37</v>
+      <c r="E80" s="62" t="s">
+        <v>396</v>
       </c>
       <c r="F80" s="49">
         <v>80</v>
@@ -5357,9 +5372,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F81" sqref="F81"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46074,16 +46089,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2223,9 +2223,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90:F92"/>
+      <selection pane="bottomLeft" activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5030,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="49">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="J78" s="49">
         <v>32503651200</v>
@@ -5065,7 +5065,7 @@
         <v>1</v>
       </c>
       <c r="I79" s="49">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="J79" s="49">
         <v>32503651200</v>
@@ -5100,7 +5100,7 @@
         <v>1</v>
       </c>
       <c r="I80" s="49">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="J80" s="49">
         <v>32503651200</v>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="49">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="J90" s="49">
         <v>32503651200</v>
@@ -5485,7 +5485,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="49">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="J91" s="49">
         <v>32503651200</v>
@@ -5520,7 +5520,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="49">
-        <v>946677600</v>
+        <v>946656000</v>
       </c>
       <c r="J92" s="49">
         <v>32503651200</v>
@@ -5540,9 +5540,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H92" sqref="H92"/>
+      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -46478,16 +46478,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="407">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1341,10 +1341,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_award</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>buyu_3d_spend</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1572,23 +1568,6 @@
   </si>
   <si>
     <r>
-      <t>sczd_all_return_task1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_cjj</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>sczd_all_return_task2</t>
     </r>
     <r>
@@ -1627,6 +1606,35 @@
   </si>
   <si>
     <t>prop_hammer_1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>sczd_all_return_task1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_cjj</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2233,7 +2241,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B57" sqref="B57:B60"/>
+      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4950,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>360</v>
@@ -5026,7 +5034,7 @@
         <v>135</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F78" s="49">
         <v>78</v>
@@ -5061,7 +5069,7 @@
         <v>137</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F79" s="49">
         <v>79</v>
@@ -5096,7 +5104,7 @@
         <v>139</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F80" s="49">
         <v>80</v>
@@ -5265,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>14</v>
@@ -5303,7 +5311,7 @@
         <v>108</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>110</v>
@@ -5338,7 +5346,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>110</v>
@@ -5373,7 +5381,7 @@
         <v>113</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>110</v>
@@ -5405,10 +5413,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="47" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89" s="47" t="s">
         <v>385</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>386</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>110</v>
@@ -5440,13 +5448,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D90" s="60" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F90" s="49">
         <v>90</v>
@@ -5475,13 +5483,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D91" s="60" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F91" s="49">
         <v>91</v>
@@ -5510,13 +5518,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D92" s="60" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F92" s="49">
         <v>92</v>
@@ -5548,9 +5556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H97" sqref="H97"/>
+      <selection pane="bottomLeft" activeCell="D81" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5593,7 +5601,7 @@
         <v>147</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K1" s="21"/>
     </row>
@@ -7371,7 +7379,7 @@
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I70" s="16" t="s">
         <v>172</v>
@@ -7783,14 +7791,14 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -7974,10 +7982,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:D65"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9328,7 +9336,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -9345,7 +9353,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9473,244 +9481,180 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="8">
         <v>87</v>
       </c>
-      <c r="B88" s="15">
-        <v>80</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="D88" s="15">
+      <c r="B88" s="18">
+        <v>81</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="18">
         <v>0</v>
       </c>
-      <c r="E88" s="15"/>
-      <c r="H88" s="15"/>
-      <c r="I88" s="15"/>
-    </row>
-    <row r="89" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="15">
-        <v>80</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="D89" s="15">
-        <v>0</v>
-      </c>
-      <c r="E89" s="15"/>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-    </row>
-    <row r="90" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="39">
+        <v>82</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="D89" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="15">
-        <v>80</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D90" s="15">
-        <v>0</v>
-      </c>
-      <c r="E90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-    </row>
-    <row r="91" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="39">
+        <v>83</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="D90" s="39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="15">
-        <v>80</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="D91" s="15">
-        <v>0</v>
-      </c>
-      <c r="E91" s="15"/>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-    </row>
-    <row r="92" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="39">
+        <v>84</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D91" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" s="8">
         <v>91</v>
       </c>
-      <c r="B92" s="15">
-        <v>80</v>
-      </c>
-      <c r="C92" s="36" t="s">
-        <v>369</v>
+      <c r="B92" s="41">
+        <v>85</v>
+      </c>
+      <c r="C92" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="D92" s="15">
         <v>0</v>
       </c>
-      <c r="E92" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
     </row>
     <row r="93" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" s="15">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="D93" s="15">
         <v>0</v>
       </c>
-      <c r="E93" s="15">
-        <v>0.5</v>
-      </c>
+      <c r="E93" s="15"/>
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="18">
-        <v>81</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D94" s="18">
+      <c r="B94" s="15">
+        <v>87</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+    </row>
+    <row r="95" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="39">
-        <v>82</v>
-      </c>
-      <c r="C95" s="40" t="s">
-        <v>372</v>
-      </c>
-      <c r="D95" s="37">
-        <v>33</v>
-      </c>
+      <c r="B95" s="15">
+        <v>88</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="15">
+        <v>0</v>
+      </c>
+      <c r="E95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" s="8">
         <v>95</v>
       </c>
-      <c r="B96" s="39">
-        <v>83</v>
-      </c>
-      <c r="C96" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D96" s="39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="8">
+      <c r="B96" s="4">
+        <v>89</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="39">
-        <v>84</v>
-      </c>
-      <c r="C97" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D97" s="37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="8">
+      <c r="B97" s="4">
+        <v>90</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>404</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="41">
-        <v>85</v>
+      <c r="B98" s="4">
+        <v>91</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>376</v>
-      </c>
-      <c r="D98" s="15">
+        <v>405</v>
+      </c>
+      <c r="D98" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="8">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="15">
-        <v>86</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D99" s="15">
-        <v>0</v>
-      </c>
-      <c r="E99" s="15"/>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-    </row>
-    <row r="100" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="8">
-        <v>99</v>
-      </c>
-      <c r="B100" s="15">
-        <v>87</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D100" s="15">
-        <v>0</v>
-      </c>
-      <c r="E100" s="15"/>
-      <c r="H100" s="15"/>
-      <c r="I100" s="15"/>
-    </row>
-    <row r="101" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="8">
-        <v>100</v>
-      </c>
-      <c r="B101" s="15">
-        <v>88</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D101" s="15">
-        <v>0</v>
-      </c>
-      <c r="E101" s="15"/>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
-        <v>101</v>
-      </c>
-      <c r="B102" s="4">
-        <v>89</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="D102" s="15">
+      <c r="B99" s="4">
+        <v>92</v>
+      </c>
+      <c r="C99" s="42" t="s">
+        <v>406</v>
+      </c>
+      <c r="D99" s="11">
         <v>0</v>
       </c>
     </row>
@@ -10844,7 +10788,7 @@
         <v>33</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D65" s="37">
         <v>2</v>
@@ -10897,9 +10841,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C115" sqref="C115"/>
+      <selection pane="bottomLeft" activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12084,7 +12028,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -12101,7 +12045,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -12135,7 +12079,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -12152,7 +12096,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -12189,7 +12133,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -12512,7 +12456,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -12546,7 +12490,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D90" s="57">
         <v>100</v>
@@ -12565,7 +12509,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D91" s="57">
         <v>1</v>
@@ -12584,7 +12528,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D92" s="57">
         <v>100</v>
@@ -12603,7 +12547,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D93" s="57">
         <v>40000</v>
@@ -12622,7 +12566,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D94" s="57">
         <v>1</v>
@@ -12641,7 +12585,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D95" s="57">
         <v>220</v>
@@ -12660,7 +12604,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D96" s="57">
         <v>50000</v>
@@ -12679,7 +12623,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D97" s="57">
         <v>1</v>
@@ -12868,7 +12812,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D108" s="57">
         <v>100</v>
@@ -12887,7 +12831,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D109" s="57">
         <v>1</v>
@@ -12906,7 +12850,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D110" s="57">
         <v>100</v>
@@ -12925,7 +12869,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D111" s="57">
         <v>40000</v>
@@ -12944,7 +12888,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D112" s="57">
         <v>1</v>
@@ -12963,7 +12907,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D113" s="57">
         <v>220</v>
@@ -12982,7 +12926,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D114" s="57">
         <v>50000</v>
@@ -13001,7 +12945,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D115" s="57">
         <v>1</v>
@@ -46486,16 +46430,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -5556,9 +5556,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D81" sqref="D1:D1048576"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="C91" s="51"/>
       <c r="D91" s="8">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="C92" s="51"/>
       <c r="D92" s="8">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8">
@@ -7959,7 +7959,7 @@
       </c>
       <c r="C93" s="51"/>
       <c r="D93" s="8">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8">
@@ -7984,7 +7984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
@@ -46430,16 +46430,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="419">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1394,10 +1394,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>800000,2500000,12500000,25000000,75000000,230000000,-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>101,102,103,104,105,106,</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1695,36 +1691,10 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>or</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <t>8000000,25000000,125000000,250000000,750000000,2300000000,-1</t>
   </si>
   <si>
-    <t>8000000,25000000,125000000,250000000,750000000,2300000000,-1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>116,117,118,119,120,121,</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiyou_task_money</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>shop_gold_sum</t>
+    <t>xiaoxiaole_xiyou_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1877,7 +1847,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2044,9 +2014,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2330,11 +2297,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5127,7 +5094,7 @@
         <v>135</v>
       </c>
       <c r="E78" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F78" s="49">
         <v>78</v>
@@ -5162,7 +5129,7 @@
         <v>137</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F79" s="49">
         <v>79</v>
@@ -5197,7 +5164,7 @@
         <v>139</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F80" s="49">
         <v>80</v>
@@ -5404,7 +5371,7 @@
         <v>108</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>110</v>
@@ -5439,7 +5406,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>110</v>
@@ -5474,7 +5441,7 @@
         <v>113</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>110</v>
@@ -5506,10 +5473,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="47" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="47" t="s">
         <v>384</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>385</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>110</v>
@@ -5541,13 +5508,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D90" s="60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F90" s="49">
         <v>90</v>
@@ -5576,13 +5543,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="60" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D91" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E91" s="60" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F91" s="49">
         <v>91</v>
@@ -5611,13 +5578,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="60" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D92" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E92" s="60" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F92" s="49">
         <v>92</v>
@@ -5646,13 +5613,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="47" t="s">
+        <v>408</v>
+      </c>
+      <c r="D93" s="47" t="s">
         <v>409</v>
       </c>
-      <c r="D93" s="47" t="s">
+      <c r="E93" s="47" t="s">
         <v>410</v>
-      </c>
-      <c r="E93" s="47" t="s">
-        <v>411</v>
       </c>
       <c r="F93" s="11">
         <v>93</v>
@@ -5670,41 +5637,6 @@
         <v>32503651200</v>
       </c>
       <c r="K93" s="49">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="14">
-        <v>94</v>
-      </c>
-      <c r="B94" s="14">
-        <v>1</v>
-      </c>
-      <c r="C94" s="32" t="s">
-        <v>373</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="14">
-        <v>94</v>
-      </c>
-      <c r="G94" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" s="14">
-        <v>1</v>
-      </c>
-      <c r="I94" s="14">
-        <v>946677600</v>
-      </c>
-      <c r="J94" s="14">
-        <v>32503651200</v>
-      </c>
-      <c r="K94" s="14">
         <v>-1</v>
       </c>
     </row>
@@ -5717,11 +5649,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7954,11 +7886,11 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>379</v>
+        <v>417</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I86" s="42" t="s">
         <v>374</v>
@@ -8147,44 +8079,16 @@
         <v>93</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="J94">
         <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" s="61">
-        <v>94</v>
-      </c>
-      <c r="B95" s="61">
-        <v>94</v>
-      </c>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61">
-        <v>94</v>
-      </c>
-      <c r="E95" s="61">
-        <v>0</v>
-      </c>
-      <c r="F95" s="42" t="s">
-        <v>419</v>
-      </c>
-      <c r="G95" s="61"/>
-      <c r="H95" s="43" t="s">
-        <v>420</v>
-      </c>
-      <c r="I95" s="42" t="s">
-        <v>418</v>
-      </c>
-      <c r="J95">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8198,8 +8102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9550,7 +9454,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -9567,7 +9471,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9584,7 +9488,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D81" s="8">
         <v>0</v>
@@ -9601,7 +9505,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D82" s="8">
         <v>0</v>
@@ -9669,7 +9573,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D86" s="8">
         <v>0</v>
@@ -9686,7 +9590,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D87" s="8">
         <v>0</v>
@@ -9703,7 +9607,7 @@
         <v>80</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="D88" s="8">
         <v>0</v>
@@ -9712,32 +9616,35 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8">
         <v>88</v>
       </c>
-      <c r="B89" s="18">
-        <v>81</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D89" s="18">
+      <c r="B89" s="8">
+        <v>80</v>
+      </c>
+      <c r="C89" s="52" t="s">
+        <v>407</v>
+      </c>
+      <c r="D89" s="8">
         <v>0</v>
       </c>
+      <c r="E89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" s="8">
         <v>89</v>
       </c>
-      <c r="B90" s="39">
-        <v>82</v>
-      </c>
-      <c r="C90" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D90" s="37">
-        <v>33</v>
+      <c r="B90" s="18">
+        <v>81</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D90" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -9745,13 +9652,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="39">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="D91" s="39">
-        <v>34</v>
+        <v>371</v>
+      </c>
+      <c r="D91" s="37">
+        <v>33</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -9759,52 +9666,49 @@
         <v>91</v>
       </c>
       <c r="B92" s="39">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D92" s="37">
-        <v>35</v>
+        <v>369</v>
+      </c>
+      <c r="D92" s="39">
+        <v>34</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="8">
         <v>92</v>
       </c>
-      <c r="B93" s="41">
-        <v>85</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="D93" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="39">
+        <v>84</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D93" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="15">
-        <v>86</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>167</v>
+      <c r="B94" s="41">
+        <v>85</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="D94" s="15">
         <v>0</v>
       </c>
-      <c r="E94" s="15"/>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
     </row>
     <row r="95" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="8">
         <v>94</v>
       </c>
       <c r="B95" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>167</v>
@@ -9821,7 +9725,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>167</v>
@@ -9833,12 +9737,12 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8">
         <v>96</v>
       </c>
-      <c r="B97" s="4">
-        <v>89</v>
+      <c r="B97" s="15">
+        <v>88</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>167</v>
@@ -9846,27 +9750,30 @@
       <c r="D97" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="8">
         <v>97</v>
       </c>
       <c r="B98" s="4">
-        <v>90</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D98" s="11">
+        <v>89</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D98" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C99" s="42" t="s">
         <v>184</v>
@@ -9875,12 +9782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="8">
         <v>99</v>
       </c>
       <c r="B100" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="42" t="s">
         <v>184</v>
@@ -9889,17 +9796,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="8">
         <v>100</v>
       </c>
-      <c r="B101" s="15">
-        <v>94</v>
-      </c>
-      <c r="C101" s="36" t="s">
-        <v>421</v>
-      </c>
-      <c r="D101" s="15">
+      <c r="B101" s="4">
+        <v>92</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D101" s="11">
         <v>0</v>
       </c>
     </row>
@@ -11084,11 +10991,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I127"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12273,7 +12180,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -12290,7 +12197,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -12324,7 +12231,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -12341,7 +12248,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -12378,7 +12285,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -12701,7 +12608,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -12735,7 +12642,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D90" s="57">
         <v>100</v>
@@ -12754,7 +12661,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D91" s="57">
         <v>1</v>
@@ -12773,7 +12680,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D92" s="57">
         <v>100</v>
@@ -12792,7 +12699,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D93" s="57">
         <v>40000</v>
@@ -12811,7 +12718,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D94" s="57">
         <v>1</v>
@@ -12830,7 +12737,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D95" s="57">
         <v>220</v>
@@ -12849,7 +12756,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D96" s="57">
         <v>50000</v>
@@ -12868,7 +12775,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D97" s="57">
         <v>1</v>
@@ -13057,7 +12964,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D108" s="57">
         <v>100</v>
@@ -13076,7 +12983,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D109" s="57">
         <v>1</v>
@@ -13095,7 +13002,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D110" s="57">
         <v>100</v>
@@ -13114,7 +13021,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D111" s="57">
         <v>40000</v>
@@ -13133,7 +13040,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D112" s="57">
         <v>1</v>
@@ -13152,7 +13059,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D113" s="57">
         <v>220</v>
@@ -13171,7 +13078,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D114" s="57">
         <v>50000</v>
@@ -13190,7 +13097,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D115" s="57">
         <v>1</v>
@@ -13209,7 +13116,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -13226,7 +13133,7 @@
         <v>111</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -13243,7 +13150,7 @@
         <v>112</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -13260,7 +13167,7 @@
         <v>113</v>
       </c>
       <c r="C119" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -13277,7 +13184,7 @@
         <v>114</v>
       </c>
       <c r="C120" s="42" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -13294,114 +13201,12 @@
         <v>115</v>
       </c>
       <c r="C121" s="42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
       </c>
       <c r="E121" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="11">
-        <v>121</v>
-      </c>
-      <c r="B122" s="61">
-        <v>116</v>
-      </c>
-      <c r="C122" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D122" s="61">
-        <v>30</v>
-      </c>
-      <c r="E122" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="11">
-        <v>122</v>
-      </c>
-      <c r="B123" s="61">
-        <v>117</v>
-      </c>
-      <c r="C123" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D123" s="61">
-        <v>100</v>
-      </c>
-      <c r="E123" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="11">
-        <v>123</v>
-      </c>
-      <c r="B124" s="61">
-        <v>118</v>
-      </c>
-      <c r="C124" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D124" s="61">
-        <v>500</v>
-      </c>
-      <c r="E124" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="11">
-        <v>124</v>
-      </c>
-      <c r="B125" s="61">
-        <v>119</v>
-      </c>
-      <c r="C125" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D125" s="61">
-        <v>1000</v>
-      </c>
-      <c r="E125" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="11">
-        <v>125</v>
-      </c>
-      <c r="B126" s="61">
-        <v>120</v>
-      </c>
-      <c r="C126" s="61" t="s">
-        <v>221</v>
-      </c>
-      <c r="D126" s="61">
-        <v>3000</v>
-      </c>
-      <c r="E126" s="61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="11">
-        <v>126</v>
-      </c>
-      <c r="B127" s="61">
-        <v>121</v>
-      </c>
-      <c r="C127" s="42" t="s">
-        <v>422</v>
-      </c>
-      <c r="D127" s="61">
-        <v>10000</v>
-      </c>
-      <c r="E127" s="61">
         <v>1</v>
       </c>
     </row>
@@ -13549,10 +13354,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="62">
+      <c r="C2" s="61">
         <v>1</v>
       </c>
     </row>
@@ -13560,8 +13365,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -13611,10 +13416,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="61" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="61" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13622,17 +13427,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="61" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="61">
         <v>1</v>
       </c>
     </row>
@@ -13640,8 +13445,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
@@ -13746,10 +13551,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="62" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="63">
+      <c r="C21" s="62">
         <v>1</v>
       </c>
     </row>
@@ -13757,8 +13562,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
@@ -46764,10 +46569,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="62" t="s">
+      <c r="B45" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="62" t="s">
+      <c r="C45" s="61" t="s">
         <v>277</v>
       </c>
     </row>
@@ -46775,8 +46580,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1024" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="420">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1692,9 +1692,13 @@
   </si>
   <si>
     <t>8000000,25000000,125000000,250000000,750000000,2300000000,-1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>xiaoxiaole_xiyou_award</t>
+  </si>
+  <si>
+    <t>lwzb_game_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1702,7 +1706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,6 +1750,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1847,7 +1858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2014,6 +2025,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2300,11 +2320,11 @@
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="27.5" style="11" customWidth="1"/>
@@ -2321,7 +2341,7 @@
     <col min="18" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2367,7 +2387,7 @@
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
     </row>
-    <row r="2" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="43.5" customHeight="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2410,7 +2430,7 @@
       <c r="O2" s="26"/>
       <c r="P2" s="27"/>
     </row>
-    <row r="3" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="43.5" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2453,7 +2473,7 @@
       <c r="O3" s="26"/>
       <c r="P3" s="27"/>
     </row>
-    <row r="4" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="43.5" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2496,7 +2516,7 @@
       <c r="O4" s="26"/>
       <c r="P4" s="27"/>
     </row>
-    <row r="5" spans="1:19" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="43.5" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2539,7 +2559,7 @@
       <c r="O5" s="26"/>
       <c r="P5" s="27"/>
     </row>
-    <row r="6" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="25.5" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2580,7 +2600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="21" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2621,7 +2641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="21" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2662,7 +2682,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2700,7 +2720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2735,7 +2755,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2805,7 +2825,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2840,7 +2860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2875,7 +2895,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2910,7 +2930,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -2945,7 +2965,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -2980,7 +3000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -3015,7 +3035,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -3050,7 +3070,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -3085,7 +3105,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -3120,7 +3140,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -3155,7 +3175,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -3190,7 +3210,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -3225,7 +3245,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -3260,7 +3280,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -3295,7 +3315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -3330,7 +3350,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3365,7 +3385,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -3400,7 +3420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -3435,7 +3455,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3470,7 +3490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3505,7 +3525,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3540,7 +3560,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3575,7 +3595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3610,7 +3630,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -3645,7 +3665,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -3680,7 +3700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -3715,7 +3735,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -3750,7 +3770,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -3785,7 +3805,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -3820,7 +3840,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -3855,7 +3875,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -3890,7 +3910,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -3925,7 +3945,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -3960,7 +3980,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -3995,7 +4015,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -4030,7 +4050,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -4065,7 +4085,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -4100,7 +4120,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -4135,7 +4155,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="14" customFormat="1">
       <c r="A51" s="14">
         <v>51</v>
       </c>
@@ -4170,7 +4190,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="14" customFormat="1">
       <c r="A52" s="14">
         <v>52</v>
       </c>
@@ -4205,7 +4225,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="14" customFormat="1">
       <c r="A53" s="14">
         <v>53</v>
       </c>
@@ -4240,7 +4260,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11">
       <c r="A54" s="11">
         <v>54</v>
       </c>
@@ -4275,7 +4295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11">
       <c r="A55" s="11">
         <v>55</v>
       </c>
@@ -4310,7 +4330,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11">
       <c r="A56" s="11">
         <v>56</v>
       </c>
@@ -4345,7 +4365,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11">
       <c r="A57" s="11">
         <v>57</v>
       </c>
@@ -4380,7 +4400,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11">
       <c r="A58" s="11">
         <v>58</v>
       </c>
@@ -4415,7 +4435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11">
       <c r="A59" s="11">
         <v>59</v>
       </c>
@@ -4450,7 +4470,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11">
       <c r="A60" s="11">
         <v>60</v>
       </c>
@@ -4485,7 +4505,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11">
       <c r="A61" s="11">
         <v>61</v>
       </c>
@@ -4520,7 +4540,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11">
       <c r="A62" s="11">
         <v>62</v>
       </c>
@@ -4555,7 +4575,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11">
       <c r="A63" s="11">
         <v>63</v>
       </c>
@@ -4590,7 +4610,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11">
       <c r="A64" s="11">
         <v>64</v>
       </c>
@@ -4625,7 +4645,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11">
       <c r="A65" s="11">
         <v>65</v>
       </c>
@@ -4660,7 +4680,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11">
       <c r="A66" s="11">
         <v>66</v>
       </c>
@@ -4695,7 +4715,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11">
       <c r="A67" s="11">
         <v>67</v>
       </c>
@@ -4730,7 +4750,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="24" customFormat="1">
       <c r="A68" s="24">
         <v>68</v>
       </c>
@@ -4765,7 +4785,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="14" customFormat="1">
       <c r="A69" s="14">
         <v>69</v>
       </c>
@@ -4800,7 +4820,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="14" customFormat="1">
       <c r="A70" s="14">
         <v>70</v>
       </c>
@@ -4835,7 +4855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="14" customFormat="1">
       <c r="A71" s="14">
         <v>71</v>
       </c>
@@ -4870,7 +4890,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="14" customFormat="1">
       <c r="A72" s="14">
         <v>72</v>
       </c>
@@ -4905,7 +4925,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="14" customFormat="1">
       <c r="A73" s="14">
         <v>73</v>
       </c>
@@ -4940,7 +4960,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="14" customFormat="1">
       <c r="A74" s="14">
         <v>74</v>
       </c>
@@ -4975,7 +4995,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="14" customFormat="1">
       <c r="A75" s="14">
         <v>75</v>
       </c>
@@ -5010,7 +5030,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="24" customFormat="1">
       <c r="A76" s="24">
         <v>76</v>
       </c>
@@ -5045,7 +5065,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="24" customFormat="1">
       <c r="A77" s="24">
         <v>77</v>
       </c>
@@ -5080,7 +5100,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="49" customFormat="1">
       <c r="A78" s="49">
         <v>78</v>
       </c>
@@ -5115,7 +5135,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="49" customFormat="1">
       <c r="A79" s="49">
         <v>79</v>
       </c>
@@ -5150,7 +5170,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="49" customFormat="1">
       <c r="A80" s="49">
         <v>80</v>
       </c>
@@ -5185,7 +5205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="14" customFormat="1">
       <c r="A81" s="14">
         <v>81</v>
       </c>
@@ -5220,7 +5240,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="14" customFormat="1">
       <c r="A82" s="37">
         <v>82</v>
       </c>
@@ -5255,7 +5275,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="14" customFormat="1">
       <c r="A83" s="37">
         <v>83</v>
       </c>
@@ -5290,7 +5310,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="14" customFormat="1">
       <c r="A84" s="37">
         <v>84</v>
       </c>
@@ -5325,7 +5345,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="14" customFormat="1">
       <c r="A85" s="14">
         <v>85</v>
       </c>
@@ -5360,7 +5380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11">
       <c r="A86" s="14">
         <v>86</v>
       </c>
@@ -5395,7 +5415,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11">
       <c r="A87" s="14">
         <v>87</v>
       </c>
@@ -5430,7 +5450,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11">
       <c r="A88" s="14">
         <v>88</v>
       </c>
@@ -5465,7 +5485,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11">
       <c r="A89" s="11">
         <v>89</v>
       </c>
@@ -5500,7 +5520,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="49" customFormat="1">
       <c r="A90" s="49">
         <v>90</v>
       </c>
@@ -5535,7 +5555,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="49" customFormat="1">
       <c r="A91" s="49">
         <v>91</v>
       </c>
@@ -5570,7 +5590,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="49" customFormat="1">
       <c r="A92" s="49">
         <v>92</v>
       </c>
@@ -5605,7 +5625,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11">
       <c r="A93" s="11">
         <v>93</v>
       </c>
@@ -5656,7 +5676,7 @@
       <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" style="4"/>
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
@@ -5667,7 +5687,7 @@
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>140</v>
       </c>
@@ -5700,7 +5720,7 @@
       </c>
       <c r="K1" s="21"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -5727,7 +5747,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -5754,7 +5774,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -5781,7 +5801,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -5808,7 +5828,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -5836,7 +5856,7 @@
       </c>
       <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5862,7 +5882,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5888,7 +5908,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5915,7 +5935,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -5941,7 +5961,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -5967,7 +5987,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -5993,7 +6013,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -6019,7 +6039,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -6045,7 +6065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -6071,7 +6091,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -6097,7 +6117,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -6123,7 +6143,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -6149,7 +6169,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -6175,7 +6195,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -6201,7 +6221,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -6227,7 +6247,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -6253,7 +6273,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -6279,7 +6299,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -6305,7 +6325,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -6331,7 +6351,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -6357,7 +6377,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -6383,7 +6403,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -6409,7 +6429,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -6435,7 +6455,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -6461,7 +6481,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -6487,7 +6507,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6513,7 +6533,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -6539,7 +6559,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -6565,7 +6585,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -6591,7 +6611,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -6617,7 +6637,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="12.95" customHeight="1">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -6643,7 +6663,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="12.95" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -6669,7 +6689,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -6695,7 +6715,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="12.95" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6721,7 +6741,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="12.95" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6747,7 +6767,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="12.95" customHeight="1">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -6773,7 +6793,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="12.95" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -6799,7 +6819,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="12.95" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -6825,7 +6845,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="12.95" customHeight="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -6851,7 +6871,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="12.95" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6877,7 +6897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="12.95" customHeight="1">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -6903,7 +6923,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="12.95" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6929,7 +6949,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="12.95" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6955,7 +6975,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="12.95" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -6981,7 +7001,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -7008,7 +7028,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -7034,7 +7054,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -7060,7 +7080,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -7086,7 +7106,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -7112,7 +7132,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -7138,7 +7158,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -7164,7 +7184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -7187,7 +7207,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -7210,7 +7230,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -7233,7 +7253,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -7256,7 +7276,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7279,7 +7299,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7302,7 +7322,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7325,7 +7345,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -7348,7 +7368,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -7374,7 +7394,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -7400,7 +7420,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -7424,7 +7444,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -7453,7 +7473,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="33" customFormat="1">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -7480,7 +7500,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="33" customFormat="1">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -7507,7 +7527,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="33" customFormat="1">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -7534,7 +7554,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="33" customFormat="1">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -7561,7 +7581,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="33" customFormat="1">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -7588,7 +7608,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="33" customFormat="1">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -7611,7 +7631,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="33" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -7634,7 +7654,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
     </row>
-    <row r="77" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="33" customFormat="1">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -7663,7 +7683,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="33" customFormat="1">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -7692,7 +7712,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="3" customFormat="1">
       <c r="A79" s="49">
         <v>78</v>
       </c>
@@ -7715,7 +7735,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="3" customFormat="1">
       <c r="A80" s="49">
         <v>79</v>
       </c>
@@ -7738,7 +7758,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="3" customFormat="1">
       <c r="A81" s="49">
         <v>80</v>
       </c>
@@ -7761,7 +7781,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10">
       <c r="A82" s="18">
         <v>81</v>
       </c>
@@ -7790,7 +7810,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10">
       <c r="A83" s="37">
         <v>82</v>
       </c>
@@ -7817,7 +7837,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="33" customFormat="1">
       <c r="A84" s="37">
         <v>83</v>
       </c>
@@ -7844,7 +7864,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="33" customFormat="1">
       <c r="A85" s="37">
         <v>84</v>
       </c>
@@ -7871,7 +7891,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -7899,7 +7919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -7924,7 +7944,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -7949,7 +7969,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -7974,7 +7994,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -7999,7 +8019,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="91" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" s="3" customFormat="1">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -8022,7 +8042,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" s="3" customFormat="1">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -8045,7 +8065,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="93" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" s="3" customFormat="1">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -8068,7 +8088,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -8100,13 +8120,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
@@ -8116,7 +8136,7 @@
     <col min="8" max="9" width="32.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="27">
       <c r="A1" s="5" t="s">
         <v>180</v>
       </c>
@@ -8137,7 +8157,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="33" customFormat="1">
       <c r="A2" s="15">
         <v>1</v>
       </c>
@@ -8154,7 +8174,7 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="33" customFormat="1">
       <c r="A3" s="15">
         <v>2</v>
       </c>
@@ -8171,7 +8191,7 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
     </row>
-    <row r="4" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="33" customFormat="1">
       <c r="A4" s="15">
         <v>3</v>
       </c>
@@ -8188,7 +8208,7 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
     </row>
-    <row r="5" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" s="33" customFormat="1">
       <c r="A5" s="15">
         <v>4</v>
       </c>
@@ -8205,7 +8225,7 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="33" customFormat="1">
       <c r="A6" s="15">
         <v>5</v>
       </c>
@@ -8222,7 +8242,7 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
     </row>
-    <row r="7" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" s="33" customFormat="1">
       <c r="A7" s="15">
         <v>6</v>
       </c>
@@ -8239,7 +8259,7 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
     </row>
-    <row r="8" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="33" customFormat="1">
       <c r="A8" s="15">
         <v>7</v>
       </c>
@@ -8256,7 +8276,7 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="33" customFormat="1">
       <c r="A9" s="15">
         <v>8</v>
       </c>
@@ -8273,7 +8293,7 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="33" customFormat="1">
       <c r="A10" s="15">
         <v>9</v>
       </c>
@@ -8290,7 +8310,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="33" customFormat="1">
       <c r="A11" s="15">
         <v>10</v>
       </c>
@@ -8307,7 +8327,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="33" customFormat="1">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -8324,7 +8344,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="33" customFormat="1">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -8341,7 +8361,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="33" customFormat="1">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -8358,7 +8378,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" s="33" customFormat="1">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -8375,7 +8395,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" s="33" customFormat="1">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -8392,7 +8412,7 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" s="33" customFormat="1">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -8409,7 +8429,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="33" customFormat="1">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -8426,7 +8446,7 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
     </row>
-    <row r="19" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" s="33" customFormat="1">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -8443,7 +8463,7 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
     </row>
-    <row r="20" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" s="33" customFormat="1">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -8460,7 +8480,7 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
     </row>
-    <row r="21" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" s="33" customFormat="1">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -8477,7 +8497,7 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
     </row>
-    <row r="22" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" s="33" customFormat="1">
       <c r="A22" s="15">
         <v>21</v>
       </c>
@@ -8494,7 +8514,7 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
     </row>
-    <row r="23" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" s="33" customFormat="1">
       <c r="A23" s="15">
         <v>22</v>
       </c>
@@ -8511,7 +8531,7 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
     </row>
-    <row r="24" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" s="33" customFormat="1">
       <c r="A24" s="15">
         <v>23</v>
       </c>
@@ -8528,7 +8548,7 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
     </row>
-    <row r="25" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" s="33" customFormat="1">
       <c r="A25" s="15">
         <v>24</v>
       </c>
@@ -8545,7 +8565,7 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
     </row>
-    <row r="26" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="33" customFormat="1">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -8562,7 +8582,7 @@
       <c r="H26" s="15"/>
       <c r="I26" s="15"/>
     </row>
-    <row r="27" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="33" customFormat="1">
       <c r="A27" s="15">
         <v>26</v>
       </c>
@@ -8579,7 +8599,7 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
     </row>
-    <row r="28" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" s="33" customFormat="1">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -8596,7 +8616,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="33" customFormat="1">
       <c r="A29" s="15">
         <v>28</v>
       </c>
@@ -8613,7 +8633,7 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
     </row>
-    <row r="30" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" s="33" customFormat="1">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -8630,7 +8650,7 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="33" customFormat="1">
       <c r="A31" s="15">
         <v>30</v>
       </c>
@@ -8647,7 +8667,7 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
     </row>
-    <row r="32" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" s="33" customFormat="1">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -8664,7 +8684,7 @@
       <c r="H32" s="15"/>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="33" customFormat="1">
       <c r="A33" s="15">
         <v>32</v>
       </c>
@@ -8681,7 +8701,7 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
     </row>
-    <row r="34" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="33" customFormat="1">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -8698,7 +8718,7 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="33" customFormat="1">
       <c r="A35" s="15">
         <v>34</v>
       </c>
@@ -8715,7 +8735,7 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
     </row>
-    <row r="36" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="33" customFormat="1">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -8732,7 +8752,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" s="33" customFormat="1">
       <c r="A37" s="15">
         <v>36</v>
       </c>
@@ -8749,7 +8769,7 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
     </row>
-    <row r="38" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="33" customFormat="1">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -8766,7 +8786,7 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" s="33" customFormat="1">
       <c r="A39" s="15">
         <v>38</v>
       </c>
@@ -8783,7 +8803,7 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
     </row>
-    <row r="40" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="33" customFormat="1">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -8800,7 +8820,7 @@
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="33" customFormat="1">
       <c r="A41" s="15">
         <v>40</v>
       </c>
@@ -8817,7 +8837,7 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
     </row>
-    <row r="42" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="33" customFormat="1">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -8834,7 +8854,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="33" customFormat="1">
       <c r="A43" s="15">
         <v>42</v>
       </c>
@@ -8851,7 +8871,7 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
     </row>
-    <row r="44" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="33" customFormat="1">
       <c r="A44" s="15">
         <v>43</v>
       </c>
@@ -8868,7 +8888,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" s="33" customFormat="1">
       <c r="A45" s="15">
         <v>44</v>
       </c>
@@ -8885,7 +8905,7 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
-    <row r="46" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" s="33" customFormat="1">
       <c r="A46" s="15">
         <v>45</v>
       </c>
@@ -8902,7 +8922,7 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" s="33" customFormat="1">
       <c r="A47" s="15">
         <v>46</v>
       </c>
@@ -8919,7 +8939,7 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
     </row>
-    <row r="48" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" s="33" customFormat="1">
       <c r="A48" s="15">
         <v>47</v>
       </c>
@@ -8936,7 +8956,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" s="33" customFormat="1">
       <c r="A49" s="15">
         <v>48</v>
       </c>
@@ -8953,7 +8973,7 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
     </row>
-    <row r="50" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" s="33" customFormat="1">
       <c r="A50" s="15">
         <v>49</v>
       </c>
@@ -8970,7 +8990,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" s="33" customFormat="1">
       <c r="A51" s="15">
         <v>50</v>
       </c>
@@ -8987,7 +9007,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
     </row>
-    <row r="52" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="33" customFormat="1">
       <c r="A52" s="15">
         <v>51</v>
       </c>
@@ -9004,7 +9024,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="33" customFormat="1">
       <c r="A53" s="15">
         <v>52</v>
       </c>
@@ -9021,7 +9041,7 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
     </row>
-    <row r="54" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" s="33" customFormat="1">
       <c r="A54" s="15">
         <v>53</v>
       </c>
@@ -9038,7 +9058,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" s="33" customFormat="1">
       <c r="A55" s="15">
         <v>54</v>
       </c>
@@ -9055,7 +9075,7 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
     </row>
-    <row r="56" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" s="33" customFormat="1">
       <c r="A56" s="15">
         <v>55</v>
       </c>
@@ -9072,7 +9092,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" s="33" customFormat="1">
       <c r="A57" s="15">
         <v>56</v>
       </c>
@@ -9089,7 +9109,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" s="33" customFormat="1">
       <c r="A58" s="15">
         <v>57</v>
       </c>
@@ -9106,7 +9126,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" s="33" customFormat="1">
       <c r="A59" s="15">
         <v>58</v>
       </c>
@@ -9123,7 +9143,7 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
     </row>
-    <row r="60" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" s="33" customFormat="1">
       <c r="A60" s="15">
         <v>59</v>
       </c>
@@ -9140,7 +9160,7 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
     </row>
-    <row r="61" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" s="33" customFormat="1">
       <c r="A61" s="15">
         <v>60</v>
       </c>
@@ -9157,7 +9177,7 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
     </row>
-    <row r="62" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" s="33" customFormat="1">
       <c r="A62" s="15">
         <v>61</v>
       </c>
@@ -9174,7 +9194,7 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
     </row>
-    <row r="63" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" s="33" customFormat="1">
       <c r="A63" s="15">
         <v>62</v>
       </c>
@@ -9191,7 +9211,7 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
     </row>
-    <row r="64" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" s="33" customFormat="1">
       <c r="A64" s="15">
         <v>63</v>
       </c>
@@ -9208,7 +9228,7 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
     </row>
-    <row r="65" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" s="33" customFormat="1">
       <c r="A65" s="15">
         <v>64</v>
       </c>
@@ -9225,7 +9245,7 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
     </row>
-    <row r="66" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" s="33" customFormat="1">
       <c r="A66" s="15">
         <v>65</v>
       </c>
@@ -9242,7 +9262,7 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
     </row>
-    <row r="67" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" s="33" customFormat="1">
       <c r="A67" s="15">
         <v>66</v>
       </c>
@@ -9259,7 +9279,7 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
     </row>
-    <row r="68" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" s="33" customFormat="1">
       <c r="A68" s="15">
         <v>67</v>
       </c>
@@ -9276,7 +9296,7 @@
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
     </row>
-    <row r="69" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" s="33" customFormat="1">
       <c r="A69" s="15">
         <v>68</v>
       </c>
@@ -9293,7 +9313,7 @@
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
     </row>
-    <row r="70" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" s="33" customFormat="1">
       <c r="A70" s="15">
         <v>69</v>
       </c>
@@ -9310,7 +9330,7 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
     </row>
-    <row r="71" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" s="33" customFormat="1">
       <c r="A71" s="15">
         <v>70</v>
       </c>
@@ -9327,7 +9347,7 @@
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
     </row>
-    <row r="72" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" s="33" customFormat="1">
       <c r="A72" s="15">
         <v>71</v>
       </c>
@@ -9344,7 +9364,7 @@
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
     </row>
-    <row r="73" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="33" customFormat="1">
       <c r="A73" s="15">
         <v>72</v>
       </c>
@@ -9361,7 +9381,7 @@
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
     </row>
-    <row r="74" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" s="33" customFormat="1">
       <c r="A74" s="15">
         <v>73</v>
       </c>
@@ -9378,7 +9398,7 @@
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
     </row>
-    <row r="75" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" s="33" customFormat="1">
       <c r="A75" s="15">
         <v>74</v>
       </c>
@@ -9395,7 +9415,7 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
     </row>
-    <row r="76" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" s="33" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
@@ -9412,7 +9432,7 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
     </row>
-    <row r="77" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" s="33" customFormat="1">
       <c r="A77" s="15">
         <v>76</v>
       </c>
@@ -9429,7 +9449,7 @@
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
     </row>
-    <row r="78" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" s="33" customFormat="1">
       <c r="A78" s="15">
         <v>77</v>
       </c>
@@ -9446,7 +9466,7 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
     </row>
-    <row r="79" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" s="33" customFormat="1">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -9463,7 +9483,7 @@
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
     </row>
-    <row r="80" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" s="33" customFormat="1">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -9480,252 +9500,252 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
     </row>
-    <row r="81" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="8">
+    <row r="81" spans="1:9" s="33" customFormat="1">
+      <c r="A81" s="57">
         <v>80</v>
       </c>
-      <c r="B81" s="8">
+      <c r="B81" s="57">
         <v>80</v>
       </c>
-      <c r="C81" s="52" t="s">
+      <c r="C81" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81" s="57">
         <v>0</v>
       </c>
       <c r="E81" s="15"/>
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
     </row>
-    <row r="82" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="8">
+    <row r="82" spans="1:9" s="33" customFormat="1">
+      <c r="A82" s="57">
         <v>81</v>
       </c>
-      <c r="B82" s="8">
+      <c r="B82" s="57">
         <v>80</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C82" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82" s="57">
         <v>0</v>
       </c>
       <c r="E82" s="15"/>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
     </row>
-    <row r="83" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8">
+    <row r="83" spans="1:9" s="33" customFormat="1">
+      <c r="A83" s="57">
         <v>82</v>
       </c>
-      <c r="B83" s="8">
+      <c r="B83" s="57">
         <v>80</v>
       </c>
-      <c r="C83" s="51" t="s">
+      <c r="C83" s="62" t="s">
         <v>185</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83" s="57">
         <v>0</v>
       </c>
       <c r="E83" s="15"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
     </row>
-    <row r="84" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="8">
+    <row r="84" spans="1:9" s="33" customFormat="1">
+      <c r="A84" s="57">
         <v>83</v>
       </c>
-      <c r="B84" s="8">
+      <c r="B84" s="57">
         <v>80</v>
       </c>
-      <c r="C84" s="51" t="s">
+      <c r="C84" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="57">
         <v>0</v>
       </c>
       <c r="E84" s="15"/>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
     </row>
-    <row r="85" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="8">
+    <row r="85" spans="1:9" s="33" customFormat="1">
+      <c r="A85" s="57">
         <v>84</v>
       </c>
-      <c r="B85" s="8">
+      <c r="B85" s="57">
         <v>80</v>
       </c>
-      <c r="C85" s="51" t="s">
+      <c r="C85" s="62" t="s">
         <v>187</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85" s="57">
         <v>0</v>
       </c>
       <c r="E85" s="15"/>
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
-    <row r="86" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="8">
+    <row r="86" spans="1:9" s="33" customFormat="1">
+      <c r="A86" s="57">
         <v>85</v>
       </c>
-      <c r="B86" s="8">
+      <c r="B86" s="57">
         <v>80</v>
       </c>
-      <c r="C86" s="52" t="s">
+      <c r="C86" s="61" t="s">
         <v>405</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86" s="57">
         <v>0</v>
       </c>
       <c r="E86" s="15"/>
-      <c r="H86" s="15"/>
+      <c r="H86" s="63"/>
       <c r="I86" s="15"/>
     </row>
-    <row r="87" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8">
+    <row r="87" spans="1:9" s="33" customFormat="1">
+      <c r="A87" s="57">
         <v>86</v>
       </c>
-      <c r="B87" s="8">
+      <c r="B87" s="57">
         <v>80</v>
       </c>
-      <c r="C87" s="52" t="s">
+      <c r="C87" s="61" t="s">
         <v>406</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87" s="57">
         <v>0</v>
       </c>
       <c r="E87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="15"/>
     </row>
-    <row r="88" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="8">
+    <row r="88" spans="1:9" s="33" customFormat="1">
+      <c r="A88" s="57">
         <v>87</v>
       </c>
-      <c r="B88" s="8">
+      <c r="B88" s="57">
         <v>80</v>
       </c>
-      <c r="C88" s="52" t="s">
-        <v>418</v>
-      </c>
-      <c r="D88" s="8">
+      <c r="C88" s="61" t="s">
+        <v>407</v>
+      </c>
+      <c r="D88" s="57">
         <v>0</v>
       </c>
       <c r="E88" s="15"/>
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
     </row>
-    <row r="89" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="8">
+    <row r="89" spans="1:9" s="33" customFormat="1">
+      <c r="A89" s="57">
         <v>88</v>
       </c>
-      <c r="B89" s="8">
+      <c r="B89" s="57">
         <v>80</v>
       </c>
-      <c r="C89" s="52" t="s">
-        <v>407</v>
-      </c>
-      <c r="D89" s="8">
+      <c r="C89" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="D89" s="57">
         <v>0</v>
       </c>
       <c r="E89" s="15"/>
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="8">
+    <row r="90" spans="1:9" s="33" customFormat="1">
+      <c r="A90" s="57">
         <v>89</v>
       </c>
-      <c r="B90" s="18">
-        <v>81</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D90" s="18">
+      <c r="B90" s="57">
+        <v>80</v>
+      </c>
+      <c r="C90" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="D90" s="57">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="39">
-        <v>82</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D91" s="37">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B91" s="18">
+        <v>81</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="D91" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="8">
         <v>91</v>
       </c>
       <c r="B92" s="39">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92" s="40" t="s">
-        <v>369</v>
-      </c>
-      <c r="D92" s="39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+        <v>371</v>
+      </c>
+      <c r="D92" s="37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="8">
         <v>92</v>
       </c>
       <c r="B93" s="39">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D93" s="37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="D93" s="39">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="41">
-        <v>85</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="39">
+        <v>84</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="D94" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="15">
-        <v>86</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>167</v>
+      <c r="B95" s="41">
+        <v>85</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>375</v>
       </c>
       <c r="D95" s="15">
         <v>0</v>
       </c>
-      <c r="E95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-    </row>
-    <row r="96" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:9" s="33" customFormat="1">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>167</v>
@@ -9737,12 +9757,12 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
     </row>
-    <row r="97" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="33" customFormat="1">
       <c r="A97" s="8">
         <v>96</v>
       </c>
       <c r="B97" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>167</v>
@@ -9754,12 +9774,12 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="33" customFormat="1">
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
-        <v>89</v>
+      <c r="B98" s="15">
+        <v>88</v>
       </c>
       <c r="C98" s="15" t="s">
         <v>167</v>
@@ -9767,27 +9787,30 @@
       <c r="D98" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="4">
-        <v>90</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="11">
+        <v>89</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D99" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9">
       <c r="A100" s="8">
         <v>99</v>
       </c>
       <c r="B100" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="42" t="s">
         <v>184</v>
@@ -9796,17 +9819,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9">
       <c r="A101" s="8">
         <v>100</v>
       </c>
       <c r="B101" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="42" t="s">
         <v>184</v>
       </c>
       <c r="D101" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" s="8">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4">
+        <v>92</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="D102" s="11">
         <v>0</v>
       </c>
     </row>
@@ -9825,7 +9862,7 @@
       <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
@@ -9835,7 +9872,7 @@
     <col min="6" max="6" width="16" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="66.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="66.95" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>189</v>
       </c>
@@ -9855,7 +9892,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -9872,7 +9909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -9889,7 +9926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -9906,7 +9943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -9923,7 +9960,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -9940,7 +9977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -9957,7 +9994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -9974,7 +10011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -9991,7 +10028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -10008,7 +10045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -10025,7 +10062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -10042,7 +10079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -10059,7 +10096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -10076,7 +10113,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -10093,7 +10130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -10110,7 +10147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -10127,7 +10164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -10144,7 +10181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -10161,7 +10198,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -10178,7 +10215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -10195,7 +10232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -10212,7 +10249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -10229,7 +10266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -10246,7 +10283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -10263,7 +10300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -10280,7 +10317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -10297,7 +10334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -10314,7 +10351,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -10334,7 +10371,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -10351,7 +10388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -10368,7 +10405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -10385,7 +10422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -10402,7 +10439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -10419,7 +10456,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -10436,7 +10473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -10453,7 +10490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -10470,7 +10507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -10487,7 +10524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -10504,7 +10541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -10521,7 +10558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -10538,7 +10575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -10555,7 +10592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -10572,7 +10609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -10589,7 +10626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -10606,7 +10643,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -10623,7 +10660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -10640,7 +10677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -10657,7 +10694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -10674,7 +10711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -10691,7 +10728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -10708,7 +10745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -10725,7 +10762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -10742,7 +10779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -10759,7 +10796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -10776,7 +10813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -10793,7 +10830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -10810,7 +10847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -10827,7 +10864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -10844,7 +10881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -10861,7 +10898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -10878,7 +10915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" s="55" customFormat="1">
       <c r="A62" s="53">
         <v>61</v>
       </c>
@@ -10896,7 +10933,7 @@
       </c>
       <c r="F62" s="54"/>
     </row>
-    <row r="63" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" s="55" customFormat="1">
       <c r="A63" s="53">
         <v>62</v>
       </c>
@@ -10914,7 +10951,7 @@
       </c>
       <c r="F63" s="54"/>
     </row>
-    <row r="64" spans="1:6" s="55" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" s="55" customFormat="1">
       <c r="A64" s="53">
         <v>63</v>
       </c>
@@ -10932,7 +10969,7 @@
       </c>
       <c r="F64" s="54"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5">
       <c r="A65" s="37">
         <v>64</v>
       </c>
@@ -10949,7 +10986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5">
       <c r="A66" s="37">
         <v>65</v>
       </c>
@@ -10966,7 +11003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5">
       <c r="A67" s="37">
         <v>66</v>
       </c>
@@ -10994,11 +11031,11 @@
   <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.5" style="11" customWidth="1"/>
     <col min="2" max="2" width="30.375" style="4" customWidth="1"/>
@@ -11012,7 +11049,7 @@
     <col min="12" max="12" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>189</v>
       </c>
@@ -11041,7 +11078,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -11061,7 +11098,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -11081,7 +11118,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -11104,7 +11141,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -11122,7 +11159,7 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -11142,7 +11179,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -11162,7 +11199,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -11179,7 +11216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -11196,7 +11233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -11213,7 +11250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -11230,7 +11267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -11247,7 +11284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -11264,7 +11301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -11281,7 +11318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -11298,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -11315,7 +11352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -11332,7 +11369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -11349,7 +11386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -11366,7 +11403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -11383,7 +11420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -11400,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -11417,7 +11454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="11">
         <v>22</v>
       </c>
@@ -11434,7 +11471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -11451,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -11468,7 +11505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="11">
         <v>25</v>
       </c>
@@ -11485,7 +11522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="11">
         <v>26</v>
       </c>
@@ -11502,7 +11539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -11519,7 +11556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="11">
         <v>28</v>
       </c>
@@ -11539,7 +11576,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="11">
         <v>29</v>
       </c>
@@ -11556,7 +11593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -11573,7 +11610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -11593,7 +11630,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -11613,7 +11650,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -11633,7 +11670,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -11653,7 +11690,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="11">
         <v>35</v>
       </c>
@@ -11673,7 +11710,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="11">
         <v>36</v>
       </c>
@@ -11693,7 +11730,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="11">
         <v>37</v>
       </c>
@@ -11713,7 +11750,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="11">
         <v>38</v>
       </c>
@@ -11733,7 +11770,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="11">
         <v>39</v>
       </c>
@@ -11753,7 +11790,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="11">
         <v>40</v>
       </c>
@@ -11773,7 +11810,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -11793,7 +11830,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="11">
         <v>42</v>
       </c>
@@ -11813,7 +11850,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -11833,7 +11870,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="11">
         <v>44</v>
       </c>
@@ -11853,7 +11890,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="11">
         <v>45</v>
       </c>
@@ -11873,7 +11910,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="11">
         <v>46</v>
       </c>
@@ -11893,7 +11930,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="11">
         <v>47</v>
       </c>
@@ -11913,7 +11950,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="11">
         <v>48</v>
       </c>
@@ -11933,7 +11970,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="11">
         <v>49</v>
       </c>
@@ -11953,7 +11990,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="11">
         <v>50</v>
       </c>
@@ -11973,7 +12010,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="11">
         <v>51</v>
       </c>
@@ -11993,7 +12030,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="11">
         <v>52</v>
       </c>
@@ -12013,7 +12050,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="11">
         <v>53</v>
       </c>
@@ -12030,7 +12067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="11">
         <v>54</v>
       </c>
@@ -12047,7 +12084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="11">
         <v>55</v>
       </c>
@@ -12067,7 +12104,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="11">
         <v>56</v>
       </c>
@@ -12087,7 +12124,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="11">
         <v>57</v>
       </c>
@@ -12104,7 +12141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="11">
         <v>58</v>
       </c>
@@ -12121,7 +12158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="11">
         <v>59</v>
       </c>
@@ -12138,7 +12175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="11">
         <v>60</v>
       </c>
@@ -12155,7 +12192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="11">
         <v>61</v>
       </c>
@@ -12172,7 +12209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="11">
         <v>62</v>
       </c>
@@ -12189,7 +12226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="11">
         <v>63</v>
       </c>
@@ -12206,7 +12243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="11">
         <v>64</v>
       </c>
@@ -12223,7 +12260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="11">
         <v>65</v>
       </c>
@@ -12240,7 +12277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="11">
         <v>66</v>
       </c>
@@ -12257,7 +12294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -12277,7 +12314,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="11">
         <v>68</v>
       </c>
@@ -12294,7 +12331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -12311,7 +12348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="11">
         <v>70</v>
       </c>
@@ -12328,7 +12365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="11">
         <v>71</v>
       </c>
@@ -12345,7 +12382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="11">
         <v>72</v>
       </c>
@@ -12362,7 +12399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="11">
         <v>73</v>
       </c>
@@ -12379,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="11">
         <v>74</v>
       </c>
@@ -12396,7 +12433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="11">
         <v>75</v>
       </c>
@@ -12413,7 +12450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="11">
         <v>76</v>
       </c>
@@ -12430,7 +12467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="11">
         <v>77</v>
       </c>
@@ -12447,7 +12484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="11">
         <v>78</v>
       </c>
@@ -12464,7 +12501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="11">
         <v>79</v>
       </c>
@@ -12481,7 +12518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="11">
         <v>80</v>
       </c>
@@ -12498,7 +12535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="11">
         <v>81</v>
       </c>
@@ -12515,7 +12552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -12532,7 +12569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="11">
         <v>83</v>
       </c>
@@ -12549,7 +12586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="11">
         <v>84</v>
       </c>
@@ -12566,7 +12603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="11">
         <v>85</v>
       </c>
@@ -12583,7 +12620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="11">
         <v>86</v>
       </c>
@@ -12600,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="11">
         <v>87</v>
       </c>
@@ -12617,7 +12654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="11">
         <v>88</v>
       </c>
@@ -12634,7 +12671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" s="59" customFormat="1">
       <c r="A90" s="48">
         <v>89</v>
       </c>
@@ -12653,7 +12690,7 @@
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
     </row>
-    <row r="91" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" s="59" customFormat="1">
       <c r="A91" s="48">
         <v>90</v>
       </c>
@@ -12672,7 +12709,7 @@
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
     </row>
-    <row r="92" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" s="59" customFormat="1">
       <c r="A92" s="48">
         <v>91</v>
       </c>
@@ -12691,7 +12728,7 @@
       <c r="F92" s="57"/>
       <c r="G92" s="57"/>
     </row>
-    <row r="93" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" s="59" customFormat="1">
       <c r="A93" s="48">
         <v>92</v>
       </c>
@@ -12710,7 +12747,7 @@
       <c r="F93" s="57"/>
       <c r="G93" s="57"/>
     </row>
-    <row r="94" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" s="59" customFormat="1">
       <c r="A94" s="48">
         <v>93</v>
       </c>
@@ -12729,7 +12766,7 @@
       <c r="F94" s="57"/>
       <c r="G94" s="57"/>
     </row>
-    <row r="95" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" s="59" customFormat="1">
       <c r="A95" s="48">
         <v>94</v>
       </c>
@@ -12748,7 +12785,7 @@
       <c r="F95" s="57"/>
       <c r="G95" s="57"/>
     </row>
-    <row r="96" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" s="59" customFormat="1">
       <c r="A96" s="48">
         <v>95</v>
       </c>
@@ -12767,7 +12804,7 @@
       <c r="F96" s="57"/>
       <c r="G96" s="57"/>
     </row>
-    <row r="97" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" s="59" customFormat="1">
       <c r="A97" s="48">
         <v>96</v>
       </c>
@@ -12786,7 +12823,7 @@
       <c r="F97" s="57"/>
       <c r="G97" s="57"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="48">
         <v>97</v>
       </c>
@@ -12803,7 +12840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="48">
         <v>98</v>
       </c>
@@ -12820,7 +12857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="48">
         <v>99</v>
       </c>
@@ -12837,7 +12874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="48">
         <v>100</v>
       </c>
@@ -12854,7 +12891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="48">
         <v>101</v>
       </c>
@@ -12871,7 +12908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="48">
         <v>102</v>
       </c>
@@ -12888,7 +12925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="48">
         <v>103</v>
       </c>
@@ -12905,7 +12942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="48">
         <v>104</v>
       </c>
@@ -12922,7 +12959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="48">
         <v>105</v>
       </c>
@@ -12939,7 +12976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="48">
         <v>106</v>
       </c>
@@ -12956,7 +12993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" s="59" customFormat="1">
       <c r="A108" s="48">
         <v>107</v>
       </c>
@@ -12975,7 +13012,7 @@
       <c r="F108" s="57"/>
       <c r="G108" s="57"/>
     </row>
-    <row r="109" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" s="59" customFormat="1">
       <c r="A109" s="48">
         <v>108</v>
       </c>
@@ -12994,7 +13031,7 @@
       <c r="F109" s="57"/>
       <c r="G109" s="57"/>
     </row>
-    <row r="110" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" s="59" customFormat="1">
       <c r="A110" s="48">
         <v>109</v>
       </c>
@@ -13013,7 +13050,7 @@
       <c r="F110" s="57"/>
       <c r="G110" s="57"/>
     </row>
-    <row r="111" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" s="59" customFormat="1">
       <c r="A111" s="48">
         <v>110</v>
       </c>
@@ -13032,7 +13069,7 @@
       <c r="F111" s="57"/>
       <c r="G111" s="57"/>
     </row>
-    <row r="112" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" s="59" customFormat="1">
       <c r="A112" s="48">
         <v>111</v>
       </c>
@@ -13051,7 +13088,7 @@
       <c r="F112" s="57"/>
       <c r="G112" s="57"/>
     </row>
-    <row r="113" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" s="59" customFormat="1">
       <c r="A113" s="48">
         <v>112</v>
       </c>
@@ -13070,7 +13107,7 @@
       <c r="F113" s="57"/>
       <c r="G113" s="57"/>
     </row>
-    <row r="114" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" s="59" customFormat="1">
       <c r="A114" s="48">
         <v>113</v>
       </c>
@@ -13089,7 +13126,7 @@
       <c r="F114" s="57"/>
       <c r="G114" s="57"/>
     </row>
-    <row r="115" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" s="59" customFormat="1">
       <c r="A115" s="48">
         <v>114</v>
       </c>
@@ -13108,7 +13145,7 @@
       <c r="F115" s="57"/>
       <c r="G115" s="57"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="48">
         <v>115</v>
       </c>
@@ -13125,7 +13162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="48">
         <v>116</v>
       </c>
@@ -13142,7 +13179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="48">
         <v>117</v>
       </c>
@@ -13159,7 +13196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="48">
         <v>118</v>
       </c>
@@ -13176,7 +13213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="48">
         <v>119</v>
       </c>
@@ -13193,7 +13230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="48">
         <v>120</v>
       </c>
@@ -13225,13 +13262,13 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="62.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>256</v>
       </c>
@@ -13239,7 +13276,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -13247,7 +13284,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>157</v>
       </c>
@@ -13255,7 +13292,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
         <v>148</v>
       </c>
@@ -13263,7 +13300,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
         <v>261</v>
       </c>
@@ -13271,7 +13308,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>263</v>
       </c>
@@ -13279,7 +13316,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>265</v>
       </c>
@@ -13287,7 +13324,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
         <v>267</v>
       </c>
@@ -13295,7 +13332,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>199</v>
       </c>
@@ -13303,7 +13340,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -13326,7 +13363,7 @@
       <selection activeCell="A2" sqref="A2:C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="35.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="50" style="4" customWidth="1"/>
@@ -13334,7 +13371,7 @@
     <col min="4" max="4" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>271</v>
       </c>
@@ -13350,25 +13387,25 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="64" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="61">
+      <c r="C2" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-    </row>
-    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>275</v>
       </c>
@@ -13379,7 +13416,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>278</v>
       </c>
@@ -13390,7 +13427,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>156</v>
       </c>
@@ -13401,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -13412,43 +13449,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="1" customFormat="1">
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="64" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="61" t="s">
+      <c r="C8" s="64" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-    </row>
-    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="64" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="64">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>163</v>
       </c>
@@ -13459,7 +13496,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="2" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>287</v>
       </c>
@@ -13470,7 +13507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>289</v>
       </c>
@@ -13481,7 +13518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>291</v>
       </c>
@@ -13492,7 +13529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>161</v>
       </c>
@@ -13503,7 +13540,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>294</v>
       </c>
@@ -13514,7 +13551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" s="3" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>173</v>
       </c>
@@ -13525,7 +13562,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" s="3" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>297</v>
       </c>
@@ -13536,7 +13573,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
         <v>166</v>
       </c>
@@ -13547,25 +13584,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="65" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="65">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-    </row>
-    <row r="23" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>184</v>
       </c>
@@ -13576,7 +13613,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" s="3" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>303</v>
       </c>
@@ -13587,7 +13624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" s="3" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>305</v>
       </c>
@@ -13598,7 +13635,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
         <v>168</v>
       </c>
@@ -13609,7 +13646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
         <v>188</v>
       </c>
@@ -13620,7 +13657,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" s="3" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>186</v>
       </c>
@@ -13631,7 +13668,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" s="3" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>310</v>
       </c>
@@ -13642,7 +13679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" s="3" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>312</v>
       </c>
@@ -13653,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
         <v>314</v>
       </c>
@@ -13664,7 +13701,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
         <v>187</v>
       </c>
@@ -13675,7 +13712,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="33" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16384">
       <c r="A33" s="4" t="s">
         <v>317</v>
       </c>
@@ -13686,7 +13723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16384">
       <c r="A34" s="4" t="s">
         <v>319</v>
       </c>
@@ -13697,7 +13734,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="35" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16384" s="3" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>185</v>
       </c>
@@ -13708,7 +13745,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16384" s="3" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>322</v>
       </c>
@@ -13719,7 +13756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16384" s="3" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>324</v>
       </c>
@@ -13730,7 +13767,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="38" spans="1:16384" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16384" s="3" customFormat="1">
       <c r="A38" s="8" t="s">
         <v>326</v>
       </c>
@@ -13741,7 +13778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16384" s="2" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>177</v>
       </c>
@@ -13752,7 +13789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16384" s="2" customFormat="1">
       <c r="A40" s="7" t="s">
         <v>178</v>
       </c>
@@ -13763,7 +13800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16384" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>179</v>
       </c>
@@ -13774,7 +13811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16384" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>174</v>
       </c>
@@ -13785,7 +13822,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="43" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16384" s="2" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>332</v>
       </c>
@@ -30177,7 +30214,7 @@
       <c r="XFC43" s="7"/>
       <c r="XFD43" s="7"/>
     </row>
-    <row r="44" spans="1:16384" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16384" s="2" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>160</v>
       </c>
@@ -46565,25 +46602,25 @@
       <c r="XFC44" s="7"/>
       <c r="XFD44" s="7"/>
     </row>
-    <row r="45" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16384" s="1" customFormat="1">
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="61" t="s">
+      <c r="B45" s="64" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="64" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="46" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16384" s="1" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-    </row>
-    <row r="47" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="64"/>
+      <c r="C46" s="64"/>
+    </row>
+    <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>337</v>
       </c>
@@ -46594,7 +46631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16384">
       <c r="A48" s="4" t="s">
         <v>339</v>
       </c>
@@ -46605,7 +46642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" s="1" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>341</v>
       </c>
@@ -46616,7 +46653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" s="1" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>343</v>
       </c>
@@ -46627,7 +46664,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
         <v>345</v>
       </c>
@@ -46638,7 +46675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
         <v>347</v>
       </c>
@@ -46649,7 +46686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
         <v>349</v>
       </c>
@@ -46660,7 +46697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
         <v>351</v>
       </c>
@@ -46671,7 +46708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
         <v>353</v>
       </c>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="428">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1701,6 +1701,38 @@
     <t>lwzb_game_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>图鉴收集任务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>common</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>fishbowl_handbook_award</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,20,30,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>116,117,118,119,</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_stars</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_feed</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_coin1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1763,7 +1795,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1818,6 +1850,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1858,7 +1896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2035,12 +2073,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2317,11 +2368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5358,8 +5409,8 @@
       <c r="D85" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E85" s="28" t="s">
-        <v>37</v>
+      <c r="E85" s="32" t="s">
+        <v>421</v>
       </c>
       <c r="F85" s="14">
         <v>85</v>
@@ -5657,6 +5708,41 @@
         <v>32503651200</v>
       </c>
       <c r="K93" s="49">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94" s="11">
+        <v>94</v>
+      </c>
+      <c r="B94" s="11">
+        <v>1</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="D94" s="47" t="s">
+        <v>409</v>
+      </c>
+      <c r="E94" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="11">
+        <v>94</v>
+      </c>
+      <c r="G94" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <v>1</v>
+      </c>
+      <c r="I94" s="11">
+        <v>1603641600</v>
+      </c>
+      <c r="J94" s="49">
+        <v>32503651200</v>
+      </c>
+      <c r="K94" s="49">
         <v>-1</v>
       </c>
     </row>
@@ -5669,11 +5755,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95:XFD95"/>
+      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8111,6 +8197,29 @@
         <v>2</v>
       </c>
     </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="64">
+        <v>94</v>
+      </c>
+      <c r="B95" s="64">
+        <v>94</v>
+      </c>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64">
+        <v>94</v>
+      </c>
+      <c r="E95" s="64"/>
+      <c r="F95" s="42" t="s">
+        <v>423</v>
+      </c>
+      <c r="G95" s="64"/>
+      <c r="H95" s="42" t="s">
+        <v>424</v>
+      </c>
+      <c r="I95" s="42" t="s">
+        <v>411</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8120,10 +8229,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9844,6 +9953,20 @@
         <v>184</v>
       </c>
       <c r="D102" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" s="4">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4">
+        <v>94</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>422</v>
+      </c>
+      <c r="D103" s="11">
         <v>0</v>
       </c>
     </row>
@@ -11028,11 +11151,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I121"/>
+  <dimension ref="A1:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A122" sqref="A122:XFD127"/>
+      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13246,6 +13369,158 @@
       <c r="E121" s="4">
         <v>1</v>
       </c>
+    </row>
+    <row r="122" spans="1:7" s="70" customFormat="1">
+      <c r="A122" s="67">
+        <v>121</v>
+      </c>
+      <c r="B122" s="68">
+        <v>107</v>
+      </c>
+      <c r="C122" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="D122" s="68">
+        <v>50000</v>
+      </c>
+      <c r="E122" s="68">
+        <v>1</v>
+      </c>
+      <c r="F122" s="68"/>
+      <c r="G122" s="68"/>
+    </row>
+    <row r="123" spans="1:7" s="70" customFormat="1">
+      <c r="A123" s="67">
+        <v>122</v>
+      </c>
+      <c r="B123" s="68">
+        <v>107</v>
+      </c>
+      <c r="C123" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="D123" s="68">
+        <v>100</v>
+      </c>
+      <c r="E123" s="68">
+        <v>1</v>
+      </c>
+      <c r="F123" s="68"/>
+      <c r="G123" s="68"/>
+    </row>
+    <row r="124" spans="1:7" s="70" customFormat="1">
+      <c r="A124" s="67">
+        <v>123</v>
+      </c>
+      <c r="B124" s="68">
+        <v>108</v>
+      </c>
+      <c r="C124" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="D124" s="68">
+        <v>5</v>
+      </c>
+      <c r="E124" s="68">
+        <v>1</v>
+      </c>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+    </row>
+    <row r="125" spans="1:7" s="70" customFormat="1">
+      <c r="A125" s="67">
+        <v>124</v>
+      </c>
+      <c r="B125" s="68">
+        <v>108</v>
+      </c>
+      <c r="C125" s="69" t="s">
+        <v>426</v>
+      </c>
+      <c r="D125" s="68">
+        <v>200</v>
+      </c>
+      <c r="E125" s="68">
+        <v>1</v>
+      </c>
+      <c r="F125" s="68"/>
+      <c r="G125" s="68"/>
+    </row>
+    <row r="126" spans="1:7" s="70" customFormat="1">
+      <c r="A126" s="67">
+        <v>125</v>
+      </c>
+      <c r="B126" s="68">
+        <v>108</v>
+      </c>
+      <c r="C126" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="D126" s="68">
+        <v>10</v>
+      </c>
+      <c r="E126" s="68">
+        <v>1</v>
+      </c>
+      <c r="F126" s="68"/>
+      <c r="G126" s="68"/>
+    </row>
+    <row r="127" spans="1:7" s="70" customFormat="1">
+      <c r="A127" s="67">
+        <v>126</v>
+      </c>
+      <c r="B127" s="68">
+        <v>109</v>
+      </c>
+      <c r="C127" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="D127" s="68">
+        <v>100000</v>
+      </c>
+      <c r="E127" s="68">
+        <v>1</v>
+      </c>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+    </row>
+    <row r="128" spans="1:7" s="70" customFormat="1">
+      <c r="A128" s="67">
+        <v>127</v>
+      </c>
+      <c r="B128" s="68">
+        <v>109</v>
+      </c>
+      <c r="C128" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="D128" s="68">
+        <v>20</v>
+      </c>
+      <c r="E128" s="68">
+        <v>1</v>
+      </c>
+      <c r="F128" s="68"/>
+      <c r="G128" s="68"/>
+    </row>
+    <row r="129" spans="1:7" s="70" customFormat="1">
+      <c r="A129" s="67">
+        <v>128</v>
+      </c>
+      <c r="B129" s="68">
+        <v>109</v>
+      </c>
+      <c r="C129" s="69" t="s">
+        <v>425</v>
+      </c>
+      <c r="D129" s="68">
+        <v>500000</v>
+      </c>
+      <c r="E129" s="68">
+        <v>1</v>
+      </c>
+      <c r="F129" s="68"/>
+      <c r="G129" s="68"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -13391,10 +13666,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="65">
         <v>1</v>
       </c>
     </row>
@@ -13402,8 +13677,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -13453,10 +13728,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="65" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="64" t="s">
+      <c r="C8" s="65" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13464,17 +13739,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="65" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="65">
         <v>1</v>
       </c>
     </row>
@@ -13482,8 +13757,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -13588,10 +13863,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="66" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="66">
         <v>1</v>
       </c>
     </row>
@@ -13599,8 +13874,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -46606,10 +46881,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="65" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="64" t="s">
+      <c r="C45" s="65" t="s">
         <v>277</v>
       </c>
     </row>
@@ -46617,8 +46892,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="64"/>
-      <c r="C46" s="64"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -46721,16 +46996,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2076,12 +2076,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2092,6 +2086,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2370,9 +2370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C86" sqref="C86"/>
+      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5759,7 +5759,7 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H96" sqref="H96"/>
+      <selection pane="bottomLeft" activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11153,9 +11153,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D127" sqref="D127"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13370,157 +13370,157 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="70" customFormat="1">
-      <c r="A122" s="67">
+    <row r="122" spans="1:7" s="68" customFormat="1">
+      <c r="A122" s="65">
         <v>121</v>
       </c>
-      <c r="B122" s="68">
-        <v>107</v>
-      </c>
-      <c r="C122" s="69" t="s">
+      <c r="B122" s="66">
+        <v>116</v>
+      </c>
+      <c r="C122" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="D122" s="68">
+      <c r="D122" s="66">
         <v>50000</v>
       </c>
-      <c r="E122" s="68">
+      <c r="E122" s="66">
         <v>1</v>
       </c>
-      <c r="F122" s="68"/>
-      <c r="G122" s="68"/>
-    </row>
-    <row r="123" spans="1:7" s="70" customFormat="1">
-      <c r="A123" s="67">
+      <c r="F122" s="66"/>
+      <c r="G122" s="66"/>
+    </row>
+    <row r="123" spans="1:7" s="68" customFormat="1">
+      <c r="A123" s="65">
         <v>122</v>
       </c>
-      <c r="B123" s="68">
-        <v>107</v>
-      </c>
-      <c r="C123" s="69" t="s">
+      <c r="B123" s="66">
+        <v>116</v>
+      </c>
+      <c r="C123" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="D123" s="68">
+      <c r="D123" s="66">
         <v>100</v>
       </c>
-      <c r="E123" s="68">
+      <c r="E123" s="66">
         <v>1</v>
       </c>
-      <c r="F123" s="68"/>
-      <c r="G123" s="68"/>
-    </row>
-    <row r="124" spans="1:7" s="70" customFormat="1">
-      <c r="A124" s="67">
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+    </row>
+    <row r="124" spans="1:7" s="68" customFormat="1">
+      <c r="A124" s="65">
         <v>123</v>
       </c>
-      <c r="B124" s="68">
-        <v>108</v>
-      </c>
-      <c r="C124" s="69" t="s">
+      <c r="B124" s="66">
+        <v>117</v>
+      </c>
+      <c r="C124" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="D124" s="68">
+      <c r="D124" s="66">
         <v>5</v>
       </c>
-      <c r="E124" s="68">
+      <c r="E124" s="66">
         <v>1</v>
       </c>
-      <c r="F124" s="68"/>
-      <c r="G124" s="68"/>
-    </row>
-    <row r="125" spans="1:7" s="70" customFormat="1">
-      <c r="A125" s="67">
+      <c r="F124" s="66"/>
+      <c r="G124" s="66"/>
+    </row>
+    <row r="125" spans="1:7" s="68" customFormat="1">
+      <c r="A125" s="65">
         <v>124</v>
       </c>
-      <c r="B125" s="68">
-        <v>108</v>
-      </c>
-      <c r="C125" s="69" t="s">
+      <c r="B125" s="66">
+        <v>117</v>
+      </c>
+      <c r="C125" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="D125" s="68">
+      <c r="D125" s="66">
         <v>200</v>
       </c>
-      <c r="E125" s="68">
+      <c r="E125" s="66">
         <v>1</v>
       </c>
-      <c r="F125" s="68"/>
-      <c r="G125" s="68"/>
-    </row>
-    <row r="126" spans="1:7" s="70" customFormat="1">
-      <c r="A126" s="67">
+      <c r="F125" s="66"/>
+      <c r="G125" s="66"/>
+    </row>
+    <row r="126" spans="1:7" s="68" customFormat="1">
+      <c r="A126" s="65">
         <v>125</v>
       </c>
-      <c r="B126" s="68">
-        <v>108</v>
-      </c>
-      <c r="C126" s="69" t="s">
+      <c r="B126" s="66">
+        <v>118</v>
+      </c>
+      <c r="C126" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="D126" s="68">
+      <c r="D126" s="66">
         <v>10</v>
       </c>
-      <c r="E126" s="68">
+      <c r="E126" s="66">
         <v>1</v>
       </c>
-      <c r="F126" s="68"/>
-      <c r="G126" s="68"/>
-    </row>
-    <row r="127" spans="1:7" s="70" customFormat="1">
-      <c r="A127" s="67">
+      <c r="F126" s="66"/>
+      <c r="G126" s="66"/>
+    </row>
+    <row r="127" spans="1:7" s="68" customFormat="1">
+      <c r="A127" s="65">
         <v>126</v>
       </c>
-      <c r="B127" s="68">
-        <v>109</v>
-      </c>
-      <c r="C127" s="69" t="s">
+      <c r="B127" s="66">
+        <v>118</v>
+      </c>
+      <c r="C127" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="D127" s="68">
+      <c r="D127" s="66">
         <v>100000</v>
       </c>
-      <c r="E127" s="68">
+      <c r="E127" s="66">
         <v>1</v>
       </c>
-      <c r="F127" s="68"/>
-      <c r="G127" s="68"/>
-    </row>
-    <row r="128" spans="1:7" s="70" customFormat="1">
-      <c r="A128" s="67">
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+    </row>
+    <row r="128" spans="1:7" s="68" customFormat="1">
+      <c r="A128" s="65">
         <v>127</v>
       </c>
-      <c r="B128" s="68">
-        <v>109</v>
-      </c>
-      <c r="C128" s="69" t="s">
+      <c r="B128" s="66">
+        <v>119</v>
+      </c>
+      <c r="C128" s="67" t="s">
         <v>427</v>
       </c>
-      <c r="D128" s="68">
+      <c r="D128" s="66">
         <v>20</v>
       </c>
-      <c r="E128" s="68">
+      <c r="E128" s="66">
         <v>1</v>
       </c>
-      <c r="F128" s="68"/>
-      <c r="G128" s="68"/>
-    </row>
-    <row r="129" spans="1:7" s="70" customFormat="1">
-      <c r="A129" s="67">
+      <c r="F128" s="66"/>
+      <c r="G128" s="66"/>
+    </row>
+    <row r="129" spans="1:7" s="68" customFormat="1">
+      <c r="A129" s="65">
         <v>128</v>
       </c>
-      <c r="B129" s="68">
-        <v>109</v>
-      </c>
-      <c r="C129" s="69" t="s">
+      <c r="B129" s="66">
+        <v>119</v>
+      </c>
+      <c r="C129" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="D129" s="68">
+      <c r="D129" s="66">
         <v>500000</v>
       </c>
-      <c r="E129" s="68">
+      <c r="E129" s="66">
         <v>1</v>
       </c>
-      <c r="F129" s="68"/>
-      <c r="G129" s="68"/>
+      <c r="F129" s="66"/>
+      <c r="G129" s="66"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -13666,10 +13666,10 @@
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>274</v>
       </c>
-      <c r="C2" s="65">
+      <c r="C2" s="69">
         <v>1</v>
       </c>
     </row>
@@ -13677,8 +13677,8 @@
       <c r="A3" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -13728,10 +13728,10 @@
       <c r="A8" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="69" t="s">
         <v>283</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="69" t="s">
         <v>277</v>
       </c>
     </row>
@@ -13739,17 +13739,17 @@
       <c r="A9" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="65">
+      <c r="C10" s="69">
         <v>1</v>
       </c>
     </row>
@@ -13757,8 +13757,8 @@
       <c r="A11" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="65"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -13863,10 +13863,10 @@
       <c r="A21" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="70" t="s">
         <v>300</v>
       </c>
-      <c r="C21" s="66">
+      <c r="C21" s="70">
         <v>1</v>
       </c>
     </row>
@@ -13874,8 +13874,8 @@
       <c r="A22" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -46881,10 +46881,10 @@
       <c r="A45" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B45" s="65" t="s">
+      <c r="B45" s="69" t="s">
         <v>335</v>
       </c>
-      <c r="C45" s="65" t="s">
+      <c r="C45" s="69" t="s">
         <v>277</v>
       </c>
     </row>
@@ -46892,8 +46892,8 @@
       <c r="A46" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -46996,16 +46996,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2370,9 +2370,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D94" sqref="D94"/>
+      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5716,7 +5716,7 @@
         <v>94</v>
       </c>
       <c r="B94" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" s="47" t="s">
         <v>420</v>
@@ -11153,7 +11153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
@@ -46996,16 +46996,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2384,7 +2384,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11166,8 +11166,8 @@
   <dimension ref="A1:I135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13291,7 +13291,7 @@
         <v>221</v>
       </c>
       <c r="D116" s="69">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E116" s="69">
         <v>1</v>
@@ -13327,7 +13327,7 @@
         <v>221</v>
       </c>
       <c r="D118" s="71">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E118" s="69">
         <v>1</v>
@@ -13399,7 +13399,7 @@
         <v>221</v>
       </c>
       <c r="D122" s="69">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E122" s="69">
         <v>1</v>
@@ -13435,7 +13435,7 @@
         <v>221</v>
       </c>
       <c r="D124" s="69">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E124" s="69">
         <v>1</v>
@@ -13471,7 +13471,7 @@
         <v>221</v>
       </c>
       <c r="D126" s="69">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E126" s="69">
         <v>1</v>
@@ -47122,16 +47122,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -11167,7 +11167,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13363,7 +13363,7 @@
         <v>221</v>
       </c>
       <c r="D120" s="69">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E120" s="69">
         <v>1</v>
@@ -47122,16 +47122,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="432">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1736,6 +1736,18 @@
     <t>task_1000321</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>is_send_client|是否主动推送给客户端</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>award_change_type|奖励类型（必须以task_开头）</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_ocean_explore_week_children_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1798,7 +1810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1859,6 +1871,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1899,7 +1917,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2103,6 +2121,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2380,11 +2401,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomLeft" activeCell="L93" sqref="L93:M93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2394,17 +2415,17 @@
     <col min="3" max="3" width="73.25" style="11" customWidth="1"/>
     <col min="4" max="4" width="31.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="27.375" style="11" customWidth="1"/>
-    <col min="6" max="11" width="27.5" style="11" customWidth="1"/>
-    <col min="12" max="12" width="61" style="11" customWidth="1"/>
-    <col min="13" max="13" width="54.375" style="11" customWidth="1"/>
-    <col min="14" max="14" width="35" style="11" customWidth="1"/>
-    <col min="15" max="15" width="108.5" style="11" customWidth="1"/>
-    <col min="16" max="16" width="28.875" style="11" customWidth="1"/>
-    <col min="17" max="17" width="19.375" style="11" customWidth="1"/>
-    <col min="18" max="16384" width="11" style="11"/>
+    <col min="6" max="13" width="27.5" style="11" customWidth="1"/>
+    <col min="14" max="14" width="61" style="11" customWidth="1"/>
+    <col min="15" max="15" width="54.375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="35" style="11" customWidth="1"/>
+    <col min="17" max="17" width="108.5" style="11" customWidth="1"/>
+    <col min="18" max="18" width="28.875" style="11" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="11" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48" customHeight="1">
+    <row r="1" spans="1:21" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2439,18 +2460,24 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-    </row>
-    <row r="2" spans="1:19" ht="43.5" customHeight="1">
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+    </row>
+    <row r="2" spans="1:21" ht="43.5" customHeight="1">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -2484,16 +2511,16 @@
       <c r="K2" s="11">
         <v>-1</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="26"/>
-      <c r="P2" s="27"/>
-    </row>
-    <row r="3" spans="1:19" ht="43.5" customHeight="1">
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
+    </row>
+    <row r="3" spans="1:21" ht="43.5" customHeight="1">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -2527,16 +2554,16 @@
       <c r="K3" s="11">
         <v>-1</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="27"/>
-    </row>
-    <row r="4" spans="1:19" ht="43.5" customHeight="1">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="27"/>
+    </row>
+    <row r="4" spans="1:21" ht="43.5" customHeight="1">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -2570,16 +2597,16 @@
       <c r="K4" s="11">
         <v>-1</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-    </row>
-    <row r="5" spans="1:19" ht="43.5" customHeight="1">
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
+    </row>
+    <row r="5" spans="1:21" ht="43.5" customHeight="1">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -2613,16 +2640,16 @@
       <c r="K5" s="11">
         <v>-1</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="N5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="O5" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-    </row>
-    <row r="6" spans="1:19" ht="25.5" customHeight="1">
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
+    </row>
+    <row r="6" spans="1:21" ht="25.5" customHeight="1">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -2656,14 +2683,14 @@
       <c r="K6" s="11">
         <v>-1</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="N6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="O6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="21" customHeight="1">
+    <row r="7" spans="1:21" ht="21" customHeight="1">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -2697,14 +2724,14 @@
       <c r="K7" s="11">
         <v>-1</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="N7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="O7" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="21" customHeight="1">
+    <row r="8" spans="1:21" ht="21" customHeight="1">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -2738,14 +2765,14 @@
       <c r="K8" s="11">
         <v>-1</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="N8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="19" t="s">
+      <c r="O8" s="19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -2779,11 +2806,11 @@
       <c r="K9" s="11">
         <v>-1</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="N9" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -2818,7 +2845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -2853,7 +2880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -2888,7 +2915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -2923,7 +2950,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -2958,7 +2985,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -2993,7 +3020,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -5268,7 +5295,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="14" customFormat="1">
+    <row r="81" spans="1:13" s="14" customFormat="1">
       <c r="A81" s="14">
         <v>81</v>
       </c>
@@ -5303,7 +5330,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="14" customFormat="1">
+    <row r="82" spans="1:13" s="14" customFormat="1">
       <c r="A82" s="37">
         <v>82</v>
       </c>
@@ -5337,8 +5364,10 @@
       <c r="K82" s="37">
         <v>259200</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" s="14" customFormat="1">
+      <c r="L82" s="37"/>
+      <c r="M82" s="37"/>
+    </row>
+    <row r="83" spans="1:13" s="14" customFormat="1">
       <c r="A83" s="37">
         <v>83</v>
       </c>
@@ -5372,8 +5401,10 @@
       <c r="K83" s="37">
         <v>259200</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" s="14" customFormat="1">
+      <c r="L83" s="37"/>
+      <c r="M83" s="37"/>
+    </row>
+    <row r="84" spans="1:13" s="14" customFormat="1">
       <c r="A84" s="37">
         <v>84</v>
       </c>
@@ -5407,8 +5438,10 @@
       <c r="K84" s="37">
         <v>259200</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" s="14" customFormat="1">
+      <c r="L84" s="37"/>
+      <c r="M84" s="37"/>
+    </row>
+    <row r="85" spans="1:13" s="14" customFormat="1">
       <c r="A85" s="14">
         <v>85</v>
       </c>
@@ -5443,7 +5476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:13">
       <c r="A86" s="14">
         <v>86</v>
       </c>
@@ -5478,7 +5511,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:13">
       <c r="A87" s="14">
         <v>87</v>
       </c>
@@ -5513,7 +5546,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:13">
       <c r="A88" s="14">
         <v>88</v>
       </c>
@@ -5548,7 +5581,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:13">
       <c r="A89" s="11">
         <v>89</v>
       </c>
@@ -5583,7 +5616,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="49" customFormat="1">
+    <row r="90" spans="1:13" s="49" customFormat="1">
       <c r="A90" s="49">
         <v>90</v>
       </c>
@@ -5618,7 +5651,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="49" customFormat="1">
+    <row r="91" spans="1:13" s="49" customFormat="1">
       <c r="A91" s="49">
         <v>91</v>
       </c>
@@ -5653,7 +5686,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="49" customFormat="1">
+    <row r="92" spans="1:13" s="49" customFormat="1">
       <c r="A92" s="49">
         <v>92</v>
       </c>
@@ -5688,7 +5721,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:13">
       <c r="A93" s="11">
         <v>93</v>
       </c>
@@ -5722,8 +5755,14 @@
       <c r="K93" s="49">
         <v>-1</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="74">
+        <v>1</v>
+      </c>
+      <c r="M93" s="24" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="11">
         <v>94</v>
       </c>
@@ -5757,6 +5796,8 @@
       <c r="K94" s="49">
         <v>-1</v>
       </c>
+      <c r="L94" s="49"/>
+      <c r="M94" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -11165,9 +11206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D122" sqref="D122"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -47122,16 +47163,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="449">
   <si>
     <t>id|任务id</t>
   </si>
@@ -471,13 +471,7 @@
     <t>新玩家捕鱼红包任务(海底遗迹)</t>
   </si>
   <si>
-    <t> 全返礼包1，7次任务，匹配场任意场次对局5次可领1元激励金，每日限领1次</t>
-  </si>
-  <si>
     <t>sczd_all_return_task1</t>
-  </si>
-  <si>
-    <t>全返礼包2，10次任务，参加1次千元赛不论输赢可领10元激励金</t>
   </si>
   <si>
     <t>sczd_all_return_task2</t>
@@ -1514,9 +1508,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_award</t>
-  </si>
-  <si>
     <t>shop_gold_sum</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1622,7 +1613,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buyu_3d_award</t>
+    <t>buyu_award</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1639,10 +1630,6 @@
   </si>
   <si>
     <t>深海探险层数任务</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>normal</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1772,6 +1759,194 @@
     <t>prop_3d_fish_lock</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t> 全返礼包1（周返）--在3D捕鱼中累计消耗5万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t> 全返礼包2（月返）--在3D捕鱼中累计消耗50万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyu_3d_spend</t>
+  </si>
+  <si>
+    <t>消消乐闯关层数任务</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>121</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>122</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>123</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>000</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>andom</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaoxiaole_tower_week_task</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>task_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>iaoxiaole_tower</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_week_children_task</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,50,10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1834,7 +2009,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1901,6 +2076,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1941,7 +2122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2145,6 +2326,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2428,11 +2631,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U95"/>
+  <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -2443,7 +2646,7 @@
     <col min="4" max="4" width="31.125" style="11" customWidth="1"/>
     <col min="5" max="5" width="27.375" style="11" customWidth="1"/>
     <col min="6" max="12" width="27.5" style="11" customWidth="1"/>
-    <col min="13" max="13" width="36.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="44.75" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="61" style="11" customWidth="1"/>
     <col min="15" max="15" width="54.375" style="11" customWidth="1"/>
     <col min="16" max="16" width="35" style="11" customWidth="1"/>
@@ -2488,10 +2691,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>11</v>
@@ -4882,7 +5085,7 @@
         <v>122</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F68" s="24">
         <v>68</v>
@@ -5156,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E76" s="24" t="s">
         <v>122</v>
@@ -5194,7 +5397,7 @@
         <v>133</v>
       </c>
       <c r="D77" s="35" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E77" s="24" t="s">
         <v>122</v>
@@ -5225,14 +5428,14 @@
       <c r="B78" s="49">
         <v>1</v>
       </c>
-      <c r="C78" s="50" t="s">
+      <c r="C78" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="D78" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D78" s="50" t="s">
-        <v>135</v>
-      </c>
       <c r="E78" s="60" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F78" s="49">
         <v>78</v>
@@ -5260,14 +5463,14 @@
       <c r="B79" s="49">
         <v>1</v>
       </c>
-      <c r="C79" s="50" t="s">
-        <v>136</v>
+      <c r="C79" s="60" t="s">
+        <v>435</v>
       </c>
       <c r="D79" s="50" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E79" s="60" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F79" s="49">
         <v>79</v>
@@ -5296,13 +5499,13 @@
         <v>1</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D80" s="50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E80" s="60" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F80" s="49">
         <v>80</v>
@@ -5331,13 +5534,13 @@
         <v>1</v>
       </c>
       <c r="C81" s="32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D81" s="32" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F81" s="14">
         <v>81</v>
@@ -5366,13 +5569,13 @@
         <v>0</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D82" s="37" t="s">
         <v>122</v>
       </c>
       <c r="E82" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F82" s="37">
         <v>82</v>
@@ -5403,10 +5606,10 @@
         <v>0</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D83" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E83" s="37" t="s">
         <v>122</v>
@@ -5440,10 +5643,10 @@
         <v>0</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D84" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E84" s="37" t="s">
         <v>122</v>
@@ -5477,13 +5680,13 @@
         <v>1</v>
       </c>
       <c r="C85" s="32" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F85" s="14">
         <v>85</v>
@@ -5515,7 +5718,7 @@
         <v>108</v>
       </c>
       <c r="D86" s="47" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>110</v>
@@ -5550,7 +5753,7 @@
         <v>111</v>
       </c>
       <c r="D87" s="47" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>110</v>
@@ -5585,7 +5788,7 @@
         <v>113</v>
       </c>
       <c r="D88" s="47" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>110</v>
@@ -5617,10 +5820,10 @@
         <v>1</v>
       </c>
       <c r="C89" s="47" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D89" s="47" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>110</v>
@@ -5652,13 +5855,13 @@
         <v>1</v>
       </c>
       <c r="C90" s="60" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D90" s="60" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E90" s="60" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F90" s="49">
         <v>90</v>
@@ -5687,13 +5890,13 @@
         <v>1</v>
       </c>
       <c r="C91" s="60" t="s">
+        <v>392</v>
+      </c>
+      <c r="D91" s="60" t="s">
         <v>395</v>
       </c>
-      <c r="D91" s="60" t="s">
-        <v>398</v>
-      </c>
       <c r="E91" s="60" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F91" s="49">
         <v>91</v>
@@ -5722,13 +5925,13 @@
         <v>1</v>
       </c>
       <c r="C92" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="D92" s="60" t="s">
         <v>396</v>
       </c>
-      <c r="D92" s="60" t="s">
-        <v>399</v>
-      </c>
       <c r="E92" s="60" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F92" s="49">
         <v>92</v>
@@ -5757,13 +5960,13 @@
         <v>1</v>
       </c>
       <c r="C93" s="47" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D93" s="47" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E93" s="47" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F93" s="11">
         <v>93</v>
@@ -5787,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="M93" s="24" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -5798,10 +6001,10 @@
         <v>0</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>408</v>
+        <v>445</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>37</v>
@@ -5835,10 +6038,10 @@
         <v>1</v>
       </c>
       <c r="C95" s="47" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D95" s="47" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E95" s="47" t="s">
         <v>37</v>
@@ -5863,6 +6066,47 @@
       </c>
       <c r="L95" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" s="75" customFormat="1">
+      <c r="A96" s="75">
+        <v>96</v>
+      </c>
+      <c r="B96" s="75">
+        <v>1</v>
+      </c>
+      <c r="C96" s="76" t="s">
+        <v>437</v>
+      </c>
+      <c r="D96" s="76" t="s">
+        <v>446</v>
+      </c>
+      <c r="E96" s="76" t="s">
+        <v>444</v>
+      </c>
+      <c r="F96" s="75">
+        <v>96</v>
+      </c>
+      <c r="G96" s="75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="75">
+        <v>7</v>
+      </c>
+      <c r="I96" s="75">
+        <v>1615046400</v>
+      </c>
+      <c r="J96" s="75">
+        <v>32503651200</v>
+      </c>
+      <c r="K96" s="75">
+        <v>-1</v>
+      </c>
+      <c r="L96" s="75">
+        <v>1</v>
+      </c>
+      <c r="M96" s="76" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5874,11 +6118,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K96" sqref="K96"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5894,34 +6138,34 @@
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>147</v>
-      </c>
       <c r="J1" s="5" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K1" s="21"/>
     </row>
@@ -5933,7 +6177,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -5942,14 +6186,14 @@
         <v>1</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G2" s="19"/>
       <c r="H2" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5960,7 +6204,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -5969,14 +6213,14 @@
         <v>2</v>
       </c>
       <c r="F3" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5987,7 +6231,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -5996,14 +6240,14 @@
         <v>3</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="29" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6014,7 +6258,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
@@ -6023,14 +6267,14 @@
         <v>4</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -6041,7 +6285,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -6057,7 +6301,7 @@
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J6" s="22"/>
     </row>
@@ -6069,7 +6313,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
@@ -6084,7 +6328,7 @@
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -6095,7 +6339,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="4">
         <v>7</v>
@@ -6110,7 +6354,7 @@
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -6121,7 +6365,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -6136,7 +6380,7 @@
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -6148,7 +6392,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="4">
         <v>9</v>
@@ -6163,7 +6407,7 @@
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -6174,7 +6418,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
@@ -6189,7 +6433,7 @@
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -6200,7 +6444,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="4">
         <v>11</v>
@@ -6215,7 +6459,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6226,7 +6470,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
@@ -6241,7 +6485,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6252,7 +6496,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="4">
         <v>13</v>
@@ -6267,7 +6511,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6278,7 +6522,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="4">
         <v>14</v>
@@ -6293,7 +6537,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6304,7 +6548,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16" s="4">
         <v>15</v>
@@ -6319,7 +6563,7 @@
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6330,7 +6574,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="4">
         <v>16</v>
@@ -6345,7 +6589,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6356,7 +6600,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="4">
         <v>17</v>
@@ -6371,7 +6615,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6382,7 +6626,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" s="4">
         <v>18</v>
@@ -6397,7 +6641,7 @@
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -6408,7 +6652,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20" s="4">
         <v>19</v>
@@ -6423,7 +6667,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -6434,7 +6678,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="4">
         <v>20</v>
@@ -6449,7 +6693,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -6460,7 +6704,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="4">
         <v>21</v>
@@ -6475,7 +6719,7 @@
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -6486,7 +6730,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" s="4">
         <v>22</v>
@@ -6501,7 +6745,7 @@
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -6512,7 +6756,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="4">
         <v>23</v>
@@ -6527,7 +6771,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -6538,7 +6782,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D25" s="4">
         <v>24</v>
@@ -6553,7 +6797,7 @@
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -6564,7 +6808,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="4">
         <v>25</v>
@@ -6579,7 +6823,7 @@
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -6590,7 +6834,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="4">
         <v>26</v>
@@ -6605,7 +6849,7 @@
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -6616,7 +6860,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" s="4">
         <v>27</v>
@@ -6631,7 +6875,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -6642,7 +6886,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="4">
         <v>28</v>
@@ -6657,7 +6901,7 @@
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -6668,7 +6912,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="4">
         <v>29</v>
@@ -6683,7 +6927,7 @@
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -6694,7 +6938,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="4">
         <v>30</v>
@@ -6709,7 +6953,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -6720,7 +6964,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D32" s="4">
         <v>31</v>
@@ -6735,7 +6979,7 @@
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -6746,7 +6990,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D33" s="4">
         <v>32</v>
@@ -6761,7 +7005,7 @@
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -6772,7 +7016,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" s="4">
         <v>33</v>
@@ -6787,7 +7031,7 @@
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -6798,7 +7042,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="4">
         <v>34</v>
@@ -6813,7 +7057,7 @@
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -6824,7 +7068,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D36" s="4">
         <v>35</v>
@@ -6839,7 +7083,7 @@
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="12.95" customHeight="1">
@@ -6850,7 +7094,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" s="4">
         <v>36</v>
@@ -6865,7 +7109,7 @@
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="12.95" customHeight="1">
@@ -6876,7 +7120,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D38" s="4">
         <v>37</v>
@@ -6891,7 +7135,7 @@
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -6902,7 +7146,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D39" s="4">
         <v>38</v>
@@ -6917,7 +7161,7 @@
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="12.95" customHeight="1">
@@ -6928,7 +7172,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40" s="4">
         <v>39</v>
@@ -6943,7 +7187,7 @@
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="12.95" customHeight="1">
@@ -6954,7 +7198,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" s="4">
         <v>40</v>
@@ -6969,7 +7213,7 @@
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="12.95" customHeight="1">
@@ -6980,7 +7224,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D42" s="4">
         <v>41</v>
@@ -6995,7 +7239,7 @@
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="12.95" customHeight="1">
@@ -7006,7 +7250,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D43" s="4">
         <v>42</v>
@@ -7021,7 +7265,7 @@
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="12.95" customHeight="1">
@@ -7032,7 +7276,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D44" s="4">
         <v>43</v>
@@ -7047,7 +7291,7 @@
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="12.95" customHeight="1">
@@ -7058,7 +7302,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="4">
         <v>44</v>
@@ -7073,7 +7317,7 @@
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="12.95" customHeight="1">
@@ -7084,7 +7328,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="4">
         <v>45</v>
@@ -7099,7 +7343,7 @@
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="12.95" customHeight="1">
@@ -7110,7 +7354,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="4">
         <v>46</v>
@@ -7125,7 +7369,7 @@
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="12.95" customHeight="1">
@@ -7136,7 +7380,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="4">
         <v>47</v>
@@ -7151,7 +7395,7 @@
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="12.95" customHeight="1">
@@ -7162,7 +7406,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" s="4">
         <v>48</v>
@@ -7177,7 +7421,7 @@
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="12.95" customHeight="1">
@@ -7188,7 +7432,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="4">
         <v>49</v>
@@ -7203,7 +7447,7 @@
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7214,7 +7458,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="4">
         <v>50</v>
@@ -7223,14 +7467,14 @@
         <v>0</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7241,7 +7485,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="4">
         <v>51</v>
@@ -7256,7 +7500,7 @@
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7267,7 +7511,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="4">
         <v>52</v>
@@ -7282,7 +7526,7 @@
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7293,7 +7537,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="4">
         <v>53</v>
@@ -7308,7 +7552,7 @@
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -7319,7 +7563,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="4">
         <v>54</v>
@@ -7334,7 +7578,7 @@
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -7345,7 +7589,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D56" s="4">
         <v>55</v>
@@ -7360,7 +7604,7 @@
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -7371,7 +7615,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" s="4">
         <v>56</v>
@@ -7386,7 +7630,7 @@
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -7397,7 +7641,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="4">
         <v>57</v>
@@ -7409,7 +7653,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -7420,7 +7664,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="4">
         <v>58</v>
@@ -7432,7 +7676,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -7443,7 +7687,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="4">
         <v>59</v>
@@ -7455,7 +7699,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7466,7 +7710,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D61" s="4">
         <v>60</v>
@@ -7478,7 +7722,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -7489,7 +7733,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D62" s="4">
         <v>61</v>
@@ -7498,10 +7742,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -7512,7 +7756,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D63" s="4">
         <v>62</v>
@@ -7524,7 +7768,7 @@
         <v>99999</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -7535,7 +7779,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D64" s="4">
         <v>63</v>
@@ -7547,7 +7791,7 @@
         <v>99999</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -7558,7 +7802,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D65" s="4">
         <v>64</v>
@@ -7570,7 +7814,7 @@
         <v>99999</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -7581,7 +7825,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" s="4">
         <v>65</v>
@@ -7596,7 +7840,7 @@
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -7607,7 +7851,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" s="4">
         <v>66</v>
@@ -7622,7 +7866,7 @@
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -7633,7 +7877,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D68" s="4">
         <v>67</v>
@@ -7646,7 +7890,7 @@
       </c>
       <c r="G68" s="23"/>
       <c r="I68" s="10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -7657,7 +7901,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D69" s="4">
         <v>68</v>
@@ -7675,7 +7919,7 @@
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="33" customFormat="1">
@@ -7686,7 +7930,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D70" s="15">
         <v>69</v>
@@ -7695,14 +7939,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G70" s="15"/>
       <c r="H70" s="36" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="33" customFormat="1">
@@ -7713,7 +7957,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="15">
         <v>70</v>
@@ -7729,7 +7973,7 @@
         <v>88</v>
       </c>
       <c r="I71" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="33" customFormat="1">
@@ -7740,7 +7984,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D72" s="15">
         <v>71</v>
@@ -7756,7 +8000,7 @@
         <v>89</v>
       </c>
       <c r="I72" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="33" customFormat="1">
@@ -7767,7 +8011,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D73" s="15">
         <v>72</v>
@@ -7783,7 +8027,7 @@
         <v>90</v>
       </c>
       <c r="I73" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="33" customFormat="1">
@@ -7794,7 +8038,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D74" s="15">
         <v>73</v>
@@ -7810,7 +8054,7 @@
         <v>91</v>
       </c>
       <c r="I74" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="33" customFormat="1">
@@ -7821,7 +8065,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D75" s="15">
         <v>74</v>
@@ -7844,7 +8088,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D76" s="15">
         <v>75</v>
@@ -7867,7 +8111,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D77" s="15">
         <v>76</v>
@@ -7885,7 +8129,7 @@
         <v>92</v>
       </c>
       <c r="I77" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="33" customFormat="1">
@@ -7896,7 +8140,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D78" s="15">
         <v>77</v>
@@ -7914,7 +8158,7 @@
         <v>93</v>
       </c>
       <c r="I78" s="15" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="3" customFormat="1">
@@ -7937,7 +8181,7 @@
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1">
@@ -7960,7 +8204,7 @@
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:10" s="3" customFormat="1">
@@ -7983,7 +8227,7 @@
         <v>96</v>
       </c>
       <c r="I81" s="52" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -7994,7 +8238,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D82" s="18">
         <v>81</v>
@@ -8012,7 +8256,7 @@
         <v>97</v>
       </c>
       <c r="I82" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -8023,7 +8267,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D83" s="39">
         <v>82</v>
@@ -8039,7 +8283,7 @@
         <v>98</v>
       </c>
       <c r="I83" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:10" s="33" customFormat="1">
@@ -8050,7 +8294,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D84" s="39">
         <v>83</v>
@@ -8066,7 +8310,7 @@
         <v>99</v>
       </c>
       <c r="I84" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:10" s="33" customFormat="1">
@@ -8077,7 +8321,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="39" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D85" s="39">
         <v>84</v>
@@ -8093,7 +8337,7 @@
         <v>100</v>
       </c>
       <c r="I85" s="39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -8111,14 +8355,14 @@
         <v>0</v>
       </c>
       <c r="F86" s="42" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G86" s="41"/>
       <c r="H86" s="43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="I86" s="42" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -8132,7 +8376,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D87" s="15">
         <v>86</v>
@@ -8146,7 +8390,7 @@
       <c r="G87" s="45"/>
       <c r="H87" s="45"/>
       <c r="I87" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -8157,7 +8401,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D88" s="15">
         <v>87</v>
@@ -8171,7 +8415,7 @@
       <c r="G88" s="45"/>
       <c r="H88" s="45"/>
       <c r="I88" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -8182,7 +8426,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D89" s="15">
         <v>88</v>
@@ -8196,7 +8440,7 @@
       <c r="G89" s="45"/>
       <c r="H89" s="45"/>
       <c r="I89" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -8207,7 +8451,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D90" s="15">
         <v>89</v>
@@ -8221,7 +8465,7 @@
       <c r="G90" s="46"/>
       <c r="H90" s="46"/>
       <c r="I90" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:10" s="3" customFormat="1">
@@ -8244,7 +8488,7 @@
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="3" customFormat="1">
@@ -8267,7 +8511,7 @@
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93" spans="1:10" s="3" customFormat="1">
@@ -8290,7 +8534,7 @@
         <v>109</v>
       </c>
       <c r="I93" s="52" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -8304,13 +8548,13 @@
         <v>93</v>
       </c>
       <c r="F94" s="42" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H94" s="42" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="I94" s="42" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -8329,14 +8573,14 @@
       </c>
       <c r="E95" s="64"/>
       <c r="F95" s="42" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G95" s="64"/>
       <c r="H95" s="42" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="I95" s="42" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -8356,8 +8600,32 @@
         <v>120</v>
       </c>
       <c r="I96" s="42" t="s">
-        <v>434</v>
-      </c>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="74">
+        <v>96</v>
+      </c>
+      <c r="B97" s="75">
+        <v>96</v>
+      </c>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77">
+        <v>96</v>
+      </c>
+      <c r="E97" s="77"/>
+      <c r="F97" s="79" t="s">
+        <v>448</v>
+      </c>
+      <c r="G97" s="77"/>
+      <c r="H97" s="80" t="s">
+        <v>438</v>
+      </c>
+      <c r="I97" s="79" t="s">
+        <v>443</v>
+      </c>
+      <c r="J97" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8368,10 +8636,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8386,19 +8654,19 @@
   <sheetData>
     <row r="1" spans="1:9" ht="27">
       <c r="A1" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>183</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -8413,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D2" s="14">
         <v>1</v>
@@ -8430,7 +8698,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D3" s="14">
         <v>2</v>
@@ -8447,7 +8715,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D4" s="14">
         <v>3</v>
@@ -8464,7 +8732,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D5" s="14">
         <v>4</v>
@@ -8481,7 +8749,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D6" s="14">
         <v>5</v>
@@ -8498,7 +8766,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="15">
         <v>6</v>
@@ -8515,7 +8783,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D8" s="15">
         <v>15</v>
@@ -8532,7 +8800,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D9" s="15">
         <v>7</v>
@@ -8549,7 +8817,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
@@ -8566,7 +8834,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="15">
         <v>7</v>
@@ -8583,7 +8851,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D12" s="15">
         <v>10</v>
@@ -8600,7 +8868,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D13" s="15">
         <v>7</v>
@@ -8617,7 +8885,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D14" s="15">
         <v>7</v>
@@ -8634,7 +8902,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D15" s="15">
         <v>18</v>
@@ -8651,7 +8919,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D16" s="15">
         <v>0</v>
@@ -8668,7 +8936,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D17" s="15">
         <v>19</v>
@@ -8685,7 +8953,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D18" s="15">
         <v>10</v>
@@ -8702,7 +8970,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D19" s="15">
         <v>12</v>
@@ -8719,7 +8987,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D20" s="15">
         <v>11</v>
@@ -8736,7 +9004,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D21" s="15">
         <v>10</v>
@@ -8753,7 +9021,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D22" s="15">
         <v>8</v>
@@ -8770,7 +9038,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" s="15">
         <v>11</v>
@@ -8787,7 +9055,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D24" s="15">
         <v>9</v>
@@ -8804,7 +9072,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D25" s="15">
         <v>9</v>
@@ -8821,7 +9089,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D26" s="15">
         <v>20</v>
@@ -8838,7 +9106,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D27" s="15">
         <v>13</v>
@@ -8855,7 +9123,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" s="15">
         <v>11</v>
@@ -8872,7 +9140,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D29" s="15">
         <v>14</v>
@@ -8889,7 +9157,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D30" s="15">
         <v>12</v>
@@ -8906,7 +9174,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D31" s="15">
         <v>21</v>
@@ -8923,7 +9191,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D32" s="15">
         <v>7</v>
@@ -8940,7 +9208,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D33" s="15">
         <v>0</v>
@@ -8957,7 +9225,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D34" s="15">
         <v>7</v>
@@ -8974,7 +9242,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D35" s="15">
         <v>10</v>
@@ -8991,7 +9259,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D36" s="15">
         <v>7</v>
@@ -9008,7 +9276,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D37" s="15">
         <v>0</v>
@@ -9025,7 +9293,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D38" s="15">
         <v>0</v>
@@ -9042,7 +9310,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D39" s="15">
         <v>24</v>
@@ -9059,7 +9327,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40" s="15">
         <v>10</v>
@@ -9076,7 +9344,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D41" s="15">
         <v>7</v>
@@ -9093,7 +9361,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D42" s="15">
         <v>0</v>
@@ -9110,7 +9378,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D43" s="15">
         <v>7</v>
@@ -9127,7 +9395,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D44" s="15">
         <v>0</v>
@@ -9144,7 +9412,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D45" s="15">
         <v>0</v>
@@ -9161,7 +9429,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D46" s="15">
         <v>18</v>
@@ -9178,7 +9446,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="15">
         <v>10</v>
@@ -9195,7 +9463,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D48" s="15">
         <v>25</v>
@@ -9212,7 +9480,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D49" s="15">
         <v>26</v>
@@ -9229,7 +9497,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D50" s="15">
         <v>27</v>
@@ -9246,7 +9514,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D51" s="15">
         <v>0</v>
@@ -9263,7 +9531,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D52" s="15">
         <v>15</v>
@@ -9280,7 +9548,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D53" s="15">
         <v>17</v>
@@ -9297,7 +9565,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="15">
         <v>22</v>
@@ -9314,7 +9582,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="15">
         <v>22</v>
@@ -9331,7 +9599,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D56" s="15">
         <v>23</v>
@@ -9348,7 +9616,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D57" s="15">
         <v>0</v>
@@ -9365,7 +9633,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D58" s="15">
         <v>0</v>
@@ -9382,7 +9650,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D59" s="15">
         <v>0</v>
@@ -9399,7 +9667,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D60" s="15">
         <v>0</v>
@@ -9416,7 +9684,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D61" s="15">
         <v>0</v>
@@ -9433,7 +9701,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D62" s="15">
         <v>0</v>
@@ -9450,7 +9718,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D63" s="15">
         <v>0</v>
@@ -9467,7 +9735,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D64" s="15">
         <v>0</v>
@@ -9484,7 +9752,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D65" s="15">
         <v>0</v>
@@ -9501,7 +9769,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D66" s="15">
         <v>0</v>
@@ -9518,7 +9786,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D67" s="15">
         <v>0</v>
@@ -9535,7 +9803,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D68" s="15">
         <v>0</v>
@@ -9552,7 +9820,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D69" s="15">
         <v>28</v>
@@ -9569,7 +9837,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D70" s="15">
         <v>0</v>
@@ -9586,7 +9854,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="15">
         <v>0</v>
@@ -9603,7 +9871,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D72" s="15">
         <v>0</v>
@@ -9620,7 +9888,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D73" s="15">
         <v>0</v>
@@ -9637,7 +9905,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D74" s="15">
         <v>0</v>
@@ -9654,7 +9922,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D75" s="15">
         <v>0</v>
@@ -9671,7 +9939,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D76" s="15">
         <v>0</v>
@@ -9688,7 +9956,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D77" s="15">
         <v>29</v>
@@ -9705,7 +9973,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D78" s="15">
         <v>30</v>
@@ -9722,7 +9990,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>385</v>
+        <v>436</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -9739,7 +10007,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>403</v>
+        <v>436</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -9749,14 +10017,14 @@
       <c r="I80" s="15"/>
     </row>
     <row r="81" spans="1:9" s="33" customFormat="1">
-      <c r="A81" s="8">
+      <c r="A81" s="57">
         <v>80</v>
       </c>
       <c r="B81" s="57">
         <v>80</v>
       </c>
       <c r="C81" s="61" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D81" s="57">
         <v>0</v>
@@ -9766,14 +10034,14 @@
       <c r="I81" s="15"/>
     </row>
     <row r="82" spans="1:9" s="33" customFormat="1">
-      <c r="A82" s="8">
+      <c r="A82" s="57">
         <v>81</v>
       </c>
       <c r="B82" s="57">
         <v>80</v>
       </c>
-      <c r="C82" s="62" t="s">
-        <v>185</v>
+      <c r="C82" s="61" t="s">
+        <v>409</v>
       </c>
       <c r="D82" s="57">
         <v>0</v>
@@ -9783,14 +10051,14 @@
       <c r="I82" s="15"/>
     </row>
     <row r="83" spans="1:9" s="33" customFormat="1">
-      <c r="A83" s="8">
+      <c r="A83" s="57">
         <v>82</v>
       </c>
       <c r="B83" s="57">
         <v>80</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D83" s="57">
         <v>0</v>
@@ -9800,14 +10068,14 @@
       <c r="I83" s="15"/>
     </row>
     <row r="84" spans="1:9" s="33" customFormat="1">
-      <c r="A84" s="8">
+      <c r="A84" s="57">
         <v>83</v>
       </c>
       <c r="B84" s="57">
         <v>80</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D84" s="57">
         <v>0</v>
@@ -9817,31 +10085,31 @@
       <c r="I84" s="15"/>
     </row>
     <row r="85" spans="1:9" s="33" customFormat="1">
-      <c r="A85" s="8">
+      <c r="A85" s="57">
         <v>84</v>
       </c>
       <c r="B85" s="57">
         <v>80</v>
       </c>
-      <c r="C85" s="61" t="s">
-        <v>404</v>
+      <c r="C85" s="62" t="s">
+        <v>185</v>
       </c>
       <c r="D85" s="57">
         <v>0</v>
       </c>
       <c r="E85" s="15"/>
-      <c r="H85" s="63"/>
+      <c r="H85" s="15"/>
       <c r="I85" s="15"/>
     </row>
     <row r="86" spans="1:9" s="33" customFormat="1">
-      <c r="A86" s="8">
+      <c r="A86" s="57">
         <v>85</v>
       </c>
       <c r="B86" s="57">
         <v>80</v>
       </c>
       <c r="C86" s="61" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D86" s="57">
         <v>0</v>
@@ -9851,31 +10119,31 @@
       <c r="I86" s="15"/>
     </row>
     <row r="87" spans="1:9" s="33" customFormat="1">
-      <c r="A87" s="8">
+      <c r="A87" s="57">
         <v>86</v>
       </c>
       <c r="B87" s="57">
         <v>80</v>
       </c>
       <c r="C87" s="61" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D87" s="57">
         <v>0</v>
       </c>
       <c r="E87" s="15"/>
-      <c r="H87" s="15"/>
+      <c r="H87" s="63"/>
       <c r="I87" s="15"/>
     </row>
     <row r="88" spans="1:9" s="33" customFormat="1">
-      <c r="A88" s="8">
+      <c r="A88" s="57">
         <v>87</v>
       </c>
       <c r="B88" s="57">
         <v>80</v>
       </c>
       <c r="C88" s="61" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D88" s="57">
         <v>0</v>
@@ -9885,14 +10153,14 @@
       <c r="I88" s="15"/>
     </row>
     <row r="89" spans="1:9" s="33" customFormat="1">
-      <c r="A89" s="8">
+      <c r="A89" s="57">
         <v>88</v>
       </c>
       <c r="B89" s="57">
         <v>80</v>
       </c>
       <c r="C89" s="61" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D89" s="57">
         <v>0</v>
@@ -9901,32 +10169,35 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
     </row>
-    <row r="90" spans="1:9">
-      <c r="A90" s="8">
+    <row r="90" spans="1:9" s="33" customFormat="1">
+      <c r="A90" s="57">
         <v>89</v>
       </c>
-      <c r="B90" s="18">
-        <v>81</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="D90" s="18">
+      <c r="B90" s="57">
+        <v>80</v>
+      </c>
+      <c r="C90" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="D90" s="57">
         <v>0</v>
       </c>
+      <c r="E90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="8">
         <v>90</v>
       </c>
-      <c r="B91" s="39">
-        <v>82</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>371</v>
-      </c>
-      <c r="D91" s="37">
-        <v>33</v>
+      <c r="B91" s="18">
+        <v>81</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="D91" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -9934,13 +10205,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="39">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92" s="40" t="s">
         <v>369</v>
       </c>
-      <c r="D92" s="39">
-        <v>34</v>
+      <c r="D92" s="37">
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -9948,55 +10219,52 @@
         <v>92</v>
       </c>
       <c r="B93" s="39">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C93" s="40" t="s">
-        <v>370</v>
-      </c>
-      <c r="D93" s="37">
-        <v>35</v>
+        <v>367</v>
+      </c>
+      <c r="D93" s="39">
+        <v>34</v>
       </c>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="8">
         <v>93</v>
       </c>
-      <c r="B94" s="41">
-        <v>85</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" s="33" customFormat="1">
+      <c r="B94" s="39">
+        <v>84</v>
+      </c>
+      <c r="C94" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="D94" s="37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="8">
         <v>94</v>
       </c>
-      <c r="B95" s="15">
-        <v>86</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>167</v>
+      <c r="B95" s="41">
+        <v>85</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>373</v>
       </c>
       <c r="D95" s="15">
         <v>0</v>
       </c>
-      <c r="E95" s="15"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
     </row>
     <row r="96" spans="1:9" s="33" customFormat="1">
       <c r="A96" s="8">
         <v>95</v>
       </c>
       <c r="B96" s="15">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D96" s="15">
         <v>0</v>
@@ -10010,10 +10278,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="15">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D97" s="15">
         <v>0</v>
@@ -10022,31 +10290,34 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" s="33" customFormat="1">
       <c r="A98" s="8">
         <v>97</v>
       </c>
-      <c r="B98" s="4">
-        <v>89</v>
+      <c r="B98" s="15">
+        <v>88</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D98" s="15">
         <v>0</v>
       </c>
+      <c r="E98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>98</v>
       </c>
       <c r="B99" s="4">
-        <v>90</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="D99" s="11">
+        <v>89</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D99" s="15">
         <v>0</v>
       </c>
     </row>
@@ -10055,10 +10326,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="4">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D100" s="11">
         <v>0</v>
@@ -10069,10 +10340,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D101" s="11">
         <v>0</v>
@@ -10083,26 +10354,40 @@
         <v>101</v>
       </c>
       <c r="B102" s="4">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C102" s="42" t="s">
-        <v>419</v>
+        <v>182</v>
       </c>
       <c r="D102" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
-      <c r="A103" s="8">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="4">
+        <v>94</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>415</v>
+      </c>
+      <c r="D103" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" s="4">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4">
         <v>95</v>
       </c>
-      <c r="C103" s="42" t="s">
-        <v>369</v>
-      </c>
-      <c r="D103" s="11">
+      <c r="C104" s="42" t="s">
+        <v>367</v>
+      </c>
+      <c r="D104" s="11">
         <v>0</v>
       </c>
     </row>
@@ -10133,19 +10418,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="66.95" customHeight="1">
       <c r="A1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>191</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>12</v>
@@ -10159,10 +10444,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -10176,7 +10461,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -10193,10 +10478,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -10210,7 +10495,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -10227,10 +10512,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -10244,7 +10529,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -10261,10 +10546,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -10278,7 +10563,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -10295,10 +10580,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -10312,10 +10597,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -10329,7 +10614,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -10346,10 +10631,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -10363,10 +10648,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -10380,10 +10665,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -10397,7 +10682,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -10414,10 +10699,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -10431,7 +10716,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -10448,7 +10733,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -10465,10 +10750,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -10482,7 +10767,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -10499,7 +10784,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -10516,10 +10801,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -10533,10 +10818,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -10550,7 +10835,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -10567,10 +10852,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -10584,7 +10869,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -10601,7 +10886,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -10618,10 +10903,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
@@ -10638,7 +10923,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
@@ -10655,10 +10940,10 @@
         <v>16</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
@@ -10672,10 +10957,10 @@
         <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -10689,7 +10974,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D33" s="4">
         <v>96</v>
@@ -10706,10 +10991,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -10723,7 +11008,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -10740,10 +11025,10 @@
         <v>18</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -10757,10 +11042,10 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
@@ -10774,7 +11059,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -10791,10 +11076,10 @@
         <v>19</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
@@ -10808,10 +11093,10 @@
         <v>19</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -10825,7 +11110,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D41" s="4">
         <v>3</v>
@@ -10842,10 +11127,10 @@
         <v>20</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -10859,10 +11144,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -10876,7 +11161,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D44" s="4">
         <v>96</v>
@@ -10893,10 +11178,10 @@
         <v>21</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
@@ -10910,10 +11195,10 @@
         <v>21</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
@@ -10927,7 +11212,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -10944,10 +11229,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -10961,7 +11246,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -10978,10 +11263,10 @@
         <v>23</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -10995,10 +11280,10 @@
         <v>23</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -11012,7 +11297,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -11029,10 +11314,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -11046,10 +11331,10 @@
         <v>24</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -11063,7 +11348,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D55" s="4">
         <v>10</v>
@@ -11080,7 +11365,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -11097,7 +11382,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -11114,7 +11399,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D58" s="4">
         <v>74</v>
@@ -11131,7 +11416,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D59" s="15">
         <v>1</v>
@@ -11148,7 +11433,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -11165,7 +11450,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D61" s="4">
         <v>3</v>
@@ -11182,10 +11467,10 @@
         <v>31</v>
       </c>
       <c r="C62" s="54" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D62" s="54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E62" s="54">
         <v>2</v>
@@ -11200,10 +11485,10 @@
         <v>32</v>
       </c>
       <c r="C63" s="56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D63" s="54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E63" s="54">
         <v>2</v>
@@ -11218,10 +11503,10 @@
         <v>32</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D64" s="56" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E64" s="54">
         <v>2</v>
@@ -11236,7 +11521,7 @@
         <v>33</v>
       </c>
       <c r="C65" s="40" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D65" s="37">
         <v>2</v>
@@ -11253,7 +11538,7 @@
         <v>34</v>
       </c>
       <c r="C66" s="39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D66" s="37">
         <v>3</v>
@@ -11270,7 +11555,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D67" s="37">
         <v>4</v>
@@ -11287,11 +11572,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I138"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11310,31 +11595,31 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11345,7 +11630,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -11354,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11365,7 +11650,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -11374,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11385,7 +11670,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
@@ -11394,10 +11679,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11408,7 +11693,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D5" s="4">
         <v>75</v>
@@ -11426,7 +11711,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -11435,7 +11720,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11446,7 +11731,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -11455,7 +11740,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11466,7 +11751,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -11483,7 +11768,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -11500,7 +11785,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
@@ -11517,7 +11802,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
@@ -11534,7 +11819,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D12" s="4">
         <v>70</v>
@@ -11551,7 +11836,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D13" s="4">
         <v>50</v>
@@ -11568,7 +11853,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -11585,7 +11870,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D15" s="4">
         <v>150</v>
@@ -11602,7 +11887,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D16" s="4">
         <v>150</v>
@@ -11619,7 +11904,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -11636,7 +11921,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
@@ -11653,7 +11938,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D19" s="4">
         <v>50</v>
@@ -11670,7 +11955,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -11687,7 +11972,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D21" s="4">
         <v>30</v>
@@ -11704,7 +11989,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D22" s="4">
         <v>50</v>
@@ -11721,7 +12006,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D23" s="4">
         <v>50</v>
@@ -11738,7 +12023,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -11755,7 +12040,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D25" s="4">
         <v>80</v>
@@ -11772,7 +12057,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D26" s="4">
         <v>50</v>
@@ -11789,7 +12074,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -11806,7 +12091,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D28" s="4">
         <v>250</v>
@@ -11823,7 +12108,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D29" s="4">
         <v>666</v>
@@ -11832,7 +12117,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -11843,7 +12128,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D30" s="4">
         <v>50</v>
@@ -11860,7 +12145,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D31" s="4">
         <v>80</v>
@@ -11877,7 +12162,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D32" s="4">
         <v>30</v>
@@ -11886,7 +12171,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -11897,7 +12182,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D33" s="4">
         <v>20</v>
@@ -11906,7 +12191,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -11917,7 +12202,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D34" s="4">
         <v>2000</v>
@@ -11926,7 +12211,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -11937,7 +12222,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D35" s="4">
         <v>1000</v>
@@ -11946,7 +12231,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -11957,7 +12242,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D36" s="4">
         <v>2000</v>
@@ -11966,7 +12251,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -11977,7 +12262,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D37" s="4">
         <v>2000</v>
@@ -11986,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -11997,7 +12282,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -12006,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -12017,7 +12302,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D39" s="4">
         <v>1000</v>
@@ -12026,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -12037,7 +12322,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D40" s="4">
         <v>5000</v>
@@ -12046,7 +12331,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -12057,7 +12342,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D41" s="4">
         <v>5000</v>
@@ -12066,7 +12351,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -12077,7 +12362,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D42" s="4">
         <v>8000</v>
@@ -12086,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -12097,7 +12382,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D43" s="4">
         <v>1000</v>
@@ -12106,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -12117,7 +12402,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D44" s="4">
         <v>20000</v>
@@ -12126,7 +12411,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -12137,7 +12422,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D45" s="4">
         <v>5000</v>
@@ -12146,7 +12431,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -12157,7 +12442,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D46" s="4">
         <v>10000</v>
@@ -12166,7 +12451,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -12177,7 +12462,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -12186,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -12197,7 +12482,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D48" s="4">
         <v>180</v>
@@ -12206,7 +12491,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -12217,7 +12502,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D49" s="4">
         <v>280</v>
@@ -12226,7 +12511,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -12237,7 +12522,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D50" s="4">
         <v>480</v>
@@ -12246,7 +12531,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -12257,7 +12542,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D51" s="4">
         <v>1800</v>
@@ -12266,7 +12551,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -12277,7 +12562,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D52" s="4">
         <v>500</v>
@@ -12286,7 +12571,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -12297,7 +12582,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D53" s="4">
         <v>200000</v>
@@ -12306,7 +12591,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -12317,7 +12602,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D54" s="4">
         <v>50000</v>
@@ -12334,7 +12619,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -12351,7 +12636,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D56" s="4">
         <v>1000</v>
@@ -12360,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -12371,7 +12656,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D57" s="4">
         <v>500</v>
@@ -12380,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -12391,7 +12676,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D58" s="4">
         <v>50</v>
@@ -12408,7 +12693,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D59" s="4">
         <v>200</v>
@@ -12425,7 +12710,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D60" s="4">
         <v>300</v>
@@ -12442,7 +12727,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D61" s="4">
         <v>1000</v>
@@ -12459,7 +12744,7 @@
         <v>70</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D62" s="4">
         <v>6666</v>
@@ -12476,7 +12761,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -12493,7 +12778,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -12510,7 +12795,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D65" s="4">
         <v>30000</v>
@@ -12527,7 +12812,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -12544,7 +12829,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -12561,7 +12846,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D68" s="4">
         <v>1000</v>
@@ -12570,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -12581,7 +12866,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -12598,7 +12883,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D70" s="4">
         <v>688</v>
@@ -12615,7 +12900,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D71" s="4">
         <v>1888</v>
@@ -12632,7 +12917,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D72" s="4">
         <v>3888</v>
@@ -12649,7 +12934,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D73" s="4">
         <v>8888</v>
@@ -12666,7 +12951,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D74" s="4">
         <v>16888</v>
@@ -12683,7 +12968,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D75" s="4">
         <v>22888</v>
@@ -12700,7 +12985,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D76" s="4">
         <v>36888</v>
@@ -12717,7 +13002,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D77" s="4">
         <v>48888</v>
@@ -12734,7 +13019,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D78" s="4">
         <v>88888</v>
@@ -12751,7 +13036,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D79" s="4">
         <v>128888</v>
@@ -12768,7 +13053,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D80" s="4">
         <v>158888</v>
@@ -12785,7 +13070,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D81" s="4">
         <v>188888</v>
@@ -12802,7 +13087,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D82" s="4">
         <v>288888</v>
@@ -12819,7 +13104,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D83" s="4">
         <v>388888</v>
@@ -12836,7 +13121,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D84" s="4">
         <v>5</v>
@@ -12853,7 +13138,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
@@ -12870,7 +13155,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D86" s="4">
         <v>10</v>
@@ -12887,7 +13172,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D87" s="4">
         <v>10</v>
@@ -12904,7 +13189,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -12921,7 +13206,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D89" s="4">
         <v>20000</v>
@@ -12938,7 +13223,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D90" s="57">
         <v>100</v>
@@ -12957,7 +13242,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="58" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D91" s="57">
         <v>1</v>
@@ -12976,7 +13261,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D92" s="57">
         <v>100</v>
@@ -12995,7 +13280,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="58" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D93" s="57">
         <v>40000</v>
@@ -13014,7 +13299,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="58" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D94" s="57">
         <v>1</v>
@@ -13033,7 +13318,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D95" s="57">
         <v>220</v>
@@ -13052,7 +13337,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="58" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D96" s="57">
         <v>50000</v>
@@ -13071,7 +13356,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="58" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D97" s="57">
         <v>1</v>
@@ -13090,7 +13375,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D98" s="18">
         <v>1000</v>
@@ -13107,7 +13392,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D99" s="39">
         <v>1000</v>
@@ -13124,7 +13409,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D100" s="39">
         <v>5000</v>
@@ -13141,7 +13426,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D101" s="39">
         <v>20000</v>
@@ -13158,7 +13443,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D102" s="4">
         <v>30</v>
@@ -13175,7 +13460,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D103" s="4">
         <v>100</v>
@@ -13192,7 +13477,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D104" s="4">
         <v>500</v>
@@ -13209,7 +13494,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D105" s="4">
         <v>1000</v>
@@ -13226,7 +13511,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D106" s="41">
         <v>3000</v>
@@ -13243,7 +13528,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="44" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D107" s="44">
         <v>10000</v>
@@ -13260,7 +13545,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D108" s="57">
         <v>100</v>
@@ -13279,7 +13564,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="58" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D109" s="57">
         <v>1</v>
@@ -13298,7 +13583,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D110" s="57">
         <v>100</v>
@@ -13317,7 +13602,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="58" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D111" s="57">
         <v>40000</v>
@@ -13336,7 +13621,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="58" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D112" s="57">
         <v>1</v>
@@ -13355,7 +13640,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="58" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D113" s="57">
         <v>220</v>
@@ -13374,7 +13659,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="58" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="D114" s="57">
         <v>50000</v>
@@ -13393,7 +13678,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="58" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D115" s="57">
         <v>1</v>
@@ -13412,7 +13697,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D116" s="69">
         <v>10</v>
@@ -13429,7 +13714,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="70" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D117" s="69">
         <v>1</v>
@@ -13448,7 +13733,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D118" s="71">
         <v>10</v>
@@ -13465,7 +13750,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D119" s="69">
         <v>1</v>
@@ -13484,7 +13769,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D120" s="69">
         <v>10</v>
@@ -13501,7 +13786,7 @@
         <v>112</v>
       </c>
       <c r="C121" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D121" s="69">
         <v>1</v>
@@ -13520,7 +13805,7 @@
         <v>113</v>
       </c>
       <c r="C122" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D122" s="69">
         <v>10</v>
@@ -13537,7 +13822,7 @@
         <v>113</v>
       </c>
       <c r="C123" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D123" s="69">
         <v>1</v>
@@ -13556,7 +13841,7 @@
         <v>114</v>
       </c>
       <c r="C124" s="70" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D124" s="69">
         <v>10</v>
@@ -13573,7 +13858,7 @@
         <v>114</v>
       </c>
       <c r="C125" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D125" s="69">
         <v>1</v>
@@ -13592,7 +13877,7 @@
         <v>115</v>
       </c>
       <c r="C126" s="70" t="s">
-        <v>221</v>
+        <v>440</v>
       </c>
       <c r="D126" s="69">
         <v>50</v>
@@ -13609,7 +13894,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="70" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="D127" s="69">
         <v>1</v>
@@ -13628,7 +13913,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D128" s="65">
         <v>50000</v>
@@ -13647,7 +13932,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="66" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D129" s="65">
         <v>100</v>
@@ -13666,7 +13951,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D130" s="65">
         <v>5</v>
@@ -13685,7 +13970,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="66" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D131" s="65">
         <v>200</v>
@@ -13704,7 +13989,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D132" s="65">
         <v>10</v>
@@ -13723,7 +14008,7 @@
         <v>118</v>
       </c>
       <c r="C133" s="66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D133" s="65">
         <v>100000</v>
@@ -13742,7 +14027,7 @@
         <v>119</v>
       </c>
       <c r="C134" s="66" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="D134" s="65">
         <v>20</v>
@@ -13761,7 +14046,7 @@
         <v>119</v>
       </c>
       <c r="C135" s="66" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D135" s="65">
         <v>500000</v>
@@ -13780,7 +14065,7 @@
         <v>120</v>
       </c>
       <c r="C136" s="32" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D136" s="14">
         <v>3</v>
@@ -13797,7 +14082,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D137" s="14">
         <v>1</v>
@@ -13814,12 +14099,63 @@
         <v>120</v>
       </c>
       <c r="C138" s="32" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D138" s="14">
         <v>1</v>
       </c>
       <c r="E138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+      <c r="B139" s="4">
+        <v>121</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D139" s="81">
+        <v>100000</v>
+      </c>
+      <c r="E139" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+      <c r="B140" s="4">
+        <v>122</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D140" s="43" t="s">
+        <v>441</v>
+      </c>
+      <c r="E140" s="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+      <c r="B141" s="4">
+        <v>123</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D141" s="43" t="s">
+        <v>442</v>
+      </c>
+      <c r="E141" s="74">
         <v>1</v>
       </c>
     </row>
@@ -13846,82 +14182,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -13949,13 +14285,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>273</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -13965,50 +14301,50 @@
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>274</v>
-      </c>
-      <c r="C2" s="74">
+        <v>146</v>
+      </c>
+      <c r="B2" s="82" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
+        <v>156</v>
+      </c>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -14016,10 +14352,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -14027,57 +14363,57 @@
     </row>
     <row r="8" spans="1:8" s="1" customFormat="1">
       <c r="A8" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="B8" s="74" t="s">
-        <v>283</v>
-      </c>
-      <c r="C8" s="74" t="s">
-        <v>277</v>
+        <v>280</v>
+      </c>
+      <c r="B8" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
+        <v>157</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>285</v>
-      </c>
-      <c r="C10" s="74">
+        <v>282</v>
+      </c>
+      <c r="B10" s="82" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+        <v>160</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="2" customFormat="1">
       <c r="A13" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -14085,10 +14421,10 @@
     </row>
     <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -14096,10 +14432,10 @@
     </row>
     <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -14107,21 +14443,21 @@
     </row>
     <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -14129,32 +14465,32 @@
     </row>
     <row r="18" spans="1:3" s="3" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="1:3" s="3" customFormat="1">
       <c r="A19" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -14162,39 +14498,39 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>300</v>
-      </c>
-      <c r="C21" s="75">
+        <v>165</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="C21" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
+        <v>299</v>
+      </c>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="24" spans="1:3" s="3" customFormat="1">
       <c r="A24" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -14202,21 +14538,21 @@
     </row>
     <row r="25" spans="1:3" s="3" customFormat="1">
       <c r="A25" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -14224,32 +14560,32 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28" spans="1:3" s="3" customFormat="1">
       <c r="A28" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="3" customFormat="1">
       <c r="A29" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -14257,10 +14593,10 @@
     </row>
     <row r="30" spans="1:3" s="3" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -14268,32 +14604,32 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:16384">
       <c r="A33" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -14301,32 +14637,32 @@
     </row>
     <row r="34" spans="1:16384">
       <c r="A34" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="1:16384" s="3" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:16384" s="3" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -14334,21 +14670,21 @@
     </row>
     <row r="37" spans="1:16384" s="3" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38" spans="1:16384" s="3" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -14356,10 +14692,10 @@
     </row>
     <row r="39" spans="1:16384" s="2" customFormat="1">
       <c r="A39" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -14367,10 +14703,10 @@
     </row>
     <row r="40" spans="1:16384" s="2" customFormat="1">
       <c r="A40" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -14378,10 +14714,10 @@
     </row>
     <row r="41" spans="1:16384" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -14389,21 +14725,21 @@
     </row>
     <row r="42" spans="1:16384" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="43" spans="1:16384" s="2" customFormat="1">
       <c r="A43" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -30792,7 +31128,7 @@
     </row>
     <row r="44" spans="1:16384" s="2" customFormat="1">
       <c r="A44" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -47180,28 +47516,28 @@
     </row>
     <row r="45" spans="1:16384" s="1" customFormat="1">
       <c r="A45" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="B45" s="74" t="s">
-        <v>335</v>
-      </c>
-      <c r="C45" s="74" t="s">
-        <v>277</v>
+        <v>332</v>
+      </c>
+      <c r="B45" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="C45" s="82" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:16384" s="1" customFormat="1">
       <c r="A46" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="B46" s="74"/>
-      <c r="C46" s="74"/>
+        <v>334</v>
+      </c>
+      <c r="B46" s="82"/>
+      <c r="C46" s="82"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -47209,10 +47545,10 @@
     </row>
     <row r="48" spans="1:16384">
       <c r="A48" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -47220,10 +47556,10 @@
     </row>
     <row r="49" spans="1:3" s="1" customFormat="1">
       <c r="A49" s="6" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -47231,21 +47567,21 @@
     </row>
     <row r="50" spans="1:3" s="1" customFormat="1">
       <c r="A50" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -47253,10 +47589,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -47264,10 +47600,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -47275,10 +47611,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -47286,10 +47622,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1915,6 +1915,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1936,6 +1937,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2633,9 +2635,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6073,7 +6075,7 @@
         <v>96</v>
       </c>
       <c r="B96" s="75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" s="76" t="s">
         <v>437</v>
@@ -6120,9 +6122,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -47633,16 +47635,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_4.6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="451">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1834,34 +1834,6 @@
   </si>
   <si>
     <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>1</t>
     </r>
     <r>
@@ -1946,7 +1918,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>25,25,50,10000</t>
+    <t>30,20,30,10000</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2124,7 +2108,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2346,9 +2330,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2635,9 +2616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6006,7 +5987,7 @@
         <v>413</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>37</v>
@@ -6081,10 +6062,10 @@
         <v>437</v>
       </c>
       <c r="D96" s="76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E96" s="76" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F96" s="75">
         <v>96</v>
@@ -6108,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="M96" s="76" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -6122,9 +6103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8618,14 +8599,14 @@
       </c>
       <c r="E97" s="77"/>
       <c r="F97" s="79" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G97" s="77"/>
       <c r="H97" s="80" t="s">
         <v>438</v>
       </c>
       <c r="I97" s="79" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J97" s="78"/>
     </row>
@@ -11577,8 +11558,8 @@
   <dimension ref="A1:I141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B139" sqref="B139"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14118,10 +14099,10 @@
         <v>121</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D139" s="81">
-        <v>100000</v>
+        <v>219</v>
+      </c>
+      <c r="D139" s="43" t="s">
+        <v>449</v>
       </c>
       <c r="E139" s="74">
         <v>1</v>
@@ -14134,11 +14115,11 @@
       <c r="B140" s="4">
         <v>122</v>
       </c>
-      <c r="C140" s="4" t="s">
-        <v>219</v>
+      <c r="C140" s="42" t="s">
+        <v>448</v>
       </c>
       <c r="D140" s="43" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="E140" s="74">
         <v>1</v>
@@ -14155,7 +14136,7 @@
         <v>219</v>
       </c>
       <c r="D141" s="43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E141" s="74">
         <v>1</v>
@@ -14305,10 +14286,10 @@
       <c r="A2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="81" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="81">
         <v>1</v>
       </c>
     </row>
@@ -14316,8 +14297,8 @@
       <c r="A3" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -14367,10 +14348,10 @@
       <c r="A8" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
         <v>275</v>
       </c>
     </row>
@@ -14378,17 +14359,17 @@
       <c r="A9" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="81" t="s">
         <v>283</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="81">
         <v>1</v>
       </c>
     </row>
@@ -14396,8 +14377,8 @@
       <c r="A11" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -14502,10 +14483,10 @@
       <c r="A21" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="82" t="s">
         <v>298</v>
       </c>
-      <c r="C21" s="83">
+      <c r="C21" s="82">
         <v>1</v>
       </c>
     </row>
@@ -14513,8 +14494,8 @@
       <c r="A22" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="83"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="82"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -47520,10 +47501,10 @@
       <c r="A45" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B45" s="82" t="s">
+      <c r="B45" s="81" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="82" t="s">
+      <c r="C45" s="81" t="s">
         <v>275</v>
       </c>
     </row>
@@ -47531,8 +47512,8 @@
       <c r="A46" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="81"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -47635,16 +47616,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="452">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1850,23 +1850,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>andom</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>xiaoxiaole_tower_week_task</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1931,6 +1914,14 @@
   </si>
   <si>
     <t>100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>nor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -5987,7 +5978,7 @@
         <v>413</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>37</v>
@@ -6062,10 +6053,10 @@
         <v>437</v>
       </c>
       <c r="D96" s="76" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E96" s="76" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F96" s="75">
         <v>96</v>
@@ -6089,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="M96" s="76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -6103,9 +6094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
+      <selection pane="bottomLeft" activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8471,7 +8462,7 @@
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>149</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92" spans="1:10" s="3" customFormat="1">
@@ -8599,14 +8590,14 @@
       </c>
       <c r="E97" s="77"/>
       <c r="F97" s="79" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G97" s="77"/>
       <c r="H97" s="80" t="s">
         <v>438</v>
       </c>
       <c r="I97" s="79" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="J97" s="78"/>
     </row>
@@ -14102,7 +14093,7 @@
         <v>219</v>
       </c>
       <c r="D139" s="43" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E139" s="74">
         <v>1</v>
@@ -14116,10 +14107,10 @@
         <v>122</v>
       </c>
       <c r="C140" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D140" s="43" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E140" s="74">
         <v>1</v>
@@ -47616,16 +47607,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_4.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2856,11 +2856,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K107" sqref="K107"/>
+      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6319,7 +6320,7 @@
         <v>7</v>
       </c>
       <c r="I96" s="75">
-        <v>1615046400</v>
+        <v>1615132800</v>
       </c>
       <c r="J96" s="75">
         <v>32503651200</v>
@@ -6495,6 +6496,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -9087,6 +9089,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView topLeftCell="A85" workbookViewId="0">
@@ -11046,6 +11049,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12270,6 +12274,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15429,6 +15434,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15530,6 +15536,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -48894,16 +48901,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="478">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2108,19 +2108,15 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>xiaoxiaole_sanguo_game_num</t>
+    <t>50000,300000,350000,500000,800000,2000000,4000000,7000000,10000000,10000000,25000000,40000000,100000000,200000000,250000000,350000000,500000000,1000000000,1500000000,2500000000,2500000000,6000000000,5000000000,15000000000,15000000000,20000000000,30000000000,50000000000,50000000000,100000000000,50000000000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>is_free_game</t>
+    <t>xiaoxiaole_sanguo_collect_arrow</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>is_free_game</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000,300000,350000,500000,800000,2000000,4000000,7000000,10000000,10000000,25000000,40000000,100000000,200000000,250000000,350000000,500000000,1000000000,1500000000,2500000000,2500000000,6000000000,5000000000,15000000000,15000000000,20000000000,30000000000,50000000000,50000000000,100000000000,50000000000</t>
+    <t>xiaoxiaole_sanguo_collect_ship</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6486,7 +6482,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
@@ -8998,7 +8994,7 @@
         <v>96</v>
       </c>
       <c r="F98" s="83" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H98" s="83" t="s">
         <v>460</v>
@@ -9081,7 +9077,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -11018,10 +11014,10 @@
         <v>98</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D117" s="11">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -11032,10 +11028,10 @@
         <v>99</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D118" s="11">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11048,11 +11044,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A70" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12227,40 +12223,6 @@
         <v>467</v>
       </c>
       <c r="E68" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="11">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4">
-        <v>37</v>
-      </c>
-      <c r="C69" s="42" t="s">
-        <v>476</v>
-      </c>
-      <c r="D69" s="4">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="11">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4">
-        <v>38</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>477</v>
-      </c>
-      <c r="D70" s="4">
-        <v>2</v>
-      </c>
-      <c r="E70" s="4">
         <v>2</v>
       </c>
     </row>
@@ -48899,16 +48861,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -6486,9 +6486,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
+      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9079,8 +9079,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10845,6 +10846,9 @@
       <c r="D105" s="11">
         <v>0</v>
       </c>
+      <c r="E105" s="17">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="81">
@@ -10929,6 +10933,9 @@
       <c r="D111" s="11">
         <v>0</v>
       </c>
+      <c r="E111" s="17">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="81">
@@ -10944,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:5">
       <c r="A113" s="81">
         <v>112</v>
       </c>
@@ -10958,7 +10965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:5">
       <c r="A114" s="81">
         <v>113</v>
       </c>
@@ -10972,21 +10979,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:5">
       <c r="A115" s="81">
         <v>114</v>
       </c>
       <c r="B115" s="81">
         <v>96</v>
       </c>
-      <c r="C115" s="42" t="s">
+      <c r="C115" s="61" t="s">
         <v>462</v>
       </c>
       <c r="D115" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -11000,7 +11010,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:5">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -11014,7 +11024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:5">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -11031,6 +11041,7 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -48888,16 +48899,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2120,7 +2120,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>50000,300000,350000,500000,800000,2000000,4000000,7000000,10000000,10000000,25000000,40000000,100000000,200000000,250000000,350000000,500000000,1000000000,1500000000,2500000000,2500000000,6000000000,5000000000,15000000000,20000000000,30000000000,50000000000,100000000000,50000000000</t>
+    <t>50000,300000,350000,500000,800000,2000000,4000000,7000000,10000000,10000000,25000000,40000000,100000000,200000000,250000000,350000000,500000000,1000000000,1500000000,2500000000,2500000000,6000000000,5000000000,15000000000,15000000000,20000000000,30000000000,50000000000,50000000000.100000000000,50000000000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6486,9 +6486,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E101" sqref="E101"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9079,7 +9079,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I121" sqref="I121"/>
     </sheetView>
@@ -48899,16 +48899,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -2120,7 +2120,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>50000,300000,350000,500000,800000,2000000,4000000,7000000,10000000,10000000,25000000,40000000,100000000,200000000,250000000,350000000,500000000,1000000000,1500000000,2500000000,2500000000,6000000000,5000000000,15000000000,15000000000,20000000000,30000000000,50000000000,50000000000.100000000000,50000000000</t>
+    <t>50000,300000,350000,500000,800000,2000000,4000000,7000000,10000000,10000000,25000000,40000000,100000000,200000000,250000000,350000000,500000000,1000000000,1500000000,2500000000,2500000000,6000000000,5000000000,15000000000,15000000000,20000000000,30000000000,50000000000,50000000000,100000000000,50000000000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -6488,7 +6488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -48899,16 +48899,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1941,23 +1941,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0000,300000,350000,500000,800000,2000000,4000000,7000000,10000000,10000000,15000000,40000000,100000000,200000000,250000000,350000000,500000000,1000000000,1500000000,2500000000,6000000000,5000000000,15000000000,20000000000,30000000000,50000000000,50000000000,100000000000,50000000000</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>nor</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -2134,6 +2117,10 @@
   </si>
   <si>
     <t>is_free_game</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000,300000,350000,500000,800000,2000000,4000000,7000000,10000000,10000000,25000000,40000000,100000000,200000000,250000000,350000000,500000000,1000000000,1500000000,2500000000,2500000000,6000000000,5000000000,15000000000,20000000000,30000000000,50000000000,100000000000,50000000000</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2859,9 +2846,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I96" sqref="I96"/>
+      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6419,7 +6406,7 @@
         <v>0</v>
       </c>
       <c r="C99" s="47" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D99" s="47" t="s">
         <v>443</v>
@@ -6457,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="C100" s="47" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D100" s="47" t="s">
         <v>443</v>
@@ -6499,9 +6486,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <selection pane="bottomLeft" activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9011,13 +8998,13 @@
         <v>96</v>
       </c>
       <c r="F98" s="83" t="s">
+        <v>478</v>
+      </c>
+      <c r="H98" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="I98" s="42" t="s">
         <v>456</v>
-      </c>
-      <c r="H98" s="83" t="s">
-        <v>461</v>
-      </c>
-      <c r="I98" s="42" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -9034,10 +9021,10 @@
         <v>600</v>
       </c>
       <c r="H99" s="43" t="s">
+        <v>463</v>
+      </c>
+      <c r="I99" s="42" t="s">
         <v>464</v>
-      </c>
-      <c r="I99" s="42" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -9051,13 +9038,13 @@
         <v>98</v>
       </c>
       <c r="F100" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H100" s="43" t="s">
+        <v>472</v>
+      </c>
+      <c r="I100" s="42" t="s">
         <v>473</v>
-      </c>
-      <c r="I100" s="42" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -9071,19 +9058,19 @@
         <v>99</v>
       </c>
       <c r="F101" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="H101" s="43" t="s">
         <v>472</v>
       </c>
-      <c r="H101" s="43" t="s">
-        <v>473</v>
-      </c>
       <c r="I101" s="42" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10839,7 +10826,7 @@
         <v>95</v>
       </c>
       <c r="C104" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D104" s="11">
         <v>0</v>
@@ -10993,7 +10980,7 @@
         <v>96</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D115" s="11">
         <v>0</v>
@@ -11007,7 +10994,7 @@
         <v>97</v>
       </c>
       <c r="C116" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D116" s="11">
         <v>36</v>
@@ -11021,7 +11008,7 @@
         <v>98</v>
       </c>
       <c r="C117" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D117" s="11">
         <v>37</v>
@@ -11035,7 +11022,7 @@
         <v>99</v>
       </c>
       <c r="C118" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D118" s="11">
         <v>38</v>
@@ -12223,10 +12210,10 @@
         <v>36</v>
       </c>
       <c r="C68" s="42" t="s">
+        <v>466</v>
+      </c>
+      <c r="D68" s="93" t="s">
         <v>467</v>
-      </c>
-      <c r="D68" s="93" t="s">
-        <v>468</v>
       </c>
       <c r="E68" s="4">
         <v>2</v>
@@ -12240,7 +12227,7 @@
         <v>37</v>
       </c>
       <c r="C69" s="42" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -12257,7 +12244,7 @@
         <v>38</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D70" s="4">
         <v>2</v>
@@ -14870,7 +14857,7 @@
         <v>124</v>
       </c>
       <c r="C142" s="42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D142" s="4">
         <v>1000</v>
@@ -14887,7 +14874,7 @@
         <v>125</v>
       </c>
       <c r="C143" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D143" s="4">
         <v>30000</v>
@@ -14904,7 +14891,7 @@
         <v>126</v>
       </c>
       <c r="C144" s="42" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D144" s="4">
         <v>50000</v>
@@ -14921,7 +14908,7 @@
         <v>127</v>
       </c>
       <c r="C145" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D145" s="4">
         <v>10</v>
@@ -14938,7 +14925,7 @@
         <v>128</v>
       </c>
       <c r="C146" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D146" s="4">
         <v>20</v>
@@ -14955,7 +14942,7 @@
         <v>129</v>
       </c>
       <c r="C147" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D147" s="4">
         <v>130</v>
@@ -14972,7 +14959,7 @@
         <v>130</v>
       </c>
       <c r="C148" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D148" s="4">
         <v>170</v>
@@ -14989,7 +14976,7 @@
         <v>131</v>
       </c>
       <c r="C149" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D149" s="4">
         <v>200</v>
@@ -15006,7 +14993,7 @@
         <v>132</v>
       </c>
       <c r="C150" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D150" s="4">
         <v>230</v>
@@ -15023,7 +15010,7 @@
         <v>133</v>
       </c>
       <c r="C151" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D151" s="4">
         <v>270</v>
@@ -15040,7 +15027,7 @@
         <v>134</v>
       </c>
       <c r="C152" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D152" s="4">
         <v>300</v>
@@ -15057,7 +15044,7 @@
         <v>135</v>
       </c>
       <c r="C153" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D153" s="4">
         <v>330</v>
@@ -15074,7 +15061,7 @@
         <v>136</v>
       </c>
       <c r="C154" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D154" s="4">
         <v>500</v>
@@ -15091,7 +15078,7 @@
         <v>137</v>
       </c>
       <c r="C155" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D155" s="4">
         <v>670</v>
@@ -15108,7 +15095,7 @@
         <v>138</v>
       </c>
       <c r="C156" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D156" s="4">
         <v>1100</v>
@@ -15125,7 +15112,7 @@
         <v>139</v>
       </c>
       <c r="C157" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D157" s="4">
         <v>1400</v>
@@ -15142,7 +15129,7 @@
         <v>140</v>
       </c>
       <c r="C158" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D158" s="4">
         <v>1600</v>
@@ -15159,7 +15146,7 @@
         <v>141</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D159" s="4">
         <v>2200</v>
@@ -15176,7 +15163,7 @@
         <v>142</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D160" s="4">
         <v>3300</v>
@@ -15193,7 +15180,7 @@
         <v>143</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D161" s="4">
         <v>5000</v>
@@ -15210,7 +15197,7 @@
         <v>144</v>
       </c>
       <c r="C162" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D162" s="4">
         <v>8000</v>
@@ -15227,7 +15214,7 @@
         <v>145</v>
       </c>
       <c r="C163" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D163" s="4">
         <v>12000</v>
@@ -15244,7 +15231,7 @@
         <v>146</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D164" s="4">
         <v>20000</v>
@@ -15261,7 +15248,7 @@
         <v>147</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D165" s="4">
         <v>42000</v>
@@ -15278,7 +15265,7 @@
         <v>148</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D166" s="4">
         <v>62000</v>
@@ -15295,7 +15282,7 @@
         <v>149</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D167" s="4">
         <v>120000</v>
@@ -15312,7 +15299,7 @@
         <v>150</v>
       </c>
       <c r="C168" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D168" s="4">
         <v>200000</v>
@@ -15329,7 +15316,7 @@
         <v>151</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D169" s="4">
         <v>350000</v>
@@ -15346,7 +15333,7 @@
         <v>152</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D170" s="4">
         <v>500000</v>
@@ -15363,7 +15350,7 @@
         <v>153</v>
       </c>
       <c r="C171" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D171" s="4">
         <v>650000</v>
@@ -15380,7 +15367,7 @@
         <v>154</v>
       </c>
       <c r="C172" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D172" s="4">
         <v>800000</v>
@@ -15397,7 +15384,7 @@
         <v>155</v>
       </c>
       <c r="C173" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D173" s="4">
         <v>128</v>
@@ -48901,16 +48888,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -897,7 +897,7 @@
     <t>通行证-每周-使用1次红包大转盘</t>
   </si>
   <si>
-    <t>actp_own_task_txz</t>
+    <t>p_txz</t>
   </si>
   <si>
     <t>通行证-每周-深海探险通过10层</t>
@@ -2063,10 +2063,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2101,23 +2101,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2137,9 +2139,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2147,7 +2148,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2162,7 +2163,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2176,8 +2193,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2191,22 +2215,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2226,28 +2245,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2325,6 +2325,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2337,7 +2349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,7 +2367,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2367,7 +2385,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,19 +2439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,73 +2463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,11 +2511,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2535,17 +2563,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2555,39 +2579,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2606,16 +2597,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2624,118 +2624,118 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2744,16 +2744,16 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3294,8 +3294,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="494">
   <si>
     <t>id|任务id</t>
   </si>
@@ -1565,6 +1565,9 @@
     <t>93</t>
   </si>
   <si>
+    <t>1,2,3,4,5</t>
+  </si>
+  <si>
     <t>award_id|奖励配置id</t>
   </si>
   <si>
@@ -2063,9 +2066,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -2101,16 +2104,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2124,7 +2128,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2145,39 +2163,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2191,21 +2179,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2213,7 +2188,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2237,6 +2220,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2248,6 +2246,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2325,7 +2328,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2337,97 +2460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,37 +2472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,24 +2512,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2557,17 +2542,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2592,6 +2566,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2606,16 +2589,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2624,16 +2627,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2642,118 +2645,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3300,7 +3303,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
+      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7628,7 +7631,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10621,7 +10624,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12814,7 +12817,9 @@
       <c r="C134" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="D134" s="30"/>
+      <c r="D134" s="30">
+        <v>0</v>
+      </c>
       <c r="F134" s="45"/>
     </row>
     <row r="135" spans="1:6">
@@ -12843,7 +12848,7 @@
         <v>297</v>
       </c>
       <c r="D136" s="30">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -13016,12 +13021,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -14247,6 +14252,23 @@
         <v>3</v>
       </c>
       <c r="E71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="14">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
+        <v>40</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E72" s="4">
         <v>2</v>
       </c>
     </row>
@@ -14286,28 +14308,28 @@
         <v>307</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14318,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -14327,7 +14349,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14338,7 +14360,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -14347,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -14358,7 +14380,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
@@ -14370,7 +14392,7 @@
         <v>326</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14381,7 +14403,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D5" s="4">
         <v>75</v>
@@ -14399,7 +14421,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -14408,7 +14430,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14428,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14439,7 +14461,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -14456,7 +14478,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -14473,7 +14495,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
@@ -14490,7 +14512,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
@@ -14507,7 +14529,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D12" s="4">
         <v>70</v>
@@ -14524,7 +14546,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D13" s="4">
         <v>50</v>
@@ -14541,7 +14563,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -14558,7 +14580,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D15" s="4">
         <v>150</v>
@@ -14575,7 +14597,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D16" s="4">
         <v>150</v>
@@ -14592,7 +14614,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -14609,7 +14631,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
@@ -14626,7 +14648,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D19" s="4">
         <v>50</v>
@@ -14643,7 +14665,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -14660,7 +14682,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D21" s="4">
         <v>30</v>
@@ -14677,7 +14699,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D22" s="4">
         <v>50</v>
@@ -14694,7 +14716,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D23" s="4">
         <v>50</v>
@@ -14711,7 +14733,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -14728,7 +14750,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D25" s="4">
         <v>80</v>
@@ -14745,7 +14767,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D26" s="4">
         <v>50</v>
@@ -14762,7 +14784,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -14779,7 +14801,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D28" s="4">
         <v>250</v>
@@ -14796,7 +14818,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D29" s="4">
         <v>666</v>
@@ -14805,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -14816,7 +14838,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D30" s="4">
         <v>50</v>
@@ -14833,7 +14855,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D31" s="4">
         <v>80</v>
@@ -14850,7 +14872,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D32" s="4">
         <v>30</v>
@@ -14859,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -14870,7 +14892,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D33" s="4">
         <v>20</v>
@@ -14879,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -14899,7 +14921,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -14919,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -14939,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -14950,7 +14972,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D37" s="4">
         <v>2000</v>
@@ -14959,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -14970,7 +14992,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -14979,7 +15001,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -14999,7 +15021,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -15019,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -15039,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -15059,7 +15081,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -15079,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -15099,7 +15121,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -15119,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -15139,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -15150,7 +15172,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -15159,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -15170,7 +15192,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D48" s="4">
         <v>180</v>
@@ -15179,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -15190,7 +15212,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D49" s="4">
         <v>280</v>
@@ -15199,7 +15221,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -15210,7 +15232,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D50" s="4">
         <v>480</v>
@@ -15219,7 +15241,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -15230,7 +15252,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D51" s="4">
         <v>1800</v>
@@ -15239,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -15250,7 +15272,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D52" s="4">
         <v>500</v>
@@ -15259,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -15279,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -15307,7 +15329,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -15324,7 +15346,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D56" s="4">
         <v>1000</v>
@@ -15333,7 +15355,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -15344,7 +15366,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D57" s="4">
         <v>500</v>
@@ -15353,7 +15375,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15364,7 +15386,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D58" s="4">
         <v>50</v>
@@ -15381,7 +15403,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D59" s="4">
         <v>200</v>
@@ -15398,7 +15420,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D60" s="4">
         <v>300</v>
@@ -15415,7 +15437,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D61" s="4">
         <v>1000</v>
@@ -15449,7 +15471,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -15466,7 +15488,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -15500,7 +15522,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -15517,7 +15539,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -15534,7 +15556,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D68" s="4">
         <v>1000</v>
@@ -15543,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -15571,7 +15593,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D70" s="4">
         <v>688</v>
@@ -15588,7 +15610,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D71" s="4">
         <v>1888</v>
@@ -15605,7 +15627,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D72" s="4">
         <v>3888</v>
@@ -15622,7 +15644,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D73" s="4">
         <v>8888</v>
@@ -15639,7 +15661,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D74" s="4">
         <v>16888</v>
@@ -15656,7 +15678,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D75" s="4">
         <v>22888</v>
@@ -15673,7 +15695,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D76" s="4">
         <v>36888</v>
@@ -15690,7 +15712,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D77" s="4">
         <v>48888</v>
@@ -15707,7 +15729,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D78" s="4">
         <v>88888</v>
@@ -15724,7 +15746,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D79" s="4">
         <v>128888</v>
@@ -15741,7 +15763,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D80" s="4">
         <v>158888</v>
@@ -15758,7 +15780,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D81" s="4">
         <v>188888</v>
@@ -15775,7 +15797,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D82" s="4">
         <v>288888</v>
@@ -15792,7 +15814,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D83" s="4">
         <v>388888</v>
@@ -15809,7 +15831,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D84" s="4">
         <v>5</v>
@@ -15826,7 +15848,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
@@ -15843,7 +15865,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D86" s="4">
         <v>10</v>
@@ -15860,7 +15882,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D87" s="4">
         <v>10</v>
@@ -15877,7 +15899,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -15894,7 +15916,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D89" s="4">
         <v>20000</v>
@@ -15911,7 +15933,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D90" s="18">
         <v>100</v>
@@ -15930,7 +15952,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D91" s="18">
         <v>1</v>
@@ -15949,7 +15971,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D92" s="18">
         <v>100</v>
@@ -15987,7 +16009,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D94" s="18">
         <v>1</v>
@@ -16006,7 +16028,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D95" s="18">
         <v>220</v>
@@ -16044,7 +16066,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D97" s="18">
         <v>1</v>
@@ -16063,7 +16085,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D98" s="20">
         <v>1000</v>
@@ -16080,7 +16102,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D99" s="21">
         <v>1000</v>
@@ -16097,7 +16119,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D100" s="21">
         <v>5000</v>
@@ -16114,7 +16136,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D101" s="21">
         <v>20000</v>
@@ -16131,7 +16153,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D102" s="4">
         <v>30</v>
@@ -16148,7 +16170,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D103" s="4">
         <v>100</v>
@@ -16165,7 +16187,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D104" s="4">
         <v>500</v>
@@ -16182,7 +16204,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D105" s="4">
         <v>1000</v>
@@ -16199,7 +16221,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D106" s="4">
         <v>3000</v>
@@ -16216,7 +16238,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D107" s="4">
         <v>10000</v>
@@ -16233,7 +16255,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D108" s="18">
         <v>100</v>
@@ -16252,7 +16274,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D109" s="18">
         <v>1</v>
@@ -16271,7 +16293,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D110" s="18">
         <v>100</v>
@@ -16309,7 +16331,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D112" s="18">
         <v>1</v>
@@ -16328,7 +16350,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D113" s="18">
         <v>220</v>
@@ -16366,7 +16388,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D115" s="18">
         <v>1</v>
@@ -16385,7 +16407,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D116" s="6">
         <v>10</v>
@@ -16402,7 +16424,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
@@ -16419,7 +16441,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D118" s="6">
         <v>10</v>
@@ -16436,7 +16458,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
@@ -16453,7 +16475,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D120" s="6">
         <v>10</v>
@@ -16470,7 +16492,7 @@
         <v>112</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
@@ -16487,7 +16509,7 @@
         <v>113</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D122" s="6">
         <v>10</v>
@@ -16504,7 +16526,7 @@
         <v>113</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D123" s="6">
         <v>1</v>
@@ -16521,7 +16543,7 @@
         <v>114</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D124" s="6">
         <v>10</v>
@@ -16538,7 +16560,7 @@
         <v>114</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D125" s="6">
         <v>1</v>
@@ -16555,7 +16577,7 @@
         <v>115</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D126" s="6">
         <v>50</v>
@@ -16572,7 +16594,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D127" s="6">
         <v>1</v>
@@ -16589,7 +16611,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D128" s="23">
         <v>50000</v>
@@ -16608,7 +16630,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D129" s="23">
         <v>100</v>
@@ -16627,7 +16649,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D130" s="23">
         <v>5</v>
@@ -16646,7 +16668,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D131" s="23">
         <v>200</v>
@@ -16665,7 +16687,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D132" s="23">
         <v>10</v>
@@ -16684,7 +16706,7 @@
         <v>118</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D133" s="23">
         <v>100000</v>
@@ -16703,7 +16725,7 @@
         <v>119</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D134" s="23">
         <v>20</v>
@@ -16722,7 +16744,7 @@
         <v>119</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D135" s="23">
         <v>500000</v>
@@ -16741,7 +16763,7 @@
         <v>120</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D136" s="26">
         <v>3</v>
@@ -16758,7 +16780,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D137" s="26">
         <v>1</v>
@@ -16775,7 +16797,7 @@
         <v>120</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D138" s="26">
         <v>1</v>
@@ -16792,10 +16814,10 @@
         <v>121</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E139" s="4">
         <v>1</v>
@@ -16809,10 +16831,10 @@
         <v>122</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E140" s="4">
         <v>1</v>
@@ -16826,10 +16848,10 @@
         <v>123</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E141" s="4">
         <v>1</v>
@@ -16894,7 +16916,7 @@
         <v>127</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D145" s="4">
         <v>10</v>
@@ -16911,7 +16933,7 @@
         <v>128</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D146" s="4">
         <v>20</v>
@@ -16928,7 +16950,7 @@
         <v>129</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D147" s="4">
         <v>130</v>
@@ -16945,7 +16967,7 @@
         <v>130</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D148" s="4">
         <v>170</v>
@@ -16962,7 +16984,7 @@
         <v>131</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D149" s="4">
         <v>200</v>
@@ -16979,7 +17001,7 @@
         <v>132</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D150" s="4">
         <v>230</v>
@@ -16996,7 +17018,7 @@
         <v>133</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D151" s="4">
         <v>270</v>
@@ -17013,7 +17035,7 @@
         <v>134</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D152" s="4">
         <v>300</v>
@@ -17030,7 +17052,7 @@
         <v>135</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D153" s="4">
         <v>330</v>
@@ -17047,7 +17069,7 @@
         <v>136</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D154" s="4">
         <v>500</v>
@@ -17064,7 +17086,7 @@
         <v>137</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D155" s="4">
         <v>670</v>
@@ -17081,7 +17103,7 @@
         <v>138</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D156" s="4">
         <v>1100</v>
@@ -17098,7 +17120,7 @@
         <v>139</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D157" s="4">
         <v>1400</v>
@@ -17115,7 +17137,7 @@
         <v>140</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D158" s="4">
         <v>1600</v>
@@ -17132,7 +17154,7 @@
         <v>141</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D159" s="4">
         <v>2200</v>
@@ -17149,7 +17171,7 @@
         <v>142</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D160" s="4">
         <v>3300</v>
@@ -17166,7 +17188,7 @@
         <v>143</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D161" s="4">
         <v>5000</v>
@@ -17183,7 +17205,7 @@
         <v>144</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D162" s="4">
         <v>8000</v>
@@ -17200,7 +17222,7 @@
         <v>145</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D163" s="4">
         <v>12000</v>
@@ -17217,7 +17239,7 @@
         <v>146</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D164" s="4">
         <v>20000</v>
@@ -17234,7 +17256,7 @@
         <v>147</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D165" s="4">
         <v>42000</v>
@@ -17251,7 +17273,7 @@
         <v>148</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D166" s="4">
         <v>62000</v>
@@ -17268,7 +17290,7 @@
         <v>149</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D167" s="4">
         <v>120000</v>
@@ -17285,7 +17307,7 @@
         <v>150</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D168" s="4">
         <v>200000</v>
@@ -17302,7 +17324,7 @@
         <v>151</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D169" s="4">
         <v>350000</v>
@@ -17319,7 +17341,7 @@
         <v>152</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D170" s="4">
         <v>500000</v>
@@ -17336,7 +17358,7 @@
         <v>153</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D171" s="4">
         <v>650000</v>
@@ -17353,7 +17375,7 @@
         <v>154</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D172" s="4">
         <v>800000</v>
@@ -17370,7 +17392,7 @@
         <v>155</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D173" s="4">
         <v>128</v>
@@ -17387,7 +17409,7 @@
         <v>156</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D174" s="4">
         <v>10</v>
@@ -17404,7 +17426,7 @@
         <v>157</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D175" s="20">
         <v>2</v>
@@ -17423,7 +17445,7 @@
         <v>158</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D176" s="20">
         <v>2</v>
@@ -17442,7 +17464,7 @@
         <v>159</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D177" s="20">
         <v>2</v>
@@ -17461,7 +17483,7 @@
         <v>160</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D178" s="20">
         <v>3</v>
@@ -17480,7 +17502,7 @@
         <v>161</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D179" s="20">
         <v>3</v>
@@ -17499,7 +17521,7 @@
         <v>162</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D180" s="20">
         <v>3</v>
@@ -17518,7 +17540,7 @@
         <v>163</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D181" s="20">
         <v>5</v>
@@ -17537,7 +17559,7 @@
         <v>164</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D182" s="20">
         <v>5</v>
@@ -17556,7 +17578,7 @@
         <v>165</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D183" s="20">
         <v>5</v>
@@ -17662,7 +17684,7 @@
         <v>171</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D189" s="20">
         <v>1</v>
@@ -17730,7 +17752,7 @@
         <v>175</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D193" s="20">
         <v>1</v>
@@ -17832,7 +17854,7 @@
         <v>181</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D199" s="20">
         <v>1</v>
@@ -17900,7 +17922,7 @@
         <v>185</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D203" s="20">
         <v>1</v>
@@ -17934,7 +17956,7 @@
         <v>187</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D205" s="21">
         <v>30</v>
@@ -17951,7 +17973,7 @@
         <v>188</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D206" s="21">
         <v>100</v>
@@ -17968,7 +17990,7 @@
         <v>189</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D207" s="21">
         <v>200</v>
@@ -18001,10 +18023,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -18012,7 +18034,7 @@
         <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -18020,7 +18042,7 @@
         <v>216</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -18028,39 +18050,39 @@
         <v>207</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -18068,7 +18090,7 @@
         <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -18076,7 +18098,7 @@
         <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -18105,13 +18127,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -18124,7 +18146,7 @@
         <v>207</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -18139,24 +18161,24 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -18164,7 +18186,7 @@
         <v>215</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -18175,7 +18197,7 @@
         <v>216</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -18186,10 +18208,10 @@
         <v>279</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
@@ -18201,10 +18223,10 @@
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -18222,18 +18244,18 @@
         <v>222</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -18241,10 +18263,10 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -18252,10 +18274,10 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -18266,18 +18288,18 @@
         <v>220</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -18288,21 +18310,21 @@
         <v>232</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -18310,7 +18332,7 @@
         <v>225</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -18321,7 +18343,7 @@
         <v>226</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -18329,7 +18351,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:3">
@@ -18337,10 +18359,10 @@
         <v>268</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:3">
@@ -18348,7 +18370,7 @@
         <v>306</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -18356,13 +18378,13 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -18370,7 +18392,7 @@
         <v>227</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -18381,10 +18403,10 @@
         <v>272</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:3">
@@ -18392,18 +18414,18 @@
         <v>270</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -18411,10 +18433,10 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -18422,13 +18444,13 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -18436,18 +18458,18 @@
         <v>271</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -18455,13 +18477,13 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:3">
@@ -18469,10 +18491,10 @@
         <v>269</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1" spans="1:3">
@@ -18480,7 +18502,7 @@
         <v>300</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -18488,21 +18510,21 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -18513,7 +18535,7 @@
         <v>237</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -18524,7 +18546,7 @@
         <v>238</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -18535,7 +18557,7 @@
         <v>239</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -18546,18 +18568,18 @@
         <v>233</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:16384">
       <c r="A43" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -51334,18 +51356,18 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -51355,7 +51377,7 @@
         <v>303</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -51363,10 +51385,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -51374,10 +51396,10 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -51385,21 +51407,21 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -51407,10 +51429,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -51418,10 +51440,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -51429,10 +51451,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -51440,10 +51462,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2066,10 +2066,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2104,50 +2104,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -2165,7 +2121,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2180,14 +2143,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2195,32 +2150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2235,7 +2167,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2328,25 +2328,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2364,13 +2346,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2382,13 +2394,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2406,67 +2460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2513,6 +2513,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -2542,17 +2557,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2598,27 +2609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2627,133 +2627,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -3300,10 +3300,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F107" sqref="F107"/>
+      <selection pane="bottomLeft" activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -6989,8 +6989,8 @@
       <c r="F102" s="28">
         <v>102</v>
       </c>
-      <c r="G102" s="28" t="b">
-        <v>0</v>
+      <c r="G102" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="H102" s="28">
         <v>1</v>
@@ -7027,8 +7027,8 @@
       <c r="F103" s="28">
         <v>103</v>
       </c>
-      <c r="G103" s="28" t="b">
-        <v>0</v>
+      <c r="G103" s="30" t="b">
+        <v>1</v>
       </c>
       <c r="H103" s="28">
         <v>1</v>
@@ -13023,7 +13023,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -897,7 +897,7 @@
     <t>通行证-每周-使用1次红包大转盘</t>
   </si>
   <si>
-    <t>txz_type_plat2</t>
+    <t>actp_own_task_txz</t>
   </si>
   <si>
     <t>通行证-每周-深海探险通过10层</t>
@@ -2063,9 +2063,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -2101,46 +2101,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2154,7 +2124,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2175,16 +2160,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2192,7 +2170,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2206,6 +2199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -2215,21 +2213,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2243,10 +2234,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2325,25 +2325,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,7 +2367,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,7 +2397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,13 +2409,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,43 +2439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,7 +2457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,13 +2469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,17 +2511,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2542,12 +2535,34 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2568,17 +2583,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2597,25 +2606,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2624,19 +2624,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2645,117 +2645,117 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2953,6 +2953,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3291,8 +3294,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
     </sheetView>
@@ -6645,7 +6648,7 @@
       <c r="K93" s="57">
         <v>-1</v>
       </c>
-      <c r="L93" s="74">
+      <c r="L93" s="75">
         <v>1</v>
       </c>
       <c r="M93" s="28" t="s">
@@ -7389,7 +7392,7 @@
       <c r="C113" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D113" s="30" t="s">
+      <c r="D113" s="74" t="s">
         <v>192</v>
       </c>
       <c r="E113" s="30" t="s">
@@ -7685,11 +7688,11 @@
       <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="76" t="s">
         <v>208</v>
       </c>
       <c r="G2" s="49"/>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="77" t="s">
         <v>209</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -7712,11 +7715,11 @@
       <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="78" t="s">
         <v>208</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="77" t="s">
         <v>211</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7739,11 +7742,11 @@
       <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="78" t="s">
         <v>208</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="77" t="s">
         <v>212</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -7766,11 +7769,11 @@
       <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="76" t="s">
         <v>213</v>
       </c>
       <c r="G5" s="49"/>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="77" t="s">
         <v>214</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -8966,7 +8969,7 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="79" t="s">
         <v>223</v>
       </c>
       <c r="G51" s="52"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2102,22 +2102,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2138,10 +2167,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2152,23 +2190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2199,37 +2222,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -2248,6 +2240,14 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2325,6 +2325,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2343,7 +2355,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,31 +2385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,43 +2403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2445,7 +2427,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2457,7 +2445,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2469,7 +2457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2506,6 +2506,30 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2548,11 +2572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2576,46 +2606,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2624,136 +2624,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3300,7 +3300,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7628,7 +7628,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10621,7 +10621,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
+      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13018,10 +13018,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -14216,7 +14216,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="1:5">
+      <c r="A70" s="14">
+        <v>69</v>
+      </c>
       <c r="B70" s="4">
         <v>38</v>
       </c>
@@ -14241,10 +14244,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
+      <selection pane="bottomLeft" activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="493">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2063,8 +2063,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2101,25 +2101,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2137,9 +2123,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2152,8 +2152,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2167,19 +2168,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2206,6 +2199,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2224,6 +2222,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2231,20 +2237,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2325,7 +2325,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2337,25 +2373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2367,7 +2391,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,19 +2403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,7 +2421,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2427,43 +2457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2512,8 +2512,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2533,17 +2557,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2586,36 +2606,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2624,16 +2624,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2642,13 +2642,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2660,100 +2663,97 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3300,7 +3300,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7628,7 +7628,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomLeft" activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10621,7 +10621,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D145" sqref="D145"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12857,7 +12857,7 @@
         <v>298</v>
       </c>
       <c r="D137" s="30">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -13016,12 +13016,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -14230,6 +14230,23 @@
         <v>3</v>
       </c>
       <c r="E70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="14">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>39</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D71" s="4">
+        <v>3</v>
+      </c>
+      <c r="E71" s="4">
         <v>2</v>
       </c>
     </row>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="493">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2064,9 +2064,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2102,6 +2102,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2109,8 +2117,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2126,35 +2163,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2162,8 +2170,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2177,9 +2200,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2187,37 +2209,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2232,12 +2224,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2325,7 +2325,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2343,7 +2343,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,13 +2379,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,43 +2439,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,55 +2469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2518,21 +2518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2544,6 +2529,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2565,20 +2561,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2612,10 +2612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2624,16 +2624,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2642,112 +2642,112 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3294,10 +3294,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D113" sqref="D113"/>
+      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7622,10 +7622,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D114" sqref="D114"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10618,7 +10618,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C142" sqref="C142"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12966,7 +12966,7 @@
         <v>297</v>
       </c>
       <c r="D145" s="30">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -13013,12 +13013,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -14213,6 +14213,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="4">
+        <v>38</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D70" s="4">
+        <v>3</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -14225,9 +14239,9 @@
   <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G193" sqref="G193"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1752,10 +1752,10 @@
     <t>prop_3d_fish_summon_fish</t>
   </si>
   <si>
-    <t>obj_fish_3d_quick_shoot</t>
+    <t>prop_3d_fish_accelerate</t>
   </si>
   <si>
-    <t>obj_fish_3d_time_free_power_bullet</t>
+    <t>prop_3d_fish_wild</t>
   </si>
   <si>
     <t>obj_50_coupon_604800</t>
@@ -2064,9 +2064,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2084,6 +2084,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2096,36 +2102,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2139,8 +2116,15 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2148,6 +2132,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2162,10 +2162,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2177,9 +2186,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2209,22 +2224,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2325,7 +2325,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2337,61 +2439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2409,67 +2457,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2533,41 +2533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2601,6 +2566,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -2612,10 +2612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2624,138 +2624,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2827,8 +2827,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2852,6 +2852,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2862,7 +2865,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2936,10 +2939,10 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3410,8 +3413,8 @@
       <c r="O2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="1:18">
       <c r="A3" s="14">
@@ -3453,8 +3456,8 @@
       <c r="O3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="1:18">
       <c r="A4" s="14">
@@ -3496,8 +3499,8 @@
       <c r="O4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="1:18">
       <c r="A5" s="14">
@@ -3506,7 +3509,7 @@
       <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="50" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -3536,11 +3539,11 @@
       <c r="N5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:15">
       <c r="A6" s="14">
@@ -3620,7 +3623,7 @@
       <c r="N7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="50" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3661,7 +3664,7 @@
       <c r="N8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="50" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3672,7 +3675,7 @@
       <c r="B9" s="14">
         <v>-1</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -3850,7 +3853,7 @@
       <c r="B14" s="14">
         <v>-1</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -3885,7 +3888,7 @@
       <c r="B15" s="14">
         <v>-1</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="68" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -3920,7 +3923,7 @@
       <c r="B16" s="14">
         <v>-1</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="50" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -4025,7 +4028,7 @@
       <c r="B19" s="14">
         <v>-1</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -4165,7 +4168,7 @@
       <c r="B23" s="14">
         <v>-1</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="50" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -4305,7 +4308,7 @@
       <c r="B27" s="14">
         <v>-1</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="50" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4340,7 +4343,7 @@
       <c r="B28" s="14">
         <v>-1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="50" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -4375,7 +4378,7 @@
       <c r="B29" s="14">
         <v>-1</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="50" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -5358,7 +5361,7 @@
       <c r="C57" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="50" t="s">
         <v>100</v>
       </c>
       <c r="E57" s="14" t="s">
@@ -5495,7 +5498,7 @@
       <c r="B61" s="26">
         <v>-1</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -5676,7 +5679,7 @@
       <c r="D66" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="49" t="s">
+      <c r="E66" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="14">
@@ -5708,7 +5711,7 @@
       <c r="C67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="50" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="14" t="s">
@@ -5746,7 +5749,7 @@
       <c r="D68" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="70" t="s">
+      <c r="E68" s="71" t="s">
         <v>124</v>
       </c>
       <c r="F68" s="28">
@@ -6020,10 +6023,10 @@
       <c r="B76" s="28">
         <v>0</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="71" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="28" t="s">
@@ -6058,7 +6061,7 @@
       <c r="C77" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="70" t="s">
+      <c r="D77" s="71" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="28" t="s">
@@ -6083,108 +6086,108 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" s="57" customFormat="1" spans="1:11">
-      <c r="A78" s="57">
+    <row r="78" s="58" customFormat="1" spans="1:11">
+      <c r="A78" s="58">
         <v>78</v>
       </c>
-      <c r="B78" s="57">
-        <v>1</v>
-      </c>
-      <c r="C78" s="71" t="s">
+      <c r="B78" s="58">
+        <v>1</v>
+      </c>
+      <c r="C78" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="71" t="s">
+      <c r="E78" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="57">
+      <c r="F78" s="58">
         <v>78</v>
       </c>
-      <c r="G78" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="57">
-        <v>1</v>
-      </c>
-      <c r="I78" s="57">
+      <c r="G78" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="58">
+        <v>1</v>
+      </c>
+      <c r="I78" s="58">
         <v>946656000</v>
       </c>
-      <c r="J78" s="57">
+      <c r="J78" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K78" s="57">
+      <c r="K78" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" s="57" customFormat="1" spans="1:11">
-      <c r="A79" s="57">
+    <row r="79" s="58" customFormat="1" spans="1:11">
+      <c r="A79" s="58">
         <v>79</v>
       </c>
-      <c r="B79" s="57">
-        <v>1</v>
-      </c>
-      <c r="C79" s="71" t="s">
+      <c r="B79" s="58">
+        <v>1</v>
+      </c>
+      <c r="C79" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="71" t="s">
+      <c r="E79" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="57">
+      <c r="F79" s="58">
         <v>79</v>
       </c>
-      <c r="G79" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="57">
-        <v>1</v>
-      </c>
-      <c r="I79" s="57">
+      <c r="G79" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="58">
+        <v>1</v>
+      </c>
+      <c r="I79" s="58">
         <v>946656000</v>
       </c>
-      <c r="J79" s="57">
+      <c r="J79" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K79" s="57">
+      <c r="K79" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" s="57" customFormat="1" spans="1:11">
-      <c r="A80" s="57">
+    <row r="80" s="58" customFormat="1" spans="1:11">
+      <c r="A80" s="58">
         <v>80</v>
       </c>
-      <c r="B80" s="57">
-        <v>1</v>
-      </c>
-      <c r="C80" s="71" t="s">
+      <c r="B80" s="58">
+        <v>1</v>
+      </c>
+      <c r="C80" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="71" t="s">
+      <c r="E80" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="57">
+      <c r="F80" s="58">
         <v>80</v>
       </c>
-      <c r="G80" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="57">
-        <v>1</v>
-      </c>
-      <c r="I80" s="57">
+      <c r="G80" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="58">
+        <v>1</v>
+      </c>
+      <c r="I80" s="58">
         <v>946656000</v>
       </c>
-      <c r="J80" s="57">
+      <c r="J80" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K80" s="57">
+      <c r="K80" s="58">
         <v>-1</v>
       </c>
     </row>
@@ -6230,13 +6233,13 @@
       <c r="B82" s="30">
         <v>0</v>
       </c>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="73" t="s">
         <v>146</v>
       </c>
       <c r="D82" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="72" t="s">
+      <c r="E82" s="73" t="s">
         <v>124</v>
       </c>
       <c r="F82" s="30">
@@ -6267,10 +6270,10 @@
       <c r="B83" s="30">
         <v>0</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="73" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="30" t="s">
@@ -6304,10 +6307,10 @@
       <c r="B84" s="30">
         <v>0</v>
       </c>
-      <c r="C84" s="72" t="s">
+      <c r="C84" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="73" t="s">
         <v>124</v>
       </c>
       <c r="E84" s="30" t="s">
@@ -6379,7 +6382,7 @@
       <c r="C86" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="50" t="s">
         <v>150</v>
       </c>
       <c r="E86" s="14" t="s">
@@ -6414,7 +6417,7 @@
       <c r="C87" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D87" s="50" t="s">
         <v>151</v>
       </c>
       <c r="E87" s="14" t="s">
@@ -6449,7 +6452,7 @@
       <c r="C88" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="50" t="s">
         <v>152</v>
       </c>
       <c r="E88" s="14" t="s">
@@ -6481,10 +6484,10 @@
       <c r="B89" s="14">
         <v>1</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="50" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="14" t="s">
@@ -6509,108 +6512,108 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" s="57" customFormat="1" spans="1:11">
-      <c r="A90" s="57">
+    <row r="90" s="58" customFormat="1" spans="1:11">
+      <c r="A90" s="58">
         <v>90</v>
       </c>
-      <c r="B90" s="57">
-        <v>1</v>
-      </c>
-      <c r="C90" s="71" t="s">
+      <c r="B90" s="58">
+        <v>1</v>
+      </c>
+      <c r="C90" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="71" t="s">
+      <c r="E90" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="57">
+      <c r="F90" s="58">
         <v>90</v>
       </c>
-      <c r="G90" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="57">
-        <v>1</v>
-      </c>
-      <c r="I90" s="57">
+      <c r="G90" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="58">
+        <v>1</v>
+      </c>
+      <c r="I90" s="58">
         <v>946656000</v>
       </c>
-      <c r="J90" s="57">
+      <c r="J90" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K90" s="57">
+      <c r="K90" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="91" s="57" customFormat="1" spans="1:11">
-      <c r="A91" s="57">
+    <row r="91" s="58" customFormat="1" spans="1:11">
+      <c r="A91" s="58">
         <v>91</v>
       </c>
-      <c r="B91" s="57">
-        <v>1</v>
-      </c>
-      <c r="C91" s="71" t="s">
+      <c r="B91" s="58">
+        <v>1</v>
+      </c>
+      <c r="C91" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="71" t="s">
+      <c r="E91" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="57">
+      <c r="F91" s="58">
         <v>91</v>
       </c>
-      <c r="G91" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="57">
-        <v>1</v>
-      </c>
-      <c r="I91" s="57">
+      <c r="G91" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="58">
+        <v>1</v>
+      </c>
+      <c r="I91" s="58">
         <v>946656000</v>
       </c>
-      <c r="J91" s="57">
+      <c r="J91" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K91" s="57">
+      <c r="K91" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="92" s="57" customFormat="1" spans="1:11">
-      <c r="A92" s="57">
+    <row r="92" s="58" customFormat="1" spans="1:11">
+      <c r="A92" s="58">
         <v>92</v>
       </c>
-      <c r="B92" s="57">
-        <v>1</v>
-      </c>
-      <c r="C92" s="71" t="s">
+      <c r="B92" s="58">
+        <v>1</v>
+      </c>
+      <c r="C92" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="71" t="s">
+      <c r="E92" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="57">
+      <c r="F92" s="58">
         <v>92</v>
       </c>
-      <c r="G92" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="57">
-        <v>1</v>
-      </c>
-      <c r="I92" s="57">
+      <c r="G92" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="58">
+        <v>1</v>
+      </c>
+      <c r="I92" s="58">
         <v>946656000</v>
       </c>
-      <c r="J92" s="57">
+      <c r="J92" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K92" s="57">
+      <c r="K92" s="58">
         <v>-1</v>
       </c>
     </row>
@@ -6621,13 +6624,13 @@
       <c r="B93" s="14">
         <v>1</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E93" s="50" t="s">
         <v>162</v>
       </c>
       <c r="F93" s="14">
@@ -6642,13 +6645,13 @@
       <c r="I93" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J93" s="57">
+      <c r="J93" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K93" s="57">
+      <c r="K93" s="58">
         <v>-1</v>
       </c>
-      <c r="L93" s="75">
+      <c r="L93" s="76">
         <v>1</v>
       </c>
       <c r="M93" s="28" t="s">
@@ -6662,19 +6665,19 @@
       <c r="B94" s="14">
         <v>0</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="49" t="s">
+      <c r="E94" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="14">
         <v>94</v>
       </c>
-      <c r="G94" s="49" t="b">
+      <c r="G94" s="50" t="b">
         <v>0</v>
       </c>
       <c r="H94" s="14">
@@ -6683,14 +6686,14 @@
       <c r="I94" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J94" s="57">
+      <c r="J94" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K94" s="57">
+      <c r="K94" s="58">
         <v>-1</v>
       </c>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="14">
@@ -6699,19 +6702,19 @@
       <c r="B95" s="14">
         <v>1</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="14">
         <v>95</v>
       </c>
-      <c r="G95" s="49" t="b">
+      <c r="G95" s="50" t="b">
         <v>0</v>
       </c>
       <c r="H95" s="14">
@@ -6730,44 +6733,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" s="61" customFormat="1" spans="1:13">
-      <c r="A96" s="61">
+    <row r="96" s="62" customFormat="1" spans="1:13">
+      <c r="A96" s="62">
         <v>96</v>
       </c>
-      <c r="B96" s="61">
-        <v>1</v>
-      </c>
-      <c r="C96" s="73" t="s">
+      <c r="B96" s="62">
+        <v>1</v>
+      </c>
+      <c r="C96" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="73" t="s">
+      <c r="D96" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="73" t="s">
+      <c r="E96" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="F96" s="61">
+      <c r="F96" s="62">
         <v>96</v>
       </c>
-      <c r="G96" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="61">
+      <c r="G96" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="62">
         <v>7</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I96" s="62">
         <v>1615132800</v>
       </c>
-      <c r="J96" s="61">
+      <c r="J96" s="62">
         <v>32503651200</v>
       </c>
-      <c r="K96" s="61">
+      <c r="K96" s="62">
         <v>-1</v>
       </c>
-      <c r="L96" s="61">
-        <v>1</v>
-      </c>
-      <c r="M96" s="73" t="s">
+      <c r="L96" s="62">
+        <v>1</v>
+      </c>
+      <c r="M96" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6778,19 +6781,19 @@
       <c r="B97" s="14">
         <v>1</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="14">
         <v>97</v>
       </c>
-      <c r="G97" s="61" t="b">
+      <c r="G97" s="62" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="14">
@@ -6816,19 +6819,19 @@
       <c r="B98" s="14">
         <v>1</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D98" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="14">
         <v>98</v>
       </c>
-      <c r="G98" s="61" t="b">
+      <c r="G98" s="62" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="14">
@@ -6854,13 +6857,13 @@
       <c r="B99" s="14">
         <v>1</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D99" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E99" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="14">
@@ -6892,13 +6895,13 @@
       <c r="B100" s="14">
         <v>1</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="14">
@@ -7392,7 +7395,7 @@
       <c r="C113" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D113" s="74" t="s">
+      <c r="D113" s="75" t="s">
         <v>192</v>
       </c>
       <c r="E113" s="30" t="s">
@@ -7622,10 +7625,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7634,7 +7637,7 @@
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="47" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="48" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
@@ -7661,7 +7664,7 @@
       <c r="G1" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="49" t="s">
         <v>204</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -7670,7 +7673,7 @@
       <c r="J1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="14">
@@ -7688,11 +7691,11 @@
       <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="77" t="s">
         <v>208</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="77" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="78" t="s">
         <v>209</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -7715,11 +7718,11 @@
       <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="79" t="s">
         <v>208</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="78" t="s">
         <v>211</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7742,11 +7745,11 @@
       <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="79" t="s">
         <v>208</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="78" t="s">
         <v>212</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -7769,11 +7772,11 @@
       <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="77" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="78" t="s">
         <v>214</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -7800,13 +7803,13 @@
         <v>10</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="51">
+      <c r="H6" s="52">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="J6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -7827,7 +7830,7 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="48">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -7853,7 +7856,7 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="48">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -7879,7 +7882,7 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="48">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -7906,7 +7909,7 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="48">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -7932,7 +7935,7 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="48">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -7958,7 +7961,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="48">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -7984,7 +7987,7 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="48">
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -8010,7 +8013,7 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="48">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -8036,7 +8039,7 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="48">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -8062,7 +8065,7 @@
       <c r="F16" s="4">
         <v>1000</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="48">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -8088,7 +8091,7 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="48">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -8114,7 +8117,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="48">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -8140,7 +8143,7 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="48">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -8166,7 +8169,7 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="48">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -8192,7 +8195,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="48">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -8218,7 +8221,7 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="48">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -8244,7 +8247,7 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="48">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -8270,7 +8273,7 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="48">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -8296,7 +8299,7 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="48">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -8322,7 +8325,7 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="48">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -8348,7 +8351,7 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="48">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -8374,7 +8377,7 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="48">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -8400,7 +8403,7 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="48">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -8426,7 +8429,7 @@
       <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="48">
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -8452,7 +8455,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="48">
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -8478,7 +8481,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="48">
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -8504,7 +8507,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="48">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -8530,7 +8533,7 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="48">
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -8556,7 +8559,7 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="48">
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -8582,7 +8585,7 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="48">
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -8608,7 +8611,7 @@
       <c r="F37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="48">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -8634,7 +8637,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="48">
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -8660,7 +8663,7 @@
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="48">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -8686,7 +8689,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="48">
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -8712,7 +8715,7 @@
       <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="48">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -8738,7 +8741,7 @@
       <c r="F42" s="4">
         <v>50000</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="48">
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -8764,7 +8767,7 @@
       <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="48">
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -8790,7 +8793,7 @@
       <c r="F44" s="4">
         <v>100000</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H44" s="48">
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -8816,7 +8819,7 @@
       <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="H45" s="47">
+      <c r="H45" s="48">
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -8842,7 +8845,7 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="48">
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -8868,7 +8871,7 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="48">
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -8894,7 +8897,7 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="48">
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -8920,7 +8923,7 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="48">
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -8946,7 +8949,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="48">
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -8969,11 +8972,11 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F51" s="80" t="s">
         <v>223</v>
       </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="47" t="s">
+      <c r="G51" s="53"/>
+      <c r="H51" s="48" t="s">
         <v>224</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -8999,7 +9002,7 @@
       <c r="F52" s="4">
         <v>8</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="48">
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -9025,7 +9028,7 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="47">
+      <c r="H53" s="48">
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -9051,7 +9054,7 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="47">
+      <c r="H54" s="48">
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -9077,7 +9080,7 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="48">
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -9103,7 +9106,7 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="47">
+      <c r="H56" s="48">
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -9129,7 +9132,7 @@
       <c r="F57" s="4">
         <v>2000000</v>
       </c>
-      <c r="H57" s="47">
+      <c r="H57" s="48">
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -9247,7 +9250,7 @@
       <c r="F62" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="48" t="s">
         <v>229</v>
       </c>
     </row>
@@ -9339,7 +9342,7 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="47">
+      <c r="H66" s="48">
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -9365,7 +9368,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="47">
+      <c r="H67" s="48">
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -9388,10 +9391,10 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="56">
         <v>99999999999</v>
       </c>
-      <c r="G68" s="55"/>
+      <c r="G68" s="56"/>
       <c r="I68" s="10" t="s">
         <v>231</v>
       </c>
@@ -9418,14 +9421,14 @@
       <c r="G69" s="4">
         <v>100000000</v>
       </c>
-      <c r="H69" s="47">
+      <c r="H69" s="48">
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="70" s="39" customFormat="1" spans="1:9">
+    <row r="70" s="40" customFormat="1" spans="1:9">
       <c r="A70" s="32">
         <v>69</v>
       </c>
@@ -9445,14 +9448,14 @@
         <v>234</v>
       </c>
       <c r="G70" s="32"/>
-      <c r="H70" s="38" t="s">
+      <c r="H70" s="39" t="s">
         <v>235</v>
       </c>
-      <c r="I70" s="29" t="s">
+      <c r="I70" s="38" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="71" s="39" customFormat="1" spans="1:9">
+    <row r="71" s="40" customFormat="1" spans="1:9">
       <c r="A71" s="32">
         <v>70</v>
       </c>
@@ -9472,14 +9475,14 @@
         <v>0</v>
       </c>
       <c r="G71" s="32"/>
-      <c r="H71" s="56">
+      <c r="H71" s="57">
         <v>88</v>
       </c>
       <c r="I71" s="32" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="72" s="39" customFormat="1" spans="1:9">
+    <row r="72" s="40" customFormat="1" spans="1:9">
       <c r="A72" s="32">
         <v>71</v>
       </c>
@@ -9499,14 +9502,14 @@
         <v>1</v>
       </c>
       <c r="G72" s="32"/>
-      <c r="H72" s="56">
+      <c r="H72" s="57">
         <v>89</v>
       </c>
       <c r="I72" s="32" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="73" s="39" customFormat="1" spans="1:9">
+    <row r="73" s="40" customFormat="1" spans="1:9">
       <c r="A73" s="32">
         <v>72</v>
       </c>
@@ -9526,14 +9529,14 @@
         <v>1</v>
       </c>
       <c r="G73" s="32"/>
-      <c r="H73" s="56">
+      <c r="H73" s="57">
         <v>90</v>
       </c>
       <c r="I73" s="32" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="74" s="39" customFormat="1" spans="1:9">
+    <row r="74" s="40" customFormat="1" spans="1:9">
       <c r="A74" s="32">
         <v>73</v>
       </c>
@@ -9553,14 +9556,14 @@
         <v>1</v>
       </c>
       <c r="G74" s="32"/>
-      <c r="H74" s="56">
+      <c r="H74" s="57">
         <v>91</v>
       </c>
       <c r="I74" s="32" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="75" s="39" customFormat="1" spans="1:9">
+    <row r="75" s="40" customFormat="1" spans="1:9">
       <c r="A75" s="32">
         <v>74</v>
       </c>
@@ -9580,10 +9583,10 @@
         <v>10</v>
       </c>
       <c r="G75" s="32"/>
-      <c r="H75" s="56"/>
+      <c r="H75" s="57"/>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" s="39" customFormat="1" spans="1:9">
+    <row r="76" s="40" customFormat="1" spans="1:9">
       <c r="A76" s="32">
         <v>75</v>
       </c>
@@ -9603,17 +9606,17 @@
         <v>10</v>
       </c>
       <c r="G76" s="32"/>
-      <c r="H76" s="56"/>
+      <c r="H76" s="57"/>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" s="39" customFormat="1" spans="1:9">
+    <row r="77" s="40" customFormat="1" spans="1:9">
       <c r="A77" s="32">
         <v>76</v>
       </c>
       <c r="B77" s="32">
         <v>76</v>
       </c>
-      <c r="C77" s="29" t="s">
+      <c r="C77" s="38" t="s">
         <v>232</v>
       </c>
       <c r="D77" s="32">
@@ -9628,14 +9631,14 @@
       <c r="G77" s="32">
         <v>500000000</v>
       </c>
-      <c r="H77" s="56">
+      <c r="H77" s="57">
         <v>92</v>
       </c>
       <c r="I77" s="32" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="78" s="39" customFormat="1" spans="1:9">
+    <row r="78" s="40" customFormat="1" spans="1:9">
       <c r="A78" s="32">
         <v>77</v>
       </c>
@@ -9657,7 +9660,7 @@
       <c r="G78" s="32">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="56">
+      <c r="H78" s="57">
         <v>93</v>
       </c>
       <c r="I78" s="32" t="s">
@@ -9665,13 +9668,13 @@
       </c>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:9">
-      <c r="A79" s="57">
+      <c r="A79" s="58">
         <v>78</v>
       </c>
-      <c r="B79" s="57">
+      <c r="B79" s="58">
         <v>78</v>
       </c>
-      <c r="C79" s="40"/>
+      <c r="C79" s="41"/>
       <c r="D79" s="8">
         <v>78</v>
       </c>
@@ -9680,7 +9683,7 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="58">
+      <c r="H79" s="59">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
@@ -9688,13 +9691,13 @@
       </c>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:9">
-      <c r="A80" s="57">
+      <c r="A80" s="58">
         <v>79</v>
       </c>
-      <c r="B80" s="57">
+      <c r="B80" s="58">
         <v>79</v>
       </c>
-      <c r="C80" s="40"/>
+      <c r="C80" s="41"/>
       <c r="D80" s="8">
         <v>79</v>
       </c>
@@ -9703,7 +9706,7 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="58">
+      <c r="H80" s="59">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -9711,13 +9714,13 @@
       </c>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:9">
-      <c r="A81" s="57">
+      <c r="A81" s="58">
         <v>80</v>
       </c>
-      <c r="B81" s="57">
+      <c r="B81" s="58">
         <v>80</v>
       </c>
-      <c r="C81" s="40"/>
+      <c r="C81" s="41"/>
       <c r="D81" s="8">
         <v>80</v>
       </c>
@@ -9726,10 +9729,10 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="58">
+      <c r="H81" s="59">
         <v>96</v>
       </c>
-      <c r="I81" s="40" t="s">
+      <c r="I81" s="41" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9740,7 +9743,7 @@
       <c r="B82" s="20">
         <v>81</v>
       </c>
-      <c r="C82" s="43" t="s">
+      <c r="C82" s="44" t="s">
         <v>240</v>
       </c>
       <c r="D82" s="20">
@@ -9755,10 +9758,10 @@
       <c r="G82" s="20">
         <v>500000000</v>
       </c>
-      <c r="H82" s="59">
+      <c r="H82" s="60">
         <v>97</v>
       </c>
-      <c r="I82" s="43" t="s">
+      <c r="I82" s="44" t="s">
         <v>210</v>
       </c>
     </row>
@@ -9782,14 +9785,14 @@
       <c r="G83" s="21">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="60">
+      <c r="H83" s="61">
         <v>98</v>
       </c>
       <c r="I83" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="84" s="39" customFormat="1" spans="1:9">
+    <row r="84" s="40" customFormat="1" spans="1:9">
       <c r="A84" s="30">
         <v>83</v>
       </c>
@@ -9809,14 +9812,14 @@
       <c r="G84" s="21">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="60">
+      <c r="H84" s="61">
         <v>99</v>
       </c>
       <c r="I84" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="85" s="39" customFormat="1" spans="1:9">
+    <row r="85" s="40" customFormat="1" spans="1:9">
       <c r="A85" s="30">
         <v>84</v>
       </c>
@@ -9836,7 +9839,7 @@
       <c r="G85" s="21">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="60">
+      <c r="H85" s="61">
         <v>100</v>
       </c>
       <c r="I85" s="21" t="s">
@@ -9968,7 +9971,7 @@
       <c r="B91" s="26">
         <v>90</v>
       </c>
-      <c r="C91" s="40"/>
+      <c r="C91" s="41"/>
       <c r="D91" s="8">
         <v>90</v>
       </c>
@@ -9977,7 +9980,7 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="58">
+      <c r="H91" s="59">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
@@ -9991,7 +9994,7 @@
       <c r="B92" s="26">
         <v>91</v>
       </c>
-      <c r="C92" s="40"/>
+      <c r="C92" s="41"/>
       <c r="D92" s="8">
         <v>91</v>
       </c>
@@ -10000,7 +10003,7 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="58">
+      <c r="H92" s="59">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
@@ -10014,7 +10017,7 @@
       <c r="B93" s="26">
         <v>92</v>
       </c>
-      <c r="C93" s="40"/>
+      <c r="C93" s="41"/>
       <c r="D93" s="8">
         <v>92</v>
       </c>
@@ -10023,10 +10026,10 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="58">
+      <c r="H93" s="59">
         <v>109</v>
       </c>
-      <c r="I93" s="40" t="s">
+      <c r="I93" s="41" t="s">
         <v>210</v>
       </c>
     </row>
@@ -10086,7 +10089,7 @@
       <c r="F96" s="4">
         <v>30000</v>
       </c>
-      <c r="H96" s="47">
+      <c r="H96" s="48">
         <v>120</v>
       </c>
       <c r="I96" s="10" t="s">
@@ -10097,23 +10100,23 @@
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="61">
+      <c r="B97" s="62">
         <v>96</v>
       </c>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="63" t="s">
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="64" t="s">
+      <c r="G97" s="63"/>
+      <c r="H97" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="I97" s="63" t="s">
+      <c r="I97" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="J97" s="44"/>
+      <c r="J97" s="45"/>
     </row>
     <row r="98" ht="71.25" spans="1:9">
       <c r="A98" s="4">
@@ -10125,10 +10128,10 @@
       <c r="D98" s="4">
         <v>96</v>
       </c>
-      <c r="F98" s="65" t="s">
+      <c r="F98" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="H98" s="65" t="s">
+      <c r="H98" s="66" t="s">
         <v>250</v>
       </c>
       <c r="I98" s="10" t="s">
@@ -10205,11 +10208,11 @@
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="66" t="s">
+      <c r="F102" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="G102" s="66"/>
-      <c r="H102" s="59" t="s">
+      <c r="G102" s="67"/>
+      <c r="H102" s="60" t="s">
         <v>257</v>
       </c>
       <c r="I102" s="20" t="s">
@@ -10226,11 +10229,11 @@
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="66" t="s">
+      <c r="F103" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="G103" s="66"/>
-      <c r="H103" s="59" t="s">
+      <c r="G103" s="67"/>
+      <c r="H103" s="60" t="s">
         <v>258</v>
       </c>
       <c r="I103" s="20" t="s">
@@ -10247,18 +10250,18 @@
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="66" t="s">
+      <c r="F104" s="67" t="s">
         <v>256</v>
       </c>
-      <c r="G104" s="66"/>
-      <c r="H104" s="59" t="s">
+      <c r="G104" s="67"/>
+      <c r="H104" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I104" s="20" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="105" s="46" customFormat="1" spans="1:9">
+    <row r="105" s="47" customFormat="1" spans="1:9">
       <c r="A105" s="30">
         <v>104</v>
       </c>
@@ -10274,14 +10277,14 @@
         <v>1</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="60" t="s">
+      <c r="H105" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I105" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="106" s="46" customFormat="1" spans="1:9">
+    <row r="106" s="47" customFormat="1" spans="1:9">
       <c r="A106" s="30">
         <v>105</v>
       </c>
@@ -10297,14 +10300,14 @@
         <v>1</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I106" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="107" s="46" customFormat="1" spans="1:9">
+    <row r="107" s="47" customFormat="1" spans="1:9">
       <c r="A107" s="30">
         <v>106</v>
       </c>
@@ -10320,14 +10323,14 @@
         <v>300000</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="60" t="s">
+      <c r="H107" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I107" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="108" s="46" customFormat="1" spans="1:9">
+    <row r="108" s="47" customFormat="1" spans="1:9">
       <c r="A108" s="30">
         <v>107</v>
       </c>
@@ -10343,14 +10346,14 @@
         <v>100</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="60" t="s">
+      <c r="H108" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I108" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" s="46" customFormat="1" spans="1:9">
+    <row r="109" s="47" customFormat="1" spans="1:9">
       <c r="A109" s="30">
         <v>108</v>
       </c>
@@ -10366,14 +10369,14 @@
         <v>500</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="60" t="s">
+      <c r="H109" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I109" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="110" s="46" customFormat="1" spans="1:9">
+    <row r="110" s="47" customFormat="1" spans="1:9">
       <c r="A110" s="30">
         <v>109</v>
       </c>
@@ -10389,14 +10392,14 @@
         <v>15</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="60" t="s">
+      <c r="H110" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I110" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="111" s="46" customFormat="1" spans="1:9">
+    <row r="111" s="47" customFormat="1" spans="1:9">
       <c r="A111" s="30">
         <v>110</v>
       </c>
@@ -10412,14 +10415,14 @@
         <v>15</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="60" t="s">
+      <c r="H111" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I111" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="112" s="46" customFormat="1" spans="1:9">
+    <row r="112" s="47" customFormat="1" spans="1:9">
       <c r="A112" s="30">
         <v>111</v>
       </c>
@@ -10435,14 +10438,14 @@
         <v>1</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="60" t="s">
+      <c r="H112" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I112" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="113" s="46" customFormat="1" spans="1:9">
+    <row r="113" s="47" customFormat="1" spans="1:9">
       <c r="A113" s="30">
         <v>112</v>
       </c>
@@ -10458,14 +10461,14 @@
         <v>3</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="60" t="s">
+      <c r="H113" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I113" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="114" s="46" customFormat="1" spans="1:9">
+    <row r="114" s="47" customFormat="1" spans="1:9">
       <c r="A114" s="30">
         <v>113</v>
       </c>
@@ -10481,14 +10484,14 @@
         <v>1</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="60" t="s">
+      <c r="H114" s="61" t="s">
         <v>262</v>
       </c>
       <c r="I114" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="115" s="46" customFormat="1" spans="1:9">
+    <row r="115" s="47" customFormat="1" spans="1:9">
       <c r="A115" s="30">
         <v>114</v>
       </c>
@@ -10504,14 +10507,14 @@
         <v>10</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="60" t="s">
+      <c r="H115" s="61" t="s">
         <v>262</v>
       </c>
       <c r="I115" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="116" s="46" customFormat="1" spans="1:9">
+    <row r="116" s="47" customFormat="1" spans="1:9">
       <c r="A116" s="30">
         <v>115</v>
       </c>
@@ -10527,14 +10530,14 @@
         <v>12000</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="60" t="s">
+      <c r="H116" s="61" t="s">
         <v>262</v>
       </c>
       <c r="I116" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="117" s="46" customFormat="1" spans="1:9">
+    <row r="117" s="47" customFormat="1" spans="1:9">
       <c r="A117" s="30">
         <v>116</v>
       </c>
@@ -10550,14 +10553,14 @@
         <v>300</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="60" t="s">
+      <c r="H117" s="61" t="s">
         <v>262</v>
       </c>
       <c r="I117" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="118" s="46" customFormat="1" spans="1:9">
+    <row r="118" s="47" customFormat="1" spans="1:9">
       <c r="A118" s="30">
         <v>117</v>
       </c>
@@ -10573,14 +10576,14 @@
         <v>1000000</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="60" t="s">
+      <c r="H118" s="61" t="s">
         <v>262</v>
       </c>
       <c r="I118" s="21" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="119" s="46" customFormat="1" spans="1:9">
+    <row r="119" s="47" customFormat="1" spans="1:9">
       <c r="A119" s="30">
         <v>118</v>
       </c>
@@ -10596,7 +10599,7 @@
         <v>100</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="60" t="s">
+      <c r="H119" s="61" t="s">
         <v>262</v>
       </c>
       <c r="I119" s="21" t="s">
@@ -10652,7 +10655,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" s="39" customFormat="1" spans="1:9">
+    <row r="2" s="40" customFormat="1" spans="1:9">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -10669,7 +10672,7 @@
       <c r="H2" s="32"/>
       <c r="I2" s="32"/>
     </row>
-    <row r="3" s="39" customFormat="1" spans="1:9">
+    <row r="3" s="40" customFormat="1" spans="1:9">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -10686,7 +10689,7 @@
       <c r="H3" s="32"/>
       <c r="I3" s="32"/>
     </row>
-    <row r="4" s="39" customFormat="1" spans="1:9">
+    <row r="4" s="40" customFormat="1" spans="1:9">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -10703,7 +10706,7 @@
       <c r="H4" s="32"/>
       <c r="I4" s="32"/>
     </row>
-    <row r="5" s="39" customFormat="1" spans="1:9">
+    <row r="5" s="40" customFormat="1" spans="1:9">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -10720,7 +10723,7 @@
       <c r="H5" s="32"/>
       <c r="I5" s="32"/>
     </row>
-    <row r="6" s="39" customFormat="1" spans="1:9">
+    <row r="6" s="40" customFormat="1" spans="1:9">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -10737,7 +10740,7 @@
       <c r="H6" s="32"/>
       <c r="I6" s="32"/>
     </row>
-    <row r="7" s="39" customFormat="1" spans="1:9">
+    <row r="7" s="40" customFormat="1" spans="1:9">
       <c r="A7" s="32">
         <v>6</v>
       </c>
@@ -10754,7 +10757,7 @@
       <c r="H7" s="32"/>
       <c r="I7" s="32"/>
     </row>
-    <row r="8" s="39" customFormat="1" spans="1:9">
+    <row r="8" s="40" customFormat="1" spans="1:9">
       <c r="A8" s="32">
         <v>7</v>
       </c>
@@ -10771,7 +10774,7 @@
       <c r="H8" s="32"/>
       <c r="I8" s="32"/>
     </row>
-    <row r="9" s="39" customFormat="1" spans="1:9">
+    <row r="9" s="40" customFormat="1" spans="1:9">
       <c r="A9" s="32">
         <v>8</v>
       </c>
@@ -10788,7 +10791,7 @@
       <c r="H9" s="32"/>
       <c r="I9" s="32"/>
     </row>
-    <row r="10" s="39" customFormat="1" spans="1:9">
+    <row r="10" s="40" customFormat="1" spans="1:9">
       <c r="A10" s="32">
         <v>9</v>
       </c>
@@ -10805,7 +10808,7 @@
       <c r="H10" s="32"/>
       <c r="I10" s="32"/>
     </row>
-    <row r="11" s="39" customFormat="1" spans="1:9">
+    <row r="11" s="40" customFormat="1" spans="1:9">
       <c r="A11" s="32">
         <v>10</v>
       </c>
@@ -10822,14 +10825,14 @@
       <c r="H11" s="32"/>
       <c r="I11" s="32"/>
     </row>
-    <row r="12" s="39" customFormat="1" spans="1:9">
+    <row r="12" s="40" customFormat="1" spans="1:9">
       <c r="A12" s="32">
         <v>11</v>
       </c>
       <c r="B12" s="32">
         <v>11</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="38" t="s">
         <v>216</v>
       </c>
       <c r="D12" s="32">
@@ -10839,14 +10842,14 @@
       <c r="H12" s="32"/>
       <c r="I12" s="32"/>
     </row>
-    <row r="13" s="39" customFormat="1" spans="1:9">
+    <row r="13" s="40" customFormat="1" spans="1:9">
       <c r="A13" s="32">
         <v>12</v>
       </c>
       <c r="B13" s="32">
         <v>12</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D13" s="32">
@@ -10856,14 +10859,14 @@
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
-    <row r="14" s="39" customFormat="1" spans="1:9">
+    <row r="14" s="40" customFormat="1" spans="1:9">
       <c r="A14" s="32">
         <v>13</v>
       </c>
       <c r="B14" s="32">
         <v>13</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D14" s="32">
@@ -10873,14 +10876,14 @@
       <c r="H14" s="32"/>
       <c r="I14" s="32"/>
     </row>
-    <row r="15" s="39" customFormat="1" spans="1:9">
+    <row r="15" s="40" customFormat="1" spans="1:9">
       <c r="A15" s="32">
         <v>14</v>
       </c>
       <c r="B15" s="32">
         <v>14</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="38" t="s">
         <v>217</v>
       </c>
       <c r="D15" s="32">
@@ -10890,7 +10893,7 @@
       <c r="H15" s="32"/>
       <c r="I15" s="32"/>
     </row>
-    <row r="16" s="39" customFormat="1" spans="1:9">
+    <row r="16" s="40" customFormat="1" spans="1:9">
       <c r="A16" s="32">
         <v>15</v>
       </c>
@@ -10907,7 +10910,7 @@
       <c r="H16" s="32"/>
       <c r="I16" s="32"/>
     </row>
-    <row r="17" s="39" customFormat="1" spans="1:9">
+    <row r="17" s="40" customFormat="1" spans="1:9">
       <c r="A17" s="32">
         <v>16</v>
       </c>
@@ -10924,7 +10927,7 @@
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
     </row>
-    <row r="18" s="39" customFormat="1" spans="1:9">
+    <row r="18" s="40" customFormat="1" spans="1:9">
       <c r="A18" s="32">
         <v>17</v>
       </c>
@@ -10941,14 +10944,14 @@
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
     </row>
-    <row r="19" s="39" customFormat="1" spans="1:9">
+    <row r="19" s="40" customFormat="1" spans="1:9">
       <c r="A19" s="32">
         <v>18</v>
       </c>
       <c r="B19" s="32">
         <v>18</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D19" s="32">
@@ -10958,7 +10961,7 @@
       <c r="H19" s="32"/>
       <c r="I19" s="32"/>
     </row>
-    <row r="20" s="39" customFormat="1" spans="1:9">
+    <row r="20" s="40" customFormat="1" spans="1:9">
       <c r="A20" s="32">
         <v>19</v>
       </c>
@@ -10975,7 +10978,7 @@
       <c r="H20" s="32"/>
       <c r="I20" s="32"/>
     </row>
-    <row r="21" s="39" customFormat="1" spans="1:9">
+    <row r="21" s="40" customFormat="1" spans="1:9">
       <c r="A21" s="32">
         <v>20</v>
       </c>
@@ -10992,7 +10995,7 @@
       <c r="H21" s="32"/>
       <c r="I21" s="32"/>
     </row>
-    <row r="22" s="39" customFormat="1" spans="1:9">
+    <row r="22" s="40" customFormat="1" spans="1:9">
       <c r="A22" s="32">
         <v>21</v>
       </c>
@@ -11009,7 +11012,7 @@
       <c r="H22" s="32"/>
       <c r="I22" s="32"/>
     </row>
-    <row r="23" s="39" customFormat="1" spans="1:9">
+    <row r="23" s="40" customFormat="1" spans="1:9">
       <c r="A23" s="32">
         <v>22</v>
       </c>
@@ -11026,7 +11029,7 @@
       <c r="H23" s="32"/>
       <c r="I23" s="32"/>
     </row>
-    <row r="24" s="39" customFormat="1" spans="1:9">
+    <row r="24" s="40" customFormat="1" spans="1:9">
       <c r="A24" s="32">
         <v>23</v>
       </c>
@@ -11043,7 +11046,7 @@
       <c r="H24" s="32"/>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" s="39" customFormat="1" spans="1:9">
+    <row r="25" s="40" customFormat="1" spans="1:9">
       <c r="A25" s="32">
         <v>24</v>
       </c>
@@ -11060,7 +11063,7 @@
       <c r="H25" s="32"/>
       <c r="I25" s="32"/>
     </row>
-    <row r="26" s="39" customFormat="1" spans="1:9">
+    <row r="26" s="40" customFormat="1" spans="1:9">
       <c r="A26" s="32">
         <v>25</v>
       </c>
@@ -11077,14 +11080,14 @@
       <c r="H26" s="32"/>
       <c r="I26" s="32"/>
     </row>
-    <row r="27" s="39" customFormat="1" spans="1:9">
+    <row r="27" s="40" customFormat="1" spans="1:9">
       <c r="A27" s="32">
         <v>26</v>
       </c>
       <c r="B27" s="32">
         <v>26</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D27" s="32">
@@ -11094,7 +11097,7 @@
       <c r="H27" s="32"/>
       <c r="I27" s="32"/>
     </row>
-    <row r="28" s="39" customFormat="1" spans="1:9">
+    <row r="28" s="40" customFormat="1" spans="1:9">
       <c r="A28" s="32">
         <v>27</v>
       </c>
@@ -11111,14 +11114,14 @@
       <c r="H28" s="32"/>
       <c r="I28" s="32"/>
     </row>
-    <row r="29" s="39" customFormat="1" spans="1:9">
+    <row r="29" s="40" customFormat="1" spans="1:9">
       <c r="A29" s="32">
         <v>28</v>
       </c>
       <c r="B29" s="32">
         <v>28</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D29" s="32">
@@ -11128,14 +11131,14 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
     </row>
-    <row r="30" s="39" customFormat="1" spans="1:9">
+    <row r="30" s="40" customFormat="1" spans="1:9">
       <c r="A30" s="32">
         <v>29</v>
       </c>
       <c r="B30" s="32">
         <v>29</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D30" s="32">
@@ -11145,14 +11148,14 @@
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
     </row>
-    <row r="31" s="39" customFormat="1" spans="1:9">
+    <row r="31" s="40" customFormat="1" spans="1:9">
       <c r="A31" s="32">
         <v>30</v>
       </c>
       <c r="B31" s="32">
         <v>30</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="38" t="s">
         <v>217</v>
       </c>
       <c r="D31" s="32">
@@ -11162,14 +11165,14 @@
       <c r="H31" s="32"/>
       <c r="I31" s="32"/>
     </row>
-    <row r="32" s="39" customFormat="1" spans="1:9">
+    <row r="32" s="40" customFormat="1" spans="1:9">
       <c r="A32" s="32">
         <v>31</v>
       </c>
       <c r="B32" s="32">
         <v>31</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D32" s="32">
@@ -11179,14 +11182,14 @@
       <c r="H32" s="32"/>
       <c r="I32" s="32"/>
     </row>
-    <row r="33" s="39" customFormat="1" spans="1:9">
+    <row r="33" s="40" customFormat="1" spans="1:9">
       <c r="A33" s="32">
         <v>32</v>
       </c>
       <c r="B33" s="32">
         <v>32</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="38" t="s">
         <v>215</v>
       </c>
       <c r="D33" s="32">
@@ -11196,14 +11199,14 @@
       <c r="H33" s="32"/>
       <c r="I33" s="32"/>
     </row>
-    <row r="34" s="39" customFormat="1" spans="1:9">
+    <row r="34" s="40" customFormat="1" spans="1:9">
       <c r="A34" s="32">
         <v>33</v>
       </c>
       <c r="B34" s="32">
         <v>33</v>
       </c>
-      <c r="C34" s="29" t="s">
+      <c r="C34" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D34" s="32">
@@ -11213,14 +11216,14 @@
       <c r="H34" s="32"/>
       <c r="I34" s="32"/>
     </row>
-    <row r="35" s="39" customFormat="1" spans="1:9">
+    <row r="35" s="40" customFormat="1" spans="1:9">
       <c r="A35" s="32">
         <v>34</v>
       </c>
       <c r="B35" s="32">
         <v>34</v>
       </c>
-      <c r="C35" s="29" t="s">
+      <c r="C35" s="38" t="s">
         <v>216</v>
       </c>
       <c r="D35" s="32">
@@ -11230,14 +11233,14 @@
       <c r="H35" s="32"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" s="39" customFormat="1" spans="1:9">
+    <row r="36" s="40" customFormat="1" spans="1:9">
       <c r="A36" s="32">
         <v>35</v>
       </c>
       <c r="B36" s="32">
         <v>35</v>
       </c>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D36" s="32">
@@ -11247,14 +11250,14 @@
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" s="39" customFormat="1" spans="1:9">
+    <row r="37" s="40" customFormat="1" spans="1:9">
       <c r="A37" s="32">
         <v>36</v>
       </c>
       <c r="B37" s="32">
         <v>36</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="38" t="s">
         <v>220</v>
       </c>
       <c r="D37" s="32">
@@ -11264,14 +11267,14 @@
       <c r="H37" s="32"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" s="39" customFormat="1" spans="1:9">
+    <row r="38" s="40" customFormat="1" spans="1:9">
       <c r="A38" s="32">
         <v>37</v>
       </c>
       <c r="B38" s="32">
         <v>37</v>
       </c>
-      <c r="C38" s="29" t="s">
+      <c r="C38" s="38" t="s">
         <v>218</v>
       </c>
       <c r="D38" s="32">
@@ -11281,14 +11284,14 @@
       <c r="H38" s="32"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" s="39" customFormat="1" spans="1:9">
+    <row r="39" s="40" customFormat="1" spans="1:9">
       <c r="A39" s="32">
         <v>38</v>
       </c>
       <c r="B39" s="32">
         <v>38</v>
       </c>
-      <c r="C39" s="29" t="s">
+      <c r="C39" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D39" s="32">
@@ -11298,14 +11301,14 @@
       <c r="H39" s="32"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" s="39" customFormat="1" spans="1:9">
+    <row r="40" s="40" customFormat="1" spans="1:9">
       <c r="A40" s="32">
         <v>39</v>
       </c>
       <c r="B40" s="32">
         <v>39</v>
       </c>
-      <c r="C40" s="29" t="s">
+      <c r="C40" s="38" t="s">
         <v>216</v>
       </c>
       <c r="D40" s="32">
@@ -11315,14 +11318,14 @@
       <c r="H40" s="32"/>
       <c r="I40" s="32"/>
     </row>
-    <row r="41" s="39" customFormat="1" spans="1:9">
+    <row r="41" s="40" customFormat="1" spans="1:9">
       <c r="A41" s="32">
         <v>40</v>
       </c>
       <c r="B41" s="32">
         <v>40</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D41" s="32">
@@ -11332,14 +11335,14 @@
       <c r="H41" s="32"/>
       <c r="I41" s="32"/>
     </row>
-    <row r="42" s="39" customFormat="1" spans="1:9">
+    <row r="42" s="40" customFormat="1" spans="1:9">
       <c r="A42" s="32">
         <v>41</v>
       </c>
       <c r="B42" s="32">
         <v>41</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="38" t="s">
         <v>220</v>
       </c>
       <c r="D42" s="32">
@@ -11349,14 +11352,14 @@
       <c r="H42" s="32"/>
       <c r="I42" s="32"/>
     </row>
-    <row r="43" s="39" customFormat="1" spans="1:9">
+    <row r="43" s="40" customFormat="1" spans="1:9">
       <c r="A43" s="32">
         <v>42</v>
       </c>
       <c r="B43" s="32">
         <v>42</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="38" t="s">
         <v>207</v>
       </c>
       <c r="D43" s="32">
@@ -11366,14 +11369,14 @@
       <c r="H43" s="32"/>
       <c r="I43" s="32"/>
     </row>
-    <row r="44" s="39" customFormat="1" spans="1:9">
+    <row r="44" s="40" customFormat="1" spans="1:9">
       <c r="A44" s="32">
         <v>43</v>
       </c>
       <c r="B44" s="32">
         <v>43</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="38" t="s">
         <v>220</v>
       </c>
       <c r="D44" s="32">
@@ -11383,14 +11386,14 @@
       <c r="H44" s="32"/>
       <c r="I44" s="32"/>
     </row>
-    <row r="45" s="39" customFormat="1" spans="1:9">
+    <row r="45" s="40" customFormat="1" spans="1:9">
       <c r="A45" s="32">
         <v>44</v>
       </c>
       <c r="B45" s="32">
         <v>44</v>
       </c>
-      <c r="C45" s="29" t="s">
+      <c r="C45" s="38" t="s">
         <v>218</v>
       </c>
       <c r="D45" s="32">
@@ -11400,14 +11403,14 @@
       <c r="H45" s="32"/>
       <c r="I45" s="32"/>
     </row>
-    <row r="46" s="39" customFormat="1" spans="1:9">
+    <row r="46" s="40" customFormat="1" spans="1:9">
       <c r="A46" s="32">
         <v>45</v>
       </c>
       <c r="B46" s="32">
         <v>45</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="38" t="s">
         <v>217</v>
       </c>
       <c r="D46" s="32">
@@ -11417,14 +11420,14 @@
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" s="39" customFormat="1" spans="1:9">
+    <row r="47" s="40" customFormat="1" spans="1:9">
       <c r="A47" s="32">
         <v>46</v>
       </c>
       <c r="B47" s="32">
         <v>46</v>
       </c>
-      <c r="C47" s="29" t="s">
+      <c r="C47" s="38" t="s">
         <v>216</v>
       </c>
       <c r="D47" s="32">
@@ -11434,14 +11437,14 @@
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" s="39" customFormat="1" spans="1:9">
+    <row r="48" s="40" customFormat="1" spans="1:9">
       <c r="A48" s="32">
         <v>47</v>
       </c>
       <c r="B48" s="32">
         <v>47</v>
       </c>
-      <c r="C48" s="29" t="s">
+      <c r="C48" s="38" t="s">
         <v>219</v>
       </c>
       <c r="D48" s="32">
@@ -11451,14 +11454,14 @@
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" s="39" customFormat="1" spans="1:9">
+    <row r="49" s="40" customFormat="1" spans="1:9">
       <c r="A49" s="32">
         <v>48</v>
       </c>
       <c r="B49" s="32">
         <v>48</v>
       </c>
-      <c r="C49" s="29" t="s">
+      <c r="C49" s="38" t="s">
         <v>219</v>
       </c>
       <c r="D49" s="32">
@@ -11468,14 +11471,14 @@
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" s="39" customFormat="1" spans="1:9">
+    <row r="50" s="40" customFormat="1" spans="1:9">
       <c r="A50" s="32">
         <v>49</v>
       </c>
       <c r="B50" s="32">
         <v>49</v>
       </c>
-      <c r="C50" s="29" t="s">
+      <c r="C50" s="38" t="s">
         <v>221</v>
       </c>
       <c r="D50" s="32">
@@ -11485,7 +11488,7 @@
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" s="39" customFormat="1" spans="1:9">
+    <row r="51" s="40" customFormat="1" spans="1:9">
       <c r="A51" s="32">
         <v>50</v>
       </c>
@@ -11502,7 +11505,7 @@
       <c r="H51" s="32"/>
       <c r="I51" s="32"/>
     </row>
-    <row r="52" s="39" customFormat="1" spans="1:9">
+    <row r="52" s="40" customFormat="1" spans="1:9">
       <c r="A52" s="32">
         <v>51</v>
       </c>
@@ -11519,7 +11522,7 @@
       <c r="H52" s="32"/>
       <c r="I52" s="32"/>
     </row>
-    <row r="53" s="39" customFormat="1" spans="1:9">
+    <row r="53" s="40" customFormat="1" spans="1:9">
       <c r="A53" s="32">
         <v>52</v>
       </c>
@@ -11536,7 +11539,7 @@
       <c r="H53" s="32"/>
       <c r="I53" s="32"/>
     </row>
-    <row r="54" s="39" customFormat="1" spans="1:9">
+    <row r="54" s="40" customFormat="1" spans="1:9">
       <c r="A54" s="32">
         <v>53</v>
       </c>
@@ -11553,7 +11556,7 @@
       <c r="H54" s="32"/>
       <c r="I54" s="32"/>
     </row>
-    <row r="55" s="39" customFormat="1" spans="1:9">
+    <row r="55" s="40" customFormat="1" spans="1:9">
       <c r="A55" s="32">
         <v>54</v>
       </c>
@@ -11570,7 +11573,7 @@
       <c r="H55" s="32"/>
       <c r="I55" s="32"/>
     </row>
-    <row r="56" s="39" customFormat="1" spans="1:9">
+    <row r="56" s="40" customFormat="1" spans="1:9">
       <c r="A56" s="32">
         <v>55</v>
       </c>
@@ -11587,7 +11590,7 @@
       <c r="H56" s="32"/>
       <c r="I56" s="32"/>
     </row>
-    <row r="57" s="39" customFormat="1" spans="1:9">
+    <row r="57" s="40" customFormat="1" spans="1:9">
       <c r="A57" s="32">
         <v>56</v>
       </c>
@@ -11604,7 +11607,7 @@
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
     </row>
-    <row r="58" s="39" customFormat="1" spans="1:9">
+    <row r="58" s="40" customFormat="1" spans="1:9">
       <c r="A58" s="32">
         <v>57</v>
       </c>
@@ -11621,7 +11624,7 @@
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
     </row>
-    <row r="59" s="39" customFormat="1" spans="1:9">
+    <row r="59" s="40" customFormat="1" spans="1:9">
       <c r="A59" s="32">
         <v>58</v>
       </c>
@@ -11638,7 +11641,7 @@
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
     </row>
-    <row r="60" s="39" customFormat="1" spans="1:9">
+    <row r="60" s="40" customFormat="1" spans="1:9">
       <c r="A60" s="32">
         <v>59</v>
       </c>
@@ -11655,7 +11658,7 @@
       <c r="H60" s="32"/>
       <c r="I60" s="32"/>
     </row>
-    <row r="61" s="39" customFormat="1" spans="1:9">
+    <row r="61" s="40" customFormat="1" spans="1:9">
       <c r="A61" s="32">
         <v>60</v>
       </c>
@@ -11672,7 +11675,7 @@
       <c r="H61" s="32"/>
       <c r="I61" s="32"/>
     </row>
-    <row r="62" s="39" customFormat="1" spans="1:9">
+    <row r="62" s="40" customFormat="1" spans="1:9">
       <c r="A62" s="32">
         <v>61</v>
       </c>
@@ -11689,7 +11692,7 @@
       <c r="H62" s="32"/>
       <c r="I62" s="32"/>
     </row>
-    <row r="63" s="39" customFormat="1" spans="1:9">
+    <row r="63" s="40" customFormat="1" spans="1:9">
       <c r="A63" s="32">
         <v>62</v>
       </c>
@@ -11706,7 +11709,7 @@
       <c r="H63" s="32"/>
       <c r="I63" s="32"/>
     </row>
-    <row r="64" s="39" customFormat="1" spans="1:9">
+    <row r="64" s="40" customFormat="1" spans="1:9">
       <c r="A64" s="32">
         <v>63</v>
       </c>
@@ -11723,7 +11726,7 @@
       <c r="H64" s="32"/>
       <c r="I64" s="32"/>
     </row>
-    <row r="65" s="39" customFormat="1" spans="1:9">
+    <row r="65" s="40" customFormat="1" spans="1:9">
       <c r="A65" s="32">
         <v>64</v>
       </c>
@@ -11740,7 +11743,7 @@
       <c r="H65" s="32"/>
       <c r="I65" s="32"/>
     </row>
-    <row r="66" s="39" customFormat="1" spans="1:9">
+    <row r="66" s="40" customFormat="1" spans="1:9">
       <c r="A66" s="32">
         <v>65</v>
       </c>
@@ -11757,7 +11760,7 @@
       <c r="H66" s="32"/>
       <c r="I66" s="32"/>
     </row>
-    <row r="67" s="39" customFormat="1" spans="1:9">
+    <row r="67" s="40" customFormat="1" spans="1:9">
       <c r="A67" s="32">
         <v>66</v>
       </c>
@@ -11774,14 +11777,14 @@
       <c r="H67" s="32"/>
       <c r="I67" s="32"/>
     </row>
-    <row r="68" s="39" customFormat="1" spans="1:9">
+    <row r="68" s="40" customFormat="1" spans="1:9">
       <c r="A68" s="32">
         <v>67</v>
       </c>
       <c r="B68" s="32">
         <v>67</v>
       </c>
-      <c r="C68" s="29" t="s">
+      <c r="C68" s="38" t="s">
         <v>230</v>
       </c>
       <c r="D68" s="32">
@@ -11791,14 +11794,14 @@
       <c r="H68" s="32"/>
       <c r="I68" s="32"/>
     </row>
-    <row r="69" s="39" customFormat="1" spans="1:9">
+    <row r="69" s="40" customFormat="1" spans="1:9">
       <c r="A69" s="32">
         <v>68</v>
       </c>
       <c r="B69" s="32">
         <v>68</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="38" t="s">
         <v>232</v>
       </c>
       <c r="D69" s="32">
@@ -11808,7 +11811,7 @@
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
     </row>
-    <row r="70" s="39" customFormat="1" spans="1:9">
+    <row r="70" s="40" customFormat="1" spans="1:9">
       <c r="A70" s="32">
         <v>69</v>
       </c>
@@ -11825,7 +11828,7 @@
       <c r="H70" s="32"/>
       <c r="I70" s="32"/>
     </row>
-    <row r="71" s="39" customFormat="1" spans="1:9">
+    <row r="71" s="40" customFormat="1" spans="1:9">
       <c r="A71" s="32">
         <v>70</v>
       </c>
@@ -11842,7 +11845,7 @@
       <c r="H71" s="32"/>
       <c r="I71" s="32"/>
     </row>
-    <row r="72" s="39" customFormat="1" spans="1:9">
+    <row r="72" s="40" customFormat="1" spans="1:9">
       <c r="A72" s="32">
         <v>71</v>
       </c>
@@ -11859,7 +11862,7 @@
       <c r="H72" s="32"/>
       <c r="I72" s="32"/>
     </row>
-    <row r="73" s="39" customFormat="1" spans="1:9">
+    <row r="73" s="40" customFormat="1" spans="1:9">
       <c r="A73" s="32">
         <v>72</v>
       </c>
@@ -11876,7 +11879,7 @@
       <c r="H73" s="32"/>
       <c r="I73" s="32"/>
     </row>
-    <row r="74" s="39" customFormat="1" spans="1:9">
+    <row r="74" s="40" customFormat="1" spans="1:9">
       <c r="A74" s="32">
         <v>73</v>
       </c>
@@ -11893,7 +11896,7 @@
       <c r="H74" s="32"/>
       <c r="I74" s="32"/>
     </row>
-    <row r="75" s="39" customFormat="1" spans="1:9">
+    <row r="75" s="40" customFormat="1" spans="1:9">
       <c r="A75" s="32">
         <v>74</v>
       </c>
@@ -11910,7 +11913,7 @@
       <c r="H75" s="32"/>
       <c r="I75" s="32"/>
     </row>
-    <row r="76" s="39" customFormat="1" spans="1:9">
+    <row r="76" s="40" customFormat="1" spans="1:9">
       <c r="A76" s="32">
         <v>75</v>
       </c>
@@ -11927,7 +11930,7 @@
       <c r="H76" s="32"/>
       <c r="I76" s="32"/>
     </row>
-    <row r="77" s="39" customFormat="1" spans="1:9">
+    <row r="77" s="40" customFormat="1" spans="1:9">
       <c r="A77" s="32">
         <v>76</v>
       </c>
@@ -11944,7 +11947,7 @@
       <c r="H77" s="32"/>
       <c r="I77" s="32"/>
     </row>
-    <row r="78" s="39" customFormat="1" spans="1:9">
+    <row r="78" s="40" customFormat="1" spans="1:9">
       <c r="A78" s="32">
         <v>77</v>
       </c>
@@ -11961,14 +11964,14 @@
       <c r="H78" s="32"/>
       <c r="I78" s="32"/>
     </row>
-    <row r="79" s="39" customFormat="1" spans="1:9">
+    <row r="79" s="40" customFormat="1" spans="1:9">
       <c r="A79" s="8">
         <v>78</v>
       </c>
       <c r="B79" s="8">
         <v>78</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="41" t="s">
         <v>267</v>
       </c>
       <c r="D79" s="8">
@@ -11978,14 +11981,14 @@
       <c r="H79" s="32"/>
       <c r="I79" s="32"/>
     </row>
-    <row r="80" s="39" customFormat="1" spans="1:9">
+    <row r="80" s="40" customFormat="1" spans="1:9">
       <c r="A80" s="8">
         <v>79</v>
       </c>
       <c r="B80" s="8">
         <v>79</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="41" t="s">
         <v>267</v>
       </c>
       <c r="D80" s="8">
@@ -11995,14 +11998,14 @@
       <c r="H80" s="32"/>
       <c r="I80" s="32"/>
     </row>
-    <row r="81" s="39" customFormat="1" spans="1:9">
+    <row r="81" s="40" customFormat="1" spans="1:9">
       <c r="A81" s="18">
         <v>80</v>
       </c>
       <c r="B81" s="18">
         <v>80</v>
       </c>
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="42" t="s">
         <v>220</v>
       </c>
       <c r="D81" s="18">
@@ -12012,14 +12015,14 @@
       <c r="H81" s="32"/>
       <c r="I81" s="32"/>
     </row>
-    <row r="82" s="39" customFormat="1" spans="1:9">
+    <row r="82" s="40" customFormat="1" spans="1:9">
       <c r="A82" s="18">
         <v>81</v>
       </c>
       <c r="B82" s="18">
         <v>80</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="42" t="s">
         <v>268</v>
       </c>
       <c r="D82" s="18">
@@ -12029,14 +12032,14 @@
       <c r="H82" s="32"/>
       <c r="I82" s="32"/>
     </row>
-    <row r="83" s="39" customFormat="1" spans="1:9">
+    <row r="83" s="40" customFormat="1" spans="1:9">
       <c r="A83" s="18">
         <v>82</v>
       </c>
       <c r="B83" s="18">
         <v>80</v>
       </c>
-      <c r="C83" s="41" t="s">
+      <c r="C83" s="42" t="s">
         <v>269</v>
       </c>
       <c r="D83" s="18">
@@ -12046,14 +12049,14 @@
       <c r="H83" s="32"/>
       <c r="I83" s="32"/>
     </row>
-    <row r="84" s="39" customFormat="1" spans="1:9">
+    <row r="84" s="40" customFormat="1" spans="1:9">
       <c r="A84" s="18">
         <v>83</v>
       </c>
       <c r="B84" s="18">
         <v>80</v>
       </c>
-      <c r="C84" s="41" t="s">
+      <c r="C84" s="42" t="s">
         <v>270</v>
       </c>
       <c r="D84" s="18">
@@ -12063,14 +12066,14 @@
       <c r="H84" s="32"/>
       <c r="I84" s="32"/>
     </row>
-    <row r="85" s="39" customFormat="1" spans="1:9">
+    <row r="85" s="40" customFormat="1" spans="1:9">
       <c r="A85" s="18">
         <v>84</v>
       </c>
       <c r="B85" s="18">
         <v>80</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="42" t="s">
         <v>271</v>
       </c>
       <c r="D85" s="18">
@@ -12080,48 +12083,48 @@
       <c r="H85" s="32"/>
       <c r="I85" s="32"/>
     </row>
-    <row r="86" s="39" customFormat="1" spans="1:9">
+    <row r="86" s="40" customFormat="1" spans="1:9">
       <c r="A86" s="18">
         <v>85</v>
       </c>
       <c r="B86" s="18">
         <v>80</v>
       </c>
-      <c r="C86" s="41" t="s">
+      <c r="C86" s="42" t="s">
         <v>222</v>
       </c>
       <c r="D86" s="18">
         <v>0</v>
       </c>
       <c r="E86" s="32"/>
-      <c r="H86" s="42"/>
+      <c r="H86" s="43"/>
       <c r="I86" s="32"/>
     </row>
-    <row r="87" s="39" customFormat="1" spans="1:9">
+    <row r="87" s="40" customFormat="1" spans="1:9">
       <c r="A87" s="18">
         <v>86</v>
       </c>
       <c r="B87" s="18">
         <v>80</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="42" t="s">
         <v>272</v>
       </c>
       <c r="D87" s="18">
         <v>0</v>
       </c>
       <c r="E87" s="32"/>
-      <c r="H87" s="42"/>
+      <c r="H87" s="43"/>
       <c r="I87" s="32"/>
     </row>
-    <row r="88" s="39" customFormat="1" spans="1:9">
+    <row r="88" s="40" customFormat="1" spans="1:9">
       <c r="A88" s="18">
         <v>87</v>
       </c>
       <c r="B88" s="18">
         <v>80</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="42" t="s">
         <v>273</v>
       </c>
       <c r="D88" s="18">
@@ -12131,14 +12134,14 @@
       <c r="H88" s="32"/>
       <c r="I88" s="32"/>
     </row>
-    <row r="89" s="39" customFormat="1" spans="1:9">
+    <row r="89" s="40" customFormat="1" spans="1:9">
       <c r="A89" s="18">
         <v>88</v>
       </c>
       <c r="B89" s="18">
         <v>80</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="42" t="s">
         <v>274</v>
       </c>
       <c r="D89" s="18">
@@ -12148,14 +12151,14 @@
       <c r="H89" s="32"/>
       <c r="I89" s="32"/>
     </row>
-    <row r="90" s="39" customFormat="1" spans="1:9">
+    <row r="90" s="40" customFormat="1" spans="1:9">
       <c r="A90" s="18">
         <v>89</v>
       </c>
       <c r="B90" s="18">
         <v>80</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="42" t="s">
         <v>275</v>
       </c>
       <c r="D90" s="18">
@@ -12172,7 +12175,7 @@
       <c r="B91" s="20">
         <v>81</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="44" t="s">
         <v>240</v>
       </c>
       <c r="D91" s="20">
@@ -12235,7 +12238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="39" customFormat="1" spans="1:9">
+    <row r="96" s="40" customFormat="1" spans="1:9">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -12252,7 +12255,7 @@
       <c r="H96" s="32"/>
       <c r="I96" s="32"/>
     </row>
-    <row r="97" s="39" customFormat="1" spans="1:9">
+    <row r="97" s="40" customFormat="1" spans="1:9">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -12269,7 +12272,7 @@
       <c r="H97" s="32"/>
       <c r="I97" s="32"/>
     </row>
-    <row r="98" s="39" customFormat="1" spans="1:9">
+    <row r="98" s="40" customFormat="1" spans="1:9">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -12377,7 +12380,7 @@
       <c r="B105" s="4">
         <v>96</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="42" t="s">
         <v>220</v>
       </c>
       <c r="D105" s="14">
@@ -12394,7 +12397,7 @@
       <c r="B106" s="4">
         <v>96</v>
       </c>
-      <c r="C106" s="41" t="s">
+      <c r="C106" s="42" t="s">
         <v>268</v>
       </c>
       <c r="D106" s="14">
@@ -12408,7 +12411,7 @@
       <c r="B107" s="4">
         <v>96</v>
       </c>
-      <c r="C107" s="41" t="s">
+      <c r="C107" s="42" t="s">
         <v>269</v>
       </c>
       <c r="D107" s="14">
@@ -12422,7 +12425,7 @@
       <c r="B108" s="4">
         <v>96</v>
       </c>
-      <c r="C108" s="41" t="s">
+      <c r="C108" s="42" t="s">
         <v>270</v>
       </c>
       <c r="D108" s="14">
@@ -12436,7 +12439,7 @@
       <c r="B109" s="4">
         <v>96</v>
       </c>
-      <c r="C109" s="41" t="s">
+      <c r="C109" s="42" t="s">
         <v>271</v>
       </c>
       <c r="D109" s="14">
@@ -12450,7 +12453,7 @@
       <c r="B110" s="4">
         <v>96</v>
       </c>
-      <c r="C110" s="41" t="s">
+      <c r="C110" s="42" t="s">
         <v>222</v>
       </c>
       <c r="D110" s="14">
@@ -12464,7 +12467,7 @@
       <c r="B111" s="4">
         <v>96</v>
       </c>
-      <c r="C111" s="41" t="s">
+      <c r="C111" s="42" t="s">
         <v>272</v>
       </c>
       <c r="D111" s="14">
@@ -12481,7 +12484,7 @@
       <c r="B112" s="4">
         <v>96</v>
       </c>
-      <c r="C112" s="41" t="s">
+      <c r="C112" s="42" t="s">
         <v>273</v>
       </c>
       <c r="D112" s="14">
@@ -12495,7 +12498,7 @@
       <c r="B113" s="4">
         <v>96</v>
       </c>
-      <c r="C113" s="41" t="s">
+      <c r="C113" s="42" t="s">
         <v>274</v>
       </c>
       <c r="D113" s="14">
@@ -12509,7 +12512,7 @@
       <c r="B114" s="4">
         <v>96</v>
       </c>
-      <c r="C114" s="41" t="s">
+      <c r="C114" s="42" t="s">
         <v>275</v>
       </c>
       <c r="D114" s="14">
@@ -12523,7 +12526,7 @@
       <c r="B115" s="4">
         <v>96</v>
       </c>
-      <c r="C115" s="41" t="s">
+      <c r="C115" s="42" t="s">
         <v>278</v>
       </c>
       <c r="D115" s="14">
@@ -12602,7 +12605,7 @@
       <c r="D120" s="30">
         <v>0</v>
       </c>
-      <c r="F120" s="44" t="s">
+      <c r="F120" s="45" t="s">
         <v>283</v>
       </c>
     </row>
@@ -12619,7 +12622,7 @@
       <c r="D121" s="30">
         <v>0</v>
       </c>
-      <c r="F121" s="44"/>
+      <c r="F121" s="45"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="21">
@@ -12634,7 +12637,7 @@
       <c r="D122" s="30">
         <v>0</v>
       </c>
-      <c r="F122" s="44"/>
+      <c r="F122" s="45"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="21">
@@ -12649,7 +12652,7 @@
       <c r="D123" s="30">
         <v>0</v>
       </c>
-      <c r="F123" s="44"/>
+      <c r="F123" s="45"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="21">
@@ -12664,7 +12667,7 @@
       <c r="D124" s="30">
         <v>0</v>
       </c>
-      <c r="F124" s="44"/>
+      <c r="F124" s="45"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="21">
@@ -12679,7 +12682,7 @@
       <c r="D125" s="30">
         <v>0</v>
       </c>
-      <c r="F125" s="44"/>
+      <c r="F125" s="45"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="21">
@@ -12694,7 +12697,7 @@
       <c r="D126" s="30">
         <v>0</v>
       </c>
-      <c r="F126" s="44"/>
+      <c r="F126" s="45"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="21">
@@ -12709,7 +12712,7 @@
       <c r="D127" s="30">
         <v>0</v>
       </c>
-      <c r="F127" s="44"/>
+      <c r="F127" s="45"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="21">
@@ -12724,7 +12727,7 @@
       <c r="D128" s="30">
         <v>0</v>
       </c>
-      <c r="F128" s="44"/>
+      <c r="F128" s="45"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="21">
@@ -12739,7 +12742,7 @@
       <c r="D129" s="30">
         <v>0</v>
       </c>
-      <c r="F129" s="44"/>
+      <c r="F129" s="45"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="21">
@@ -12754,7 +12757,7 @@
       <c r="D130" s="30">
         <v>0</v>
       </c>
-      <c r="F130" s="44"/>
+      <c r="F130" s="45"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="21">
@@ -12769,7 +12772,7 @@
       <c r="D131" s="30">
         <v>0</v>
       </c>
-      <c r="F131" s="44"/>
+      <c r="F131" s="45"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="21">
@@ -12784,7 +12787,7 @@
       <c r="D132" s="30">
         <v>0</v>
       </c>
-      <c r="F132" s="44"/>
+      <c r="F132" s="45"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="21">
@@ -12799,7 +12802,7 @@
       <c r="D133" s="30">
         <v>0</v>
       </c>
-      <c r="F133" s="44"/>
+      <c r="F133" s="45"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="21">
@@ -12812,7 +12815,7 @@
         <v>295</v>
       </c>
       <c r="D134" s="30"/>
-      <c r="F134" s="44"/>
+      <c r="F134" s="45"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="21">
@@ -12827,7 +12830,7 @@
       <c r="D135" s="30">
         <v>0</v>
       </c>
-      <c r="F135" s="44"/>
+      <c r="F135" s="45"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="21">
@@ -12998,7 +13001,7 @@
       </c>
     </row>
     <row r="148" spans="3:3">
-      <c r="C148" s="45"/>
+      <c r="C148" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13015,7 +13018,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
@@ -14203,10 +14206,10 @@
       <c r="B69" s="4">
         <v>37</v>
       </c>
-      <c r="C69" s="29" t="s">
+      <c r="C69" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="D69" s="38" t="s">
+      <c r="D69" s="39" t="s">
         <v>334</v>
       </c>
       <c r="E69" s="4">
@@ -14238,10 +14241,10 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
+      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -17487,14 +17490,14 @@
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
     </row>
-    <row r="181" s="13" customFormat="1" spans="1:7">
+    <row r="181" s="13" customFormat="1" ht="16.5" spans="1:7">
       <c r="A181" s="28">
         <v>180</v>
       </c>
       <c r="B181" s="20">
         <v>163</v>
       </c>
-      <c r="C181" s="20" t="s">
+      <c r="C181" s="29" t="s">
         <v>391</v>
       </c>
       <c r="D181" s="20">
@@ -17506,7 +17509,7 @@
       <c r="F181" s="20"/>
       <c r="G181" s="20"/>
     </row>
-    <row r="182" s="13" customFormat="1" spans="1:7">
+    <row r="182" s="13" customFormat="1" ht="16.5" spans="1:7">
       <c r="A182" s="28">
         <v>181</v>
       </c>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -1761,13 +1761,13 @@
     <t>obj_50_coupon_604800</t>
   </si>
   <si>
-    <t>obj_aqunman_add2_604800</t>
+    <t>obj_aquaman_add2_604800</t>
   </si>
   <si>
     <t>obj_200_coupon_604800</t>
   </si>
   <si>
-    <t>obj_aqunman_add8_604800</t>
+    <t>obj_aquaman_add8_604800</t>
   </si>
   <si>
     <t>task_30001</t>
@@ -2063,10 +2063,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2108,10 +2108,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2124,7 +2200,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2132,7 +2208,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2147,89 +2223,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2239,7 +2232,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2325,7 +2325,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2337,19 +2403,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,97 +2457,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,13 +2469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2509,11 +2509,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2533,17 +2539,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2563,46 +2592,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2612,10 +2612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2624,133 +2624,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -3300,7 +3300,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F116" sqref="F116"/>
+      <selection pane="bottomLeft" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7625,10 +7625,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
+      <selection pane="bottomLeft" activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -14242,9 +14242,9 @@
   <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A167" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D182" sqref="D182"/>
+      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="494">
   <si>
     <t>id|任务id</t>
   </si>
@@ -873,19 +873,19 @@
     <t>通行证-每日-登陆1次游戏</t>
   </si>
   <si>
-    <t>通行证-每日-消耗5万金币</t>
+    <t>通行证-每日-消耗30万金币</t>
   </si>
   <si>
-    <t>通行证-每日-在3D捕鱼中捕获1条彩金鱼</t>
+    <t>通行证-每日-在3D捕鱼中捕获任意100条鱼</t>
   </si>
   <si>
-    <t>通行证-每日-在3D捕鱼中捕获任意10条鱼</t>
+    <t>通行证-每日-在3D捕鱼海底宝藏中累计开炮500次</t>
   </si>
   <si>
-    <t>通行证-每日-在3D捕鱼中任意使用技能10次</t>
+    <t>通行证-每日-在西游消消乐中累计消除15次</t>
   </si>
   <si>
-    <t>通行证-每日-累计游戏时长10分钟</t>
+    <t>通行证-每日-在水浒消消乐中累计消除15次</t>
   </si>
   <si>
     <t>通行证-每日-任意充值1笔</t>
@@ -894,22 +894,25 @@
     <t>通行证-每周-累计登陆3天</t>
   </si>
   <si>
-    <t>通行证-每周-消耗100万金币</t>
+    <t>通行证-每周-使用1次红包大转盘</t>
   </si>
   <si>
-    <t>通行证-每周-在3D捕鱼中任意使用技能50次</t>
+    <t>p_txz</t>
   </si>
   <si>
-    <t>通行证-每周-在3D捕鱼中捕获任意100条鱼</t>
+    <t>通行证-每周-深海探险通过10层</t>
   </si>
   <si>
-    <t>通行证-每周-在3D捕鱼中捕获20条彩金鱼</t>
+    <t>通行证-每周-累计游戏时长200分钟</t>
   </si>
   <si>
-    <t>通行证-每周-累计游戏时长90分钟</t>
+    <t>通行证-每周-在3D捕鱼海底宝藏中累计捕获300条鱼</t>
   </si>
   <si>
-    <t>通行证-每周-累计充值48元</t>
+    <t>通行证-每周-在苹果大战中累计纯赢100万</t>
+  </si>
+  <si>
+    <t>通行证-每周-在水果消消乐中累计消除100次</t>
   </si>
   <si>
     <t>id|id</t>
@@ -1451,7 +1454,10 @@
     <t>buyu_3d_target_yu</t>
   </si>
   <si>
-    <t xml:space="preserve">buyu_3d_spend_by_use_fish_prop </t>
+    <t>buyu_3d_spend_num</t>
+  </si>
+  <si>
+    <t>xiaoxiaole_xiyou_game_num</t>
   </si>
   <si>
     <t>xiaoxiaole_shuihu_game_num</t>
@@ -1560,21 +1566,6 @@
   </si>
   <si>
     <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>base_fish_id</t>
-  </si>
-  <si>
-    <t>20,22,23,24,25,26,27,38,39,40,41,43,46,47,48,49,51,63,64,65,66,67,68</t>
-  </si>
-  <si>
-    <t>fish_prop</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_frozen,prop_3d_fish_lock,prop_3d_fish_accelerate,prop_3d_fish_wild,prop_3d_fish_doubled,prop_3d_fish_summon_fish</t>
-  </si>
-  <si>
-    <t>pay_money</t>
   </si>
   <si>
     <t>award_id|奖励配置id</t>
@@ -2076,8 +2067,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -2113,48 +2104,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2172,7 +2127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2180,7 +2135,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2194,16 +2149,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2217,32 +2171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2255,8 +2186,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,19 +2328,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,67 +2352,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,7 +2370,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,7 +2400,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,13 +2424,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2481,7 +2448,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,6 +2512,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2536,6 +2536,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -2547,6 +2556,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2575,26 +2595,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2609,25 +2609,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,138 +2627,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2884,6 +2875,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2965,6 +2959,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3304,9 +3301,9 @@
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C107" sqref="C107"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -3419,8 +3416,8 @@
       <c r="O2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="1:18">
       <c r="A3" s="14">
@@ -3462,8 +3459,8 @@
       <c r="O3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="1:18">
       <c r="A4" s="14">
@@ -3505,8 +3502,8 @@
       <c r="O4" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="1:18">
       <c r="A5" s="14">
@@ -3515,7 +3512,7 @@
       <c r="B5" s="14">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="50" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -3545,11 +3542,11 @@
       <c r="N5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:15">
       <c r="A6" s="14">
@@ -3629,7 +3626,7 @@
       <c r="N7" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="50" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3670,7 +3667,7 @@
       <c r="N8" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="50" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3681,7 +3678,7 @@
       <c r="B9" s="14">
         <v>-1</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="14" t="s">
@@ -3859,7 +3856,7 @@
       <c r="B14" s="14">
         <v>-1</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -3894,7 +3891,7 @@
       <c r="B15" s="14">
         <v>-1</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="68" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -3929,7 +3926,7 @@
       <c r="B16" s="14">
         <v>-1</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="50" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="14" t="s">
@@ -4034,7 +4031,7 @@
       <c r="B19" s="14">
         <v>-1</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="14" t="s">
@@ -4174,7 +4171,7 @@
       <c r="B23" s="14">
         <v>-1</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="50" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="14" t="s">
@@ -4314,7 +4311,7 @@
       <c r="B27" s="14">
         <v>-1</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="50" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="14" t="s">
@@ -4349,7 +4346,7 @@
       <c r="B28" s="14">
         <v>-1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="50" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="14" t="s">
@@ -4384,7 +4381,7 @@
       <c r="B29" s="14">
         <v>-1</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="50" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="14" t="s">
@@ -5367,7 +5364,7 @@
       <c r="C57" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="50" t="s">
         <v>100</v>
       </c>
       <c r="E57" s="14" t="s">
@@ -5504,7 +5501,7 @@
       <c r="B61" s="26">
         <v>-1</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="14" t="s">
@@ -5685,7 +5682,7 @@
       <c r="D66" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="49" t="s">
+      <c r="E66" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="14">
@@ -5717,7 +5714,7 @@
       <c r="C67" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="50" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="14" t="s">
@@ -5755,7 +5752,7 @@
       <c r="D68" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="70" t="s">
+      <c r="E68" s="71" t="s">
         <v>124</v>
       </c>
       <c r="F68" s="28">
@@ -6029,10 +6026,10 @@
       <c r="B76" s="28">
         <v>0</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="71" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="28" t="s">
@@ -6067,7 +6064,7 @@
       <c r="C77" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="70" t="s">
+      <c r="D77" s="71" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="28" t="s">
@@ -6092,108 +6089,108 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" s="57" customFormat="1" spans="1:11">
-      <c r="A78" s="57">
+    <row r="78" s="58" customFormat="1" spans="1:11">
+      <c r="A78" s="58">
         <v>78</v>
       </c>
-      <c r="B78" s="57">
-        <v>1</v>
-      </c>
-      <c r="C78" s="71" t="s">
+      <c r="B78" s="58">
+        <v>1</v>
+      </c>
+      <c r="C78" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="71" t="s">
+      <c r="E78" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="57">
+      <c r="F78" s="58">
         <v>78</v>
       </c>
-      <c r="G78" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="57">
-        <v>1</v>
-      </c>
-      <c r="I78" s="57">
+      <c r="G78" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="58">
+        <v>1</v>
+      </c>
+      <c r="I78" s="58">
         <v>946656000</v>
       </c>
-      <c r="J78" s="57">
+      <c r="J78" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K78" s="57">
+      <c r="K78" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" s="57" customFormat="1" spans="1:11">
-      <c r="A79" s="57">
+    <row r="79" s="58" customFormat="1" spans="1:11">
+      <c r="A79" s="58">
         <v>79</v>
       </c>
-      <c r="B79" s="57">
-        <v>1</v>
-      </c>
-      <c r="C79" s="71" t="s">
+      <c r="B79" s="58">
+        <v>1</v>
+      </c>
+      <c r="C79" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="71" t="s">
+      <c r="E79" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="57">
+      <c r="F79" s="58">
         <v>79</v>
       </c>
-      <c r="G79" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="57">
-        <v>1</v>
-      </c>
-      <c r="I79" s="57">
+      <c r="G79" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="58">
+        <v>1</v>
+      </c>
+      <c r="I79" s="58">
         <v>946656000</v>
       </c>
-      <c r="J79" s="57">
+      <c r="J79" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K79" s="57">
+      <c r="K79" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" s="57" customFormat="1" spans="1:11">
-      <c r="A80" s="57">
+    <row r="80" s="58" customFormat="1" spans="1:11">
+      <c r="A80" s="58">
         <v>80</v>
       </c>
-      <c r="B80" s="57">
-        <v>1</v>
-      </c>
-      <c r="C80" s="71" t="s">
+      <c r="B80" s="58">
+        <v>1</v>
+      </c>
+      <c r="C80" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="71" t="s">
+      <c r="E80" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="57">
+      <c r="F80" s="58">
         <v>80</v>
       </c>
-      <c r="G80" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="57">
-        <v>1</v>
-      </c>
-      <c r="I80" s="57">
+      <c r="G80" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="58">
+        <v>1</v>
+      </c>
+      <c r="I80" s="58">
         <v>946656000</v>
       </c>
-      <c r="J80" s="57">
+      <c r="J80" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K80" s="57">
+      <c r="K80" s="58">
         <v>-1</v>
       </c>
     </row>
@@ -6239,13 +6236,13 @@
       <c r="B82" s="30">
         <v>0</v>
       </c>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="73" t="s">
         <v>146</v>
       </c>
       <c r="D82" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="72" t="s">
+      <c r="E82" s="73" t="s">
         <v>124</v>
       </c>
       <c r="F82" s="30">
@@ -6276,10 +6273,10 @@
       <c r="B83" s="30">
         <v>0</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="73" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="30" t="s">
@@ -6313,10 +6310,10 @@
       <c r="B84" s="30">
         <v>0</v>
       </c>
-      <c r="C84" s="72" t="s">
+      <c r="C84" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="73" t="s">
         <v>124</v>
       </c>
       <c r="E84" s="30" t="s">
@@ -6388,7 +6385,7 @@
       <c r="C86" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="50" t="s">
         <v>150</v>
       </c>
       <c r="E86" s="14" t="s">
@@ -6423,7 +6420,7 @@
       <c r="C87" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D87" s="50" t="s">
         <v>151</v>
       </c>
       <c r="E87" s="14" t="s">
@@ -6458,7 +6455,7 @@
       <c r="C88" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="50" t="s">
         <v>152</v>
       </c>
       <c r="E88" s="14" t="s">
@@ -6490,10 +6487,10 @@
       <c r="B89" s="14">
         <v>1</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="50" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="14" t="s">
@@ -6518,108 +6515,108 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" s="57" customFormat="1" spans="1:11">
-      <c r="A90" s="57">
+    <row r="90" s="58" customFormat="1" spans="1:11">
+      <c r="A90" s="58">
         <v>90</v>
       </c>
-      <c r="B90" s="57">
-        <v>1</v>
-      </c>
-      <c r="C90" s="71" t="s">
+      <c r="B90" s="58">
+        <v>1</v>
+      </c>
+      <c r="C90" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="71" t="s">
+      <c r="E90" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="57">
+      <c r="F90" s="58">
         <v>90</v>
       </c>
-      <c r="G90" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="57">
-        <v>1</v>
-      </c>
-      <c r="I90" s="57">
+      <c r="G90" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="58">
+        <v>1</v>
+      </c>
+      <c r="I90" s="58">
         <v>946656000</v>
       </c>
-      <c r="J90" s="57">
+      <c r="J90" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K90" s="57">
+      <c r="K90" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="91" s="57" customFormat="1" spans="1:11">
-      <c r="A91" s="57">
+    <row r="91" s="58" customFormat="1" spans="1:11">
+      <c r="A91" s="58">
         <v>91</v>
       </c>
-      <c r="B91" s="57">
-        <v>1</v>
-      </c>
-      <c r="C91" s="71" t="s">
+      <c r="B91" s="58">
+        <v>1</v>
+      </c>
+      <c r="C91" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="71" t="s">
+      <c r="E91" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="57">
+      <c r="F91" s="58">
         <v>91</v>
       </c>
-      <c r="G91" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="57">
-        <v>1</v>
-      </c>
-      <c r="I91" s="57">
+      <c r="G91" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="58">
+        <v>1</v>
+      </c>
+      <c r="I91" s="58">
         <v>946656000</v>
       </c>
-      <c r="J91" s="57">
+      <c r="J91" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K91" s="57">
+      <c r="K91" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="92" s="57" customFormat="1" spans="1:11">
-      <c r="A92" s="57">
+    <row r="92" s="58" customFormat="1" spans="1:11">
+      <c r="A92" s="58">
         <v>92</v>
       </c>
-      <c r="B92" s="57">
-        <v>1</v>
-      </c>
-      <c r="C92" s="71" t="s">
+      <c r="B92" s="58">
+        <v>1</v>
+      </c>
+      <c r="C92" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="71" t="s">
+      <c r="E92" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="57">
+      <c r="F92" s="58">
         <v>92</v>
       </c>
-      <c r="G92" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="57">
-        <v>1</v>
-      </c>
-      <c r="I92" s="57">
+      <c r="G92" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="58">
+        <v>1</v>
+      </c>
+      <c r="I92" s="58">
         <v>946656000</v>
       </c>
-      <c r="J92" s="57">
+      <c r="J92" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K92" s="57">
+      <c r="K92" s="58">
         <v>-1</v>
       </c>
     </row>
@@ -6630,13 +6627,13 @@
       <c r="B93" s="14">
         <v>1</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E93" s="50" t="s">
         <v>162</v>
       </c>
       <c r="F93" s="14">
@@ -6651,13 +6648,13 @@
       <c r="I93" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J93" s="57">
+      <c r="J93" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K93" s="57">
+      <c r="K93" s="58">
         <v>-1</v>
       </c>
-      <c r="L93" s="74">
+      <c r="L93" s="76">
         <v>1</v>
       </c>
       <c r="M93" s="28" t="s">
@@ -6671,19 +6668,19 @@
       <c r="B94" s="14">
         <v>1</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="49" t="s">
+      <c r="E94" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="14">
         <v>94</v>
       </c>
-      <c r="G94" s="49" t="b">
+      <c r="G94" s="50" t="b">
         <v>0</v>
       </c>
       <c r="H94" s="14">
@@ -6692,14 +6689,14 @@
       <c r="I94" s="14">
         <v>1603641600</v>
       </c>
-      <c r="J94" s="57">
+      <c r="J94" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K94" s="57">
+      <c r="K94" s="58">
         <v>-1</v>
       </c>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="14">
@@ -6708,19 +6705,19 @@
       <c r="B95" s="14">
         <v>1</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="14">
         <v>95</v>
       </c>
-      <c r="G95" s="49" t="b">
+      <c r="G95" s="50" t="b">
         <v>0</v>
       </c>
       <c r="H95" s="14">
@@ -6739,44 +6736,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" s="61" customFormat="1" spans="1:13">
-      <c r="A96" s="61">
+    <row r="96" s="62" customFormat="1" spans="1:13">
+      <c r="A96" s="62">
         <v>96</v>
       </c>
-      <c r="B96" s="61">
-        <v>1</v>
-      </c>
-      <c r="C96" s="73" t="s">
+      <c r="B96" s="62">
+        <v>1</v>
+      </c>
+      <c r="C96" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="73" t="s">
+      <c r="D96" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="73" t="s">
+      <c r="E96" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="F96" s="61">
+      <c r="F96" s="62">
         <v>96</v>
       </c>
-      <c r="G96" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="61">
+      <c r="G96" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="62">
         <v>7</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I96" s="62">
         <v>1615132800</v>
       </c>
-      <c r="J96" s="61">
+      <c r="J96" s="62">
         <v>32503651200</v>
       </c>
-      <c r="K96" s="61">
+      <c r="K96" s="62">
         <v>-1</v>
       </c>
-      <c r="L96" s="61">
-        <v>1</v>
-      </c>
-      <c r="M96" s="73" t="s">
+      <c r="L96" s="62">
+        <v>1</v>
+      </c>
+      <c r="M96" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6787,19 +6784,19 @@
       <c r="B97" s="14">
         <v>1</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="14">
         <v>97</v>
       </c>
-      <c r="G97" s="61" t="b">
+      <c r="G97" s="62" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="14">
@@ -6825,19 +6822,19 @@
       <c r="B98" s="14">
         <v>1</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D98" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="14">
         <v>98</v>
       </c>
-      <c r="G98" s="61" t="b">
+      <c r="G98" s="62" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="14">
@@ -6863,13 +6860,13 @@
       <c r="B99" s="14">
         <v>1</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D99" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E99" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="14">
@@ -6901,13 +6898,13 @@
       <c r="B100" s="14">
         <v>1</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="14">
@@ -7401,8 +7398,8 @@
       <c r="C113" s="30" t="s">
         <v>191</v>
       </c>
-      <c r="D113" s="30" t="s">
-        <v>16</v>
+      <c r="D113" s="75" t="s">
+        <v>192</v>
       </c>
       <c r="E113" s="30" t="s">
         <v>39</v>
@@ -7437,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D114" s="30" t="s">
         <v>16</v>
@@ -7475,7 +7472,7 @@
         <v>1</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D115" s="30" t="s">
         <v>16</v>
@@ -7513,7 +7510,7 @@
         <v>1</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D116" s="30" t="s">
         <v>16</v>
@@ -7551,7 +7548,7 @@
         <v>1</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D117" s="30" t="s">
         <v>16</v>
@@ -7589,7 +7586,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D118" s="30" t="s">
         <v>16</v>
@@ -7632,9 +7629,9 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A95" sqref="A95"/>
+      <selection pane="bottomLeft" activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7643,43 +7640,43 @@
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="47" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="48" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:11">
       <c r="A1" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H1" s="48" t="s">
         <v>203</v>
       </c>
+      <c r="H1" s="49" t="s">
+        <v>204</v>
+      </c>
       <c r="I1" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" s="53"/>
+        <v>206</v>
+      </c>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="14">
@@ -7689,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -7697,15 +7694,15 @@
       <c r="E2" s="14">
         <v>1</v>
       </c>
-      <c r="F2" s="75" t="s">
-        <v>207</v>
-      </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="76" t="s">
+      <c r="F2" s="77" t="s">
         <v>208</v>
       </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="78" t="s">
+        <v>209</v>
+      </c>
       <c r="I2" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7716,7 +7713,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" s="4">
         <v>2</v>
@@ -7724,15 +7721,15 @@
       <c r="E3" s="14">
         <v>2</v>
       </c>
-      <c r="F3" s="77" t="s">
-        <v>207</v>
+      <c r="F3" s="79" t="s">
+        <v>208</v>
       </c>
       <c r="G3" s="14"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>210</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7743,7 +7740,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D4" s="4">
         <v>3</v>
@@ -7751,15 +7748,15 @@
       <c r="E4" s="14">
         <v>3</v>
       </c>
-      <c r="F4" s="77" t="s">
-        <v>207</v>
+      <c r="F4" s="79" t="s">
+        <v>208</v>
       </c>
       <c r="G4" s="14"/>
-      <c r="H4" s="76" t="s">
-        <v>211</v>
+      <c r="H4" s="78" t="s">
+        <v>212</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7770,7 +7767,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" s="4">
         <v>4</v>
@@ -7778,15 +7775,15 @@
       <c r="E5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="75" t="s">
-        <v>212</v>
-      </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="76" t="s">
+      <c r="F5" s="77" t="s">
         <v>213</v>
       </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="78" t="s">
+        <v>214</v>
+      </c>
       <c r="I5" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7797,7 +7794,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D6" s="4">
         <v>5</v>
@@ -7809,13 +7806,13 @@
         <v>10</v>
       </c>
       <c r="G6" s="14"/>
-      <c r="H6" s="51">
+      <c r="H6" s="52">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="J6" s="54"/>
+        <v>210</v>
+      </c>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -7825,7 +7822,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D7" s="4">
         <v>6</v>
@@ -7836,11 +7833,11 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="48">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7851,7 +7848,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D8" s="4">
         <v>7</v>
@@ -7862,11 +7859,11 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="48">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7877,7 +7874,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D9" s="4">
         <v>8</v>
@@ -7888,11 +7885,11 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="48">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -7904,7 +7901,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D10" s="4">
         <v>9</v>
@@ -7915,11 +7912,11 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="48">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7930,7 +7927,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D11" s="4">
         <v>10</v>
@@ -7941,11 +7938,11 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="48">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7956,7 +7953,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D12" s="4">
         <v>11</v>
@@ -7967,11 +7964,11 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="48">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -7982,7 +7979,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D13" s="4">
         <v>12</v>
@@ -7993,11 +7990,11 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="48">
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8008,7 +8005,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D14" s="4">
         <v>13</v>
@@ -8019,11 +8016,11 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="48">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8034,7 +8031,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D15" s="4">
         <v>14</v>
@@ -8045,11 +8042,11 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="48">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8060,7 +8057,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D16" s="4">
         <v>15</v>
@@ -8071,11 +8068,11 @@
       <c r="F16" s="4">
         <v>1000</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="48">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -8086,7 +8083,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D17" s="4">
         <v>16</v>
@@ -8097,11 +8094,11 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="48">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -8112,7 +8109,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D18" s="4">
         <v>17</v>
@@ -8123,11 +8120,11 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="48">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -8138,7 +8135,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D19" s="4">
         <v>18</v>
@@ -8149,11 +8146,11 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="48">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -8164,7 +8161,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D20" s="4">
         <v>19</v>
@@ -8175,11 +8172,11 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="48">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -8190,7 +8187,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D21" s="4">
         <v>20</v>
@@ -8201,11 +8198,11 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="48">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -8216,7 +8213,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D22" s="4">
         <v>21</v>
@@ -8227,11 +8224,11 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="48">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -8242,7 +8239,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D23" s="4">
         <v>22</v>
@@ -8253,11 +8250,11 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="48">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -8268,7 +8265,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D24" s="4">
         <v>23</v>
@@ -8279,11 +8276,11 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="48">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -8294,7 +8291,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D25" s="4">
         <v>24</v>
@@ -8305,11 +8302,11 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="48">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -8320,7 +8317,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D26" s="4">
         <v>25</v>
@@ -8331,11 +8328,11 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="48">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -8346,7 +8343,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D27" s="4">
         <v>26</v>
@@ -8357,11 +8354,11 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="48">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -8372,7 +8369,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D28" s="4">
         <v>27</v>
@@ -8383,11 +8380,11 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="48">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -8398,7 +8395,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D29" s="4">
         <v>28</v>
@@ -8409,11 +8406,11 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="48">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8424,7 +8421,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D30" s="4">
         <v>29</v>
@@ -8435,11 +8432,11 @@
       <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="48">
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -8450,7 +8447,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D31" s="4">
         <v>30</v>
@@ -8461,11 +8458,11 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="48">
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8476,7 +8473,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D32" s="4">
         <v>31</v>
@@ -8487,11 +8484,11 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="48">
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -8502,7 +8499,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D33" s="4">
         <v>32</v>
@@ -8513,11 +8510,11 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="48">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -8528,7 +8525,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D34" s="4">
         <v>33</v>
@@ -8539,11 +8536,11 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="48">
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -8554,7 +8551,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" s="4">
         <v>34</v>
@@ -8565,11 +8562,11 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="48">
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8580,7 +8577,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D36" s="4">
         <v>35</v>
@@ -8591,11 +8588,11 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="48">
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" ht="12.95" customHeight="1" spans="1:9">
@@ -8606,7 +8603,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D37" s="4">
         <v>36</v>
@@ -8617,11 +8614,11 @@
       <c r="F37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="48">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" ht="12.95" customHeight="1" spans="1:9">
@@ -8632,7 +8629,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D38" s="4">
         <v>37</v>
@@ -8643,11 +8640,11 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="48">
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -8658,7 +8655,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D39" s="4">
         <v>38</v>
@@ -8669,11 +8666,11 @@
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="48">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" ht="12.95" customHeight="1" spans="1:9">
@@ -8684,7 +8681,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D40" s="4">
         <v>39</v>
@@ -8695,11 +8692,11 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="48">
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="41" ht="12.95" customHeight="1" spans="1:9">
@@ -8710,7 +8707,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D41" s="4">
         <v>40</v>
@@ -8721,11 +8718,11 @@
       <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="48">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" ht="12.95" customHeight="1" spans="1:9">
@@ -8736,7 +8733,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D42" s="4">
         <v>41</v>
@@ -8747,11 +8744,11 @@
       <c r="F42" s="4">
         <v>50000</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="48">
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="43" ht="12.95" customHeight="1" spans="1:9">
@@ -8762,7 +8759,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D43" s="4">
         <v>42</v>
@@ -8773,11 +8770,11 @@
       <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="48">
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" ht="12.95" customHeight="1" spans="1:9">
@@ -8788,7 +8785,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D44" s="4">
         <v>43</v>
@@ -8799,11 +8796,11 @@
       <c r="F44" s="4">
         <v>100000</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H44" s="48">
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" ht="12.95" customHeight="1" spans="1:9">
@@ -8814,7 +8811,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D45" s="4">
         <v>44</v>
@@ -8825,11 +8822,11 @@
       <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="H45" s="47">
+      <c r="H45" s="48">
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="46" ht="12.95" customHeight="1" spans="1:9">
@@ -8840,7 +8837,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D46" s="4">
         <v>45</v>
@@ -8851,11 +8848,11 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="48">
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" ht="12.95" customHeight="1" spans="1:9">
@@ -8866,7 +8863,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D47" s="4">
         <v>46</v>
@@ -8877,11 +8874,11 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="48">
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" ht="12.95" customHeight="1" spans="1:9">
@@ -8892,7 +8889,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D48" s="4">
         <v>47</v>
@@ -8903,11 +8900,11 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="48">
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" ht="12.95" customHeight="1" spans="1:9">
@@ -8918,7 +8915,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D49" s="4">
         <v>48</v>
@@ -8929,11 +8926,11 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="48">
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" ht="12.95" customHeight="1" spans="1:9">
@@ -8944,7 +8941,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D50" s="4">
         <v>49</v>
@@ -8955,11 +8952,11 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="48">
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8970,7 +8967,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D51" s="4">
         <v>50</v>
@@ -8978,15 +8975,15 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="78" t="s">
-        <v>222</v>
-      </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="47" t="s">
+      <c r="F51" s="80" t="s">
         <v>223</v>
       </c>
+      <c r="G51" s="53"/>
+      <c r="H51" s="48" t="s">
+        <v>224</v>
+      </c>
       <c r="I51" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -8997,7 +8994,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D52" s="4">
         <v>51</v>
@@ -9008,11 +9005,11 @@
       <c r="F52" s="4">
         <v>8</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="48">
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -9023,7 +9020,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D53" s="4">
         <v>52</v>
@@ -9034,11 +9031,11 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="47">
+      <c r="H53" s="48">
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -9049,7 +9046,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D54" s="4">
         <v>53</v>
@@ -9060,11 +9057,11 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="47">
+      <c r="H54" s="48">
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -9075,7 +9072,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D55" s="4">
         <v>54</v>
@@ -9086,11 +9083,11 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="48">
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -9101,7 +9098,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D56" s="4">
         <v>55</v>
@@ -9112,11 +9109,11 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="47">
+      <c r="H56" s="48">
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -9127,7 +9124,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D57" s="4">
         <v>56</v>
@@ -9138,11 +9135,11 @@
       <c r="F57" s="4">
         <v>2000000</v>
       </c>
-      <c r="H57" s="47">
+      <c r="H57" s="48">
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -9153,7 +9150,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D58" s="4">
         <v>57</v>
@@ -9165,7 +9162,7 @@
         <v>5</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -9176,7 +9173,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D59" s="4">
         <v>58</v>
@@ -9188,7 +9185,7 @@
         <v>5</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -9199,7 +9196,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D60" s="4">
         <v>59</v>
@@ -9211,7 +9208,7 @@
         <v>5</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -9222,7 +9219,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D61" s="4">
         <v>60</v>
@@ -9234,7 +9231,7 @@
         <v>5</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -9245,7 +9242,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D62" s="4">
         <v>61</v>
@@ -9254,10 +9251,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="H62" s="47" t="s">
         <v>228</v>
+      </c>
+      <c r="H62" s="48" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -9268,7 +9265,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D63" s="4">
         <v>62</v>
@@ -9280,7 +9277,7 @@
         <v>99999</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -9291,7 +9288,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D64" s="4">
         <v>63</v>
@@ -9303,7 +9300,7 @@
         <v>99999</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -9314,7 +9311,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D65" s="4">
         <v>64</v>
@@ -9326,7 +9323,7 @@
         <v>99999</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -9337,7 +9334,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D66" s="4">
         <v>65</v>
@@ -9348,11 +9345,11 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="47">
+      <c r="H66" s="48">
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -9363,7 +9360,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D67" s="4">
         <v>66</v>
@@ -9374,11 +9371,11 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="47">
+      <c r="H67" s="48">
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -9389,7 +9386,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D68" s="4">
         <v>67</v>
@@ -9397,12 +9394,12 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="56">
         <v>99999999999</v>
       </c>
-      <c r="G68" s="55"/>
+      <c r="G68" s="56"/>
       <c r="I68" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -9413,7 +9410,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D69" s="4">
         <v>68</v>
@@ -9427,11 +9424,11 @@
       <c r="G69" s="4">
         <v>100000000</v>
       </c>
-      <c r="H69" s="47">
+      <c r="H69" s="48">
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" s="40" customFormat="1" spans="1:9">
@@ -9442,7 +9439,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D70" s="32">
         <v>69</v>
@@ -9451,14 +9448,14 @@
         <v>0</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G70" s="32"/>
       <c r="H70" s="39" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I70" s="38" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" s="40" customFormat="1" spans="1:9">
@@ -9469,7 +9466,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D71" s="32">
         <v>70</v>
@@ -9481,11 +9478,11 @@
         <v>0</v>
       </c>
       <c r="G71" s="32"/>
-      <c r="H71" s="56">
+      <c r="H71" s="57">
         <v>88</v>
       </c>
       <c r="I71" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" s="40" customFormat="1" spans="1:9">
@@ -9496,7 +9493,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D72" s="32">
         <v>71</v>
@@ -9508,11 +9505,11 @@
         <v>1</v>
       </c>
       <c r="G72" s="32"/>
-      <c r="H72" s="56">
+      <c r="H72" s="57">
         <v>89</v>
       </c>
       <c r="I72" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" s="40" customFormat="1" spans="1:9">
@@ -9523,7 +9520,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D73" s="32">
         <v>72</v>
@@ -9535,11 +9532,11 @@
         <v>1</v>
       </c>
       <c r="G73" s="32"/>
-      <c r="H73" s="56">
+      <c r="H73" s="57">
         <v>90</v>
       </c>
       <c r="I73" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" s="40" customFormat="1" spans="1:9">
@@ -9550,7 +9547,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D74" s="32">
         <v>73</v>
@@ -9562,11 +9559,11 @@
         <v>1</v>
       </c>
       <c r="G74" s="32"/>
-      <c r="H74" s="56">
+      <c r="H74" s="57">
         <v>91</v>
       </c>
       <c r="I74" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" s="40" customFormat="1" spans="1:9">
@@ -9577,7 +9574,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="32">
         <v>74</v>
@@ -9589,7 +9586,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="32"/>
-      <c r="H75" s="56"/>
+      <c r="H75" s="57"/>
       <c r="I75" s="32"/>
     </row>
     <row r="76" s="40" customFormat="1" spans="1:9">
@@ -9600,7 +9597,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="32">
         <v>75</v>
@@ -9612,7 +9609,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="32"/>
-      <c r="H76" s="56"/>
+      <c r="H76" s="57"/>
       <c r="I76" s="32"/>
     </row>
     <row r="77" s="40" customFormat="1" spans="1:9">
@@ -9623,7 +9620,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" s="32">
         <v>76</v>
@@ -9637,11 +9634,11 @@
       <c r="G77" s="32">
         <v>500000000</v>
       </c>
-      <c r="H77" s="56">
+      <c r="H77" s="57">
         <v>92</v>
       </c>
       <c r="I77" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" s="40" customFormat="1" spans="1:9">
@@ -9652,7 +9649,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="32">
         <v>77</v>
@@ -9666,18 +9663,18 @@
       <c r="G78" s="32">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="56">
+      <c r="H78" s="57">
         <v>93</v>
       </c>
       <c r="I78" s="32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:9">
-      <c r="A79" s="57">
+      <c r="A79" s="58">
         <v>78</v>
       </c>
-      <c r="B79" s="57">
+      <c r="B79" s="58">
         <v>78</v>
       </c>
       <c r="C79" s="41"/>
@@ -9689,18 +9686,18 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="58">
+      <c r="H79" s="59">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:9">
-      <c r="A80" s="57">
+      <c r="A80" s="58">
         <v>79</v>
       </c>
-      <c r="B80" s="57">
+      <c r="B80" s="58">
         <v>79</v>
       </c>
       <c r="C80" s="41"/>
@@ -9712,18 +9709,18 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="58">
+      <c r="H80" s="59">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:9">
-      <c r="A81" s="57">
+      <c r="A81" s="58">
         <v>80</v>
       </c>
-      <c r="B81" s="57">
+      <c r="B81" s="58">
         <v>80</v>
       </c>
       <c r="C81" s="41"/>
@@ -9735,11 +9732,11 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="58">
+      <c r="H81" s="59">
         <v>96</v>
       </c>
       <c r="I81" s="41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -9750,7 +9747,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="20">
         <v>81</v>
@@ -9764,11 +9761,11 @@
       <c r="G82" s="20">
         <v>500000000</v>
       </c>
-      <c r="H82" s="59">
+      <c r="H82" s="60">
         <v>97</v>
       </c>
       <c r="I82" s="44" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -9779,7 +9776,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D83" s="21">
         <v>82</v>
@@ -9791,11 +9788,11 @@
       <c r="G83" s="21">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="60">
+      <c r="H83" s="61">
         <v>98</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="84" s="40" customFormat="1" spans="1:9">
@@ -9806,7 +9803,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D84" s="21">
         <v>83</v>
@@ -9818,11 +9815,11 @@
       <c r="G84" s="21">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="60">
+      <c r="H84" s="61">
         <v>99</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" s="40" customFormat="1" spans="1:9">
@@ -9833,7 +9830,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D85" s="21">
         <v>84</v>
@@ -9845,11 +9842,11 @@
       <c r="G85" s="21">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="60">
+      <c r="H85" s="61">
         <v>100</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -9866,13 +9863,13 @@
         <v>0</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H86" s="27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I86" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J86">
         <v>1</v>
@@ -9886,7 +9883,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D87" s="32">
         <v>86</v>
@@ -9898,7 +9895,7 @@
         <v>99999</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -9909,7 +9906,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D88" s="32">
         <v>87</v>
@@ -9921,7 +9918,7 @@
         <v>99999</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -9932,7 +9929,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D89" s="32">
         <v>88</v>
@@ -9944,7 +9941,7 @@
         <v>99999</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -9955,7 +9952,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D90" s="32">
         <v>89</v>
@@ -9967,7 +9964,7 @@
         <v>99999</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" s="3" customFormat="1" spans="1:9">
@@ -9986,11 +9983,11 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="58">
+      <c r="H91" s="59">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" s="3" customFormat="1" spans="1:9">
@@ -10009,11 +10006,11 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="58">
+      <c r="H92" s="59">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" s="3" customFormat="1" spans="1:9">
@@ -10032,11 +10029,11 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="58">
+      <c r="H93" s="59">
         <v>109</v>
       </c>
       <c r="I93" s="41" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -10050,13 +10047,13 @@
         <v>93</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H94" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J94">
         <v>2</v>
@@ -10073,13 +10070,13 @@
         <v>94</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H95" s="27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -10095,32 +10092,32 @@
       <c r="F96" s="4">
         <v>30000</v>
       </c>
-      <c r="H96" s="47">
+      <c r="H96" s="48">
         <v>120</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="61">
+      <c r="B97" s="62">
         <v>96</v>
       </c>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="64" t="s">
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="I97" s="63" t="s">
-        <v>209</v>
+      <c r="G97" s="63"/>
+      <c r="H97" s="65" t="s">
+        <v>248</v>
+      </c>
+      <c r="I97" s="64" t="s">
+        <v>210</v>
       </c>
       <c r="J97" s="45"/>
     </row>
@@ -10134,14 +10131,14 @@
       <c r="D98" s="4">
         <v>96</v>
       </c>
-      <c r="F98" s="65" t="s">
-        <v>248</v>
-      </c>
-      <c r="H98" s="65" t="s">
+      <c r="F98" s="66" t="s">
         <v>249</v>
       </c>
+      <c r="H98" s="66" t="s">
+        <v>250</v>
+      </c>
       <c r="I98" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -10158,10 +10155,10 @@
         <v>600</v>
       </c>
       <c r="H99" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -10175,13 +10172,13 @@
         <v>98</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -10195,13 +10192,13 @@
         <v>99</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I101" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" s="13" customFormat="1" spans="1:9">
@@ -10214,15 +10211,15 @@
       <c r="C102" s="20"/>
       <c r="D102" s="20"/>
       <c r="E102" s="20"/>
-      <c r="F102" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="G102" s="66"/>
-      <c r="H102" s="59" t="s">
+      <c r="F102" s="67" t="s">
         <v>256</v>
       </c>
+      <c r="G102" s="67"/>
+      <c r="H102" s="60" t="s">
+        <v>257</v>
+      </c>
       <c r="I102" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" s="13" customFormat="1" spans="1:9">
@@ -10235,15 +10232,15 @@
       <c r="C103" s="20"/>
       <c r="D103" s="20"/>
       <c r="E103" s="20"/>
-      <c r="F103" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="G103" s="66"/>
-      <c r="H103" s="59" t="s">
-        <v>257</v>
+      <c r="F103" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="G103" s="67"/>
+      <c r="H103" s="60" t="s">
+        <v>258</v>
       </c>
       <c r="I103" s="20" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" s="13" customFormat="1" spans="1:9">
@@ -10256,18 +10253,18 @@
       <c r="C104" s="20"/>
       <c r="D104" s="20"/>
       <c r="E104" s="20"/>
-      <c r="F104" s="66" t="s">
-        <v>255</v>
-      </c>
-      <c r="G104" s="66"/>
-      <c r="H104" s="59" t="s">
-        <v>258</v>
+      <c r="F104" s="67" t="s">
+        <v>256</v>
+      </c>
+      <c r="G104" s="67"/>
+      <c r="H104" s="60" t="s">
+        <v>259</v>
       </c>
       <c r="I104" s="20" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="105" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" s="47" customFormat="1" spans="1:9">
       <c r="A105" s="30">
         <v>104</v>
       </c>
@@ -10283,17 +10280,14 @@
         <v>1</v>
       </c>
       <c r="G105" s="21"/>
-      <c r="H105" s="60" t="s">
-        <v>259</v>
+      <c r="H105" s="61" t="s">
+        <v>260</v>
       </c>
       <c r="I105" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J105" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="106" s="47" customFormat="1" spans="1:9">
       <c r="A106" s="30">
         <v>105</v>
       </c>
@@ -10309,17 +10303,14 @@
         <v>1</v>
       </c>
       <c r="G106" s="21"/>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I106" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J106" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" s="47" customFormat="1" spans="1:9">
       <c r="A107" s="30">
         <v>106</v>
       </c>
@@ -10332,20 +10323,17 @@
       </c>
       <c r="E107" s="21"/>
       <c r="F107" s="21">
-        <v>50000</v>
+        <v>300000</v>
       </c>
       <c r="G107" s="21"/>
-      <c r="H107" s="60" t="s">
+      <c r="H107" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I107" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J107" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="108" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="108" s="47" customFormat="1" spans="1:9">
       <c r="A108" s="30">
         <v>107</v>
       </c>
@@ -10358,20 +10346,17 @@
       </c>
       <c r="E108" s="21"/>
       <c r="F108" s="21">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G108" s="21"/>
-      <c r="H108" s="60" t="s">
+      <c r="H108" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I108" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J108" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="109" s="47" customFormat="1" spans="1:9">
       <c r="A109" s="30">
         <v>108</v>
       </c>
@@ -10384,20 +10369,17 @@
       </c>
       <c r="E109" s="21"/>
       <c r="F109" s="21">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="G109" s="21"/>
-      <c r="H109" s="60" t="s">
+      <c r="H109" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I109" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J109" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="110" s="47" customFormat="1" spans="1:9">
       <c r="A110" s="30">
         <v>109</v>
       </c>
@@ -10410,20 +10392,17 @@
       </c>
       <c r="E110" s="21"/>
       <c r="F110" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G110" s="21"/>
-      <c r="H110" s="60" t="s">
+      <c r="H110" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I110" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J110" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" s="47" customFormat="1" spans="1:9">
       <c r="A111" s="30">
         <v>110</v>
       </c>
@@ -10432,24 +10411,21 @@
       </c>
       <c r="C111" s="21"/>
       <c r="D111" s="21">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E111" s="21"/>
       <c r="F111" s="21">
-        <v>600</v>
+        <v>15</v>
       </c>
       <c r="G111" s="21"/>
-      <c r="H111" s="60" t="s">
+      <c r="H111" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I111" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J111" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="112" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="112" s="47" customFormat="1" spans="1:9">
       <c r="A112" s="30">
         <v>111</v>
       </c>
@@ -10465,17 +10441,14 @@
         <v>1</v>
       </c>
       <c r="G112" s="21"/>
-      <c r="H112" s="60" t="s">
+      <c r="H112" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I112" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J112" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="113" s="47" customFormat="1" spans="1:9">
       <c r="A113" s="30">
         <v>112</v>
       </c>
@@ -10491,17 +10464,14 @@
         <v>3</v>
       </c>
       <c r="G113" s="21"/>
-      <c r="H113" s="60" t="s">
+      <c r="H113" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I113" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J113" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="114" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="114" s="47" customFormat="1" spans="1:9">
       <c r="A114" s="30">
         <v>113</v>
       </c>
@@ -10510,24 +10480,21 @@
       </c>
       <c r="C114" s="21"/>
       <c r="D114" s="21">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="E114" s="21"/>
       <c r="F114" s="21">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="G114" s="21"/>
-      <c r="H114" s="60" t="s">
-        <v>261</v>
+      <c r="H114" s="61" t="s">
+        <v>262</v>
       </c>
       <c r="I114" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J114" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="115" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="115" s="47" customFormat="1" spans="1:9">
       <c r="A115" s="30">
         <v>114</v>
       </c>
@@ -10536,24 +10503,21 @@
       </c>
       <c r="C115" s="21"/>
       <c r="D115" s="21">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E115" s="21"/>
       <c r="F115" s="21">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G115" s="21"/>
-      <c r="H115" s="60" t="s">
-        <v>261</v>
+      <c r="H115" s="61" t="s">
+        <v>262</v>
       </c>
       <c r="I115" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J115" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" s="47" customFormat="1" spans="1:9">
       <c r="A116" s="30">
         <v>115</v>
       </c>
@@ -10562,24 +10526,21 @@
       </c>
       <c r="C116" s="21"/>
       <c r="D116" s="21">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E116" s="21"/>
       <c r="F116" s="21">
-        <v>100</v>
+        <v>12000</v>
       </c>
       <c r="G116" s="21"/>
-      <c r="H116" s="60" t="s">
-        <v>261</v>
+      <c r="H116" s="61" t="s">
+        <v>262</v>
       </c>
       <c r="I116" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J116" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="117" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="117" s="47" customFormat="1" spans="1:9">
       <c r="A117" s="30">
         <v>116</v>
       </c>
@@ -10588,24 +10549,21 @@
       </c>
       <c r="C117" s="21"/>
       <c r="D117" s="21">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E117" s="21"/>
       <c r="F117" s="21">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="G117" s="21"/>
-      <c r="H117" s="60" t="s">
-        <v>261</v>
+      <c r="H117" s="61" t="s">
+        <v>262</v>
       </c>
       <c r="I117" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J117" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="118" s="47" customFormat="1" spans="1:9">
       <c r="A118" s="30">
         <v>117</v>
       </c>
@@ -10614,24 +10572,21 @@
       </c>
       <c r="C118" s="21"/>
       <c r="D118" s="21">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E118" s="21"/>
       <c r="F118" s="21">
-        <v>5400</v>
+        <v>1000000</v>
       </c>
       <c r="G118" s="21"/>
-      <c r="H118" s="60" t="s">
-        <v>261</v>
+      <c r="H118" s="61" t="s">
+        <v>262</v>
       </c>
       <c r="I118" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J118" s="46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="119" s="46" customFormat="1" spans="1:10">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="119" s="47" customFormat="1" spans="1:9">
       <c r="A119" s="30">
         <v>118</v>
       </c>
@@ -10647,14 +10602,11 @@
         <v>100</v>
       </c>
       <c r="G119" s="21"/>
-      <c r="H119" s="60" t="s">
-        <v>261</v>
+      <c r="H119" s="61" t="s">
+        <v>262</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="J119" s="46">
-        <v>2</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -10670,16 +10622,16 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B103" sqref="B103"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="16" style="4" customWidth="1"/>
-    <col min="3" max="3" width="28.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="27" style="4" customWidth="1"/>
     <col min="4" max="4" width="17.875" customWidth="1"/>
     <col min="5" max="5" width="19" style="4" customWidth="1"/>
     <col min="8" max="9" width="32.75" style="4" customWidth="1"/>
@@ -10687,19 +10639,19 @@
   <sheetData>
     <row r="1" ht="27" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -10714,7 +10666,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D2" s="26">
         <v>1</v>
@@ -10731,7 +10683,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D3" s="26">
         <v>2</v>
@@ -10748,7 +10700,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D4" s="26">
         <v>3</v>
@@ -10765,7 +10717,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D5" s="26">
         <v>4</v>
@@ -10782,7 +10734,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D6" s="26">
         <v>5</v>
@@ -10799,7 +10751,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D7" s="32">
         <v>6</v>
@@ -10816,7 +10768,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D8" s="32">
         <v>15</v>
@@ -10833,7 +10785,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D9" s="32">
         <v>7</v>
@@ -10850,7 +10802,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D10" s="32">
         <v>0</v>
@@ -10867,7 +10819,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D11" s="32">
         <v>7</v>
@@ -10884,7 +10836,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D12" s="32">
         <v>10</v>
@@ -10901,7 +10853,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D13" s="32">
         <v>7</v>
@@ -10918,7 +10870,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D14" s="32">
         <v>7</v>
@@ -10935,7 +10887,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D15" s="32">
         <v>18</v>
@@ -10952,7 +10904,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D16" s="32">
         <v>0</v>
@@ -10969,7 +10921,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D17" s="32">
         <v>19</v>
@@ -10986,7 +10938,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D18" s="32">
         <v>10</v>
@@ -11003,7 +10955,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D19" s="32">
         <v>12</v>
@@ -11020,7 +10972,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D20" s="32">
         <v>11</v>
@@ -11037,7 +10989,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D21" s="32">
         <v>10</v>
@@ -11054,7 +11006,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D22" s="32">
         <v>8</v>
@@ -11071,7 +11023,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D23" s="32">
         <v>11</v>
@@ -11088,7 +11040,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D24" s="32">
         <v>9</v>
@@ -11105,7 +11057,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D25" s="32">
         <v>9</v>
@@ -11122,7 +11074,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D26" s="32">
         <v>20</v>
@@ -11139,7 +11091,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D27" s="32">
         <v>13</v>
@@ -11156,7 +11108,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D28" s="32">
         <v>11</v>
@@ -11173,7 +11125,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D29" s="32">
         <v>14</v>
@@ -11190,7 +11142,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D30" s="32">
         <v>12</v>
@@ -11207,7 +11159,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D31" s="32">
         <v>21</v>
@@ -11224,7 +11176,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D32" s="32">
         <v>7</v>
@@ -11241,7 +11193,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D33" s="32">
         <v>0</v>
@@ -11258,7 +11210,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D34" s="32">
         <v>7</v>
@@ -11275,7 +11227,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D35" s="32">
         <v>10</v>
@@ -11292,7 +11244,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D36" s="32">
         <v>7</v>
@@ -11309,7 +11261,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D37" s="32">
         <v>0</v>
@@ -11326,7 +11278,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D38" s="32">
         <v>0</v>
@@ -11343,7 +11295,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D39" s="32">
         <v>24</v>
@@ -11360,7 +11312,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D40" s="32">
         <v>10</v>
@@ -11377,7 +11329,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D41" s="32">
         <v>7</v>
@@ -11394,7 +11346,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D42" s="32">
         <v>0</v>
@@ -11411,7 +11363,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D43" s="32">
         <v>7</v>
@@ -11428,7 +11380,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D44" s="32">
         <v>0</v>
@@ -11445,7 +11397,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D45" s="32">
         <v>0</v>
@@ -11462,7 +11414,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D46" s="32">
         <v>18</v>
@@ -11479,7 +11431,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D47" s="32">
         <v>10</v>
@@ -11496,7 +11448,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D48" s="32">
         <v>25</v>
@@ -11513,7 +11465,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D49" s="32">
         <v>26</v>
@@ -11530,7 +11482,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D50" s="32">
         <v>27</v>
@@ -11547,7 +11499,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D51" s="32">
         <v>0</v>
@@ -11564,7 +11516,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D52" s="32">
         <v>15</v>
@@ -11581,7 +11533,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D53" s="32">
         <v>17</v>
@@ -11598,7 +11550,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D54" s="32">
         <v>22</v>
@@ -11615,7 +11567,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D55" s="32">
         <v>22</v>
@@ -11632,7 +11584,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D56" s="32">
         <v>23</v>
@@ -11649,7 +11601,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D57" s="32">
         <v>0</v>
@@ -11666,7 +11618,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D58" s="32">
         <v>0</v>
@@ -11683,7 +11635,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D59" s="32">
         <v>0</v>
@@ -11700,7 +11652,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D60" s="32">
         <v>0</v>
@@ -11717,7 +11669,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D61" s="32">
         <v>0</v>
@@ -11734,7 +11686,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="32" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D62" s="32">
         <v>0</v>
@@ -11751,7 +11703,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D63" s="32">
         <v>0</v>
@@ -11768,7 +11720,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D64" s="32">
         <v>0</v>
@@ -11785,7 +11737,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D65" s="32">
         <v>0</v>
@@ -11802,7 +11754,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D66" s="32">
         <v>0</v>
@@ -11819,7 +11771,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D67" s="32">
         <v>0</v>
@@ -11836,7 +11788,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="38" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D68" s="32">
         <v>0</v>
@@ -11853,7 +11805,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D69" s="32">
         <v>28</v>
@@ -11870,7 +11822,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="32" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D70" s="32">
         <v>0</v>
@@ -11887,7 +11839,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D71" s="32">
         <v>0</v>
@@ -11904,7 +11856,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D72" s="32">
         <v>0</v>
@@ -11921,7 +11873,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D73" s="32">
         <v>0</v>
@@ -11938,7 +11890,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D74" s="32">
         <v>0</v>
@@ -11955,7 +11907,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="32">
         <v>0</v>
@@ -11972,7 +11924,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="32">
         <v>0</v>
@@ -11989,7 +11941,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D77" s="32">
         <v>29</v>
@@ -12006,7 +11958,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="32" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="32">
         <v>30</v>
@@ -12023,7 +11975,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D79" s="8">
         <v>0</v>
@@ -12040,7 +11992,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="41" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D80" s="8">
         <v>0</v>
@@ -12057,7 +12009,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D81" s="18">
         <v>0</v>
@@ -12074,7 +12026,7 @@
         <v>80</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D82" s="18">
         <v>0</v>
@@ -12091,7 +12043,7 @@
         <v>80</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D83" s="18">
         <v>0</v>
@@ -12108,7 +12060,7 @@
         <v>80</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D84" s="18">
         <v>0</v>
@@ -12125,7 +12077,7 @@
         <v>80</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D85" s="18">
         <v>0</v>
@@ -12142,7 +12094,7 @@
         <v>80</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D86" s="18">
         <v>0</v>
@@ -12159,7 +12111,7 @@
         <v>80</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D87" s="18">
         <v>0</v>
@@ -12176,7 +12128,7 @@
         <v>80</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D88" s="18">
         <v>0</v>
@@ -12193,7 +12145,7 @@
         <v>80</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D89" s="18">
         <v>0</v>
@@ -12210,7 +12162,7 @@
         <v>80</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D90" s="18">
         <v>0</v>
@@ -12227,7 +12179,7 @@
         <v>81</v>
       </c>
       <c r="C91" s="44" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D91" s="20">
         <v>0</v>
@@ -12241,7 +12193,7 @@
         <v>82</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="30">
         <v>33</v>
@@ -12255,7 +12207,7 @@
         <v>83</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="21">
         <v>34</v>
@@ -12269,7 +12221,7 @@
         <v>84</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D94" s="30">
         <v>35</v>
@@ -12283,7 +12235,7 @@
         <v>85</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D95" s="32">
         <v>0</v>
@@ -12297,7 +12249,7 @@
         <v>86</v>
       </c>
       <c r="C96" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D96" s="32">
         <v>0</v>
@@ -12314,7 +12266,7 @@
         <v>87</v>
       </c>
       <c r="C97" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D97" s="32">
         <v>0</v>
@@ -12331,7 +12283,7 @@
         <v>88</v>
       </c>
       <c r="C98" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D98" s="32">
         <v>0</v>
@@ -12348,7 +12300,7 @@
         <v>89</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D99" s="32">
         <v>0</v>
@@ -12362,7 +12314,7 @@
         <v>90</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D100" s="14">
         <v>0</v>
@@ -12376,7 +12328,7 @@
         <v>91</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D101" s="14">
         <v>0</v>
@@ -12390,7 +12342,7 @@
         <v>92</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D102" s="14">
         <v>0</v>
@@ -12404,7 +12356,7 @@
         <v>94</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D103" s="14">
         <v>0</v>
@@ -12418,7 +12370,7 @@
         <v>95</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D104" s="14">
         <v>0</v>
@@ -12432,7 +12384,7 @@
         <v>96</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D105" s="14">
         <v>0</v>
@@ -12449,7 +12401,7 @@
         <v>96</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D106" s="14">
         <v>0</v>
@@ -12463,7 +12415,7 @@
         <v>96</v>
       </c>
       <c r="C107" s="42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D107" s="14">
         <v>0</v>
@@ -12477,7 +12429,7 @@
         <v>96</v>
       </c>
       <c r="C108" s="42" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D108" s="14">
         <v>0</v>
@@ -12491,7 +12443,7 @@
         <v>96</v>
       </c>
       <c r="C109" s="42" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D109" s="14">
         <v>0</v>
@@ -12505,7 +12457,7 @@
         <v>96</v>
       </c>
       <c r="C110" s="42" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D110" s="14">
         <v>0</v>
@@ -12519,7 +12471,7 @@
         <v>96</v>
       </c>
       <c r="C111" s="42" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D111" s="14">
         <v>0</v>
@@ -12536,7 +12488,7 @@
         <v>96</v>
       </c>
       <c r="C112" s="42" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D112" s="14">
         <v>0</v>
@@ -12550,7 +12502,7 @@
         <v>96</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D113" s="14">
         <v>0</v>
@@ -12564,7 +12516,7 @@
         <v>96</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D114" s="14">
         <v>0</v>
@@ -12578,7 +12530,7 @@
         <v>96</v>
       </c>
       <c r="C115" s="42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D115" s="14">
         <v>0</v>
@@ -12595,7 +12547,7 @@
         <v>97</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D116" s="14">
         <v>36</v>
@@ -12609,7 +12561,7 @@
         <v>98</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D117" s="14">
         <v>0</v>
@@ -12623,7 +12575,7 @@
         <v>99</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D118" s="14">
         <v>0</v>
@@ -12637,7 +12589,7 @@
         <v>100</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D119" s="30">
         <v>0</v>
@@ -12651,13 +12603,13 @@
         <v>101</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D120" s="30">
         <v>0</v>
       </c>
       <c r="F120" s="45" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -12668,7 +12620,7 @@
         <v>101</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D121" s="30">
         <v>0</v>
@@ -12683,7 +12635,7 @@
         <v>101</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D122" s="30">
         <v>0</v>
@@ -12698,7 +12650,7 @@
         <v>101</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D123" s="30">
         <v>0</v>
@@ -12713,7 +12665,7 @@
         <v>101</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D124" s="30">
         <v>0</v>
@@ -12728,7 +12680,7 @@
         <v>101</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D125" s="30">
         <v>0</v>
@@ -12743,7 +12695,7 @@
         <v>101</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D126" s="30">
         <v>0</v>
@@ -12758,7 +12710,7 @@
         <v>101</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D127" s="30">
         <v>0</v>
@@ -12773,7 +12725,7 @@
         <v>101</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D128" s="30">
         <v>0</v>
@@ -12788,7 +12740,7 @@
         <v>101</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D129" s="30">
         <v>0</v>
@@ -12803,7 +12755,7 @@
         <v>101</v>
       </c>
       <c r="C130" s="21" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D130" s="30">
         <v>0</v>
@@ -12818,7 +12770,7 @@
         <v>101</v>
       </c>
       <c r="C131" s="21" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D131" s="30">
         <v>0</v>
@@ -12833,7 +12785,7 @@
         <v>101</v>
       </c>
       <c r="C132" s="21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D132" s="30">
         <v>0</v>
@@ -12848,7 +12800,7 @@
         <v>101</v>
       </c>
       <c r="C133" s="21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D133" s="30">
         <v>0</v>
@@ -12863,7 +12815,7 @@
         <v>101</v>
       </c>
       <c r="C134" s="21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D134" s="30">
         <v>0</v>
@@ -12878,7 +12830,7 @@
         <v>101</v>
       </c>
       <c r="C135" s="21" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D135" s="30">
         <v>0</v>
@@ -12893,7 +12845,7 @@
         <v>102</v>
       </c>
       <c r="C136" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D136" s="30">
         <v>40</v>
@@ -12907,7 +12859,7 @@
         <v>103</v>
       </c>
       <c r="C137" s="21" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D137" s="30">
         <v>39</v>
@@ -12921,10 +12873,10 @@
         <v>104</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D138" s="30">
-        <v>41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -12935,7 +12887,7 @@
         <v>105</v>
       </c>
       <c r="C139" s="21" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D139" s="30">
         <v>0</v>
@@ -12949,7 +12901,7 @@
         <v>106</v>
       </c>
       <c r="C140" s="21" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D140" s="30">
         <v>0</v>
@@ -12963,7 +12915,7 @@
         <v>107</v>
       </c>
       <c r="C141" s="21" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D141" s="30">
         <v>0</v>
@@ -12977,7 +12929,7 @@
         <v>108</v>
       </c>
       <c r="C142" s="21" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D142" s="30">
         <v>0</v>
@@ -12991,7 +12943,7 @@
         <v>109</v>
       </c>
       <c r="C143" s="21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D143" s="30">
         <v>37</v>
@@ -13005,7 +12957,7 @@
         <v>110</v>
       </c>
       <c r="C144" s="21" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D144" s="30">
         <v>0</v>
@@ -13019,7 +12971,7 @@
         <v>111</v>
       </c>
       <c r="C145" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D145" s="30">
         <v>38</v>
@@ -13033,7 +12985,7 @@
         <v>112</v>
       </c>
       <c r="C146" s="21" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D146" s="30">
         <v>0</v>
@@ -13047,25 +12999,14 @@
         <v>113</v>
       </c>
       <c r="C147" s="21" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D147" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="21">
-        <v>147</v>
-      </c>
-      <c r="B148" s="21">
-        <v>114</v>
-      </c>
-      <c r="C148" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="D148" s="21">
-        <v>42</v>
-      </c>
+    <row r="148" spans="3:3">
+      <c r="C148" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13080,12 +13021,12 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -13100,19 +13041,19 @@
   <sheetData>
     <row r="1" ht="66.95" customHeight="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>14</v>
@@ -13126,10 +13067,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E2" s="4">
         <v>2</v>
@@ -13143,7 +13084,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -13160,10 +13101,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -13177,7 +13118,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D5" s="4">
         <v>2</v>
@@ -13194,10 +13135,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E6" s="4">
         <v>2</v>
@@ -13211,7 +13152,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D7" s="4">
         <v>3</v>
@@ -13228,10 +13169,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E8" s="4">
         <v>2</v>
@@ -13245,7 +13186,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D9" s="4">
         <v>4</v>
@@ -13262,10 +13203,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E10" s="4">
         <v>2</v>
@@ -13279,10 +13220,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E11" s="4">
         <v>2</v>
@@ -13296,7 +13237,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -13313,10 +13254,10 @@
         <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -13330,10 +13271,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E14" s="4">
         <v>2</v>
@@ -13347,10 +13288,10 @@
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E15" s="4">
         <v>2</v>
@@ -13364,7 +13305,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -13381,10 +13322,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E17" s="4">
         <v>2</v>
@@ -13398,7 +13339,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -13415,7 +13356,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -13432,10 +13373,10 @@
         <v>10</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E20" s="4">
         <v>2</v>
@@ -13449,7 +13390,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
@@ -13466,7 +13407,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -13483,10 +13424,10 @@
         <v>12</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E23" s="4">
         <v>2</v>
@@ -13500,10 +13441,10 @@
         <v>13</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E24" s="4">
         <v>2</v>
@@ -13517,7 +13458,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D25" s="4">
         <v>3</v>
@@ -13534,10 +13475,10 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E26" s="4">
         <v>2</v>
@@ -13551,7 +13492,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -13568,7 +13509,7 @@
         <v>14</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -13585,10 +13526,10 @@
         <v>15</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E29" s="4">
         <v>2</v>
@@ -13605,7 +13546,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D30" s="4">
         <v>2</v>
@@ -13622,10 +13563,10 @@
         <v>16</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E31" s="4">
         <v>2</v>
@@ -13639,10 +13580,10 @@
         <v>16</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E32" s="4">
         <v>2</v>
@@ -13656,7 +13597,7 @@
         <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D33" s="4">
         <v>96</v>
@@ -13673,10 +13614,10 @@
         <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E34" s="4">
         <v>2</v>
@@ -13690,7 +13631,7 @@
         <v>17</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
@@ -13707,10 +13648,10 @@
         <v>18</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E36" s="4">
         <v>2</v>
@@ -13724,10 +13665,10 @@
         <v>18</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
@@ -13741,7 +13682,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -13758,10 +13699,10 @@
         <v>19</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E39" s="4">
         <v>2</v>
@@ -13775,10 +13716,10 @@
         <v>19</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E40" s="4">
         <v>2</v>
@@ -13792,7 +13733,7 @@
         <v>19</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D41" s="4">
         <v>3</v>
@@ -13809,10 +13750,10 @@
         <v>20</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E42" s="4">
         <v>2</v>
@@ -13826,10 +13767,10 @@
         <v>20</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E43" s="4">
         <v>2</v>
@@ -13843,7 +13784,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D44" s="4">
         <v>96</v>
@@ -13860,10 +13801,10 @@
         <v>21</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E45" s="4">
         <v>2</v>
@@ -13877,10 +13818,10 @@
         <v>21</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E46" s="4">
         <v>2</v>
@@ -13894,7 +13835,7 @@
         <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -13911,10 +13852,10 @@
         <v>22</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E48" s="4">
         <v>2</v>
@@ -13928,7 +13869,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
@@ -13945,10 +13886,10 @@
         <v>23</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E50" s="4">
         <v>2</v>
@@ -13962,10 +13903,10 @@
         <v>23</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E51" s="4">
         <v>2</v>
@@ -13979,7 +13920,7 @@
         <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -13996,10 +13937,10 @@
         <v>24</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E53" s="4">
         <v>2</v>
@@ -14013,10 +13954,10 @@
         <v>24</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E54" s="4">
         <v>2</v>
@@ -14030,7 +13971,7 @@
         <v>24</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D55" s="4">
         <v>10</v>
@@ -14047,7 +13988,7 @@
         <v>25</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -14064,7 +14005,7 @@
         <v>26</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D57" s="4">
         <v>2</v>
@@ -14081,7 +14022,7 @@
         <v>27</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D58" s="4">
         <v>74</v>
@@ -14098,7 +14039,7 @@
         <v>28</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D59" s="32">
         <v>1</v>
@@ -14115,7 +14056,7 @@
         <v>29</v>
       </c>
       <c r="C60" s="32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D60" s="4">
         <v>2</v>
@@ -14132,7 +14073,7 @@
         <v>30</v>
       </c>
       <c r="C61" s="32" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D61" s="4">
         <v>3</v>
@@ -14149,10 +14090,10 @@
         <v>31</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D62" s="34" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E62" s="34">
         <v>2</v>
@@ -14167,10 +14108,10 @@
         <v>32</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E63" s="34">
         <v>2</v>
@@ -14185,10 +14126,10 @@
         <v>32</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E64" s="34">
         <v>2</v>
@@ -14203,7 +14144,7 @@
         <v>33</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D65" s="30">
         <v>2</v>
@@ -14220,7 +14161,7 @@
         <v>34</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D66" s="30">
         <v>3</v>
@@ -14237,7 +14178,7 @@
         <v>35</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D67" s="30">
         <v>4</v>
@@ -14254,10 +14195,10 @@
         <v>36</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E68" s="4">
         <v>2</v>
@@ -14271,10 +14212,10 @@
         <v>37</v>
       </c>
       <c r="C69" s="38" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D69" s="39" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E69" s="4">
         <v>2</v>
@@ -14288,7 +14229,7 @@
         <v>38</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D70" s="4">
         <v>3</v>
@@ -14305,10 +14246,10 @@
         <v>39</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
+      </c>
+      <c r="D71" s="4">
+        <v>3</v>
       </c>
       <c r="E71" s="4">
         <v>2</v>
@@ -14322,64 +14263,13 @@
         <v>40</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E72" s="4">
         <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="14">
-        <v>72</v>
-      </c>
-      <c r="B73" s="4">
-        <v>40</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="E73" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="14">
-        <v>73</v>
-      </c>
-      <c r="B74" s="4">
-        <v>41</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E74" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="14">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4">
-        <v>42</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="D75" s="4">
-        <v>4800</v>
-      </c>
-      <c r="E75" s="4">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -14396,7 +14286,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
+      <selection pane="bottomLeft" activeCell="A207" sqref="A207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -14415,31 +14305,31 @@
   <sheetData>
     <row r="1" s="5" customFormat="1" ht="38.45" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>343</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -14450,7 +14340,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D2" s="4">
         <v>1</v>
@@ -14459,7 +14349,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -14470,7 +14360,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D3" s="4">
         <v>8</v>
@@ -14479,7 +14369,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -14490,7 +14380,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D4" s="4">
         <v>30</v>
@@ -14499,10 +14389,10 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -14513,7 +14403,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D5" s="4">
         <v>75</v>
@@ -14531,7 +14421,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D6" s="4">
         <v>200</v>
@@ -14540,7 +14430,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -14551,7 +14441,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -14560,7 +14450,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -14571,7 +14461,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D8" s="4">
         <v>30</v>
@@ -14588,7 +14478,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D9" s="4">
         <v>10</v>
@@ -14605,7 +14495,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D10" s="4">
         <v>60</v>
@@ -14622,7 +14512,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D11" s="4">
         <v>30</v>
@@ -14639,7 +14529,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D12" s="4">
         <v>70</v>
@@ -14656,7 +14546,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D13" s="4">
         <v>50</v>
@@ -14673,7 +14563,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D14" s="4">
         <v>100</v>
@@ -14690,7 +14580,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D15" s="4">
         <v>150</v>
@@ -14707,7 +14597,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D16" s="4">
         <v>150</v>
@@ -14724,7 +14614,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D17" s="4">
         <v>20</v>
@@ -14741,7 +14631,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D18" s="4">
         <v>30</v>
@@ -14758,7 +14648,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D19" s="4">
         <v>50</v>
@@ -14775,7 +14665,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D20" s="4">
         <v>20</v>
@@ -14792,7 +14682,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D21" s="4">
         <v>30</v>
@@ -14809,7 +14699,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D22" s="4">
         <v>50</v>
@@ -14826,7 +14716,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D23" s="4">
         <v>50</v>
@@ -14843,7 +14733,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D24" s="4">
         <v>20</v>
@@ -14860,7 +14750,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D25" s="4">
         <v>80</v>
@@ -14877,7 +14767,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D26" s="4">
         <v>50</v>
@@ -14894,7 +14784,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D27" s="4">
         <v>250</v>
@@ -14911,7 +14801,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D28" s="4">
         <v>250</v>
@@ -14928,7 +14818,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D29" s="4">
         <v>666</v>
@@ -14937,7 +14827,7 @@
         <v>1</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -14948,7 +14838,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D30" s="4">
         <v>50</v>
@@ -14965,7 +14855,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D31" s="4">
         <v>80</v>
@@ -14982,7 +14872,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D32" s="4">
         <v>30</v>
@@ -14991,7 +14881,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -15002,7 +14892,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D33" s="4">
         <v>20</v>
@@ -15011,7 +14901,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -15022,7 +14912,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D34" s="4">
         <v>2000</v>
@@ -15031,7 +14921,7 @@
         <v>1</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -15042,7 +14932,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D35" s="4">
         <v>1000</v>
@@ -15051,7 +14941,7 @@
         <v>1</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -15062,7 +14952,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D36" s="4">
         <v>2000</v>
@@ -15071,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -15082,7 +14972,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D37" s="4">
         <v>2000</v>
@@ -15091,7 +14981,7 @@
         <v>1</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -15102,7 +14992,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -15111,7 +15001,7 @@
         <v>1</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -15122,7 +15012,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D39" s="4">
         <v>1000</v>
@@ -15131,7 +15021,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -15142,7 +15032,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D40" s="4">
         <v>5000</v>
@@ -15151,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -15162,7 +15052,7 @@
         <v>42</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D41" s="4">
         <v>5000</v>
@@ -15171,7 +15061,7 @@
         <v>1</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -15182,7 +15072,7 @@
         <v>44</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D42" s="4">
         <v>8000</v>
@@ -15191,7 +15081,7 @@
         <v>1</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -15202,7 +15092,7 @@
         <v>46</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D43" s="4">
         <v>1000</v>
@@ -15211,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -15222,7 +15112,7 @@
         <v>47</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D44" s="4">
         <v>20000</v>
@@ -15231,7 +15121,7 @@
         <v>1</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -15242,7 +15132,7 @@
         <v>48</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D45" s="4">
         <v>5000</v>
@@ -15251,7 +15141,7 @@
         <v>1</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -15262,7 +15152,7 @@
         <v>49</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D46" s="4">
         <v>10000</v>
@@ -15271,7 +15161,7 @@
         <v>1</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -15282,7 +15172,7 @@
         <v>50</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D47" s="4">
         <v>80</v>
@@ -15291,7 +15181,7 @@
         <v>1</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -15302,7 +15192,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D48" s="4">
         <v>180</v>
@@ -15311,7 +15201,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -15322,7 +15212,7 @@
         <v>52</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D49" s="4">
         <v>280</v>
@@ -15331,7 +15221,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -15342,7 +15232,7 @@
         <v>53</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D50" s="4">
         <v>480</v>
@@ -15351,7 +15241,7 @@
         <v>1</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -15362,7 +15252,7 @@
         <v>54</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D51" s="4">
         <v>1800</v>
@@ -15371,7 +15261,7 @@
         <v>1</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -15382,7 +15272,7 @@
         <v>60</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D52" s="4">
         <v>500</v>
@@ -15391,7 +15281,7 @@
         <v>1</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -15402,7 +15292,7 @@
         <v>61</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D53" s="4">
         <v>200000</v>
@@ -15411,7 +15301,7 @@
         <v>1</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -15422,7 +15312,7 @@
         <v>62</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D54" s="4">
         <v>50000</v>
@@ -15439,7 +15329,7 @@
         <v>63</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -15456,7 +15346,7 @@
         <v>64</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D56" s="4">
         <v>1000</v>
@@ -15465,7 +15355,7 @@
         <v>1</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -15476,7 +15366,7 @@
         <v>65</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D57" s="4">
         <v>500</v>
@@ -15485,7 +15375,7 @@
         <v>1</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -15496,7 +15386,7 @@
         <v>66</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D58" s="4">
         <v>50</v>
@@ -15513,7 +15403,7 @@
         <v>67</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D59" s="4">
         <v>200</v>
@@ -15530,7 +15420,7 @@
         <v>68</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D60" s="4">
         <v>300</v>
@@ -15547,7 +15437,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D61" s="4">
         <v>1000</v>
@@ -15564,7 +15454,7 @@
         <v>70</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D62" s="4">
         <v>6666</v>
@@ -15581,7 +15471,7 @@
         <v>70</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D63" s="4">
         <v>5</v>
@@ -15598,7 +15488,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D64" s="4">
         <v>5</v>
@@ -15615,7 +15505,7 @@
         <v>71</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D65" s="4">
         <v>30000</v>
@@ -15632,7 +15522,7 @@
         <v>71</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D66" s="4">
         <v>5</v>
@@ -15649,7 +15539,7 @@
         <v>71</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D67" s="4">
         <v>5</v>
@@ -15666,7 +15556,7 @@
         <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D68" s="4">
         <v>1000</v>
@@ -15675,7 +15565,7 @@
         <v>1</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -15686,7 +15576,7 @@
         <v>73</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D69" s="4">
         <v>1000</v>
@@ -15703,7 +15593,7 @@
         <v>74</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D70" s="4">
         <v>688</v>
@@ -15720,7 +15610,7 @@
         <v>75</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D71" s="4">
         <v>1888</v>
@@ -15737,7 +15627,7 @@
         <v>76</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D72" s="4">
         <v>3888</v>
@@ -15754,7 +15644,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D73" s="4">
         <v>8888</v>
@@ -15771,7 +15661,7 @@
         <v>78</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D74" s="4">
         <v>16888</v>
@@ -15788,7 +15678,7 @@
         <v>79</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D75" s="4">
         <v>22888</v>
@@ -15805,7 +15695,7 @@
         <v>80</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D76" s="4">
         <v>36888</v>
@@ -15822,7 +15712,7 @@
         <v>81</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D77" s="4">
         <v>48888</v>
@@ -15839,7 +15729,7 @@
         <v>82</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D78" s="4">
         <v>88888</v>
@@ -15856,7 +15746,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D79" s="4">
         <v>128888</v>
@@ -15873,7 +15763,7 @@
         <v>84</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D80" s="4">
         <v>158888</v>
@@ -15890,7 +15780,7 @@
         <v>85</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D81" s="4">
         <v>188888</v>
@@ -15907,7 +15797,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D82" s="4">
         <v>288888</v>
@@ -15924,7 +15814,7 @@
         <v>87</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D83" s="4">
         <v>388888</v>
@@ -15941,7 +15831,7 @@
         <v>88</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D84" s="4">
         <v>5</v>
@@ -15958,7 +15848,7 @@
         <v>89</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D85" s="4">
         <v>5</v>
@@ -15975,7 +15865,7 @@
         <v>90</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D86" s="4">
         <v>10</v>
@@ -15992,7 +15882,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D87" s="4">
         <v>10</v>
@@ -16009,7 +15899,7 @@
         <v>92</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D88" s="4">
         <v>5000</v>
@@ -16026,7 +15916,7 @@
         <v>93</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D89" s="4">
         <v>20000</v>
@@ -16043,7 +15933,7 @@
         <v>94</v>
       </c>
       <c r="C90" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D90" s="18">
         <v>100</v>
@@ -16062,7 +15952,7 @@
         <v>94</v>
       </c>
       <c r="C91" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D91" s="18">
         <v>1</v>
@@ -16081,7 +15971,7 @@
         <v>95</v>
       </c>
       <c r="C92" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D92" s="18">
         <v>100</v>
@@ -16100,7 +15990,7 @@
         <v>95</v>
       </c>
       <c r="C93" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D93" s="18">
         <v>40000</v>
@@ -16119,7 +16009,7 @@
         <v>95</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D94" s="18">
         <v>1</v>
@@ -16138,7 +16028,7 @@
         <v>96</v>
       </c>
       <c r="C95" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D95" s="18">
         <v>220</v>
@@ -16157,7 +16047,7 @@
         <v>96</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D96" s="18">
         <v>50000</v>
@@ -16176,7 +16066,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="19" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D97" s="18">
         <v>1</v>
@@ -16195,7 +16085,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="20" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D98" s="20">
         <v>1000</v>
@@ -16212,7 +16102,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="21" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D99" s="21">
         <v>1000</v>
@@ -16229,7 +16119,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D100" s="21">
         <v>5000</v>
@@ -16246,7 +16136,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D101" s="21">
         <v>20000</v>
@@ -16263,7 +16153,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D102" s="4">
         <v>30</v>
@@ -16280,7 +16170,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D103" s="4">
         <v>100</v>
@@ -16297,7 +16187,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D104" s="4">
         <v>500</v>
@@ -16314,7 +16204,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D105" s="4">
         <v>1000</v>
@@ -16331,7 +16221,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D106" s="4">
         <v>3000</v>
@@ -16348,7 +16238,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D107" s="4">
         <v>10000</v>
@@ -16365,7 +16255,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D108" s="18">
         <v>100</v>
@@ -16384,7 +16274,7 @@
         <v>107</v>
       </c>
       <c r="C109" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D109" s="18">
         <v>1</v>
@@ -16403,7 +16293,7 @@
         <v>108</v>
       </c>
       <c r="C110" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D110" s="18">
         <v>100</v>
@@ -16422,7 +16312,7 @@
         <v>108</v>
       </c>
       <c r="C111" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D111" s="18">
         <v>40000</v>
@@ -16441,7 +16331,7 @@
         <v>108</v>
       </c>
       <c r="C112" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D112" s="18">
         <v>1</v>
@@ -16460,7 +16350,7 @@
         <v>109</v>
       </c>
       <c r="C113" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D113" s="18">
         <v>220</v>
@@ -16479,7 +16369,7 @@
         <v>109</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D114" s="18">
         <v>50000</v>
@@ -16498,7 +16388,7 @@
         <v>109</v>
       </c>
       <c r="C115" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D115" s="18">
         <v>1</v>
@@ -16517,7 +16407,7 @@
         <v>110</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D116" s="6">
         <v>10</v>
@@ -16534,7 +16424,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D117" s="6">
         <v>1</v>
@@ -16551,7 +16441,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D118" s="6">
         <v>10</v>
@@ -16568,7 +16458,7 @@
         <v>111</v>
       </c>
       <c r="C119" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
@@ -16585,7 +16475,7 @@
         <v>112</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D120" s="6">
         <v>10</v>
@@ -16602,7 +16492,7 @@
         <v>112</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
@@ -16619,7 +16509,7 @@
         <v>113</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D122" s="6">
         <v>10</v>
@@ -16636,7 +16526,7 @@
         <v>113</v>
       </c>
       <c r="C123" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D123" s="6">
         <v>1</v>
@@ -16653,7 +16543,7 @@
         <v>114</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D124" s="6">
         <v>10</v>
@@ -16670,7 +16560,7 @@
         <v>114</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D125" s="6">
         <v>1</v>
@@ -16687,7 +16577,7 @@
         <v>115</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D126" s="6">
         <v>50</v>
@@ -16704,7 +16594,7 @@
         <v>115</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D127" s="6">
         <v>1</v>
@@ -16721,7 +16611,7 @@
         <v>116</v>
       </c>
       <c r="C128" s="24" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D128" s="23">
         <v>50000</v>
@@ -16740,7 +16630,7 @@
         <v>116</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D129" s="23">
         <v>100</v>
@@ -16759,7 +16649,7 @@
         <v>117</v>
       </c>
       <c r="C130" s="24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D130" s="23">
         <v>5</v>
@@ -16778,7 +16668,7 @@
         <v>117</v>
       </c>
       <c r="C131" s="24" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D131" s="23">
         <v>200</v>
@@ -16797,7 +16687,7 @@
         <v>118</v>
       </c>
       <c r="C132" s="24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D132" s="23">
         <v>10</v>
@@ -16816,7 +16706,7 @@
         <v>118</v>
       </c>
       <c r="C133" s="24" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D133" s="23">
         <v>100000</v>
@@ -16835,7 +16725,7 @@
         <v>119</v>
       </c>
       <c r="C134" s="24" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D134" s="23">
         <v>20</v>
@@ -16854,7 +16744,7 @@
         <v>119</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D135" s="23">
         <v>500000</v>
@@ -16873,7 +16763,7 @@
         <v>120</v>
       </c>
       <c r="C136" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D136" s="26">
         <v>3</v>
@@ -16890,7 +16780,7 @@
         <v>120</v>
       </c>
       <c r="C137" s="25" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D137" s="26">
         <v>1</v>
@@ -16907,7 +16797,7 @@
         <v>120</v>
       </c>
       <c r="C138" s="25" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D138" s="26">
         <v>1</v>
@@ -16924,10 +16814,10 @@
         <v>121</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D139" s="27" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E139" s="4">
         <v>1</v>
@@ -16941,10 +16831,10 @@
         <v>122</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D140" s="27" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E140" s="4">
         <v>1</v>
@@ -16958,10 +16848,10 @@
         <v>123</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D141" s="27" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E141" s="4">
         <v>1</v>
@@ -16975,7 +16865,7 @@
         <v>124</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D142" s="4">
         <v>1000</v>
@@ -16992,7 +16882,7 @@
         <v>125</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D143" s="4">
         <v>30000</v>
@@ -17009,7 +16899,7 @@
         <v>126</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D144" s="4">
         <v>50000</v>
@@ -17026,7 +16916,7 @@
         <v>127</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D145" s="4">
         <v>10</v>
@@ -17043,7 +16933,7 @@
         <v>128</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D146" s="4">
         <v>20</v>
@@ -17060,7 +16950,7 @@
         <v>129</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D147" s="4">
         <v>130</v>
@@ -17077,7 +16967,7 @@
         <v>130</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D148" s="4">
         <v>170</v>
@@ -17094,7 +16984,7 @@
         <v>131</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D149" s="4">
         <v>200</v>
@@ -17111,7 +17001,7 @@
         <v>132</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D150" s="4">
         <v>230</v>
@@ -17128,7 +17018,7 @@
         <v>133</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D151" s="4">
         <v>270</v>
@@ -17145,7 +17035,7 @@
         <v>134</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D152" s="4">
         <v>300</v>
@@ -17162,7 +17052,7 @@
         <v>135</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D153" s="4">
         <v>330</v>
@@ -17179,7 +17069,7 @@
         <v>136</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D154" s="4">
         <v>500</v>
@@ -17196,7 +17086,7 @@
         <v>137</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D155" s="4">
         <v>670</v>
@@ -17213,7 +17103,7 @@
         <v>138</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D156" s="4">
         <v>1100</v>
@@ -17230,7 +17120,7 @@
         <v>139</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D157" s="4">
         <v>1400</v>
@@ -17247,7 +17137,7 @@
         <v>140</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D158" s="4">
         <v>1600</v>
@@ -17264,7 +17154,7 @@
         <v>141</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D159" s="4">
         <v>2200</v>
@@ -17281,7 +17171,7 @@
         <v>142</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D160" s="4">
         <v>3300</v>
@@ -17298,7 +17188,7 @@
         <v>143</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D161" s="4">
         <v>5000</v>
@@ -17315,7 +17205,7 @@
         <v>144</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D162" s="4">
         <v>8000</v>
@@ -17332,7 +17222,7 @@
         <v>145</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D163" s="4">
         <v>12000</v>
@@ -17349,7 +17239,7 @@
         <v>146</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D164" s="4">
         <v>20000</v>
@@ -17366,7 +17256,7 @@
         <v>147</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D165" s="4">
         <v>42000</v>
@@ -17383,7 +17273,7 @@
         <v>148</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D166" s="4">
         <v>62000</v>
@@ -17400,7 +17290,7 @@
         <v>149</v>
       </c>
       <c r="C167" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D167" s="4">
         <v>120000</v>
@@ -17417,7 +17307,7 @@
         <v>150</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D168" s="4">
         <v>200000</v>
@@ -17434,7 +17324,7 @@
         <v>151</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D169" s="4">
         <v>350000</v>
@@ -17451,7 +17341,7 @@
         <v>152</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D170" s="4">
         <v>500000</v>
@@ -17468,7 +17358,7 @@
         <v>153</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D171" s="4">
         <v>650000</v>
@@ -17485,7 +17375,7 @@
         <v>154</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D172" s="4">
         <v>800000</v>
@@ -17502,7 +17392,7 @@
         <v>155</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D173" s="4">
         <v>128</v>
@@ -17519,7 +17409,7 @@
         <v>156</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D174" s="4">
         <v>10</v>
@@ -17536,7 +17426,7 @@
         <v>157</v>
       </c>
       <c r="C175" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D175" s="20">
         <v>2</v>
@@ -17555,7 +17445,7 @@
         <v>158</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D176" s="20">
         <v>2</v>
@@ -17574,7 +17464,7 @@
         <v>159</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D177" s="20">
         <v>2</v>
@@ -17593,7 +17483,7 @@
         <v>160</v>
       </c>
       <c r="C178" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D178" s="20">
         <v>3</v>
@@ -17612,7 +17502,7 @@
         <v>161</v>
       </c>
       <c r="C179" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D179" s="20">
         <v>3</v>
@@ -17631,7 +17521,7 @@
         <v>162</v>
       </c>
       <c r="C180" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D180" s="20">
         <v>3</v>
@@ -17650,7 +17540,7 @@
         <v>163</v>
       </c>
       <c r="C181" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D181" s="20">
         <v>5</v>
@@ -17669,7 +17559,7 @@
         <v>164</v>
       </c>
       <c r="C182" s="29" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D182" s="20">
         <v>5</v>
@@ -17688,7 +17578,7 @@
         <v>165</v>
       </c>
       <c r="C183" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D183" s="20">
         <v>5</v>
@@ -17707,7 +17597,7 @@
         <v>166</v>
       </c>
       <c r="C184" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D184" s="20">
         <v>1000</v>
@@ -17726,7 +17616,7 @@
         <v>167</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D185" s="20">
         <v>20000</v>
@@ -17743,7 +17633,7 @@
         <v>168</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D186" s="20">
         <v>50000</v>
@@ -17760,7 +17650,7 @@
         <v>169</v>
       </c>
       <c r="C187" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D187" s="20">
         <v>60000</v>
@@ -17777,7 +17667,7 @@
         <v>170</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D188" s="20">
         <v>80000</v>
@@ -17794,7 +17684,7 @@
         <v>171</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D189" s="20">
         <v>1</v>
@@ -17811,7 +17701,7 @@
         <v>172</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D190" s="20">
         <v>120000</v>
@@ -17828,7 +17718,7 @@
         <v>173</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D191" s="20">
         <v>140000</v>
@@ -17845,7 +17735,7 @@
         <v>174</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D192" s="20">
         <v>160000</v>
@@ -17862,7 +17752,7 @@
         <v>175</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D193" s="20">
         <v>1</v>
@@ -17879,7 +17769,7 @@
         <v>176</v>
       </c>
       <c r="C194" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D194" s="20">
         <v>200000</v>
@@ -17896,7 +17786,7 @@
         <v>177</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D195" s="20">
         <v>80000</v>
@@ -17913,7 +17803,7 @@
         <v>178</v>
       </c>
       <c r="C196" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D196" s="20">
         <v>200000</v>
@@ -17930,7 +17820,7 @@
         <v>179</v>
       </c>
       <c r="C197" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D197" s="20">
         <v>240000</v>
@@ -17947,7 +17837,7 @@
         <v>180</v>
       </c>
       <c r="C198" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D198" s="20">
         <v>320000</v>
@@ -17964,7 +17854,7 @@
         <v>181</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D199" s="20">
         <v>1</v>
@@ -17981,7 +17871,7 @@
         <v>182</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D200" s="20">
         <v>480000</v>
@@ -17998,7 +17888,7 @@
         <v>183</v>
       </c>
       <c r="C201" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D201" s="20">
         <v>560000</v>
@@ -18015,7 +17905,7 @@
         <v>184</v>
       </c>
       <c r="C202" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D202" s="20">
         <v>640000</v>
@@ -18032,7 +17922,7 @@
         <v>185</v>
       </c>
       <c r="C203" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D203" s="20">
         <v>1</v>
@@ -18049,7 +17939,7 @@
         <v>186</v>
       </c>
       <c r="C204" s="20" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D204" s="20">
         <v>800000</v>
@@ -18066,10 +17956,10 @@
         <v>187</v>
       </c>
       <c r="C205" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D205" s="21">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E205" s="21">
         <v>1</v>
@@ -18083,10 +17973,10 @@
         <v>188</v>
       </c>
       <c r="C206" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D206" s="21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E206" s="21">
         <v>1</v>
@@ -18100,10 +17990,10 @@
         <v>189</v>
       </c>
       <c r="C207" s="21" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D207" s="21">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E207" s="21">
         <v>1</v>
@@ -18133,82 +18023,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="10" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -18237,13 +18127,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
@@ -18253,10 +18143,10 @@
     </row>
     <row r="2" s="1" customFormat="1" spans="1:3">
       <c r="A2" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -18264,39 +18154,39 @@
     </row>
     <row r="3" s="1" customFormat="1" spans="1:3">
       <c r="A3" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:3">
       <c r="A4" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C6" s="4">
         <v>1</v>
@@ -18304,10 +18194,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C7" s="4">
         <v>1</v>
@@ -18315,28 +18205,28 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -18344,28 +18234,28 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:3">
       <c r="A11" s="6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
     <row r="12" s="2" customFormat="1" spans="1:3">
       <c r="A12" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" spans="1:3">
       <c r="A13" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -18373,10 +18263,10 @@
     </row>
     <row r="14" s="2" customFormat="1" spans="1:3">
       <c r="A14" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -18384,10 +18274,10 @@
     </row>
     <row r="15" s="2" customFormat="1" spans="1:3">
       <c r="A15" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -18395,21 +18285,21 @@
     </row>
     <row r="16" s="3" customFormat="1" spans="1:3">
       <c r="A16" s="8" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" s="3" customFormat="1" spans="1:3">
       <c r="A17" s="8" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -18417,32 +18307,32 @@
     </row>
     <row r="18" s="3" customFormat="1" spans="1:3">
       <c r="A18" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:3">
       <c r="A19" s="8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -18450,10 +18340,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
@@ -18461,26 +18351,26 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" s="3" customFormat="1" spans="1:3">
       <c r="A23" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="1" spans="1:3">
       <c r="A24" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -18488,21 +18378,21 @@
     </row>
     <row r="25" s="3" customFormat="1" spans="1:3">
       <c r="A25" s="8" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -18510,32 +18400,32 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="28" s="3" customFormat="1" spans="1:3">
       <c r="A28" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" s="3" customFormat="1" spans="1:3">
       <c r="A29" s="8" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -18543,10 +18433,10 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="1:3">
       <c r="A30" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -18554,32 +18444,32 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C33" s="4">
         <v>1</v>
@@ -18587,32 +18477,32 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" s="3" customFormat="1" spans="1:3">
       <c r="A35" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="36" s="3" customFormat="1" spans="1:3">
       <c r="A36" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C36" s="8">
         <v>1</v>
@@ -18620,21 +18510,21 @@
     </row>
     <row r="37" s="3" customFormat="1" spans="1:3">
       <c r="A37" s="8" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" s="3" customFormat="1" spans="1:3">
       <c r="A38" s="8" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C38" s="8">
         <v>1</v>
@@ -18642,10 +18532,10 @@
     </row>
     <row r="39" s="2" customFormat="1" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
@@ -18653,10 +18543,10 @@
     </row>
     <row r="40" s="2" customFormat="1" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
@@ -18664,10 +18554,10 @@
     </row>
     <row r="41" s="2" customFormat="1" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
@@ -18675,21 +18565,21 @@
     </row>
     <row r="42" s="2" customFormat="1" spans="1:3">
       <c r="A42" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:16384">
       <c r="A43" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
@@ -35078,7 +34968,7 @@
     </row>
     <row r="44" s="2" customFormat="1" spans="1:16384">
       <c r="A44" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -51466,28 +51356,28 @@
     </row>
     <row r="45" s="1" customFormat="1" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:3">
       <c r="A46" s="6" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:3">
       <c r="A47" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C47" s="6">
         <v>1</v>
@@ -51495,10 +51385,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C48" s="4">
         <v>1</v>
@@ -51506,10 +51396,10 @@
     </row>
     <row r="49" s="1" customFormat="1" spans="1:3">
       <c r="A49" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C49" s="6">
         <v>1</v>
@@ -51517,21 +51407,21 @@
     </row>
     <row r="50" s="1" customFormat="1" spans="1:3">
       <c r="A50" s="6" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="4" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C51" s="4">
         <v>1</v>
@@ -51539,10 +51429,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C52" s="4">
         <v>1</v>
@@ -51550,10 +51440,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="4" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C53" s="4">
         <v>1</v>
@@ -51561,10 +51451,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="4" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C54" s="4">
         <v>1</v>
@@ -51572,10 +51462,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="4" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C55" s="4">
         <v>1</v>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
     <sheet name="process_data" sheetId="3" r:id="rId2"/>
     <sheet name="source" sheetId="8" r:id="rId3"/>
-    <sheet name="award_data" sheetId="4" r:id="rId4"/>
-    <sheet name="condition" sheetId="5" r:id="rId5"/>
+    <sheet name="condition" sheetId="5" r:id="rId4"/>
+    <sheet name="award_data" sheetId="4" r:id="rId5"/>
     <sheet name="|备注" sheetId="7" r:id="rId6"/>
     <sheet name="|来源备注" sheetId="9" r:id="rId7"/>
   </sheets>
@@ -2073,14 +2078,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2098,7 +2097,7 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2114,155 +2113,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2271,19 +2132,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2307,13 +2168,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2331,162 +2192,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2520,254 +2231,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2775,7 +2244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2891,13 +2360,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -2906,7 +2372,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2972,75 +2438,38 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
+    <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3298,17 +2727,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
@@ -3330,7 +2759,7 @@
     <col min="20" max="16384" width="11" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" ht="48" customHeight="1" spans="1:21">
+    <row r="1" spans="1:21" ht="48" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3382,7 +2811,7 @@
       <c r="T1" s="5"/>
       <c r="U1" s="5"/>
     </row>
-    <row r="2" ht="43.5" customHeight="1" spans="1:18">
+    <row r="2" spans="1:21" ht="43.5" customHeight="1">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3422,10 +2851,10 @@
       <c r="O2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="70"/>
-    </row>
-    <row r="3" ht="43.5" customHeight="1" spans="1:18">
+      <c r="Q2" s="68"/>
+      <c r="R2" s="69"/>
+    </row>
+    <row r="3" spans="1:21" ht="43.5" customHeight="1">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3465,10 +2894,10 @@
       <c r="O3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="70"/>
-    </row>
-    <row r="4" ht="43.5" customHeight="1" spans="1:18">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="69"/>
+    </row>
+    <row r="4" spans="1:21" ht="43.5" customHeight="1">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3508,10 +2937,10 @@
       <c r="O4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="69"/>
-      <c r="R4" s="70"/>
-    </row>
-    <row r="5" ht="43.5" customHeight="1" spans="1:18">
+      <c r="Q4" s="68"/>
+      <c r="R4" s="69"/>
+    </row>
+    <row r="5" spans="1:21" ht="43.5" customHeight="1">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3551,10 +2980,10 @@
       <c r="O5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="70"/>
-    </row>
-    <row r="6" ht="25.5" customHeight="1" spans="1:15">
+      <c r="Q5" s="68"/>
+      <c r="R5" s="69"/>
+    </row>
+    <row r="6" spans="1:21" ht="25.5" customHeight="1">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3595,7 +3024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="21" customHeight="1" spans="1:15">
+    <row r="7" spans="1:21" ht="21" customHeight="1">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3636,7 +3065,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" ht="21" customHeight="1" spans="1:15">
+    <row r="8" spans="1:21" ht="21" customHeight="1">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3677,7 +3106,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:21">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3715,7 +3144,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:21">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3750,7 +3179,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:21">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3785,7 +3214,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:21">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3820,7 +3249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:21">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3855,7 +3284,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:21">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3890,14 +3319,14 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:21">
       <c r="A15" s="12">
         <v>14</v>
       </c>
       <c r="B15" s="12">
         <v>-1</v>
       </c>
-      <c r="C15" s="68" t="s">
+      <c r="C15" s="67" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -3925,7 +3354,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:21">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -5150,7 +4579,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" s="13" customFormat="1" spans="1:11">
+    <row r="51" spans="1:11" s="13" customFormat="1">
       <c r="A51" s="13">
         <v>51</v>
       </c>
@@ -5185,7 +4614,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="52" s="13" customFormat="1" spans="1:11">
+    <row r="52" spans="1:11" s="13" customFormat="1">
       <c r="A52" s="13">
         <v>52</v>
       </c>
@@ -5220,7 +4649,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" s="13" customFormat="1" spans="1:11">
+    <row r="53" spans="1:11" s="13" customFormat="1">
       <c r="A53" s="13">
         <v>53</v>
       </c>
@@ -5745,7 +5174,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" s="38" customFormat="1" spans="1:11">
+    <row r="68" spans="1:11" s="38" customFormat="1">
       <c r="A68" s="38">
         <v>68</v>
       </c>
@@ -5758,7 +5187,7 @@
       <c r="D68" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="71" t="s">
+      <c r="E68" s="70" t="s">
         <v>124</v>
       </c>
       <c r="F68" s="38">
@@ -5780,7 +5209,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="69" s="13" customFormat="1" spans="1:11">
+    <row r="69" spans="1:11" s="13" customFormat="1">
       <c r="A69" s="13">
         <v>69</v>
       </c>
@@ -5815,7 +5244,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="70" s="13" customFormat="1" spans="1:11">
+    <row r="70" spans="1:11" s="13" customFormat="1">
       <c r="A70" s="13">
         <v>70</v>
       </c>
@@ -5850,7 +5279,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" s="13" customFormat="1" spans="1:11">
+    <row r="71" spans="1:11" s="13" customFormat="1">
       <c r="A71" s="13">
         <v>71</v>
       </c>
@@ -5885,7 +5314,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="72" s="13" customFormat="1" spans="1:11">
+    <row r="72" spans="1:11" s="13" customFormat="1">
       <c r="A72" s="13">
         <v>72</v>
       </c>
@@ -5920,7 +5349,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="73" s="13" customFormat="1" spans="1:11">
+    <row r="73" spans="1:11" s="13" customFormat="1">
       <c r="A73" s="13">
         <v>73</v>
       </c>
@@ -5955,7 +5384,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" s="13" customFormat="1" spans="1:11">
+    <row r="74" spans="1:11" s="13" customFormat="1">
       <c r="A74" s="13">
         <v>74</v>
       </c>
@@ -5990,7 +5419,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" s="13" customFormat="1" spans="1:11">
+    <row r="75" spans="1:11" s="13" customFormat="1">
       <c r="A75" s="13">
         <v>75</v>
       </c>
@@ -6025,17 +5454,17 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="76" s="38" customFormat="1" spans="1:11">
+    <row r="76" spans="1:11" s="38" customFormat="1">
       <c r="A76" s="38">
         <v>76</v>
       </c>
       <c r="B76" s="38">
         <v>0</v>
       </c>
-      <c r="C76" s="71" t="s">
+      <c r="C76" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="71" t="s">
+      <c r="D76" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="38" t="s">
@@ -6060,7 +5489,7 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="77" s="38" customFormat="1" spans="1:11">
+    <row r="77" spans="1:11" s="38" customFormat="1">
       <c r="A77" s="38">
         <v>77</v>
       </c>
@@ -6070,7 +5499,7 @@
       <c r="C77" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="71" t="s">
+      <c r="D77" s="70" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="38" t="s">
@@ -6095,112 +5524,112 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" s="58" customFormat="1" spans="1:11">
-      <c r="A78" s="58">
+    <row r="78" spans="1:11" s="57" customFormat="1">
+      <c r="A78" s="57">
         <v>78</v>
       </c>
-      <c r="B78" s="58">
-        <v>1</v>
-      </c>
-      <c r="C78" s="72" t="s">
+      <c r="B78" s="57">
+        <v>1</v>
+      </c>
+      <c r="C78" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="72" t="s">
+      <c r="D78" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="72" t="s">
+      <c r="E78" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="58">
+      <c r="F78" s="57">
         <v>78</v>
       </c>
-      <c r="G78" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="58">
-        <v>1</v>
-      </c>
-      <c r="I78" s="58">
+      <c r="G78" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="57">
+        <v>1</v>
+      </c>
+      <c r="I78" s="57">
         <v>946656000</v>
       </c>
-      <c r="J78" s="58">
+      <c r="J78" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K78" s="58">
+      <c r="K78" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" s="58" customFormat="1" spans="1:11">
-      <c r="A79" s="58">
+    <row r="79" spans="1:11" s="57" customFormat="1">
+      <c r="A79" s="57">
         <v>79</v>
       </c>
-      <c r="B79" s="58">
-        <v>1</v>
-      </c>
-      <c r="C79" s="72" t="s">
+      <c r="B79" s="57">
+        <v>1</v>
+      </c>
+      <c r="C79" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="72" t="s">
+      <c r="D79" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="72" t="s">
+      <c r="E79" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="58">
+      <c r="F79" s="57">
         <v>79</v>
       </c>
-      <c r="G79" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="58">
-        <v>1</v>
-      </c>
-      <c r="I79" s="58">
+      <c r="G79" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="57">
+        <v>1</v>
+      </c>
+      <c r="I79" s="57">
         <v>946656000</v>
       </c>
-      <c r="J79" s="58">
+      <c r="J79" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K79" s="58">
+      <c r="K79" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" s="58" customFormat="1" spans="1:11">
-      <c r="A80" s="58">
+    <row r="80" spans="1:11" s="57" customFormat="1">
+      <c r="A80" s="57">
         <v>80</v>
       </c>
-      <c r="B80" s="58">
-        <v>1</v>
-      </c>
-      <c r="C80" s="72" t="s">
+      <c r="B80" s="57">
+        <v>1</v>
+      </c>
+      <c r="C80" s="71" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="72" t="s">
+      <c r="D80" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="72" t="s">
+      <c r="E80" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="58">
+      <c r="F80" s="57">
         <v>80</v>
       </c>
-      <c r="G80" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="58">
-        <v>1</v>
-      </c>
-      <c r="I80" s="58">
+      <c r="G80" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="57">
+        <v>1</v>
+      </c>
+      <c r="I80" s="57">
         <v>946656000</v>
       </c>
-      <c r="J80" s="58">
+      <c r="J80" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K80" s="58">
+      <c r="K80" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="81" s="13" customFormat="1" spans="1:11">
+    <row r="81" spans="1:13" s="13" customFormat="1">
       <c r="A81" s="13">
         <v>81</v>
       </c>
@@ -6235,20 +5664,20 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="82" s="13" customFormat="1" spans="1:13">
+    <row r="82" spans="1:13" s="13" customFormat="1">
       <c r="A82" s="18">
         <v>82</v>
       </c>
       <c r="B82" s="18">
         <v>0</v>
       </c>
-      <c r="C82" s="73" t="s">
+      <c r="C82" s="72" t="s">
         <v>146</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="73" t="s">
+      <c r="E82" s="72" t="s">
         <v>124</v>
       </c>
       <c r="F82" s="18">
@@ -6272,17 +5701,17 @@
       <c r="L82" s="18"/>
       <c r="M82" s="18"/>
     </row>
-    <row r="83" s="13" customFormat="1" spans="1:13">
+    <row r="83" spans="1:13" s="13" customFormat="1">
       <c r="A83" s="18">
         <v>83</v>
       </c>
       <c r="B83" s="18">
         <v>0</v>
       </c>
-      <c r="C83" s="73" t="s">
+      <c r="C83" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="73" t="s">
+      <c r="D83" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="18" t="s">
@@ -6309,17 +5738,17 @@
       <c r="L83" s="18"/>
       <c r="M83" s="18"/>
     </row>
-    <row r="84" s="13" customFormat="1" spans="1:13">
+    <row r="84" spans="1:13" s="13" customFormat="1">
       <c r="A84" s="18">
         <v>84</v>
       </c>
       <c r="B84" s="18">
         <v>0</v>
       </c>
-      <c r="C84" s="73" t="s">
+      <c r="C84" s="72" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="73" t="s">
+      <c r="D84" s="72" t="s">
         <v>124</v>
       </c>
       <c r="E84" s="18" t="s">
@@ -6346,7 +5775,7 @@
       <c r="L84" s="18"/>
       <c r="M84" s="18"/>
     </row>
-    <row r="85" s="13" customFormat="1" spans="1:11">
+    <row r="85" spans="1:13" s="13" customFormat="1">
       <c r="A85" s="13">
         <v>85</v>
       </c>
@@ -6381,7 +5810,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:13">
       <c r="A86" s="13">
         <v>86</v>
       </c>
@@ -6416,7 +5845,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:13">
       <c r="A87" s="13">
         <v>87</v>
       </c>
@@ -6451,7 +5880,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:13">
       <c r="A88" s="13">
         <v>88</v>
       </c>
@@ -6486,7 +5915,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:13">
       <c r="A89" s="12">
         <v>89</v>
       </c>
@@ -6521,108 +5950,108 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" s="58" customFormat="1" spans="1:11">
-      <c r="A90" s="58">
+    <row r="90" spans="1:13" s="57" customFormat="1">
+      <c r="A90" s="57">
         <v>90</v>
       </c>
-      <c r="B90" s="58">
-        <v>1</v>
-      </c>
-      <c r="C90" s="72" t="s">
+      <c r="B90" s="57">
+        <v>1</v>
+      </c>
+      <c r="C90" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="72" t="s">
+      <c r="D90" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="72" t="s">
+      <c r="E90" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="58">
+      <c r="F90" s="57">
         <v>90</v>
       </c>
-      <c r="G90" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="58">
-        <v>1</v>
-      </c>
-      <c r="I90" s="58">
+      <c r="G90" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="57">
+        <v>1</v>
+      </c>
+      <c r="I90" s="57">
         <v>946656000</v>
       </c>
-      <c r="J90" s="58">
+      <c r="J90" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K90" s="58">
+      <c r="K90" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="91" s="58" customFormat="1" spans="1:11">
-      <c r="A91" s="58">
+    <row r="91" spans="1:13" s="57" customFormat="1">
+      <c r="A91" s="57">
         <v>91</v>
       </c>
-      <c r="B91" s="58">
-        <v>1</v>
-      </c>
-      <c r="C91" s="72" t="s">
+      <c r="B91" s="57">
+        <v>1</v>
+      </c>
+      <c r="C91" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="72" t="s">
+      <c r="D91" s="71" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="72" t="s">
+      <c r="E91" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="58">
+      <c r="F91" s="57">
         <v>91</v>
       </c>
-      <c r="G91" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="58">
-        <v>1</v>
-      </c>
-      <c r="I91" s="58">
+      <c r="G91" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="57">
+        <v>1</v>
+      </c>
+      <c r="I91" s="57">
         <v>946656000</v>
       </c>
-      <c r="J91" s="58">
+      <c r="J91" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K91" s="58">
+      <c r="K91" s="57">
         <v>-1</v>
       </c>
     </row>
-    <row r="92" s="58" customFormat="1" spans="1:11">
-      <c r="A92" s="58">
+    <row r="92" spans="1:13" s="57" customFormat="1">
+      <c r="A92" s="57">
         <v>92</v>
       </c>
-      <c r="B92" s="58">
-        <v>1</v>
-      </c>
-      <c r="C92" s="72" t="s">
+      <c r="B92" s="57">
+        <v>1</v>
+      </c>
+      <c r="C92" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="72" t="s">
+      <c r="D92" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="72" t="s">
+      <c r="E92" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="58">
+      <c r="F92" s="57">
         <v>92</v>
       </c>
-      <c r="G92" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="58">
-        <v>1</v>
-      </c>
-      <c r="I92" s="58">
+      <c r="G92" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="57">
+        <v>1</v>
+      </c>
+      <c r="I92" s="57">
         <v>946656000</v>
       </c>
-      <c r="J92" s="58">
+      <c r="J92" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K92" s="58">
+      <c r="K92" s="57">
         <v>-1</v>
       </c>
     </row>
@@ -6654,13 +6083,13 @@
       <c r="I93" s="12">
         <v>1603641600</v>
       </c>
-      <c r="J93" s="58">
+      <c r="J93" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K93" s="58">
+      <c r="K93" s="57">
         <v>-1</v>
       </c>
-      <c r="L93" s="75">
+      <c r="L93" s="74">
         <v>1</v>
       </c>
       <c r="M93" s="38" t="s">
@@ -6695,16 +6124,16 @@
       <c r="I94" s="12">
         <v>1603641600</v>
       </c>
-      <c r="J94" s="58">
+      <c r="J94" s="57">
         <v>32503651200</v>
       </c>
-      <c r="K94" s="58">
+      <c r="K94" s="57">
         <v>-1</v>
       </c>
-      <c r="L94" s="58"/>
-      <c r="M94" s="58"/>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="L94" s="57"/>
+      <c r="M94" s="57"/>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="12">
         <v>95</v>
       </c>
@@ -6742,48 +6171,48 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" s="62" customFormat="1" spans="1:13">
-      <c r="A96" s="62">
+    <row r="96" spans="1:13" s="61" customFormat="1">
+      <c r="A96" s="61">
         <v>96</v>
       </c>
-      <c r="B96" s="62">
-        <v>1</v>
-      </c>
-      <c r="C96" s="74" t="s">
+      <c r="B96" s="61">
+        <v>1</v>
+      </c>
+      <c r="C96" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="74" t="s">
+      <c r="D96" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="74" t="s">
+      <c r="E96" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="F96" s="62">
+      <c r="F96" s="61">
         <v>96</v>
       </c>
-      <c r="G96" s="62" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="62">
+      <c r="G96" s="61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="61">
         <v>7</v>
       </c>
-      <c r="I96" s="62">
+      <c r="I96" s="61">
         <v>1615132800</v>
       </c>
-      <c r="J96" s="62">
+      <c r="J96" s="61">
         <v>32503651200</v>
       </c>
-      <c r="K96" s="62">
+      <c r="K96" s="61">
         <v>-1</v>
       </c>
-      <c r="L96" s="62">
-        <v>1</v>
-      </c>
-      <c r="M96" s="74" t="s">
+      <c r="L96" s="61">
+        <v>1</v>
+      </c>
+      <c r="M96" s="73" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:13">
       <c r="A97" s="12">
         <v>97</v>
       </c>
@@ -6802,7 +6231,7 @@
       <c r="F97" s="12">
         <v>97</v>
       </c>
-      <c r="G97" s="62" t="b">
+      <c r="G97" s="61" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="12">
@@ -6821,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:13">
       <c r="A98" s="12">
         <v>98</v>
       </c>
@@ -6840,7 +6269,7 @@
       <c r="F98" s="12">
         <v>98</v>
       </c>
-      <c r="G98" s="62" t="b">
+      <c r="G98" s="61" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="12">
@@ -6859,7 +6288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:13">
       <c r="A99" s="12">
         <v>99</v>
       </c>
@@ -6897,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:13">
       <c r="A100" s="12">
         <v>100</v>
       </c>
@@ -6935,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" s="38" customFormat="1" spans="1:13">
+    <row r="101" spans="1:13" s="38" customFormat="1">
       <c r="A101" s="38">
         <v>30001</v>
       </c>
@@ -6976,7 +6405,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="102" s="38" customFormat="1" spans="1:12">
+    <row r="102" spans="1:13" s="38" customFormat="1">
       <c r="A102" s="38">
         <v>30002</v>
       </c>
@@ -7014,7 +6443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" s="38" customFormat="1" spans="1:12">
+    <row r="103" spans="1:13" s="38" customFormat="1">
       <c r="A103" s="38">
         <v>30003</v>
       </c>
@@ -7052,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" s="18" customFormat="1" spans="1:12">
+    <row r="104" spans="1:13" s="18" customFormat="1">
       <c r="A104" s="18">
         <v>30004</v>
       </c>
@@ -7090,7 +6519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" s="18" customFormat="1" spans="1:12">
+    <row r="105" spans="1:13" s="18" customFormat="1">
       <c r="A105" s="18">
         <v>30005</v>
       </c>
@@ -7128,7 +6557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" s="18" customFormat="1" spans="1:12">
+    <row r="106" spans="1:13" s="18" customFormat="1">
       <c r="A106" s="18">
         <v>30006</v>
       </c>
@@ -7166,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" s="18" customFormat="1" spans="1:12">
+    <row r="107" spans="1:13" s="18" customFormat="1">
       <c r="A107" s="18">
         <v>30007</v>
       </c>
@@ -7204,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" s="18" customFormat="1" spans="1:12">
+    <row r="108" spans="1:13" s="18" customFormat="1">
       <c r="A108" s="18">
         <v>30008</v>
       </c>
@@ -7242,7 +6671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" s="18" customFormat="1" spans="1:12">
+    <row r="109" spans="1:13" s="18" customFormat="1">
       <c r="A109" s="18">
         <v>30009</v>
       </c>
@@ -7280,7 +6709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" s="18" customFormat="1" spans="1:12">
+    <row r="110" spans="1:13" s="18" customFormat="1">
       <c r="A110" s="18">
         <v>30010</v>
       </c>
@@ -7318,7 +6747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" s="18" customFormat="1" spans="1:12">
+    <row r="111" spans="1:13" s="18" customFormat="1">
       <c r="A111" s="18">
         <v>30011</v>
       </c>
@@ -7356,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" s="18" customFormat="1" spans="1:12">
+    <row r="112" spans="1:13" s="18" customFormat="1">
       <c r="A112" s="18">
         <v>30012</v>
       </c>
@@ -7394,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" s="18" customFormat="1" spans="1:12">
+    <row r="113" spans="1:12" s="18" customFormat="1">
       <c r="A113" s="18">
         <v>30013</v>
       </c>
@@ -7432,7 +6861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" s="18" customFormat="1" spans="1:12">
+    <row r="114" spans="1:12" s="18" customFormat="1">
       <c r="A114" s="18">
         <v>30014</v>
       </c>
@@ -7470,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" s="18" customFormat="1" spans="1:12">
+    <row r="115" spans="1:12" s="18" customFormat="1">
       <c r="A115" s="18">
         <v>30015</v>
       </c>
@@ -7508,7 +6937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" s="18" customFormat="1" spans="1:12">
+    <row r="116" spans="1:12" s="18" customFormat="1">
       <c r="A116" s="18">
         <v>30016</v>
       </c>
@@ -7546,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" s="18" customFormat="1" spans="1:12">
+    <row r="117" spans="1:12" s="18" customFormat="1">
       <c r="A117" s="18">
         <v>30017</v>
       </c>
@@ -7584,7 +7013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" s="18" customFormat="1" spans="1:12">
+    <row r="118" spans="1:12" s="18" customFormat="1">
       <c r="A118" s="18">
         <v>30018</v>
       </c>
@@ -7623,20 +7052,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
@@ -7651,7 +7079,7 @@
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:11">
+    <row r="1" spans="1:11" ht="36" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>197</v>
       </c>
@@ -7682,9 +7110,9 @@
       <c r="J1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="54"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="K1" s="53"/>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -7700,18 +7128,18 @@
       <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="75" t="s">
         <v>207</v>
       </c>
       <c r="G2" s="50"/>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="76" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -7727,18 +7155,18 @@
       <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="76" t="s">
         <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -7754,18 +7182,18 @@
       <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="77" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="76" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -7781,18 +7209,18 @@
       <c r="E5" s="12">
         <v>4</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="75" t="s">
         <v>212</v>
       </c>
       <c r="G5" s="50"/>
-      <c r="H5" s="77" t="s">
+      <c r="H5" s="76" t="s">
         <v>213</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -7812,15 +7240,15 @@
         <v>10</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="52">
+      <c r="H6" s="51">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="55"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -7846,7 +7274,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -7872,7 +7300,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -7899,7 +7327,7 @@
       </c>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -7925,7 +7353,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -7951,7 +7379,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -7977,7 +7405,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -8003,7 +7431,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -8029,7 +7457,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -8055,7 +7483,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:11">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -8601,7 +8029,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" ht="12.95" customHeight="1" spans="1:9">
+    <row r="37" spans="1:9" ht="12.95" customHeight="1">
       <c r="A37" s="12">
         <v>36</v>
       </c>
@@ -8627,7 +8055,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" ht="12.95" customHeight="1" spans="1:9">
+    <row r="38" spans="1:9" ht="12.95" customHeight="1">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -8679,7 +8107,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="40" ht="12.95" customHeight="1" spans="1:9">
+    <row r="40" spans="1:9" ht="12.95" customHeight="1">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -8705,7 +8133,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="41" ht="12.95" customHeight="1" spans="1:9">
+    <row r="41" spans="1:9" ht="12.95" customHeight="1">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -8731,7 +8159,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="42" ht="12.95" customHeight="1" spans="1:9">
+    <row r="42" spans="1:9" ht="12.95" customHeight="1">
       <c r="A42" s="12">
         <v>41</v>
       </c>
@@ -8757,7 +8185,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" ht="12.95" customHeight="1" spans="1:9">
+    <row r="43" spans="1:9" ht="12.95" customHeight="1">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -8783,7 +8211,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="44" ht="12.95" customHeight="1" spans="1:9">
+    <row r="44" spans="1:9" ht="12.95" customHeight="1">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -8809,7 +8237,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="45" ht="12.95" customHeight="1" spans="1:9">
+    <row r="45" spans="1:9" ht="12.95" customHeight="1">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -8835,7 +8263,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="46" ht="12.95" customHeight="1" spans="1:9">
+    <row r="46" spans="1:9" ht="12.95" customHeight="1">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -8861,7 +8289,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="47" ht="12.95" customHeight="1" spans="1:9">
+    <row r="47" spans="1:9" ht="12.95" customHeight="1">
       <c r="A47" s="12">
         <v>46</v>
       </c>
@@ -8887,7 +8315,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="48" ht="12.95" customHeight="1" spans="1:9">
+    <row r="48" spans="1:9" ht="12.95" customHeight="1">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -8913,7 +8341,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" ht="12.95" customHeight="1" spans="1:9">
+    <row r="49" spans="1:9" ht="12.95" customHeight="1">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -8939,7 +8367,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="50" ht="12.95" customHeight="1" spans="1:9">
+    <row r="50" spans="1:9" ht="12.95" customHeight="1">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -8981,10 +8409,10 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="79" t="s">
+      <c r="F51" s="78" t="s">
         <v>222</v>
       </c>
-      <c r="G51" s="53"/>
+      <c r="G51" s="52"/>
       <c r="H51" s="48" t="s">
         <v>223</v>
       </c>
@@ -9240,7 +8668,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:9">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -9400,10 +8828,10 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="56">
+      <c r="F68" s="55">
         <v>99999999999</v>
       </c>
-      <c r="G68" s="56"/>
+      <c r="G68" s="55"/>
       <c r="I68" s="10" t="s">
         <v>230</v>
       </c>
@@ -9437,7 +8865,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="70" s="40" customFormat="1" spans="1:9">
+    <row r="70" spans="1:9" s="40" customFormat="1">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -9464,7 +8892,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="71" s="40" customFormat="1" spans="1:9">
+    <row r="71" spans="1:9" s="40" customFormat="1">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -9484,14 +8912,14 @@
         <v>0</v>
       </c>
       <c r="G71" s="14"/>
-      <c r="H71" s="57">
+      <c r="H71" s="56">
         <v>88</v>
       </c>
       <c r="I71" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="72" s="40" customFormat="1" spans="1:9">
+    <row r="72" spans="1:9" s="40" customFormat="1">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -9511,14 +8939,14 @@
         <v>1</v>
       </c>
       <c r="G72" s="14"/>
-      <c r="H72" s="57">
+      <c r="H72" s="56">
         <v>89</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="73" s="40" customFormat="1" spans="1:9">
+    <row r="73" spans="1:9" s="40" customFormat="1">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -9538,14 +8966,14 @@
         <v>1</v>
       </c>
       <c r="G73" s="14"/>
-      <c r="H73" s="57">
+      <c r="H73" s="56">
         <v>90</v>
       </c>
       <c r="I73" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="74" s="40" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="40" customFormat="1">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -9565,14 +8993,14 @@
         <v>1</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="57">
+      <c r="H74" s="56">
         <v>91</v>
       </c>
       <c r="I74" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="75" s="40" customFormat="1" spans="1:9">
+    <row r="75" spans="1:9" s="40" customFormat="1">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -9592,10 +9020,10 @@
         <v>10</v>
       </c>
       <c r="G75" s="14"/>
-      <c r="H75" s="57"/>
+      <c r="H75" s="56"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" s="40" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="40" customFormat="1">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -9615,10 +9043,10 @@
         <v>10</v>
       </c>
       <c r="G76" s="14"/>
-      <c r="H76" s="57"/>
+      <c r="H76" s="56"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" s="40" customFormat="1" spans="1:9">
+    <row r="77" spans="1:9" s="40" customFormat="1">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -9640,14 +9068,14 @@
       <c r="G77" s="14">
         <v>500000000</v>
       </c>
-      <c r="H77" s="57">
+      <c r="H77" s="56">
         <v>92</v>
       </c>
       <c r="I77" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="78" s="40" customFormat="1" spans="1:9">
+    <row r="78" spans="1:9" s="40" customFormat="1">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -9669,18 +9097,18 @@
       <c r="G78" s="14">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="57">
+      <c r="H78" s="56">
         <v>93</v>
       </c>
       <c r="I78" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="79" s="3" customFormat="1" spans="1:9">
-      <c r="A79" s="58">
+    <row r="79" spans="1:9" s="3" customFormat="1">
+      <c r="A79" s="57">
         <v>78</v>
       </c>
-      <c r="B79" s="58">
+      <c r="B79" s="57">
         <v>78</v>
       </c>
       <c r="C79" s="41"/>
@@ -9692,18 +9120,18 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="59">
+      <c r="H79" s="58">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="80" s="3" customFormat="1" spans="1:9">
-      <c r="A80" s="58">
+    <row r="80" spans="1:9" s="3" customFormat="1">
+      <c r="A80" s="57">
         <v>79</v>
       </c>
-      <c r="B80" s="58">
+      <c r="B80" s="57">
         <v>79</v>
       </c>
       <c r="C80" s="41"/>
@@ -9715,18 +9143,18 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="59">
+      <c r="H80" s="58">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1" spans="1:9">
-      <c r="A81" s="58">
+    <row r="81" spans="1:10" s="3" customFormat="1">
+      <c r="A81" s="57">
         <v>80</v>
       </c>
-      <c r="B81" s="58">
+      <c r="B81" s="57">
         <v>80</v>
       </c>
       <c r="C81" s="41"/>
@@ -9738,14 +9166,14 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="59">
+      <c r="H81" s="58">
         <v>96</v>
       </c>
       <c r="I81" s="41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:10">
       <c r="A82" s="32">
         <v>81</v>
       </c>
@@ -9767,14 +9195,14 @@
       <c r="G82" s="32">
         <v>500000000</v>
       </c>
-      <c r="H82" s="60">
+      <c r="H82" s="59">
         <v>97</v>
       </c>
       <c r="I82" s="44" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:10">
       <c r="A83" s="18">
         <v>82</v>
       </c>
@@ -9794,14 +9222,14 @@
       <c r="G83" s="20">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="61">
+      <c r="H83" s="60">
         <v>98</v>
       </c>
       <c r="I83" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="84" s="40" customFormat="1" spans="1:9">
+    <row r="84" spans="1:10" s="40" customFormat="1">
       <c r="A84" s="18">
         <v>83</v>
       </c>
@@ -9821,14 +9249,14 @@
       <c r="G84" s="20">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="61">
+      <c r="H84" s="60">
         <v>99</v>
       </c>
       <c r="I84" s="20" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="85" s="40" customFormat="1" spans="1:9">
+    <row r="85" spans="1:10" s="40" customFormat="1">
       <c r="A85" s="18">
         <v>84</v>
       </c>
@@ -9848,7 +9276,7 @@
       <c r="G85" s="20">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="61">
+      <c r="H85" s="60">
         <v>100</v>
       </c>
       <c r="I85" s="20" t="s">
@@ -9881,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:10">
       <c r="A87" s="13">
         <v>86</v>
       </c>
@@ -9904,7 +9332,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:10">
       <c r="A88" s="13">
         <v>87</v>
       </c>
@@ -9927,7 +9355,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:10">
       <c r="A89" s="13">
         <v>88</v>
       </c>
@@ -9950,7 +9378,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:10">
       <c r="A90" s="13">
         <v>89</v>
       </c>
@@ -9973,7 +9401,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" s="3" customFormat="1" spans="1:9">
+    <row r="91" spans="1:10" s="3" customFormat="1">
       <c r="A91" s="13">
         <v>90</v>
       </c>
@@ -9989,14 +9417,14 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="59">
+      <c r="H91" s="58">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="1" spans="1:9">
+    <row r="92" spans="1:10" s="3" customFormat="1">
       <c r="A92" s="13">
         <v>91</v>
       </c>
@@ -10012,14 +9440,14 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="59">
+      <c r="H92" s="58">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="1" spans="1:9">
+    <row r="93" spans="1:10" s="3" customFormat="1">
       <c r="A93" s="13">
         <v>92</v>
       </c>
@@ -10035,7 +9463,7 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="59">
+      <c r="H93" s="58">
         <v>109</v>
       </c>
       <c r="I93" s="41" t="s">
@@ -10065,7 +9493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:10">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -10085,7 +9513,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:10">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -10109,25 +9537,25 @@
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="62">
+      <c r="B97" s="61">
         <v>96</v>
       </c>
-      <c r="C97" s="63"/>
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="64" t="s">
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="62"/>
+      <c r="F97" s="63" t="s">
         <v>246</v>
       </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="65" t="s">
+      <c r="G97" s="62"/>
+      <c r="H97" s="64" t="s">
         <v>247</v>
       </c>
-      <c r="I97" s="64" t="s">
+      <c r="I97" s="63" t="s">
         <v>209</v>
       </c>
       <c r="J97" s="45"/>
     </row>
-    <row r="98" ht="71.25" spans="1:9">
+    <row r="98" spans="1:10" ht="71.25">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -10137,17 +9565,17 @@
       <c r="D98" s="4">
         <v>96</v>
       </c>
-      <c r="F98" s="66" t="s">
+      <c r="F98" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="H98" s="66" t="s">
+      <c r="H98" s="65" t="s">
         <v>249</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:10">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -10167,7 +9595,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:10">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -10187,7 +9615,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:10">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -10207,7 +9635,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" s="26" customFormat="1" spans="1:9">
+    <row r="102" spans="1:10" s="26" customFormat="1">
       <c r="A102" s="38">
         <v>101</v>
       </c>
@@ -10217,18 +9645,18 @@
       <c r="C102" s="32"/>
       <c r="D102" s="32"/>
       <c r="E102" s="32"/>
-      <c r="F102" s="67" t="s">
+      <c r="F102" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G102" s="67"/>
-      <c r="H102" s="60" t="s">
+      <c r="G102" s="66"/>
+      <c r="H102" s="59" t="s">
         <v>256</v>
       </c>
       <c r="I102" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="103" s="26" customFormat="1" spans="1:9">
+    <row r="103" spans="1:10" s="26" customFormat="1">
       <c r="A103" s="38">
         <v>102</v>
       </c>
@@ -10238,18 +9666,18 @@
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
       <c r="E103" s="32"/>
-      <c r="F103" s="67" t="s">
+      <c r="F103" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G103" s="67"/>
-      <c r="H103" s="60" t="s">
+      <c r="G103" s="66"/>
+      <c r="H103" s="59" t="s">
         <v>257</v>
       </c>
       <c r="I103" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="104" s="26" customFormat="1" spans="1:9">
+    <row r="104" spans="1:10" s="26" customFormat="1">
       <c r="A104" s="38">
         <v>103</v>
       </c>
@@ -10259,18 +9687,18 @@
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
       <c r="E104" s="32"/>
-      <c r="F104" s="67" t="s">
+      <c r="F104" s="66" t="s">
         <v>255</v>
       </c>
-      <c r="G104" s="67"/>
-      <c r="H104" s="60" t="s">
+      <c r="G104" s="66"/>
+      <c r="H104" s="59" t="s">
         <v>258</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="105" s="47" customFormat="1" spans="1:10">
+    <row r="105" spans="1:10" s="47" customFormat="1">
       <c r="A105" s="18">
         <v>104</v>
       </c>
@@ -10286,7 +9714,7 @@
         <v>1</v>
       </c>
       <c r="G105" s="20"/>
-      <c r="H105" s="61" t="s">
+      <c r="H105" s="60" t="s">
         <v>259</v>
       </c>
       <c r="I105" s="20" t="s">
@@ -10296,7 +9724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" s="47" customFormat="1" spans="1:10">
+    <row r="106" spans="1:10" s="47" customFormat="1">
       <c r="A106" s="18">
         <v>105</v>
       </c>
@@ -10312,7 +9740,7 @@
         <v>1</v>
       </c>
       <c r="G106" s="20"/>
-      <c r="H106" s="61" t="s">
+      <c r="H106" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I106" s="20" t="s">
@@ -10322,7 +9750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" s="47" customFormat="1" spans="1:10">
+    <row r="107" spans="1:10" s="47" customFormat="1">
       <c r="A107" s="18">
         <v>106</v>
       </c>
@@ -10338,7 +9766,7 @@
         <v>50000</v>
       </c>
       <c r="G107" s="20"/>
-      <c r="H107" s="61" t="s">
+      <c r="H107" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I107" s="20" t="s">
@@ -10348,7 +9776,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" s="47" customFormat="1" spans="1:10">
+    <row r="108" spans="1:10" s="47" customFormat="1">
       <c r="A108" s="18">
         <v>107</v>
       </c>
@@ -10364,7 +9792,7 @@
         <v>1</v>
       </c>
       <c r="G108" s="20"/>
-      <c r="H108" s="61" t="s">
+      <c r="H108" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I108" s="20" t="s">
@@ -10374,7 +9802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" s="47" customFormat="1" spans="1:10">
+    <row r="109" spans="1:10" s="47" customFormat="1">
       <c r="A109" s="18">
         <v>108</v>
       </c>
@@ -10390,7 +9818,7 @@
         <v>10</v>
       </c>
       <c r="G109" s="20"/>
-      <c r="H109" s="61" t="s">
+      <c r="H109" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I109" s="20" t="s">
@@ -10400,7 +9828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" s="47" customFormat="1" spans="1:10">
+    <row r="110" spans="1:10" s="47" customFormat="1">
       <c r="A110" s="18">
         <v>109</v>
       </c>
@@ -10416,7 +9844,7 @@
         <v>10</v>
       </c>
       <c r="G110" s="20"/>
-      <c r="H110" s="61" t="s">
+      <c r="H110" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I110" s="20" t="s">
@@ -10426,7 +9854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" s="47" customFormat="1" spans="1:10">
+    <row r="111" spans="1:10" s="47" customFormat="1">
       <c r="A111" s="18">
         <v>110</v>
       </c>
@@ -10442,7 +9870,7 @@
         <v>600</v>
       </c>
       <c r="G111" s="20"/>
-      <c r="H111" s="61" t="s">
+      <c r="H111" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I111" s="20" t="s">
@@ -10452,7 +9880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" s="47" customFormat="1" spans="1:10">
+    <row r="112" spans="1:10" s="47" customFormat="1">
       <c r="A112" s="18">
         <v>111</v>
       </c>
@@ -10468,7 +9896,7 @@
         <v>1</v>
       </c>
       <c r="G112" s="20"/>
-      <c r="H112" s="61" t="s">
+      <c r="H112" s="60" t="s">
         <v>260</v>
       </c>
       <c r="I112" s="20" t="s">
@@ -10478,7 +9906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" s="47" customFormat="1" spans="1:10">
+    <row r="113" spans="1:10" s="47" customFormat="1">
       <c r="A113" s="18">
         <v>112</v>
       </c>
@@ -10494,7 +9922,7 @@
         <v>3</v>
       </c>
       <c r="G113" s="20"/>
-      <c r="H113" s="61" t="s">
+      <c r="H113" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I113" s="20" t="s">
@@ -10504,7 +9932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" s="47" customFormat="1" spans="1:10">
+    <row r="114" spans="1:10" s="47" customFormat="1">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -10520,7 +9948,7 @@
         <v>1000000</v>
       </c>
       <c r="G114" s="20"/>
-      <c r="H114" s="61" t="s">
+      <c r="H114" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I114" s="20" t="s">
@@ -10530,7 +9958,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" s="47" customFormat="1" spans="1:10">
+    <row r="115" spans="1:10" s="47" customFormat="1">
       <c r="A115" s="18">
         <v>114</v>
       </c>
@@ -10546,7 +9974,7 @@
         <v>50</v>
       </c>
       <c r="G115" s="20"/>
-      <c r="H115" s="61" t="s">
+      <c r="H115" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I115" s="20" t="s">
@@ -10556,7 +9984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" s="47" customFormat="1" spans="1:10">
+    <row r="116" spans="1:10" s="47" customFormat="1">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -10572,7 +10000,7 @@
         <v>100</v>
       </c>
       <c r="G116" s="20"/>
-      <c r="H116" s="61" t="s">
+      <c r="H116" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I116" s="20" t="s">
@@ -10582,7 +10010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" s="47" customFormat="1" spans="1:10">
+    <row r="117" spans="1:10" s="47" customFormat="1">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -10598,7 +10026,7 @@
         <v>20</v>
       </c>
       <c r="G117" s="20"/>
-      <c r="H117" s="61" t="s">
+      <c r="H117" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I117" s="20" t="s">
@@ -10608,7 +10036,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" s="47" customFormat="1" spans="1:10">
+    <row r="118" spans="1:10" s="47" customFormat="1">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -10624,7 +10052,7 @@
         <v>5400</v>
       </c>
       <c r="G118" s="20"/>
-      <c r="H118" s="61" t="s">
+      <c r="H118" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I118" s="20" t="s">
@@ -10634,7 +10062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" s="47" customFormat="1" spans="1:10">
+    <row r="119" spans="1:10" s="47" customFormat="1">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -10650,7 +10078,7 @@
         <v>4800</v>
       </c>
       <c r="G119" s="20"/>
-      <c r="H119" s="61" t="s">
+      <c r="H119" s="60" t="s">
         <v>261</v>
       </c>
       <c r="I119" s="20" t="s">
@@ -10661,20 +10089,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
@@ -10688,7 +10115,7 @@
     <col min="8" max="9" width="32.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row r="1" spans="1:9" ht="27">
       <c r="A1" s="5" t="s">
         <v>262</v>
       </c>
@@ -10709,7 +10136,7 @@
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
     </row>
-    <row r="2" s="40" customFormat="1" spans="1:9">
+    <row r="2" spans="1:9" s="40" customFormat="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -10726,7 +10153,7 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" s="40" customFormat="1" spans="1:9">
+    <row r="3" spans="1:9" s="40" customFormat="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -10743,7 +10170,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" s="40" customFormat="1" spans="1:9">
+    <row r="4" spans="1:9" s="40" customFormat="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -10760,7 +10187,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" s="40" customFormat="1" spans="1:9">
+    <row r="5" spans="1:9" s="40" customFormat="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -10777,7 +10204,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" s="40" customFormat="1" spans="1:9">
+    <row r="6" spans="1:9" s="40" customFormat="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -10794,7 +10221,7 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" s="40" customFormat="1" spans="1:9">
+    <row r="7" spans="1:9" s="40" customFormat="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -10811,7 +10238,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" s="40" customFormat="1" spans="1:9">
+    <row r="8" spans="1:9" s="40" customFormat="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -10828,7 +10255,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" s="40" customFormat="1" spans="1:9">
+    <row r="9" spans="1:9" s="40" customFormat="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -10845,7 +10272,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
     </row>
-    <row r="10" s="40" customFormat="1" spans="1:9">
+    <row r="10" spans="1:9" s="40" customFormat="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -10862,7 +10289,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" s="40" customFormat="1" spans="1:9">
+    <row r="11" spans="1:9" s="40" customFormat="1">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -10879,7 +10306,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" s="40" customFormat="1" spans="1:9">
+    <row r="12" spans="1:9" s="40" customFormat="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -10896,7 +10323,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" s="40" customFormat="1" spans="1:9">
+    <row r="13" spans="1:9" s="40" customFormat="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -10913,7 +10340,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" s="40" customFormat="1" spans="1:9">
+    <row r="14" spans="1:9" s="40" customFormat="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -10930,7 +10357,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" s="40" customFormat="1" spans="1:9">
+    <row r="15" spans="1:9" s="40" customFormat="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -10947,7 +10374,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" s="40" customFormat="1" spans="1:9">
+    <row r="16" spans="1:9" s="40" customFormat="1">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -10964,7 +10391,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" s="40" customFormat="1" spans="1:9">
+    <row r="17" spans="1:9" s="40" customFormat="1">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -10981,7 +10408,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" s="40" customFormat="1" spans="1:9">
+    <row r="18" spans="1:9" s="40" customFormat="1">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -10998,7 +10425,7 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" s="40" customFormat="1" spans="1:9">
+    <row r="19" spans="1:9" s="40" customFormat="1">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -11015,7 +10442,7 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" s="40" customFormat="1" spans="1:9">
+    <row r="20" spans="1:9" s="40" customFormat="1">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -11032,7 +10459,7 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
     </row>
-    <row r="21" s="40" customFormat="1" spans="1:9">
+    <row r="21" spans="1:9" s="40" customFormat="1">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -11049,7 +10476,7 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" s="40" customFormat="1" spans="1:9">
+    <row r="22" spans="1:9" s="40" customFormat="1">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -11066,7 +10493,7 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
     </row>
-    <row r="23" s="40" customFormat="1" spans="1:9">
+    <row r="23" spans="1:9" s="40" customFormat="1">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -11083,7 +10510,7 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
     </row>
-    <row r="24" s="40" customFormat="1" spans="1:9">
+    <row r="24" spans="1:9" s="40" customFormat="1">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -11100,7 +10527,7 @@
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
     </row>
-    <row r="25" s="40" customFormat="1" spans="1:9">
+    <row r="25" spans="1:9" s="40" customFormat="1">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -11117,7 +10544,7 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
     </row>
-    <row r="26" s="40" customFormat="1" spans="1:9">
+    <row r="26" spans="1:9" s="40" customFormat="1">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -11134,7 +10561,7 @@
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" s="40" customFormat="1" spans="1:9">
+    <row r="27" spans="1:9" s="40" customFormat="1">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -11151,7 +10578,7 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
     </row>
-    <row r="28" s="40" customFormat="1" spans="1:9">
+    <row r="28" spans="1:9" s="40" customFormat="1">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -11168,7 +10595,7 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
     </row>
-    <row r="29" s="40" customFormat="1" spans="1:9">
+    <row r="29" spans="1:9" s="40" customFormat="1">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -11185,7 +10612,7 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
     </row>
-    <row r="30" s="40" customFormat="1" spans="1:9">
+    <row r="30" spans="1:9" s="40" customFormat="1">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -11202,7 +10629,7 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
     </row>
-    <row r="31" s="40" customFormat="1" spans="1:9">
+    <row r="31" spans="1:9" s="40" customFormat="1">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -11219,7 +10646,7 @@
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" s="40" customFormat="1" spans="1:9">
+    <row r="32" spans="1:9" s="40" customFormat="1">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -11236,7 +10663,7 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
     </row>
-    <row r="33" s="40" customFormat="1" spans="1:9">
+    <row r="33" spans="1:9" s="40" customFormat="1">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -11253,7 +10680,7 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
     </row>
-    <row r="34" s="40" customFormat="1" spans="1:9">
+    <row r="34" spans="1:9" s="40" customFormat="1">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -11270,7 +10697,7 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
     </row>
-    <row r="35" s="40" customFormat="1" spans="1:9">
+    <row r="35" spans="1:9" s="40" customFormat="1">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -11287,7 +10714,7 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
     </row>
-    <row r="36" s="40" customFormat="1" spans="1:9">
+    <row r="36" spans="1:9" s="40" customFormat="1">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -11304,7 +10731,7 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
     </row>
-    <row r="37" s="40" customFormat="1" spans="1:9">
+    <row r="37" spans="1:9" s="40" customFormat="1">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -11321,7 +10748,7 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
     </row>
-    <row r="38" s="40" customFormat="1" spans="1:9">
+    <row r="38" spans="1:9" s="40" customFormat="1">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -11338,7 +10765,7 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
     </row>
-    <row r="39" s="40" customFormat="1" spans="1:9">
+    <row r="39" spans="1:9" s="40" customFormat="1">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -11355,7 +10782,7 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
     </row>
-    <row r="40" s="40" customFormat="1" spans="1:9">
+    <row r="40" spans="1:9" s="40" customFormat="1">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -11372,7 +10799,7 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
     </row>
-    <row r="41" s="40" customFormat="1" spans="1:9">
+    <row r="41" spans="1:9" s="40" customFormat="1">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -11389,7 +10816,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
     </row>
-    <row r="42" s="40" customFormat="1" spans="1:9">
+    <row r="42" spans="1:9" s="40" customFormat="1">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -11406,7 +10833,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
     </row>
-    <row r="43" s="40" customFormat="1" spans="1:9">
+    <row r="43" spans="1:9" s="40" customFormat="1">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -11423,7 +10850,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
     </row>
-    <row r="44" s="40" customFormat="1" spans="1:9">
+    <row r="44" spans="1:9" s="40" customFormat="1">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -11440,7 +10867,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
     </row>
-    <row r="45" s="40" customFormat="1" spans="1:9">
+    <row r="45" spans="1:9" s="40" customFormat="1">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -11457,7 +10884,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
     </row>
-    <row r="46" s="40" customFormat="1" spans="1:9">
+    <row r="46" spans="1:9" s="40" customFormat="1">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -11474,7 +10901,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
     </row>
-    <row r="47" s="40" customFormat="1" spans="1:9">
+    <row r="47" spans="1:9" s="40" customFormat="1">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -11491,7 +10918,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
     </row>
-    <row r="48" s="40" customFormat="1" spans="1:9">
+    <row r="48" spans="1:9" s="40" customFormat="1">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -11508,7 +10935,7 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
     </row>
-    <row r="49" s="40" customFormat="1" spans="1:9">
+    <row r="49" spans="1:9" s="40" customFormat="1">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -11525,7 +10952,7 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
     </row>
-    <row r="50" s="40" customFormat="1" spans="1:9">
+    <row r="50" spans="1:9" s="40" customFormat="1">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -11542,7 +10969,7 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
     </row>
-    <row r="51" s="40" customFormat="1" spans="1:9">
+    <row r="51" spans="1:9" s="40" customFormat="1">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -11559,7 +10986,7 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
     </row>
-    <row r="52" s="40" customFormat="1" spans="1:9">
+    <row r="52" spans="1:9" s="40" customFormat="1">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -11576,7 +11003,7 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
     </row>
-    <row r="53" s="40" customFormat="1" spans="1:9">
+    <row r="53" spans="1:9" s="40" customFormat="1">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -11593,7 +11020,7 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
     </row>
-    <row r="54" s="40" customFormat="1" spans="1:9">
+    <row r="54" spans="1:9" s="40" customFormat="1">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -11610,7 +11037,7 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
     </row>
-    <row r="55" s="40" customFormat="1" spans="1:9">
+    <row r="55" spans="1:9" s="40" customFormat="1">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -11627,7 +11054,7 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
     </row>
-    <row r="56" s="40" customFormat="1" spans="1:9">
+    <row r="56" spans="1:9" s="40" customFormat="1">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -11644,7 +11071,7 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
     </row>
-    <row r="57" s="40" customFormat="1" spans="1:9">
+    <row r="57" spans="1:9" s="40" customFormat="1">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -11661,7 +11088,7 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
     </row>
-    <row r="58" s="40" customFormat="1" spans="1:9">
+    <row r="58" spans="1:9" s="40" customFormat="1">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -11678,7 +11105,7 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
     </row>
-    <row r="59" s="40" customFormat="1" spans="1:9">
+    <row r="59" spans="1:9" s="40" customFormat="1">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -11695,7 +11122,7 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
     </row>
-    <row r="60" s="40" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="40" customFormat="1">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -11712,7 +11139,7 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
     </row>
-    <row r="61" s="40" customFormat="1" spans="1:9">
+    <row r="61" spans="1:9" s="40" customFormat="1">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -11729,7 +11156,7 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
     </row>
-    <row r="62" s="40" customFormat="1" spans="1:9">
+    <row r="62" spans="1:9" s="40" customFormat="1">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -11746,7 +11173,7 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
     </row>
-    <row r="63" s="40" customFormat="1" spans="1:9">
+    <row r="63" spans="1:9" s="40" customFormat="1">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -11763,7 +11190,7 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
     </row>
-    <row r="64" s="40" customFormat="1" spans="1:9">
+    <row r="64" spans="1:9" s="40" customFormat="1">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -11780,7 +11207,7 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
     </row>
-    <row r="65" s="40" customFormat="1" spans="1:9">
+    <row r="65" spans="1:9" s="40" customFormat="1">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -11797,7 +11224,7 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
     </row>
-    <row r="66" s="40" customFormat="1" spans="1:9">
+    <row r="66" spans="1:9" s="40" customFormat="1">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -11814,7 +11241,7 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
     </row>
-    <row r="67" s="40" customFormat="1" spans="1:9">
+    <row r="67" spans="1:9" s="40" customFormat="1">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -11831,7 +11258,7 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
     </row>
-    <row r="68" s="40" customFormat="1" spans="1:9">
+    <row r="68" spans="1:9" s="40" customFormat="1">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -11848,7 +11275,7 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
     </row>
-    <row r="69" s="40" customFormat="1" spans="1:9">
+    <row r="69" spans="1:9" s="40" customFormat="1">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -11865,7 +11292,7 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
     </row>
-    <row r="70" s="40" customFormat="1" spans="1:9">
+    <row r="70" spans="1:9" s="40" customFormat="1">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -11882,7 +11309,7 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
     </row>
-    <row r="71" s="40" customFormat="1" spans="1:9">
+    <row r="71" spans="1:9" s="40" customFormat="1">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -11899,7 +11326,7 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
     </row>
-    <row r="72" s="40" customFormat="1" spans="1:9">
+    <row r="72" spans="1:9" s="40" customFormat="1">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -11916,7 +11343,7 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
     </row>
-    <row r="73" s="40" customFormat="1" spans="1:9">
+    <row r="73" spans="1:9" s="40" customFormat="1">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -11933,7 +11360,7 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
     </row>
-    <row r="74" s="40" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="40" customFormat="1">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -11950,7 +11377,7 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
     </row>
-    <row r="75" s="40" customFormat="1" spans="1:9">
+    <row r="75" spans="1:9" s="40" customFormat="1">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -11967,7 +11394,7 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
     </row>
-    <row r="76" s="40" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="40" customFormat="1">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -11984,7 +11411,7 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
     </row>
-    <row r="77" s="40" customFormat="1" spans="1:9">
+    <row r="77" spans="1:9" s="40" customFormat="1">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -12001,7 +11428,7 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
     </row>
-    <row r="78" s="40" customFormat="1" spans="1:9">
+    <row r="78" spans="1:9" s="40" customFormat="1">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -12018,7 +11445,7 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
     </row>
-    <row r="79" s="40" customFormat="1" spans="1:9">
+    <row r="79" spans="1:9" s="40" customFormat="1">
       <c r="A79" s="8">
         <v>78</v>
       </c>
@@ -12035,7 +11462,7 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
     </row>
-    <row r="80" s="40" customFormat="1" spans="1:9">
+    <row r="80" spans="1:9" s="40" customFormat="1">
       <c r="A80" s="8">
         <v>79</v>
       </c>
@@ -12052,7 +11479,7 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
     </row>
-    <row r="81" s="40" customFormat="1" spans="1:9">
+    <row r="81" spans="1:9" s="40" customFormat="1">
       <c r="A81" s="30">
         <v>80</v>
       </c>
@@ -12069,7 +11496,7 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
     </row>
-    <row r="82" s="40" customFormat="1" spans="1:9">
+    <row r="82" spans="1:9" s="40" customFormat="1">
       <c r="A82" s="30">
         <v>81</v>
       </c>
@@ -12086,7 +11513,7 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
     </row>
-    <row r="83" s="40" customFormat="1" spans="1:9">
+    <row r="83" spans="1:9" s="40" customFormat="1">
       <c r="A83" s="30">
         <v>82</v>
       </c>
@@ -12103,7 +11530,7 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
     </row>
-    <row r="84" s="40" customFormat="1" spans="1:9">
+    <row r="84" spans="1:9" s="40" customFormat="1">
       <c r="A84" s="30">
         <v>83</v>
       </c>
@@ -12120,7 +11547,7 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
     </row>
-    <row r="85" s="40" customFormat="1" spans="1:9">
+    <row r="85" spans="1:9" s="40" customFormat="1">
       <c r="A85" s="30">
         <v>84</v>
       </c>
@@ -12137,7 +11564,7 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
     </row>
-    <row r="86" s="40" customFormat="1" spans="1:9">
+    <row r="86" spans="1:9" s="40" customFormat="1">
       <c r="A86" s="30">
         <v>85</v>
       </c>
@@ -12154,7 +11581,7 @@
       <c r="H86" s="43"/>
       <c r="I86" s="14"/>
     </row>
-    <row r="87" s="40" customFormat="1" spans="1:9">
+    <row r="87" spans="1:9" s="40" customFormat="1">
       <c r="A87" s="30">
         <v>86</v>
       </c>
@@ -12171,7 +11598,7 @@
       <c r="H87" s="43"/>
       <c r="I87" s="14"/>
     </row>
-    <row r="88" s="40" customFormat="1" spans="1:9">
+    <row r="88" spans="1:9" s="40" customFormat="1">
       <c r="A88" s="30">
         <v>87</v>
       </c>
@@ -12188,7 +11615,7 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
     </row>
-    <row r="89" s="40" customFormat="1" spans="1:9">
+    <row r="89" spans="1:9" s="40" customFormat="1">
       <c r="A89" s="30">
         <v>88</v>
       </c>
@@ -12205,7 +11632,7 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
     </row>
-    <row r="90" s="40" customFormat="1" spans="1:9">
+    <row r="90" spans="1:9" s="40" customFormat="1">
       <c r="A90" s="30">
         <v>89</v>
       </c>
@@ -12222,7 +11649,7 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:9">
       <c r="A91" s="8">
         <v>90</v>
       </c>
@@ -12236,7 +11663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:9">
       <c r="A92" s="8">
         <v>91</v>
       </c>
@@ -12250,7 +11677,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:9">
       <c r="A93" s="8">
         <v>92</v>
       </c>
@@ -12264,7 +11691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:9">
       <c r="A94" s="8">
         <v>93</v>
       </c>
@@ -12278,7 +11705,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:9">
       <c r="A95" s="8">
         <v>94</v>
       </c>
@@ -12292,7 +11719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" s="40" customFormat="1" spans="1:9">
+    <row r="96" spans="1:9" s="40" customFormat="1">
       <c r="A96" s="8">
         <v>95</v>
       </c>
@@ -12309,7 +11736,7 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
     </row>
-    <row r="97" s="40" customFormat="1" spans="1:9">
+    <row r="97" spans="1:9" s="40" customFormat="1">
       <c r="A97" s="8">
         <v>96</v>
       </c>
@@ -12326,7 +11753,7 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
     </row>
-    <row r="98" s="40" customFormat="1" spans="1:9">
+    <row r="98" spans="1:9" s="40" customFormat="1">
       <c r="A98" s="8">
         <v>97</v>
       </c>
@@ -12343,7 +11770,7 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:9">
       <c r="A99" s="8">
         <v>98</v>
       </c>
@@ -12357,7 +11784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:9">
       <c r="A100" s="8">
         <v>99</v>
       </c>
@@ -12371,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:9">
       <c r="A101" s="8">
         <v>100</v>
       </c>
@@ -12385,7 +11812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:9">
       <c r="A102" s="8">
         <v>101</v>
       </c>
@@ -12399,7 +11826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:9">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -12413,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:9">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -12427,7 +11854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:9">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -12444,7 +11871,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:9">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -12458,7 +11885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:9">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -12472,7 +11899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:9">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -12486,7 +11913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:9">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -12500,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:9">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -12514,7 +11941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:9">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -12531,7 +11958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:9">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -12545,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:6">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -12559,7 +11986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:6">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -12573,7 +12000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -12590,7 +12017,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:6">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -12604,7 +12031,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:6">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -12618,7 +12045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:6">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -12632,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:6">
       <c r="A119" s="20">
         <v>118</v>
       </c>
@@ -12659,7 +12086,7 @@
       <c r="D120" s="18">
         <v>0</v>
       </c>
-      <c r="F120" s="45" t="s">
+      <c r="F120" s="79" t="s">
         <v>282</v>
       </c>
     </row>
@@ -12676,7 +12103,7 @@
       <c r="D121" s="18">
         <v>0</v>
       </c>
-      <c r="F121" s="45"/>
+      <c r="F121" s="79"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="20">
@@ -12691,7 +12118,7 @@
       <c r="D122" s="18">
         <v>0</v>
       </c>
-      <c r="F122" s="45"/>
+      <c r="F122" s="79"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="20">
@@ -12706,7 +12133,7 @@
       <c r="D123" s="18">
         <v>0</v>
       </c>
-      <c r="F123" s="45"/>
+      <c r="F123" s="79"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20">
@@ -12721,7 +12148,7 @@
       <c r="D124" s="18">
         <v>0</v>
       </c>
-      <c r="F124" s="45"/>
+      <c r="F124" s="79"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="20">
@@ -12736,7 +12163,7 @@
       <c r="D125" s="18">
         <v>0</v>
       </c>
-      <c r="F125" s="45"/>
+      <c r="F125" s="79"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="20">
@@ -12751,7 +12178,7 @@
       <c r="D126" s="18">
         <v>0</v>
       </c>
-      <c r="F126" s="45"/>
+      <c r="F126" s="79"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="20">
@@ -12766,7 +12193,7 @@
       <c r="D127" s="18">
         <v>0</v>
       </c>
-      <c r="F127" s="45"/>
+      <c r="F127" s="79"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="20">
@@ -12781,7 +12208,7 @@
       <c r="D128" s="18">
         <v>0</v>
       </c>
-      <c r="F128" s="45"/>
+      <c r="F128" s="79"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="20">
@@ -12796,7 +12223,7 @@
       <c r="D129" s="18">
         <v>0</v>
       </c>
-      <c r="F129" s="45"/>
+      <c r="F129" s="79"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20">
@@ -12811,7 +12238,7 @@
       <c r="D130" s="18">
         <v>0</v>
       </c>
-      <c r="F130" s="45"/>
+      <c r="F130" s="79"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="20">
@@ -12826,7 +12253,7 @@
       <c r="D131" s="18">
         <v>0</v>
       </c>
-      <c r="F131" s="45"/>
+      <c r="F131" s="79"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="20">
@@ -12841,7 +12268,7 @@
       <c r="D132" s="18">
         <v>0</v>
       </c>
-      <c r="F132" s="45"/>
+      <c r="F132" s="79"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="20">
@@ -12856,7 +12283,7 @@
       <c r="D133" s="18">
         <v>0</v>
       </c>
-      <c r="F133" s="45"/>
+      <c r="F133" s="79"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="20">
@@ -12871,7 +12298,7 @@
       <c r="D134" s="18">
         <v>0</v>
       </c>
-      <c r="F134" s="45"/>
+      <c r="F134" s="79"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="20">
@@ -12886,9 +12313,9 @@
       <c r="D135" s="18">
         <v>0</v>
       </c>
-      <c r="F135" s="45"/>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="F135" s="79"/>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="20">
         <v>135</v>
       </c>
@@ -12902,7 +12329,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:6">
       <c r="A137" s="20">
         <v>136</v>
       </c>
@@ -12916,7 +12343,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:6">
       <c r="A138" s="20">
         <v>137</v>
       </c>
@@ -12930,7 +12357,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:6">
       <c r="A139" s="20">
         <v>138</v>
       </c>
@@ -12944,7 +12371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:6">
       <c r="A140" s="20">
         <v>139</v>
       </c>
@@ -12958,7 +12385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:6">
       <c r="A141" s="20">
         <v>140</v>
       </c>
@@ -12972,7 +12399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:6">
       <c r="A142" s="20">
         <v>141</v>
       </c>
@@ -12986,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:6">
       <c r="A143" s="20">
         <v>142</v>
       </c>
@@ -13000,7 +12427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:6">
       <c r="A144" s="20">
         <v>143</v>
       </c>
@@ -13074,20 +12501,1346 @@
   <mergeCells count="1">
     <mergeCell ref="F120:F135"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="39" style="4" customWidth="1"/>
+    <col min="4" max="4" width="71.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="66.95" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>9</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>10</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>11</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>12</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="12">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="12">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="12">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" s="4">
+        <v>3</v>
+      </c>
+      <c r="E27" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
+        <v>14</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
+        <v>15</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E29" s="4">
+        <v>2</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
+        <v>16</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
+        <v>16</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
+        <v>16</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D33" s="4">
+        <v>96</v>
+      </c>
+      <c r="E33" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
+        <v>17</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E34" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>17</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>18</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>18</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>19</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>19</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D41" s="4">
+        <v>3</v>
+      </c>
+      <c r="E41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="12">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>20</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="12">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>20</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E43" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="12">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>20</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D44" s="4">
+        <v>96</v>
+      </c>
+      <c r="E44" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="12">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>21</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="12">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>21</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="12">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>21</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="12">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>22</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="12">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>22</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="12">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>23</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
+        <v>23</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="12">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
+        <v>23</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="12">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
+        <v>24</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="E53" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="12">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>24</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="12">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
+        <v>24</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" s="4">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="12">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
+        <v>25</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="12">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
+        <v>26</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="D57" s="4">
+        <v>2</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="12">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
+        <v>27</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D58" s="4">
+        <v>74</v>
+      </c>
+      <c r="E58" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="12">
+        <v>58</v>
+      </c>
+      <c r="B59" s="13">
+        <v>28</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D59" s="14">
+        <v>1</v>
+      </c>
+      <c r="E59" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="12">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
+        <v>29</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="12">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13">
+        <v>30</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D61" s="4">
+        <v>3</v>
+      </c>
+      <c r="E61" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="11" customFormat="1">
+      <c r="A62" s="15">
+        <v>61</v>
+      </c>
+      <c r="B62" s="16">
+        <v>31</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="E62" s="16">
+        <v>2</v>
+      </c>
+      <c r="F62" s="16"/>
+    </row>
+    <row r="63" spans="1:6" s="11" customFormat="1">
+      <c r="A63" s="15">
+        <v>62</v>
+      </c>
+      <c r="B63" s="16">
+        <v>32</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E63" s="16">
+        <v>2</v>
+      </c>
+      <c r="F63" s="16"/>
+    </row>
+    <row r="64" spans="1:6" s="11" customFormat="1">
+      <c r="A64" s="15">
+        <v>63</v>
+      </c>
+      <c r="B64" s="16">
+        <v>32</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="E64" s="16">
+        <v>2</v>
+      </c>
+      <c r="F64" s="16"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="18">
+        <v>64</v>
+      </c>
+      <c r="B65" s="18">
+        <v>33</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" s="18">
+        <v>2</v>
+      </c>
+      <c r="E65" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="18">
+        <v>65</v>
+      </c>
+      <c r="B66" s="20">
+        <v>34</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D66" s="18">
+        <v>3</v>
+      </c>
+      <c r="E66" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="18">
+        <v>66</v>
+      </c>
+      <c r="B67" s="18">
+        <v>35</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>392</v>
+      </c>
+      <c r="D67" s="18">
+        <v>4</v>
+      </c>
+      <c r="E67" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="28.5">
+      <c r="A68" s="12">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
+        <v>36</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E68" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="12">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
+        <v>37</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D69" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="12">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
+        <v>38</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D70" s="4">
+        <v>3</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="12">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
+        <v>39</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E71" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="12">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
+        <v>40</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E72" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="12">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
+        <v>40</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E73" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="12">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4">
+        <v>41</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="12">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4">
+        <v>41</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4">
+        <v>42</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
@@ -13105,7 +13858,7 @@
     <col min="12" max="12" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="38.45" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" s="5" customFormat="1" ht="38.450000000000003" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>305</v>
       </c>
@@ -13134,7 +13887,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -13154,7 +13907,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -13215,7 +13968,7 @@
       </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -13235,7 +13988,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -13255,7 +14008,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -13272,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -13289,7 +14042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -13306,7 +14059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -13323,7 +14076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -13340,7 +14093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:9">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -13357,7 +14110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:9">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -13374,7 +14127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -13391,7 +14144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -13408,7 +14161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -13425,7 +14178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -13442,7 +14195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:7">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -13459,7 +14212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -13476,7 +14229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="12">
         <v>20</v>
       </c>
@@ -13493,7 +14246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7">
       <c r="A22" s="12">
         <v>21</v>
       </c>
@@ -13510,7 +14263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7">
       <c r="A23" s="12">
         <v>22</v>
       </c>
@@ -13527,7 +14280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="A24" s="12">
         <v>23</v>
       </c>
@@ -13544,7 +14297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:7">
       <c r="A25" s="12">
         <v>24</v>
       </c>
@@ -13561,7 +14314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:7">
       <c r="A26" s="12">
         <v>25</v>
       </c>
@@ -13578,7 +14331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:7">
       <c r="A27" s="12">
         <v>26</v>
       </c>
@@ -13595,7 +14348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:7">
       <c r="A28" s="12">
         <v>27</v>
       </c>
@@ -13632,7 +14385,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:7">
       <c r="A30" s="12">
         <v>29</v>
       </c>
@@ -13649,7 +14402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:7">
       <c r="A31" s="12">
         <v>30</v>
       </c>
@@ -14106,7 +14859,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:7">
       <c r="A54" s="12">
         <v>53</v>
       </c>
@@ -14123,7 +14876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:7">
       <c r="A55" s="12">
         <v>54</v>
       </c>
@@ -14180,7 +14933,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:7">
       <c r="A58" s="12">
         <v>57</v>
       </c>
@@ -14197,7 +14950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:7">
       <c r="A59" s="12">
         <v>58</v>
       </c>
@@ -14214,7 +14967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:7">
       <c r="A60" s="12">
         <v>59</v>
       </c>
@@ -14231,7 +14984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:7">
       <c r="A61" s="12">
         <v>60</v>
       </c>
@@ -14248,7 +15001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:7">
       <c r="A62" s="12">
         <v>61</v>
       </c>
@@ -14265,7 +15018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:7">
       <c r="A63" s="12">
         <v>62</v>
       </c>
@@ -14282,7 +15035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:7">
       <c r="A64" s="12">
         <v>63</v>
       </c>
@@ -14299,7 +15052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:7">
       <c r="A65" s="12">
         <v>64</v>
       </c>
@@ -14316,7 +15069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:7">
       <c r="A66" s="12">
         <v>65</v>
       </c>
@@ -14333,7 +15086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:7">
       <c r="A67" s="12">
         <v>66</v>
       </c>
@@ -14370,7 +15123,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:7">
       <c r="A69" s="12">
         <v>68</v>
       </c>
@@ -14387,7 +15140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:7">
       <c r="A70" s="12">
         <v>69</v>
       </c>
@@ -14404,7 +15157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:7">
       <c r="A71" s="12">
         <v>70</v>
       </c>
@@ -14421,7 +15174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:7">
       <c r="A72" s="12">
         <v>71</v>
       </c>
@@ -14438,7 +15191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:7">
       <c r="A73" s="12">
         <v>72</v>
       </c>
@@ -14455,7 +15208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:7">
       <c r="A74" s="12">
         <v>73</v>
       </c>
@@ -14472,7 +15225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:7">
       <c r="A75" s="12">
         <v>74</v>
       </c>
@@ -14489,7 +15242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:7">
       <c r="A76" s="12">
         <v>75</v>
       </c>
@@ -14506,7 +15259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:7">
       <c r="A77" s="12">
         <v>76</v>
       </c>
@@ -14523,7 +15276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:7">
       <c r="A78" s="12">
         <v>77</v>
       </c>
@@ -14540,7 +15293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:7">
       <c r="A79" s="12">
         <v>78</v>
       </c>
@@ -14557,7 +15310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:7">
       <c r="A80" s="12">
         <v>79</v>
       </c>
@@ -14574,7 +15327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:7">
       <c r="A81" s="12">
         <v>80</v>
       </c>
@@ -14591,7 +15344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:7">
       <c r="A82" s="12">
         <v>81</v>
       </c>
@@ -14608,7 +15361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:7">
       <c r="A83" s="12">
         <v>82</v>
       </c>
@@ -14625,7 +15378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:7">
       <c r="A84" s="12">
         <v>83</v>
       </c>
@@ -14642,7 +15395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:7">
       <c r="A85" s="12">
         <v>84</v>
       </c>
@@ -14659,7 +15412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:7">
       <c r="A86" s="12">
         <v>85</v>
       </c>
@@ -14676,7 +15429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:7">
       <c r="A87" s="12">
         <v>86</v>
       </c>
@@ -14693,7 +15446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:7">
       <c r="A88" s="12">
         <v>87</v>
       </c>
@@ -14710,7 +15463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:7">
       <c r="A89" s="12">
         <v>88</v>
       </c>
@@ -14727,7 +15480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" s="24" customFormat="1" spans="1:7">
+    <row r="90" spans="1:7" s="24" customFormat="1">
       <c r="A90" s="29">
         <v>89</v>
       </c>
@@ -14746,7 +15499,7 @@
       <c r="F90" s="30"/>
       <c r="G90" s="30"/>
     </row>
-    <row r="91" s="24" customFormat="1" spans="1:7">
+    <row r="91" spans="1:7" s="24" customFormat="1">
       <c r="A91" s="29">
         <v>90</v>
       </c>
@@ -14765,7 +15518,7 @@
       <c r="F91" s="30"/>
       <c r="G91" s="30"/>
     </row>
-    <row r="92" s="24" customFormat="1" spans="1:7">
+    <row r="92" spans="1:7" s="24" customFormat="1">
       <c r="A92" s="29">
         <v>91</v>
       </c>
@@ -14784,7 +15537,7 @@
       <c r="F92" s="30"/>
       <c r="G92" s="30"/>
     </row>
-    <row r="93" s="24" customFormat="1" spans="1:7">
+    <row r="93" spans="1:7" s="24" customFormat="1">
       <c r="A93" s="29">
         <v>92</v>
       </c>
@@ -14803,7 +15556,7 @@
       <c r="F93" s="30"/>
       <c r="G93" s="30"/>
     </row>
-    <row r="94" s="24" customFormat="1" spans="1:7">
+    <row r="94" spans="1:7" s="24" customFormat="1">
       <c r="A94" s="29">
         <v>93</v>
       </c>
@@ -14822,7 +15575,7 @@
       <c r="F94" s="30"/>
       <c r="G94" s="30"/>
     </row>
-    <row r="95" s="24" customFormat="1" spans="1:7">
+    <row r="95" spans="1:7" s="24" customFormat="1">
       <c r="A95" s="29">
         <v>94</v>
       </c>
@@ -14841,7 +15594,7 @@
       <c r="F95" s="30"/>
       <c r="G95" s="30"/>
     </row>
-    <row r="96" s="24" customFormat="1" spans="1:7">
+    <row r="96" spans="1:7" s="24" customFormat="1">
       <c r="A96" s="29">
         <v>95</v>
       </c>
@@ -14860,7 +15613,7 @@
       <c r="F96" s="30"/>
       <c r="G96" s="30"/>
     </row>
-    <row r="97" s="24" customFormat="1" spans="1:7">
+    <row r="97" spans="1:7" s="24" customFormat="1">
       <c r="A97" s="29">
         <v>96</v>
       </c>
@@ -14879,7 +15632,7 @@
       <c r="F97" s="30"/>
       <c r="G97" s="30"/>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:7">
       <c r="A98" s="29">
         <v>97</v>
       </c>
@@ -14896,7 +15649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:7">
       <c r="A99" s="29">
         <v>98</v>
       </c>
@@ -14913,7 +15666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:7">
       <c r="A100" s="29">
         <v>99</v>
       </c>
@@ -14930,7 +15683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:7">
       <c r="A101" s="29">
         <v>100</v>
       </c>
@@ -14947,7 +15700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:7">
       <c r="A102" s="29">
         <v>101</v>
       </c>
@@ -14964,7 +15717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:7">
       <c r="A103" s="29">
         <v>102</v>
       </c>
@@ -14981,7 +15734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:7">
       <c r="A104" s="29">
         <v>103</v>
       </c>
@@ -14998,7 +15751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:7">
       <c r="A105" s="29">
         <v>104</v>
       </c>
@@ -15015,7 +15768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:7">
       <c r="A106" s="29">
         <v>105</v>
       </c>
@@ -15032,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:7">
       <c r="A107" s="29">
         <v>106</v>
       </c>
@@ -15049,7 +15802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" s="24" customFormat="1" spans="1:7">
+    <row r="108" spans="1:7" s="24" customFormat="1">
       <c r="A108" s="29">
         <v>107</v>
       </c>
@@ -15068,7 +15821,7 @@
       <c r="F108" s="30"/>
       <c r="G108" s="30"/>
     </row>
-    <row r="109" s="24" customFormat="1" spans="1:7">
+    <row r="109" spans="1:7" s="24" customFormat="1">
       <c r="A109" s="29">
         <v>108</v>
       </c>
@@ -15087,7 +15840,7 @@
       <c r="F109" s="30"/>
       <c r="G109" s="30"/>
     </row>
-    <row r="110" s="24" customFormat="1" spans="1:7">
+    <row r="110" spans="1:7" s="24" customFormat="1">
       <c r="A110" s="29">
         <v>109</v>
       </c>
@@ -15106,7 +15859,7 @@
       <c r="F110" s="30"/>
       <c r="G110" s="30"/>
     </row>
-    <row r="111" s="24" customFormat="1" spans="1:7">
+    <row r="111" spans="1:7" s="24" customFormat="1">
       <c r="A111" s="29">
         <v>110</v>
       </c>
@@ -15125,7 +15878,7 @@
       <c r="F111" s="30"/>
       <c r="G111" s="30"/>
     </row>
-    <row r="112" s="24" customFormat="1" spans="1:7">
+    <row r="112" spans="1:7" s="24" customFormat="1">
       <c r="A112" s="29">
         <v>111</v>
       </c>
@@ -15144,7 +15897,7 @@
       <c r="F112" s="30"/>
       <c r="G112" s="30"/>
     </row>
-    <row r="113" s="24" customFormat="1" spans="1:7">
+    <row r="113" spans="1:7" s="24" customFormat="1">
       <c r="A113" s="29">
         <v>112</v>
       </c>
@@ -15163,7 +15916,7 @@
       <c r="F113" s="30"/>
       <c r="G113" s="30"/>
     </row>
-    <row r="114" s="24" customFormat="1" spans="1:7">
+    <row r="114" spans="1:7" s="24" customFormat="1">
       <c r="A114" s="29">
         <v>113</v>
       </c>
@@ -15182,7 +15935,7 @@
       <c r="F114" s="30"/>
       <c r="G114" s="30"/>
     </row>
-    <row r="115" s="24" customFormat="1" spans="1:7">
+    <row r="115" spans="1:7" s="24" customFormat="1">
       <c r="A115" s="29">
         <v>114</v>
       </c>
@@ -15201,7 +15954,7 @@
       <c r="F115" s="30"/>
       <c r="G115" s="30"/>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:7">
       <c r="A116" s="29">
         <v>115</v>
       </c>
@@ -15218,7 +15971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:7">
       <c r="A117" s="29">
         <v>116</v>
       </c>
@@ -15235,7 +15988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:7">
       <c r="A118" s="29">
         <v>117</v>
       </c>
@@ -15252,7 +16005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:7">
       <c r="A119" s="29">
         <v>118</v>
       </c>
@@ -15269,7 +16022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:7">
       <c r="A120" s="29">
         <v>119</v>
       </c>
@@ -15286,7 +16039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:7">
       <c r="A121" s="29">
         <v>120</v>
       </c>
@@ -15303,7 +16056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:7">
       <c r="A122" s="29">
         <v>121</v>
       </c>
@@ -15320,7 +16073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:7">
       <c r="A123" s="29">
         <v>122</v>
       </c>
@@ -15337,7 +16090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:7">
       <c r="A124" s="29">
         <v>123</v>
       </c>
@@ -15354,7 +16107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:7">
       <c r="A125" s="29">
         <v>124</v>
       </c>
@@ -15371,7 +16124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:7">
       <c r="A126" s="29">
         <v>125</v>
       </c>
@@ -15388,7 +16141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:7">
       <c r="A127" s="29">
         <v>126</v>
       </c>
@@ -15405,7 +16158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" s="25" customFormat="1" spans="1:7">
+    <row r="128" spans="1:7" s="25" customFormat="1">
       <c r="A128" s="29">
         <v>127</v>
       </c>
@@ -15424,7 +16177,7 @@
       <c r="F128" s="34"/>
       <c r="G128" s="34"/>
     </row>
-    <row r="129" s="25" customFormat="1" spans="1:7">
+    <row r="129" spans="1:7" s="25" customFormat="1">
       <c r="A129" s="29">
         <v>128</v>
       </c>
@@ -15443,7 +16196,7 @@
       <c r="F129" s="34"/>
       <c r="G129" s="34"/>
     </row>
-    <row r="130" s="25" customFormat="1" spans="1:7">
+    <row r="130" spans="1:7" s="25" customFormat="1">
       <c r="A130" s="29">
         <v>129</v>
       </c>
@@ -15462,7 +16215,7 @@
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
     </row>
-    <row r="131" s="25" customFormat="1" spans="1:7">
+    <row r="131" spans="1:7" s="25" customFormat="1">
       <c r="A131" s="29">
         <v>130</v>
       </c>
@@ -15481,7 +16234,7 @@
       <c r="F131" s="34"/>
       <c r="G131" s="34"/>
     </row>
-    <row r="132" s="25" customFormat="1" spans="1:7">
+    <row r="132" spans="1:7" s="25" customFormat="1">
       <c r="A132" s="29">
         <v>131</v>
       </c>
@@ -15500,7 +16253,7 @@
       <c r="F132" s="34"/>
       <c r="G132" s="34"/>
     </row>
-    <row r="133" s="25" customFormat="1" spans="1:7">
+    <row r="133" spans="1:7" s="25" customFormat="1">
       <c r="A133" s="29">
         <v>132</v>
       </c>
@@ -15519,7 +16272,7 @@
       <c r="F133" s="34"/>
       <c r="G133" s="34"/>
     </row>
-    <row r="134" s="25" customFormat="1" spans="1:7">
+    <row r="134" spans="1:7" s="25" customFormat="1">
       <c r="A134" s="29">
         <v>133</v>
       </c>
@@ -15538,7 +16291,7 @@
       <c r="F134" s="34"/>
       <c r="G134" s="34"/>
     </row>
-    <row r="135" s="25" customFormat="1" spans="1:7">
+    <row r="135" spans="1:7" s="25" customFormat="1">
       <c r="A135" s="29">
         <v>134</v>
       </c>
@@ -15557,7 +16310,7 @@
       <c r="F135" s="34"/>
       <c r="G135" s="34"/>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:7">
       <c r="A136" s="12">
         <v>135</v>
       </c>
@@ -15574,7 +16327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:7">
       <c r="A137" s="12">
         <v>136</v>
       </c>
@@ -15591,7 +16344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:7">
       <c r="A138" s="12">
         <v>137</v>
       </c>
@@ -15608,7 +16361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:7">
       <c r="A139" s="12">
         <v>138</v>
       </c>
@@ -15625,7 +16378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:7">
       <c r="A140" s="12">
         <v>139</v>
       </c>
@@ -15642,7 +16395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:7">
       <c r="A141" s="12">
         <v>140</v>
       </c>
@@ -15659,7 +16412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:7">
       <c r="A142" s="12">
         <v>141</v>
       </c>
@@ -15676,7 +16429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:7">
       <c r="A143" s="12">
         <v>142</v>
       </c>
@@ -15693,7 +16446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:7">
       <c r="A144" s="12">
         <v>143</v>
       </c>
@@ -15982,7 +16735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:7">
       <c r="A161" s="12">
         <v>160</v>
       </c>
@@ -15999,7 +16752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:7">
       <c r="A162" s="12">
         <v>161</v>
       </c>
@@ -16016,7 +16769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:7">
       <c r="A163" s="12">
         <v>162</v>
       </c>
@@ -16033,7 +16786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:7">
       <c r="A164" s="12">
         <v>163</v>
       </c>
@@ -16050,7 +16803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:7">
       <c r="A165" s="12">
         <v>164</v>
       </c>
@@ -16067,7 +16820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:7">
       <c r="A166" s="12">
         <v>165</v>
       </c>
@@ -16084,7 +16837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:7">
       <c r="A167" s="12">
         <v>166</v>
       </c>
@@ -16101,7 +16854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:7">
       <c r="A168" s="12">
         <v>167</v>
       </c>
@@ -16118,7 +16871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:7">
       <c r="A169" s="12">
         <v>168</v>
       </c>
@@ -16135,7 +16888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:7">
       <c r="A170" s="12">
         <v>169</v>
       </c>
@@ -16152,7 +16905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:7">
       <c r="A171" s="12">
         <v>170</v>
       </c>
@@ -16169,7 +16922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:7">
       <c r="A172" s="12">
         <v>171</v>
       </c>
@@ -16186,7 +16939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:7">
       <c r="A173" s="12">
         <v>172</v>
       </c>
@@ -16203,7 +16956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:7">
       <c r="A174" s="12">
         <v>173</v>
       </c>
@@ -16220,7 +16973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" s="26" customFormat="1" spans="1:7">
+    <row r="175" spans="1:7" s="26" customFormat="1">
       <c r="A175" s="38">
         <v>174</v>
       </c>
@@ -16239,7 +16992,7 @@
       <c r="F175" s="32"/>
       <c r="G175" s="32"/>
     </row>
-    <row r="176" s="26" customFormat="1" spans="1:7">
+    <row r="176" spans="1:7" s="26" customFormat="1">
       <c r="A176" s="38">
         <v>175</v>
       </c>
@@ -16258,7 +17011,7 @@
       <c r="F176" s="32"/>
       <c r="G176" s="32"/>
     </row>
-    <row r="177" s="26" customFormat="1" spans="1:7">
+    <row r="177" spans="1:7" s="26" customFormat="1">
       <c r="A177" s="38">
         <v>176</v>
       </c>
@@ -16277,7 +17030,7 @@
       <c r="F177" s="32"/>
       <c r="G177" s="32"/>
     </row>
-    <row r="178" s="26" customFormat="1" spans="1:7">
+    <row r="178" spans="1:7" s="26" customFormat="1">
       <c r="A178" s="38">
         <v>177</v>
       </c>
@@ -16296,7 +17049,7 @@
       <c r="F178" s="32"/>
       <c r="G178" s="32"/>
     </row>
-    <row r="179" s="26" customFormat="1" spans="1:7">
+    <row r="179" spans="1:7" s="26" customFormat="1">
       <c r="A179" s="38">
         <v>178</v>
       </c>
@@ -16315,7 +17068,7 @@
       <c r="F179" s="32"/>
       <c r="G179" s="32"/>
     </row>
-    <row r="180" s="26" customFormat="1" spans="1:7">
+    <row r="180" spans="1:7" s="26" customFormat="1">
       <c r="A180" s="38">
         <v>179</v>
       </c>
@@ -16334,7 +17087,7 @@
       <c r="F180" s="32"/>
       <c r="G180" s="32"/>
     </row>
-    <row r="181" s="26" customFormat="1" ht="16.5" spans="1:7">
+    <row r="181" spans="1:7" s="26" customFormat="1" ht="16.5">
       <c r="A181" s="38">
         <v>180</v>
       </c>
@@ -16353,7 +17106,7 @@
       <c r="F181" s="32"/>
       <c r="G181" s="32"/>
     </row>
-    <row r="182" s="26" customFormat="1" ht="16.5" spans="1:7">
+    <row r="182" spans="1:7" s="26" customFormat="1" ht="16.5">
       <c r="A182" s="38">
         <v>181</v>
       </c>
@@ -16372,7 +17125,7 @@
       <c r="F182" s="32"/>
       <c r="G182" s="32"/>
     </row>
-    <row r="183" s="26" customFormat="1" spans="1:7">
+    <row r="183" spans="1:7" s="26" customFormat="1">
       <c r="A183" s="38">
         <v>182</v>
       </c>
@@ -16391,7 +17144,7 @@
       <c r="F183" s="32"/>
       <c r="G183" s="32"/>
     </row>
-    <row r="184" s="26" customFormat="1" spans="1:7">
+    <row r="184" spans="1:7" s="26" customFormat="1">
       <c r="A184" s="38">
         <v>183</v>
       </c>
@@ -16410,7 +17163,7 @@
       <c r="F184" s="32"/>
       <c r="G184" s="32"/>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:7">
       <c r="A185" s="38">
         <v>184</v>
       </c>
@@ -16427,7 +17180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:7">
       <c r="A186" s="38">
         <v>185</v>
       </c>
@@ -16444,7 +17197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:7">
       <c r="A187" s="38">
         <v>186</v>
       </c>
@@ -16461,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:7">
       <c r="A188" s="38">
         <v>187</v>
       </c>
@@ -16478,7 +17231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:7">
       <c r="A189" s="38">
         <v>188</v>
       </c>
@@ -16495,7 +17248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:7">
       <c r="A190" s="38">
         <v>189</v>
       </c>
@@ -16512,7 +17265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:7">
       <c r="A191" s="38">
         <v>190</v>
       </c>
@@ -16529,7 +17282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:7">
       <c r="A192" s="38">
         <v>191</v>
       </c>
@@ -16802,1342 +17555,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F76"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="39" style="4" customWidth="1"/>
-    <col min="4" max="4" width="71.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="66.95" customHeight="1" spans="1:6">
-      <c r="A1" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="12">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="12">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="12">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="12">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D7" s="4">
-        <v>3</v>
-      </c>
-      <c r="E7" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E8" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="12">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="12">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="12">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E11" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D12" s="4">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="12">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>6</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="E13" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E14" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E15" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D16" s="4">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E17" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4">
-        <v>9</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D18" s="4">
-        <v>2</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="12">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <v>9</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D19" s="4">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="12">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="E20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="12">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>11</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="12">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4">
-        <v>12</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D22" s="4">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="12">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E23" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="12">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="12">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D25" s="4">
-        <v>3</v>
-      </c>
-      <c r="E25" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="12">
-        <v>25</v>
-      </c>
-      <c r="B26" s="4">
-        <v>14</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E26" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="12">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4">
-        <v>14</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27" s="4">
-        <v>3</v>
-      </c>
-      <c r="E27" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="12">
-        <v>27</v>
-      </c>
-      <c r="B28" s="4">
-        <v>14</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="D28" s="4">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="4">
-        <v>15</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="E29" s="4">
-        <v>2</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="12">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4">
-        <v>15</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="12">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4">
-        <v>16</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="12">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4">
-        <v>16</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4">
-        <v>16</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D33" s="4">
-        <v>96</v>
-      </c>
-      <c r="E33" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12">
-        <v>33</v>
-      </c>
-      <c r="B34" s="4">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="12">
-        <v>34</v>
-      </c>
-      <c r="B35" s="4">
-        <v>17</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D35" s="4">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="12">
-        <v>35</v>
-      </c>
-      <c r="B36" s="4">
-        <v>18</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E36" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="12">
-        <v>36</v>
-      </c>
-      <c r="B37" s="4">
-        <v>18</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E37" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="12">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4">
-        <v>18</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="12">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4">
-        <v>19</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="12">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4">
-        <v>19</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="12">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4">
-        <v>19</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3</v>
-      </c>
-      <c r="E41" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="12">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4">
-        <v>20</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E42" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="12">
-        <v>42</v>
-      </c>
-      <c r="B43" s="4">
-        <v>20</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="12">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4">
-        <v>20</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D44" s="4">
-        <v>96</v>
-      </c>
-      <c r="E44" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="12">
-        <v>44</v>
-      </c>
-      <c r="B45" s="4">
-        <v>21</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="12">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4">
-        <v>21</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E46" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="12">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4">
-        <v>21</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="12">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4">
-        <v>22</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="12">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4">
-        <v>22</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="D49" s="4">
-        <v>0</v>
-      </c>
-      <c r="E49" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="12">
-        <v>49</v>
-      </c>
-      <c r="B50" s="4">
-        <v>23</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E50" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="12">
-        <v>50</v>
-      </c>
-      <c r="B51" s="4">
-        <v>23</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="E51" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="12">
-        <v>51</v>
-      </c>
-      <c r="B52" s="4">
-        <v>23</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="12">
-        <v>52</v>
-      </c>
-      <c r="B53" s="4">
-        <v>24</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="E53" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="12">
-        <v>53</v>
-      </c>
-      <c r="B54" s="4">
-        <v>24</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="E54" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="12">
-        <v>54</v>
-      </c>
-      <c r="B55" s="4">
-        <v>24</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D55" s="4">
-        <v>10</v>
-      </c>
-      <c r="E55" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="12">
-        <v>55</v>
-      </c>
-      <c r="B56" s="4">
-        <v>25</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D56" s="4">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="12">
-        <v>56</v>
-      </c>
-      <c r="B57" s="4">
-        <v>26</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="D57" s="4">
-        <v>2</v>
-      </c>
-      <c r="E57" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="12">
-        <v>57</v>
-      </c>
-      <c r="B58" s="4">
-        <v>27</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="D58" s="4">
-        <v>74</v>
-      </c>
-      <c r="E58" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="12">
-        <v>58</v>
-      </c>
-      <c r="B59" s="13">
-        <v>28</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" s="14">
-        <v>1</v>
-      </c>
-      <c r="E59" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="12">
-        <v>59</v>
-      </c>
-      <c r="B60" s="4">
-        <v>29</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D60" s="4">
-        <v>2</v>
-      </c>
-      <c r="E60" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="12">
-        <v>60</v>
-      </c>
-      <c r="B61" s="13">
-        <v>30</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="D61" s="4">
-        <v>3</v>
-      </c>
-      <c r="E61" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" s="11" customFormat="1" spans="1:6">
-      <c r="A62" s="15">
-        <v>61</v>
-      </c>
-      <c r="B62" s="16">
-        <v>31</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="E62" s="16">
-        <v>2</v>
-      </c>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" s="11" customFormat="1" spans="1:6">
-      <c r="A63" s="15">
-        <v>62</v>
-      </c>
-      <c r="B63" s="16">
-        <v>32</v>
-      </c>
-      <c r="C63" s="17" t="s">
-        <v>374</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="E63" s="16">
-        <v>2</v>
-      </c>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" s="11" customFormat="1" spans="1:6">
-      <c r="A64" s="15">
-        <v>63</v>
-      </c>
-      <c r="B64" s="16">
-        <v>32</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>384</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>389</v>
-      </c>
-      <c r="E64" s="16">
-        <v>2</v>
-      </c>
-      <c r="F64" s="16"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="18">
-        <v>64</v>
-      </c>
-      <c r="B65" s="18">
-        <v>33</v>
-      </c>
-      <c r="C65" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="D65" s="18">
-        <v>2</v>
-      </c>
-      <c r="E65" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="18">
-        <v>65</v>
-      </c>
-      <c r="B66" s="20">
-        <v>34</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D66" s="18">
-        <v>3</v>
-      </c>
-      <c r="E66" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="18">
-        <v>66</v>
-      </c>
-      <c r="B67" s="18">
-        <v>35</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>392</v>
-      </c>
-      <c r="D67" s="18">
-        <v>4</v>
-      </c>
-      <c r="E67" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" ht="28.5" spans="1:5">
-      <c r="A68" s="12">
-        <v>67</v>
-      </c>
-      <c r="B68" s="4">
-        <v>36</v>
-      </c>
-      <c r="C68" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>393</v>
-      </c>
-      <c r="E68" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="12">
-        <v>68</v>
-      </c>
-      <c r="B69" s="4">
-        <v>37</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="E69" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="12">
-        <v>69</v>
-      </c>
-      <c r="B70" s="4">
-        <v>38</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D70" s="4">
-        <v>3</v>
-      </c>
-      <c r="E70" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="12">
-        <v>70</v>
-      </c>
-      <c r="B71" s="4">
-        <v>39</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E71" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="12">
-        <v>71</v>
-      </c>
-      <c r="B72" s="4">
-        <v>40</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E72" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="12">
-        <v>72</v>
-      </c>
-      <c r="B73" s="4">
-        <v>40</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="E73" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="12">
-        <v>73</v>
-      </c>
-      <c r="B74" s="4">
-        <v>41</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E74" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="12">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4">
-        <v>41</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="E75" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="12">
-        <v>75</v>
-      </c>
-      <c r="B76" s="4">
-        <v>42</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D76" s="4">
-        <v>1</v>
-      </c>
-      <c r="E76" s="4">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -18145,7 +17570,7 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29.875" customWidth="1"/>
     <col min="2" max="2" width="62.875" customWidth="1"/>
@@ -18232,14 +17657,14 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:XFD55"/>
   <sheetViews>
@@ -18271,25 +17696,25 @@
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:3">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:3">
+      <c r="C2" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1">
       <c r="A3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
         <v>421</v>
       </c>
@@ -18300,7 +17725,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:3">
+    <row r="5" spans="1:8" s="1" customFormat="1">
       <c r="A5" s="6" t="s">
         <v>424</v>
       </c>
@@ -18311,7 +17736,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
         <v>214</v>
       </c>
@@ -18322,7 +17747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:8">
       <c r="A7" s="4" t="s">
         <v>215</v>
       </c>
@@ -18333,43 +17758,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:3">
+    <row r="8" spans="1:8" s="1" customFormat="1">
       <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="80" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:3">
+    <row r="9" spans="1:8" s="1" customFormat="1">
       <c r="A9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:3">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="80" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:3">
+      <c r="C10" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" s="2" customFormat="1" spans="1:3">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>221</v>
       </c>
@@ -18380,7 +17805,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:3">
+    <row r="13" spans="1:8" s="2" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>432</v>
       </c>
@@ -18391,7 +17816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:3">
+    <row r="14" spans="1:8" s="2" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>434</v>
       </c>
@@ -18402,7 +17827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:3">
+    <row r="15" spans="1:8" s="2" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>436</v>
       </c>
@@ -18413,7 +17838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:3">
+    <row r="16" spans="1:8" s="3" customFormat="1">
       <c r="A16" s="8" t="s">
         <v>219</v>
       </c>
@@ -18424,7 +17849,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:3">
+    <row r="17" spans="1:3" s="3" customFormat="1">
       <c r="A17" s="8" t="s">
         <v>439</v>
       </c>
@@ -18435,7 +17860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:3">
+    <row r="18" spans="1:3" s="3" customFormat="1">
       <c r="A18" s="8" t="s">
         <v>231</v>
       </c>
@@ -18446,7 +17871,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="19" s="3" customFormat="1" spans="1:3">
+    <row r="19" spans="1:3" s="3" customFormat="1">
       <c r="A19" s="8" t="s">
         <v>442</v>
       </c>
@@ -18472,19 +17897,21 @@
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="81" t="s">
         <v>445</v>
       </c>
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="4" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:3">
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
+    </row>
+    <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
         <v>267</v>
       </c>
@@ -18495,7 +17922,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:3">
+    <row r="24" spans="1:3" s="3" customFormat="1">
       <c r="A24" s="8" t="s">
         <v>304</v>
       </c>
@@ -18506,7 +17933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:3">
+    <row r="25" spans="1:3" s="3" customFormat="1">
       <c r="A25" s="8" t="s">
         <v>449</v>
       </c>
@@ -18539,7 +17966,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:3">
+    <row r="28" spans="1:3" s="3" customFormat="1">
       <c r="A28" s="8" t="s">
         <v>269</v>
       </c>
@@ -18550,7 +17977,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:3">
+    <row r="29" spans="1:3" s="3" customFormat="1">
       <c r="A29" s="8" t="s">
         <v>454</v>
       </c>
@@ -18561,7 +17988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:3">
+    <row r="30" spans="1:3" s="3" customFormat="1">
       <c r="A30" s="8" t="s">
         <v>456</v>
       </c>
@@ -18594,7 +18021,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:16384">
       <c r="A33" s="4" t="s">
         <v>461</v>
       </c>
@@ -18605,7 +18032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:16384">
       <c r="A34" s="4" t="s">
         <v>463</v>
       </c>
@@ -18616,7 +18043,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:3">
+    <row r="35" spans="1:16384" s="3" customFormat="1">
       <c r="A35" s="8" t="s">
         <v>268</v>
       </c>
@@ -18627,7 +18054,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:3">
+    <row r="36" spans="1:16384" s="3" customFormat="1">
       <c r="A36" s="8" t="s">
         <v>298</v>
       </c>
@@ -18638,7 +18065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" s="3" customFormat="1" spans="1:3">
+    <row r="37" spans="1:16384" s="3" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>467</v>
       </c>
@@ -18649,7 +18076,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:3">
+    <row r="38" spans="1:16384" s="3" customFormat="1">
       <c r="A38" s="8" t="s">
         <v>469</v>
       </c>
@@ -18660,7 +18087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" s="2" customFormat="1" spans="1:3">
+    <row r="39" spans="1:16384" s="2" customFormat="1">
       <c r="A39" s="7" t="s">
         <v>236</v>
       </c>
@@ -18671,7 +18098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" s="2" customFormat="1" spans="1:3">
+    <row r="40" spans="1:16384" s="2" customFormat="1">
       <c r="A40" s="7" t="s">
         <v>237</v>
       </c>
@@ -18682,7 +18109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" s="2" customFormat="1" spans="1:3">
+    <row r="41" spans="1:16384" s="2" customFormat="1">
       <c r="A41" s="7" t="s">
         <v>238</v>
       </c>
@@ -18693,7 +18120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" s="2" customFormat="1" spans="1:3">
+    <row r="42" spans="1:16384" s="2" customFormat="1">
       <c r="A42" s="7" t="s">
         <v>232</v>
       </c>
@@ -18704,7 +18131,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="43" s="2" customFormat="1" spans="1:16384">
+    <row r="43" spans="1:16384" s="2" customFormat="1">
       <c r="A43" s="7" t="s">
         <v>475</v>
       </c>
@@ -35096,7 +34523,7 @@
       <c r="XFC43" s="7"/>
       <c r="XFD43" s="7"/>
     </row>
-    <row r="44" s="2" customFormat="1" spans="1:16384">
+    <row r="44" spans="1:16384" s="2" customFormat="1">
       <c r="A44" s="7" t="s">
         <v>218</v>
       </c>
@@ -51484,25 +50911,25 @@
       <c r="XFC44" s="7"/>
       <c r="XFD44" s="7"/>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:3">
+    <row r="45" spans="1:16384" s="1" customFormat="1">
       <c r="A45" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="80" t="s">
         <v>478</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="80" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:3">
+    <row r="46" spans="1:16384" s="1" customFormat="1">
       <c r="A46" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:3">
+      <c r="B46" s="80"/>
+      <c r="C46" s="80"/>
+    </row>
+    <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
         <v>301</v>
       </c>
@@ -51513,7 +50940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:16384">
       <c r="A48" s="4" t="s">
         <v>481</v>
       </c>
@@ -51524,7 +50951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:3">
+    <row r="49" spans="1:3" s="1" customFormat="1">
       <c r="A49" s="6" t="s">
         <v>483</v>
       </c>
@@ -51535,7 +50962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:3">
+    <row r="50" spans="1:3" s="1" customFormat="1">
       <c r="A50" s="6" t="s">
         <v>485</v>
       </c>
@@ -51603,18 +51030,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.20\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -224,6 +224,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -234,6 +235,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -417,6 +419,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -427,6 +430,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -508,6 +512,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,6 +523,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -528,6 +534,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -538,6 +545,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -548,6 +556,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -569,6 +578,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -579,6 +589,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -589,6 +600,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -601,6 +613,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -611,6 +624,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -621,6 +635,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -633,6 +648,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -643,6 +659,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -653,6 +670,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -668,6 +686,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,6 +697,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,6 +708,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -703,6 +724,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -713,6 +735,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -728,6 +751,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -738,6 +762,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -753,6 +778,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -763,6 +789,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -799,6 +826,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -809,6 +837,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -819,6 +848,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -829,6 +859,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -955,6 +986,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -965,6 +997,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -986,6 +1019,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -996,6 +1030,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1008,6 +1043,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1018,6 +1054,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1078,6 +1115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1088,6 +1126,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1136,6 +1175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1146,6 +1186,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1167,6 +1208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1177,6 +1219,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1187,6 +1230,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1197,6 +1241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1207,6 +1252,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1222,6 +1268,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1232,6 +1279,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1244,6 +1292,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1254,6 +1303,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1266,6 +1316,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1276,6 +1327,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1288,6 +1340,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1298,6 +1351,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1382,6 +1436,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1392,6 +1447,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1650,6 +1706,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1660,6 +1717,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2079,7 +2137,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2091,6 +2149,7 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2102,6 +2161,7 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2109,16 +2169,27 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2234,7 +2305,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -7052,7 +7123,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -10089,7 +10160,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -12501,7 +12572,7 @@
   <mergeCells count="1">
     <mergeCell ref="F120:F135"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300"/>
 </worksheet>
@@ -12514,7 +12585,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H70" sqref="H70"/>
+      <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13829,7 +13900,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -17555,7 +17626,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -17657,7 +17728,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -51041,7 +51112,7 @@
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
   </mergeCells>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -2076,8 +2076,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -2114,10 +2114,26 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2130,7 +2146,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2145,14 +2175,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2168,14 +2228,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2190,63 +2243,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2337,13 +2337,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2355,19 +2397,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,109 +2475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,15 +2521,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2547,11 +2538,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2574,23 +2578,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2609,25 +2618,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,133 +2636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -3306,7 +3306,7 @@
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7634,7 +7634,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
+      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10672,7 +10672,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
+      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16813,7 +16813,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -18104,7 +18104,7 @@
         <v>401</v>
       </c>
       <c r="D75" s="4">
-        <v>4800</v>
+        <v>1</v>
       </c>
       <c r="E75" s="4">
         <v>3</v>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -2075,9 +2075,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -2113,7 +2113,111 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -2129,14 +2233,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2153,77 +2250,8 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2232,34 +2260,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2337,7 +2337,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2349,7 +2367,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,13 +2451,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2379,97 +2469,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2481,7 +2481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2540,7 +2540,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2560,17 +2560,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2586,20 +2580,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2624,10 +2624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,118 +2636,118 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2756,16 +2756,16 @@
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3303,10 +3303,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7101,7 +7101,7 @@
         <v>16</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F105" s="18">
         <v>105</v>
@@ -7139,7 +7139,7 @@
         <v>16</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F106" s="18">
         <v>106</v>
@@ -7177,7 +7177,7 @@
         <v>16</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F107" s="18">
         <v>107</v>
@@ -7215,7 +7215,7 @@
         <v>16</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F108" s="18">
         <v>108</v>
@@ -7253,7 +7253,7 @@
         <v>16</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F109" s="18">
         <v>109</v>
@@ -7291,7 +7291,7 @@
         <v>16</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F110" s="18">
         <v>110</v>
@@ -7329,7 +7329,7 @@
         <v>16</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F111" s="18">
         <v>111</v>
@@ -7367,7 +7367,7 @@
         <v>16</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F112" s="18">
         <v>112</v>
@@ -7405,7 +7405,7 @@
         <v>16</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F113" s="18">
         <v>113</v>
@@ -7443,7 +7443,7 @@
         <v>16</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F114" s="18">
         <v>114</v>
@@ -7481,7 +7481,7 @@
         <v>16</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F115" s="18">
         <v>115</v>
@@ -7519,7 +7519,7 @@
         <v>16</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F116" s="18">
         <v>116</v>
@@ -7557,7 +7557,7 @@
         <v>16</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F117" s="18">
         <v>117</v>
@@ -7595,7 +7595,7 @@
         <v>16</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="F118" s="18">
         <v>118</v>
@@ -16810,7 +16810,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1451,7 +1451,7 @@
     <t>buyu_3d_target_yu</t>
   </si>
   <si>
-    <t xml:space="preserve">buyu_3d_spend_by_use_fish_prop </t>
+    <t>use_fish_3d_bullet_item</t>
   </si>
   <si>
     <t>xiaoxiaole_shuihu_game_num</t>
@@ -2075,9 +2075,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -2114,36 +2114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2165,7 +2136,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2179,9 +2157,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2196,6 +2211,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2203,23 +2234,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2235,15 +2251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2252,14 +2260,6 @@
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2337,7 +2337,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2349,31 +2403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,13 +2421,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,19 +2463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2427,61 +2481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,6 +2536,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2569,41 +2604,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2624,10 +2624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,138 +2636,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2884,6 +2884,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3303,7 +3306,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
@@ -3419,8 +3422,8 @@
       <c r="O2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="70"/>
     </row>
     <row r="3" ht="43.5" customHeight="1" spans="1:18">
       <c r="A3" s="12">
@@ -3462,8 +3465,8 @@
       <c r="O3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="70"/>
     </row>
     <row r="4" ht="43.5" customHeight="1" spans="1:18">
       <c r="A4" s="12">
@@ -3505,8 +3508,8 @@
       <c r="O4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="70"/>
     </row>
     <row r="5" ht="43.5" customHeight="1" spans="1:18">
       <c r="A5" s="12">
@@ -3515,7 +3518,7 @@
       <c r="B5" s="12">
         <v>0</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="50" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -3545,11 +3548,11 @@
       <c r="N5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="O5" s="49" t="s">
+      <c r="O5" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="69"/>
+      <c r="Q5" s="69"/>
+      <c r="R5" s="70"/>
     </row>
     <row r="6" ht="25.5" customHeight="1" spans="1:15">
       <c r="A6" s="12">
@@ -3629,7 +3632,7 @@
       <c r="N7" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="50" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3670,7 +3673,7 @@
       <c r="N8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="49" t="s">
+      <c r="O8" s="50" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3681,7 +3684,7 @@
       <c r="B9" s="12">
         <v>-1</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="50" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="12" t="s">
@@ -3859,7 +3862,7 @@
       <c r="B14" s="12">
         <v>-1</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="50" t="s">
         <v>49</v>
       </c>
       <c r="D14" s="12" t="s">
@@ -3894,7 +3897,7 @@
       <c r="B15" s="12">
         <v>-1</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="68" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -3929,7 +3932,7 @@
       <c r="B16" s="12">
         <v>-1</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="50" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="12" t="s">
@@ -4034,7 +4037,7 @@
       <c r="B19" s="12">
         <v>-1</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="50" t="s">
         <v>54</v>
       </c>
       <c r="D19" s="12" t="s">
@@ -4174,7 +4177,7 @@
       <c r="B23" s="12">
         <v>-1</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="50" t="s">
         <v>58</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -4314,7 +4317,7 @@
       <c r="B27" s="12">
         <v>-1</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="50" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -4349,7 +4352,7 @@
       <c r="B28" s="12">
         <v>-1</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="50" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -4384,7 +4387,7 @@
       <c r="B29" s="12">
         <v>-1</v>
       </c>
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="50" t="s">
         <v>64</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -5367,7 +5370,7 @@
       <c r="C57" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="50" t="s">
         <v>100</v>
       </c>
       <c r="E57" s="12" t="s">
@@ -5504,7 +5507,7 @@
       <c r="B61" s="13">
         <v>-1</v>
       </c>
-      <c r="C61" s="49" t="s">
+      <c r="C61" s="50" t="s">
         <v>108</v>
       </c>
       <c r="D61" s="12" t="s">
@@ -5685,7 +5688,7 @@
       <c r="D66" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="49" t="s">
+      <c r="E66" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F66" s="12">
@@ -5717,7 +5720,7 @@
       <c r="C67" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="49" t="s">
+      <c r="D67" s="50" t="s">
         <v>122</v>
       </c>
       <c r="E67" s="12" t="s">
@@ -5755,7 +5758,7 @@
       <c r="D68" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="E68" s="70" t="s">
+      <c r="E68" s="71" t="s">
         <v>124</v>
       </c>
       <c r="F68" s="38">
@@ -6029,10 +6032,10 @@
       <c r="B76" s="38">
         <v>0</v>
       </c>
-      <c r="C76" s="70" t="s">
+      <c r="C76" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="70" t="s">
+      <c r="D76" s="71" t="s">
         <v>124</v>
       </c>
       <c r="E76" s="38" t="s">
@@ -6067,7 +6070,7 @@
       <c r="C77" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="70" t="s">
+      <c r="D77" s="71" t="s">
         <v>124</v>
       </c>
       <c r="E77" s="38" t="s">
@@ -6092,108 +6095,108 @@
         <v>259200</v>
       </c>
     </row>
-    <row r="78" s="57" customFormat="1" spans="1:11">
-      <c r="A78" s="57">
+    <row r="78" s="58" customFormat="1" spans="1:11">
+      <c r="A78" s="58">
         <v>78</v>
       </c>
-      <c r="B78" s="57">
-        <v>1</v>
-      </c>
-      <c r="C78" s="71" t="s">
+      <c r="B78" s="58">
+        <v>1</v>
+      </c>
+      <c r="C78" s="72" t="s">
         <v>137</v>
       </c>
-      <c r="D78" s="71" t="s">
+      <c r="D78" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="E78" s="71" t="s">
+      <c r="E78" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F78" s="57">
+      <c r="F78" s="58">
         <v>78</v>
       </c>
-      <c r="G78" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="57">
-        <v>1</v>
-      </c>
-      <c r="I78" s="57">
+      <c r="G78" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="58">
+        <v>1</v>
+      </c>
+      <c r="I78" s="58">
         <v>946656000</v>
       </c>
-      <c r="J78" s="57">
+      <c r="J78" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K78" s="57">
+      <c r="K78" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="79" s="57" customFormat="1" spans="1:11">
-      <c r="A79" s="57">
+    <row r="79" s="58" customFormat="1" spans="1:11">
+      <c r="A79" s="58">
         <v>79</v>
       </c>
-      <c r="B79" s="57">
-        <v>1</v>
-      </c>
-      <c r="C79" s="71" t="s">
+      <c r="B79" s="58">
+        <v>1</v>
+      </c>
+      <c r="C79" s="72" t="s">
         <v>140</v>
       </c>
-      <c r="D79" s="71" t="s">
+      <c r="D79" s="72" t="s">
         <v>141</v>
       </c>
-      <c r="E79" s="71" t="s">
+      <c r="E79" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F79" s="57">
+      <c r="F79" s="58">
         <v>79</v>
       </c>
-      <c r="G79" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="57">
-        <v>1</v>
-      </c>
-      <c r="I79" s="57">
+      <c r="G79" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="58">
+        <v>1</v>
+      </c>
+      <c r="I79" s="58">
         <v>946656000</v>
       </c>
-      <c r="J79" s="57">
+      <c r="J79" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K79" s="57">
+      <c r="K79" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="80" s="57" customFormat="1" spans="1:11">
-      <c r="A80" s="57">
+    <row r="80" s="58" customFormat="1" spans="1:11">
+      <c r="A80" s="58">
         <v>80</v>
       </c>
-      <c r="B80" s="57">
-        <v>1</v>
-      </c>
-      <c r="C80" s="71" t="s">
+      <c r="B80" s="58">
+        <v>1</v>
+      </c>
+      <c r="C80" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="D80" s="71" t="s">
+      <c r="D80" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="E80" s="71" t="s">
+      <c r="E80" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F80" s="57">
+      <c r="F80" s="58">
         <v>80</v>
       </c>
-      <c r="G80" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="57">
-        <v>1</v>
-      </c>
-      <c r="I80" s="57">
+      <c r="G80" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="58">
+        <v>1</v>
+      </c>
+      <c r="I80" s="58">
         <v>946656000</v>
       </c>
-      <c r="J80" s="57">
+      <c r="J80" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K80" s="57">
+      <c r="K80" s="58">
         <v>-1</v>
       </c>
     </row>
@@ -6239,13 +6242,13 @@
       <c r="B82" s="18">
         <v>0</v>
       </c>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="73" t="s">
         <v>146</v>
       </c>
       <c r="D82" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E82" s="72" t="s">
+      <c r="E82" s="73" t="s">
         <v>124</v>
       </c>
       <c r="F82" s="18">
@@ -6276,10 +6279,10 @@
       <c r="B83" s="18">
         <v>0</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="D83" s="72" t="s">
+      <c r="D83" s="73" t="s">
         <v>124</v>
       </c>
       <c r="E83" s="18" t="s">
@@ -6313,10 +6316,10 @@
       <c r="B84" s="18">
         <v>0</v>
       </c>
-      <c r="C84" s="72" t="s">
+      <c r="C84" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D84" s="72" t="s">
+      <c r="D84" s="73" t="s">
         <v>124</v>
       </c>
       <c r="E84" s="18" t="s">
@@ -6388,7 +6391,7 @@
       <c r="C86" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="D86" s="49" t="s">
+      <c r="D86" s="50" t="s">
         <v>150</v>
       </c>
       <c r="E86" s="12" t="s">
@@ -6423,7 +6426,7 @@
       <c r="C87" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="49" t="s">
+      <c r="D87" s="50" t="s">
         <v>151</v>
       </c>
       <c r="E87" s="12" t="s">
@@ -6458,7 +6461,7 @@
       <c r="C88" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="49" t="s">
+      <c r="D88" s="50" t="s">
         <v>152</v>
       </c>
       <c r="E88" s="12" t="s">
@@ -6490,10 +6493,10 @@
       <c r="B89" s="12">
         <v>1</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D89" s="49" t="s">
+      <c r="D89" s="50" t="s">
         <v>154</v>
       </c>
       <c r="E89" s="12" t="s">
@@ -6518,108 +6521,108 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="90" s="57" customFormat="1" spans="1:11">
-      <c r="A90" s="57">
+    <row r="90" s="58" customFormat="1" spans="1:11">
+      <c r="A90" s="58">
         <v>90</v>
       </c>
-      <c r="B90" s="57">
-        <v>1</v>
-      </c>
-      <c r="C90" s="71" t="s">
+      <c r="B90" s="58">
+        <v>1</v>
+      </c>
+      <c r="C90" s="72" t="s">
         <v>155</v>
       </c>
-      <c r="D90" s="71" t="s">
+      <c r="D90" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="E90" s="71" t="s">
+      <c r="E90" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="57">
+      <c r="F90" s="58">
         <v>90</v>
       </c>
-      <c r="G90" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" s="57">
-        <v>1</v>
-      </c>
-      <c r="I90" s="57">
+      <c r="G90" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="58">
+        <v>1</v>
+      </c>
+      <c r="I90" s="58">
         <v>946656000</v>
       </c>
-      <c r="J90" s="57">
+      <c r="J90" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K90" s="57">
+      <c r="K90" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="91" s="57" customFormat="1" spans="1:11">
-      <c r="A91" s="57">
+    <row r="91" s="58" customFormat="1" spans="1:11">
+      <c r="A91" s="58">
         <v>91</v>
       </c>
-      <c r="B91" s="57">
-        <v>1</v>
-      </c>
-      <c r="C91" s="71" t="s">
+      <c r="B91" s="58">
+        <v>1</v>
+      </c>
+      <c r="C91" s="72" t="s">
         <v>157</v>
       </c>
-      <c r="D91" s="71" t="s">
+      <c r="D91" s="72" t="s">
         <v>158</v>
       </c>
-      <c r="E91" s="71" t="s">
+      <c r="E91" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F91" s="57">
+      <c r="F91" s="58">
         <v>91</v>
       </c>
-      <c r="G91" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" s="57">
-        <v>1</v>
-      </c>
-      <c r="I91" s="57">
+      <c r="G91" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="58">
+        <v>1</v>
+      </c>
+      <c r="I91" s="58">
         <v>946656000</v>
       </c>
-      <c r="J91" s="57">
+      <c r="J91" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K91" s="57">
+      <c r="K91" s="58">
         <v>-1</v>
       </c>
     </row>
-    <row r="92" s="57" customFormat="1" spans="1:11">
-      <c r="A92" s="57">
+    <row r="92" s="58" customFormat="1" spans="1:11">
+      <c r="A92" s="58">
         <v>92</v>
       </c>
-      <c r="B92" s="57">
-        <v>1</v>
-      </c>
-      <c r="C92" s="71" t="s">
+      <c r="B92" s="58">
+        <v>1</v>
+      </c>
+      <c r="C92" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="D92" s="71" t="s">
+      <c r="D92" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="E92" s="71" t="s">
+      <c r="E92" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="F92" s="57">
+      <c r="F92" s="58">
         <v>92</v>
       </c>
-      <c r="G92" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H92" s="57">
-        <v>1</v>
-      </c>
-      <c r="I92" s="57">
+      <c r="G92" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="58">
+        <v>1</v>
+      </c>
+      <c r="I92" s="58">
         <v>946656000</v>
       </c>
-      <c r="J92" s="57">
+      <c r="J92" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K92" s="57">
+      <c r="K92" s="58">
         <v>-1</v>
       </c>
     </row>
@@ -6630,13 +6633,13 @@
       <c r="B93" s="12">
         <v>1</v>
       </c>
-      <c r="C93" s="49" t="s">
+      <c r="C93" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="49" t="s">
+      <c r="D93" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="49" t="s">
+      <c r="E93" s="50" t="s">
         <v>162</v>
       </c>
       <c r="F93" s="12">
@@ -6651,13 +6654,13 @@
       <c r="I93" s="12">
         <v>1603641600</v>
       </c>
-      <c r="J93" s="57">
+      <c r="J93" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K93" s="57">
+      <c r="K93" s="58">
         <v>-1</v>
       </c>
-      <c r="L93" s="74">
+      <c r="L93" s="75">
         <v>1</v>
       </c>
       <c r="M93" s="38" t="s">
@@ -6671,19 +6674,19 @@
       <c r="B94" s="12">
         <v>1</v>
       </c>
-      <c r="C94" s="49" t="s">
+      <c r="C94" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D94" s="49" t="s">
+      <c r="D94" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E94" s="49" t="s">
+      <c r="E94" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="12">
         <v>94</v>
       </c>
-      <c r="G94" s="49" t="b">
+      <c r="G94" s="50" t="b">
         <v>0</v>
       </c>
       <c r="H94" s="12">
@@ -6692,14 +6695,14 @@
       <c r="I94" s="12">
         <v>1603641600</v>
       </c>
-      <c r="J94" s="57">
+      <c r="J94" s="58">
         <v>32503651200</v>
       </c>
-      <c r="K94" s="57">
+      <c r="K94" s="58">
         <v>-1</v>
       </c>
-      <c r="L94" s="57"/>
-      <c r="M94" s="57"/>
+      <c r="L94" s="58"/>
+      <c r="M94" s="58"/>
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="12">
@@ -6708,19 +6711,19 @@
       <c r="B95" s="12">
         <v>1</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D95" s="49" t="s">
+      <c r="D95" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E95" s="49" t="s">
+      <c r="E95" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="12">
         <v>95</v>
       </c>
-      <c r="G95" s="49" t="b">
+      <c r="G95" s="50" t="b">
         <v>0</v>
       </c>
       <c r="H95" s="12">
@@ -6739,44 +6742,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" s="61" customFormat="1" spans="1:13">
-      <c r="A96" s="61">
+    <row r="96" s="62" customFormat="1" spans="1:13">
+      <c r="A96" s="62">
         <v>96</v>
       </c>
-      <c r="B96" s="61">
-        <v>1</v>
-      </c>
-      <c r="C96" s="73" t="s">
+      <c r="B96" s="62">
+        <v>1</v>
+      </c>
+      <c r="C96" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="73" t="s">
+      <c r="D96" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="73" t="s">
+      <c r="E96" s="74" t="s">
         <v>168</v>
       </c>
-      <c r="F96" s="61">
+      <c r="F96" s="62">
         <v>96</v>
       </c>
-      <c r="G96" s="61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" s="61">
+      <c r="G96" s="62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96" s="62">
         <v>7</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I96" s="62">
         <v>1615132800</v>
       </c>
-      <c r="J96" s="61">
+      <c r="J96" s="62">
         <v>32503651200</v>
       </c>
-      <c r="K96" s="61">
+      <c r="K96" s="62">
         <v>-1</v>
       </c>
-      <c r="L96" s="61">
-        <v>1</v>
-      </c>
-      <c r="M96" s="73" t="s">
+      <c r="L96" s="62">
+        <v>1</v>
+      </c>
+      <c r="M96" s="74" t="s">
         <v>169</v>
       </c>
     </row>
@@ -6787,19 +6790,19 @@
       <c r="B97" s="12">
         <v>1</v>
       </c>
-      <c r="C97" s="49" t="s">
+      <c r="C97" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="D97" s="49" t="s">
+      <c r="D97" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E97" s="49" t="s">
+      <c r="E97" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="12">
         <v>97</v>
       </c>
-      <c r="G97" s="61" t="b">
+      <c r="G97" s="62" t="b">
         <v>1</v>
       </c>
       <c r="H97" s="12">
@@ -6825,19 +6828,19 @@
       <c r="B98" s="12">
         <v>1</v>
       </c>
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="D98" s="49" t="s">
+      <c r="D98" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E98" s="49" t="s">
+      <c r="E98" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="12">
         <v>98</v>
       </c>
-      <c r="G98" s="61" t="b">
+      <c r="G98" s="62" t="b">
         <v>1</v>
       </c>
       <c r="H98" s="12">
@@ -6863,13 +6866,13 @@
       <c r="B99" s="12">
         <v>1</v>
       </c>
-      <c r="C99" s="49" t="s">
+      <c r="C99" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="49" t="s">
+      <c r="D99" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E99" s="49" t="s">
+      <c r="E99" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="12">
@@ -6901,13 +6904,13 @@
       <c r="B100" s="12">
         <v>1</v>
       </c>
-      <c r="C100" s="49" t="s">
+      <c r="C100" s="50" t="s">
         <v>174</v>
       </c>
-      <c r="D100" s="49" t="s">
+      <c r="D100" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E100" s="49" t="s">
+      <c r="E100" s="50" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="12">
@@ -7100,8 +7103,8 @@
       <c r="D105" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E105" s="18" t="s">
-        <v>182</v>
+      <c r="E105" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F105" s="18">
         <v>105</v>
@@ -7138,8 +7141,8 @@
       <c r="D106" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E106" s="18" t="s">
-        <v>182</v>
+      <c r="E106" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F106" s="18">
         <v>106</v>
@@ -7176,8 +7179,8 @@
       <c r="D107" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E107" s="18" t="s">
-        <v>182</v>
+      <c r="E107" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F107" s="18">
         <v>107</v>
@@ -7214,8 +7217,8 @@
       <c r="D108" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E108" s="18" t="s">
-        <v>182</v>
+      <c r="E108" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F108" s="18">
         <v>108</v>
@@ -7252,8 +7255,8 @@
       <c r="D109" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E109" s="18" t="s">
-        <v>182</v>
+      <c r="E109" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F109" s="18">
         <v>109</v>
@@ -7290,8 +7293,8 @@
       <c r="D110" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E110" s="18" t="s">
-        <v>182</v>
+      <c r="E110" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F110" s="18">
         <v>110</v>
@@ -7328,8 +7331,8 @@
       <c r="D111" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E111" s="18" t="s">
-        <v>182</v>
+      <c r="E111" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F111" s="18">
         <v>111</v>
@@ -7366,8 +7369,8 @@
       <c r="D112" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E112" s="18" t="s">
-        <v>182</v>
+      <c r="E112" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F112" s="18">
         <v>112</v>
@@ -7404,8 +7407,8 @@
       <c r="D113" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E113" s="18" t="s">
-        <v>182</v>
+      <c r="E113" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F113" s="18">
         <v>113</v>
@@ -7442,8 +7445,8 @@
       <c r="D114" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E114" s="18" t="s">
-        <v>182</v>
+      <c r="E114" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F114" s="18">
         <v>114</v>
@@ -7480,8 +7483,8 @@
       <c r="D115" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E115" s="18" t="s">
-        <v>182</v>
+      <c r="E115" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F115" s="18">
         <v>115</v>
@@ -7518,8 +7521,8 @@
       <c r="D116" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E116" s="18" t="s">
-        <v>182</v>
+      <c r="E116" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F116" s="18">
         <v>116</v>
@@ -7556,8 +7559,8 @@
       <c r="D117" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E117" s="18" t="s">
-        <v>182</v>
+      <c r="E117" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F117" s="18">
         <v>117</v>
@@ -7594,8 +7597,8 @@
       <c r="D118" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E118" s="18" t="s">
-        <v>182</v>
+      <c r="E118" s="50" t="s">
+        <v>39</v>
       </c>
       <c r="F118" s="18">
         <v>118</v>
@@ -7643,7 +7646,7 @@
     <col min="2" max="5" width="32.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="59.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="28.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="37.5" style="47" customWidth="1"/>
+    <col min="8" max="8" width="37.5" style="48" customWidth="1"/>
     <col min="9" max="9" width="26" style="4" customWidth="1"/>
     <col min="10" max="11" width="31.375" customWidth="1"/>
   </cols>
@@ -7670,7 +7673,7 @@
       <c r="G1" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="49" t="s">
         <v>203</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -7679,7 +7682,7 @@
       <c r="J1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="53"/>
+      <c r="K1" s="54"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="12">
@@ -7697,11 +7700,11 @@
       <c r="E2" s="12">
         <v>1</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="76" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="49"/>
-      <c r="H2" s="76" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="77" t="s">
         <v>208</v>
       </c>
       <c r="I2" s="4" t="s">
@@ -7724,11 +7727,11 @@
       <c r="E3" s="12">
         <v>2</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="78" t="s">
         <v>207</v>
       </c>
       <c r="G3" s="12"/>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="77" t="s">
         <v>210</v>
       </c>
       <c r="I3" s="4" t="s">
@@ -7751,11 +7754,11 @@
       <c r="E4" s="12">
         <v>3</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="78" t="s">
         <v>207</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="77" t="s">
         <v>211</v>
       </c>
       <c r="I4" s="4" t="s">
@@ -7778,11 +7781,11 @@
       <c r="E5" s="12">
         <v>4</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="76" t="s">
         <v>212</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="76" t="s">
+      <c r="G5" s="50"/>
+      <c r="H5" s="77" t="s">
         <v>213</v>
       </c>
       <c r="I5" s="4" t="s">
@@ -7809,13 +7812,13 @@
         <v>10</v>
       </c>
       <c r="G6" s="12"/>
-      <c r="H6" s="51">
+      <c r="H6" s="52">
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="54"/>
+      <c r="J6" s="55"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="4">
@@ -7836,7 +7839,7 @@
       <c r="F7" s="4">
         <v>10</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="48">
         <v>6</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -7862,7 +7865,7 @@
       <c r="F8" s="4">
         <v>8</v>
       </c>
-      <c r="H8" s="47">
+      <c r="H8" s="48">
         <v>28</v>
       </c>
       <c r="I8" s="4" t="s">
@@ -7888,7 +7891,7 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="H9" s="47">
+      <c r="H9" s="48">
         <v>7</v>
       </c>
       <c r="I9" s="4" t="s">
@@ -7915,7 +7918,7 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="H10" s="47">
+      <c r="H10" s="48">
         <v>8</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -7941,7 +7944,7 @@
       <c r="F11" s="4">
         <v>5</v>
       </c>
-      <c r="H11" s="47">
+      <c r="H11" s="48">
         <v>9</v>
       </c>
       <c r="I11" s="4" t="s">
@@ -7967,7 +7970,7 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="H12" s="47">
+      <c r="H12" s="48">
         <v>10</v>
       </c>
       <c r="I12" s="4" t="s">
@@ -7993,7 +7996,7 @@
       <c r="F13" s="4">
         <v>8</v>
       </c>
-      <c r="H13" s="47">
+      <c r="H13" s="48">
         <v>11</v>
       </c>
       <c r="I13" s="4" t="s">
@@ -8019,7 +8022,7 @@
       <c r="F14" s="4">
         <v>5</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="48">
         <v>12</v>
       </c>
       <c r="I14" s="4" t="s">
@@ -8045,7 +8048,7 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="H15" s="47">
+      <c r="H15" s="48">
         <v>13</v>
       </c>
       <c r="I15" s="4" t="s">
@@ -8071,7 +8074,7 @@
       <c r="F16" s="4">
         <v>1000</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="48">
         <v>14</v>
       </c>
       <c r="I16" s="4" t="s">
@@ -8097,7 +8100,7 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="H17" s="47">
+      <c r="H17" s="48">
         <v>15</v>
       </c>
       <c r="I17" s="4" t="s">
@@ -8123,7 +8126,7 @@
       <c r="F18" s="4">
         <v>1</v>
       </c>
-      <c r="H18" s="47">
+      <c r="H18" s="48">
         <v>16</v>
       </c>
       <c r="I18" s="4" t="s">
@@ -8149,7 +8152,7 @@
       <c r="F19" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="47">
+      <c r="H19" s="48">
         <v>17</v>
       </c>
       <c r="I19" s="4" t="s">
@@ -8175,7 +8178,7 @@
       <c r="F20" s="4">
         <v>1</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="48">
         <v>18</v>
       </c>
       <c r="I20" s="4" t="s">
@@ -8201,7 +8204,7 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="H21" s="47">
+      <c r="H21" s="48">
         <v>19</v>
       </c>
       <c r="I21" s="4" t="s">
@@ -8227,7 +8230,7 @@
       <c r="F22" s="4">
         <v>5</v>
       </c>
-      <c r="H22" s="47">
+      <c r="H22" s="48">
         <v>20</v>
       </c>
       <c r="I22" s="4" t="s">
@@ -8253,7 +8256,7 @@
       <c r="F23" s="4">
         <v>3</v>
       </c>
-      <c r="H23" s="47">
+      <c r="H23" s="48">
         <v>21</v>
       </c>
       <c r="I23" s="4" t="s">
@@ -8279,7 +8282,7 @@
       <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="H24" s="47">
+      <c r="H24" s="48">
         <v>22</v>
       </c>
       <c r="I24" s="4" t="s">
@@ -8305,7 +8308,7 @@
       <c r="F25" s="4">
         <v>5</v>
       </c>
-      <c r="H25" s="47">
+      <c r="H25" s="48">
         <v>23</v>
       </c>
       <c r="I25" s="4" t="s">
@@ -8331,7 +8334,7 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="H26" s="47">
+      <c r="H26" s="48">
         <v>24</v>
       </c>
       <c r="I26" s="4" t="s">
@@ -8357,7 +8360,7 @@
       <c r="F27" s="4">
         <v>5</v>
       </c>
-      <c r="H27" s="47">
+      <c r="H27" s="48">
         <v>25</v>
       </c>
       <c r="I27" s="4" t="s">
@@ -8383,7 +8386,7 @@
       <c r="F28" s="4">
         <v>5</v>
       </c>
-      <c r="H28" s="47">
+      <c r="H28" s="48">
         <v>26</v>
       </c>
       <c r="I28" s="4" t="s">
@@ -8409,7 +8412,7 @@
       <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="H29" s="47">
+      <c r="H29" s="48">
         <v>27</v>
       </c>
       <c r="I29" s="4" t="s">
@@ -8435,7 +8438,7 @@
       <c r="F30" s="4">
         <v>10</v>
       </c>
-      <c r="H30" s="47">
+      <c r="H30" s="48">
         <v>29</v>
       </c>
       <c r="I30" s="4" t="s">
@@ -8461,7 +8464,7 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="47">
+      <c r="H31" s="48">
         <v>30</v>
       </c>
       <c r="I31" s="4" t="s">
@@ -8487,7 +8490,7 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="47">
+      <c r="H32" s="48">
         <v>31</v>
       </c>
       <c r="I32" s="4" t="s">
@@ -8513,7 +8516,7 @@
       <c r="F33" s="4">
         <v>1</v>
       </c>
-      <c r="H33" s="47">
+      <c r="H33" s="48">
         <v>32</v>
       </c>
       <c r="I33" s="4" t="s">
@@ -8539,7 +8542,7 @@
       <c r="F34" s="4">
         <v>5</v>
       </c>
-      <c r="H34" s="47">
+      <c r="H34" s="48">
         <v>33</v>
       </c>
       <c r="I34" s="4" t="s">
@@ -8565,7 +8568,7 @@
       <c r="F35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="47">
+      <c r="H35" s="48">
         <v>34</v>
       </c>
       <c r="I35" s="4" t="s">
@@ -8591,7 +8594,7 @@
       <c r="F36" s="4">
         <v>5</v>
       </c>
-      <c r="H36" s="47">
+      <c r="H36" s="48">
         <v>35</v>
       </c>
       <c r="I36" s="4" t="s">
@@ -8617,7 +8620,7 @@
       <c r="F37" s="4">
         <v>20000</v>
       </c>
-      <c r="H37" s="47">
+      <c r="H37" s="48">
         <v>36</v>
       </c>
       <c r="I37" s="4" t="s">
@@ -8643,7 +8646,7 @@
       <c r="F38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="47">
+      <c r="H38" s="48">
         <v>37</v>
       </c>
       <c r="I38" s="4" t="s">
@@ -8669,7 +8672,7 @@
       <c r="F39" s="4">
         <v>3</v>
       </c>
-      <c r="H39" s="47">
+      <c r="H39" s="48">
         <v>37</v>
       </c>
       <c r="I39" s="4" t="s">
@@ -8695,7 +8698,7 @@
       <c r="F40" s="4">
         <v>1</v>
       </c>
-      <c r="H40" s="47">
+      <c r="H40" s="48">
         <v>39</v>
       </c>
       <c r="I40" s="4" t="s">
@@ -8721,7 +8724,7 @@
       <c r="F41" s="4">
         <v>8</v>
       </c>
-      <c r="H41" s="47">
+      <c r="H41" s="48">
         <v>40</v>
       </c>
       <c r="I41" s="4" t="s">
@@ -8747,7 +8750,7 @@
       <c r="F42" s="4">
         <v>50000</v>
       </c>
-      <c r="H42" s="47">
+      <c r="H42" s="48">
         <v>40</v>
       </c>
       <c r="I42" s="4" t="s">
@@ -8773,7 +8776,7 @@
       <c r="F43" s="4">
         <v>10</v>
       </c>
-      <c r="H43" s="47">
+      <c r="H43" s="48">
         <v>42</v>
       </c>
       <c r="I43" s="4" t="s">
@@ -8799,7 +8802,7 @@
       <c r="F44" s="4">
         <v>100000</v>
       </c>
-      <c r="H44" s="47">
+      <c r="H44" s="48">
         <v>42</v>
       </c>
       <c r="I44" s="4" t="s">
@@ -8825,7 +8828,7 @@
       <c r="F45" s="4">
         <v>600</v>
       </c>
-      <c r="H45" s="47">
+      <c r="H45" s="48">
         <v>44</v>
       </c>
       <c r="I45" s="4" t="s">
@@ -8851,7 +8854,7 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="H46" s="47">
+      <c r="H46" s="48">
         <v>44</v>
       </c>
       <c r="I46" s="4" t="s">
@@ -8877,7 +8880,7 @@
       <c r="F47" s="4">
         <v>1</v>
       </c>
-      <c r="H47" s="47">
+      <c r="H47" s="48">
         <v>46</v>
       </c>
       <c r="I47" s="4" t="s">
@@ -8903,7 +8906,7 @@
       <c r="F48" s="4">
         <v>1</v>
       </c>
-      <c r="H48" s="47">
+      <c r="H48" s="48">
         <v>47</v>
       </c>
       <c r="I48" s="4" t="s">
@@ -8929,7 +8932,7 @@
       <c r="F49" s="4">
         <v>1</v>
       </c>
-      <c r="H49" s="47">
+      <c r="H49" s="48">
         <v>48</v>
       </c>
       <c r="I49" s="4" t="s">
@@ -8955,7 +8958,7 @@
       <c r="F50" s="4">
         <v>1</v>
       </c>
-      <c r="H50" s="47">
+      <c r="H50" s="48">
         <v>49</v>
       </c>
       <c r="I50" s="4" t="s">
@@ -8978,11 +8981,11 @@
       <c r="E51" s="4">
         <v>0</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="79" t="s">
         <v>222</v>
       </c>
-      <c r="G51" s="52"/>
-      <c r="H51" s="47" t="s">
+      <c r="G51" s="53"/>
+      <c r="H51" s="48" t="s">
         <v>223</v>
       </c>
       <c r="I51" s="4" t="s">
@@ -9008,7 +9011,7 @@
       <c r="F52" s="4">
         <v>8</v>
       </c>
-      <c r="H52" s="47">
+      <c r="H52" s="48">
         <v>60</v>
       </c>
       <c r="I52" s="4" t="s">
@@ -9034,7 +9037,7 @@
       <c r="F53" s="4">
         <v>1</v>
       </c>
-      <c r="H53" s="47">
+      <c r="H53" s="48">
         <v>61</v>
       </c>
       <c r="I53" s="4" t="s">
@@ -9060,7 +9063,7 @@
       <c r="F54" s="4">
         <v>0</v>
       </c>
-      <c r="H54" s="47">
+      <c r="H54" s="48">
         <v>62</v>
       </c>
       <c r="I54" s="4" t="s">
@@ -9086,7 +9089,7 @@
       <c r="F55" s="4">
         <v>0</v>
       </c>
-      <c r="H55" s="47">
+      <c r="H55" s="48">
         <v>63</v>
       </c>
       <c r="I55" s="4" t="s">
@@ -9112,7 +9115,7 @@
       <c r="F56" s="4">
         <v>1</v>
       </c>
-      <c r="H56" s="47">
+      <c r="H56" s="48">
         <v>64</v>
       </c>
       <c r="I56" s="4" t="s">
@@ -9138,7 +9141,7 @@
       <c r="F57" s="4">
         <v>2000000</v>
       </c>
-      <c r="H57" s="47">
+      <c r="H57" s="48">
         <v>65</v>
       </c>
       <c r="I57" s="4" t="s">
@@ -9256,7 +9259,7 @@
       <c r="F62" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="H62" s="47" t="s">
+      <c r="H62" s="48" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9348,7 +9351,7 @@
       <c r="F66" s="4">
         <v>0</v>
       </c>
-      <c r="H66" s="47">
+      <c r="H66" s="48">
         <v>70</v>
       </c>
       <c r="I66" s="4" t="s">
@@ -9374,7 +9377,7 @@
       <c r="F67" s="4">
         <v>0</v>
       </c>
-      <c r="H67" s="47">
+      <c r="H67" s="48">
         <v>71</v>
       </c>
       <c r="I67" s="4" t="s">
@@ -9397,10 +9400,10 @@
       <c r="E68" s="4">
         <v>0</v>
       </c>
-      <c r="F68" s="55">
+      <c r="F68" s="56">
         <v>99999999999</v>
       </c>
-      <c r="G68" s="55"/>
+      <c r="G68" s="56"/>
       <c r="I68" s="10" t="s">
         <v>230</v>
       </c>
@@ -9427,7 +9430,7 @@
       <c r="G69" s="4">
         <v>100000000</v>
       </c>
-      <c r="H69" s="47">
+      <c r="H69" s="48">
         <v>72</v>
       </c>
       <c r="I69" s="4" t="s">
@@ -9481,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="G71" s="14"/>
-      <c r="H71" s="56">
+      <c r="H71" s="57">
         <v>88</v>
       </c>
       <c r="I71" s="14" t="s">
@@ -9508,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="G72" s="14"/>
-      <c r="H72" s="56">
+      <c r="H72" s="57">
         <v>89</v>
       </c>
       <c r="I72" s="14" t="s">
@@ -9535,7 +9538,7 @@
         <v>1</v>
       </c>
       <c r="G73" s="14"/>
-      <c r="H73" s="56">
+      <c r="H73" s="57">
         <v>90</v>
       </c>
       <c r="I73" s="14" t="s">
@@ -9562,7 +9565,7 @@
         <v>1</v>
       </c>
       <c r="G74" s="14"/>
-      <c r="H74" s="56">
+      <c r="H74" s="57">
         <v>91</v>
       </c>
       <c r="I74" s="14" t="s">
@@ -9589,7 +9592,7 @@
         <v>10</v>
       </c>
       <c r="G75" s="14"/>
-      <c r="H75" s="56"/>
+      <c r="H75" s="57"/>
       <c r="I75" s="14"/>
     </row>
     <row r="76" s="40" customFormat="1" spans="1:9">
@@ -9612,7 +9615,7 @@
         <v>10</v>
       </c>
       <c r="G76" s="14"/>
-      <c r="H76" s="56"/>
+      <c r="H76" s="57"/>
       <c r="I76" s="14"/>
     </row>
     <row r="77" s="40" customFormat="1" spans="1:9">
@@ -9637,7 +9640,7 @@
       <c r="G77" s="14">
         <v>500000000</v>
       </c>
-      <c r="H77" s="56">
+      <c r="H77" s="57">
         <v>92</v>
       </c>
       <c r="I77" s="14" t="s">
@@ -9666,7 +9669,7 @@
       <c r="G78" s="14">
         <v>2000000000</v>
       </c>
-      <c r="H78" s="56">
+      <c r="H78" s="57">
         <v>93</v>
       </c>
       <c r="I78" s="14" t="s">
@@ -9674,10 +9677,10 @@
       </c>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:9">
-      <c r="A79" s="57">
+      <c r="A79" s="58">
         <v>78</v>
       </c>
-      <c r="B79" s="57">
+      <c r="B79" s="58">
         <v>78</v>
       </c>
       <c r="C79" s="41"/>
@@ -9689,7 +9692,7 @@
         <v>50000</v>
       </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="58">
+      <c r="H79" s="59">
         <v>94</v>
       </c>
       <c r="I79" s="8" t="s">
@@ -9697,10 +9700,10 @@
       </c>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:9">
-      <c r="A80" s="57">
+      <c r="A80" s="58">
         <v>79</v>
       </c>
-      <c r="B80" s="57">
+      <c r="B80" s="58">
         <v>79</v>
       </c>
       <c r="C80" s="41"/>
@@ -9712,7 +9715,7 @@
         <v>500000</v>
       </c>
       <c r="G80" s="8"/>
-      <c r="H80" s="58">
+      <c r="H80" s="59">
         <v>95</v>
       </c>
       <c r="I80" s="8" t="s">
@@ -9720,10 +9723,10 @@
       </c>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:9">
-      <c r="A81" s="57">
+      <c r="A81" s="58">
         <v>80</v>
       </c>
-      <c r="B81" s="57">
+      <c r="B81" s="58">
         <v>80</v>
       </c>
       <c r="C81" s="41"/>
@@ -9735,7 +9738,7 @@
         <v>2000000</v>
       </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="58">
+      <c r="H81" s="59">
         <v>96</v>
       </c>
       <c r="I81" s="41" t="s">
@@ -9764,7 +9767,7 @@
       <c r="G82" s="32">
         <v>500000000</v>
       </c>
-      <c r="H82" s="59">
+      <c r="H82" s="60">
         <v>97</v>
       </c>
       <c r="I82" s="44" t="s">
@@ -9791,7 +9794,7 @@
       <c r="G83" s="20">
         <v>1000000000</v>
       </c>
-      <c r="H83" s="60">
+      <c r="H83" s="61">
         <v>98</v>
       </c>
       <c r="I83" s="20" t="s">
@@ -9818,7 +9821,7 @@
       <c r="G84" s="20">
         <v>5000000000</v>
       </c>
-      <c r="H84" s="60">
+      <c r="H84" s="61">
         <v>99</v>
       </c>
       <c r="I84" s="20" t="s">
@@ -9845,7 +9848,7 @@
       <c r="G85" s="20">
         <v>20000000000</v>
       </c>
-      <c r="H85" s="60">
+      <c r="H85" s="61">
         <v>100</v>
       </c>
       <c r="I85" s="20" t="s">
@@ -9986,7 +9989,7 @@
         <v>50000</v>
       </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="58">
+      <c r="H91" s="59">
         <v>107</v>
       </c>
       <c r="I91" s="8" t="s">
@@ -10009,7 +10012,7 @@
         <v>500000</v>
       </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="58">
+      <c r="H92" s="59">
         <v>108</v>
       </c>
       <c r="I92" s="8" t="s">
@@ -10032,7 +10035,7 @@
         <v>2000000</v>
       </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="58">
+      <c r="H93" s="59">
         <v>109</v>
       </c>
       <c r="I93" s="41" t="s">
@@ -10095,7 +10098,7 @@
       <c r="F96" s="4">
         <v>30000</v>
       </c>
-      <c r="H96" s="47">
+      <c r="H96" s="48">
         <v>120</v>
       </c>
       <c r="I96" s="10" t="s">
@@ -10106,20 +10109,20 @@
       <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="61">
+      <c r="B97" s="62">
         <v>96</v>
       </c>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="62"/>
-      <c r="F97" s="63" t="s">
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="64" t="s">
         <v>246</v>
       </c>
-      <c r="G97" s="62"/>
-      <c r="H97" s="64" t="s">
+      <c r="G97" s="63"/>
+      <c r="H97" s="65" t="s">
         <v>247</v>
       </c>
-      <c r="I97" s="63" t="s">
+      <c r="I97" s="64" t="s">
         <v>209</v>
       </c>
       <c r="J97" s="45"/>
@@ -10134,10 +10137,10 @@
       <c r="D98" s="4">
         <v>96</v>
       </c>
-      <c r="F98" s="65" t="s">
+      <c r="F98" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="H98" s="65" t="s">
+      <c r="H98" s="66" t="s">
         <v>249</v>
       </c>
       <c r="I98" s="10" t="s">
@@ -10214,11 +10217,11 @@
       <c r="C102" s="32"/>
       <c r="D102" s="32"/>
       <c r="E102" s="32"/>
-      <c r="F102" s="66" t="s">
+      <c r="F102" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="G102" s="66"/>
-      <c r="H102" s="59" t="s">
+      <c r="G102" s="67"/>
+      <c r="H102" s="60" t="s">
         <v>256</v>
       </c>
       <c r="I102" s="32" t="s">
@@ -10235,11 +10238,11 @@
       <c r="C103" s="32"/>
       <c r="D103" s="32"/>
       <c r="E103" s="32"/>
-      <c r="F103" s="66" t="s">
+      <c r="F103" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="G103" s="66"/>
-      <c r="H103" s="59" t="s">
+      <c r="G103" s="67"/>
+      <c r="H103" s="60" t="s">
         <v>257</v>
       </c>
       <c r="I103" s="32" t="s">
@@ -10256,18 +10259,18 @@
       <c r="C104" s="32"/>
       <c r="D104" s="32"/>
       <c r="E104" s="32"/>
-      <c r="F104" s="66" t="s">
+      <c r="F104" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="G104" s="66"/>
-      <c r="H104" s="59" t="s">
+      <c r="G104" s="67"/>
+      <c r="H104" s="60" t="s">
         <v>258</v>
       </c>
       <c r="I104" s="32" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="105" s="46" customFormat="1" spans="1:10">
+    <row r="105" s="47" customFormat="1" spans="1:10">
       <c r="A105" s="18">
         <v>104</v>
       </c>
@@ -10283,17 +10286,17 @@
         <v>1</v>
       </c>
       <c r="G105" s="20"/>
-      <c r="H105" s="60" t="s">
+      <c r="H105" s="61" t="s">
         <v>259</v>
       </c>
       <c r="I105" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J105" s="46">
+      <c r="J105" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="106" s="46" customFormat="1" spans="1:10">
+    <row r="106" s="47" customFormat="1" spans="1:10">
       <c r="A106" s="18">
         <v>105</v>
       </c>
@@ -10309,17 +10312,17 @@
         <v>1</v>
       </c>
       <c r="G106" s="20"/>
-      <c r="H106" s="60" t="s">
+      <c r="H106" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I106" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J106" s="46">
+      <c r="J106" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="107" s="46" customFormat="1" spans="1:10">
+    <row r="107" s="47" customFormat="1" spans="1:10">
       <c r="A107" s="18">
         <v>106</v>
       </c>
@@ -10335,17 +10338,17 @@
         <v>50000</v>
       </c>
       <c r="G107" s="20"/>
-      <c r="H107" s="60" t="s">
+      <c r="H107" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I107" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J107" s="46">
+      <c r="J107" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="108" s="46" customFormat="1" spans="1:10">
+    <row r="108" s="47" customFormat="1" spans="1:10">
       <c r="A108" s="18">
         <v>107</v>
       </c>
@@ -10361,17 +10364,17 @@
         <v>1</v>
       </c>
       <c r="G108" s="20"/>
-      <c r="H108" s="60" t="s">
+      <c r="H108" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I108" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J108" s="46">
+      <c r="J108" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="109" s="46" customFormat="1" spans="1:10">
+    <row r="109" s="47" customFormat="1" spans="1:10">
       <c r="A109" s="18">
         <v>108</v>
       </c>
@@ -10387,17 +10390,17 @@
         <v>10</v>
       </c>
       <c r="G109" s="20"/>
-      <c r="H109" s="60" t="s">
+      <c r="H109" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I109" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J109" s="46">
+      <c r="J109" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="110" s="46" customFormat="1" spans="1:10">
+    <row r="110" s="47" customFormat="1" spans="1:10">
       <c r="A110" s="18">
         <v>109</v>
       </c>
@@ -10413,17 +10416,17 @@
         <v>10</v>
       </c>
       <c r="G110" s="20"/>
-      <c r="H110" s="60" t="s">
+      <c r="H110" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I110" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J110" s="46">
+      <c r="J110" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="111" s="46" customFormat="1" spans="1:10">
+    <row r="111" s="47" customFormat="1" spans="1:10">
       <c r="A111" s="18">
         <v>110</v>
       </c>
@@ -10439,17 +10442,17 @@
         <v>600</v>
       </c>
       <c r="G111" s="20"/>
-      <c r="H111" s="60" t="s">
+      <c r="H111" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I111" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J111" s="46">
+      <c r="J111" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="112" s="46" customFormat="1" spans="1:10">
+    <row r="112" s="47" customFormat="1" spans="1:10">
       <c r="A112" s="18">
         <v>111</v>
       </c>
@@ -10465,17 +10468,17 @@
         <v>1</v>
       </c>
       <c r="G112" s="20"/>
-      <c r="H112" s="60" t="s">
+      <c r="H112" s="61" t="s">
         <v>260</v>
       </c>
       <c r="I112" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J112" s="46">
+      <c r="J112" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="113" s="46" customFormat="1" spans="1:10">
+    <row r="113" s="47" customFormat="1" spans="1:10">
       <c r="A113" s="18">
         <v>112</v>
       </c>
@@ -10491,17 +10494,17 @@
         <v>3</v>
       </c>
       <c r="G113" s="20"/>
-      <c r="H113" s="60" t="s">
+      <c r="H113" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I113" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J113" s="46">
+      <c r="J113" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="114" s="46" customFormat="1" spans="1:10">
+    <row r="114" s="47" customFormat="1" spans="1:10">
       <c r="A114" s="18">
         <v>113</v>
       </c>
@@ -10517,17 +10520,17 @@
         <v>1000000</v>
       </c>
       <c r="G114" s="20"/>
-      <c r="H114" s="60" t="s">
+      <c r="H114" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I114" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J114" s="46">
+      <c r="J114" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="115" s="46" customFormat="1" spans="1:10">
+    <row r="115" s="47" customFormat="1" spans="1:10">
       <c r="A115" s="18">
         <v>114</v>
       </c>
@@ -10543,17 +10546,17 @@
         <v>50</v>
       </c>
       <c r="G115" s="20"/>
-      <c r="H115" s="60" t="s">
+      <c r="H115" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I115" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J115" s="46">
+      <c r="J115" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="116" s="46" customFormat="1" spans="1:10">
+    <row r="116" s="47" customFormat="1" spans="1:10">
       <c r="A116" s="18">
         <v>115</v>
       </c>
@@ -10569,17 +10572,17 @@
         <v>100</v>
       </c>
       <c r="G116" s="20"/>
-      <c r="H116" s="60" t="s">
+      <c r="H116" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I116" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J116" s="46">
+      <c r="J116" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="117" s="46" customFormat="1" spans="1:10">
+    <row r="117" s="47" customFormat="1" spans="1:10">
       <c r="A117" s="18">
         <v>116</v>
       </c>
@@ -10595,17 +10598,17 @@
         <v>20</v>
       </c>
       <c r="G117" s="20"/>
-      <c r="H117" s="60" t="s">
+      <c r="H117" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I117" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J117" s="46">
+      <c r="J117" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="118" s="46" customFormat="1" spans="1:10">
+    <row r="118" s="47" customFormat="1" spans="1:10">
       <c r="A118" s="18">
         <v>117</v>
       </c>
@@ -10621,17 +10624,17 @@
         <v>5400</v>
       </c>
       <c r="G118" s="20"/>
-      <c r="H118" s="60" t="s">
+      <c r="H118" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I118" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J118" s="46">
+      <c r="J118" s="47">
         <v>2</v>
       </c>
     </row>
-    <row r="119" s="46" customFormat="1" spans="1:10">
+    <row r="119" s="47" customFormat="1" spans="1:10">
       <c r="A119" s="18">
         <v>118</v>
       </c>
@@ -10647,13 +10650,13 @@
         <v>4800</v>
       </c>
       <c r="G119" s="20"/>
-      <c r="H119" s="60" t="s">
+      <c r="H119" s="61" t="s">
         <v>261</v>
       </c>
       <c r="I119" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="J119" s="46">
+      <c r="J119" s="47">
         <v>2</v>
       </c>
     </row>
@@ -10669,10 +10672,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12920,7 +12923,7 @@
       <c r="B138" s="20">
         <v>104</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="46" t="s">
         <v>297</v>
       </c>
       <c r="D138" s="18">

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -2075,8 +2075,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2114,15 +2114,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -2136,39 +2128,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2190,22 +2158,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2220,15 +2188,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2237,6 +2206,37 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2251,7 +2251,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,7 +2337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2349,7 +2361,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,109 +2445,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2481,7 +2481,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2525,46 +2525,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2586,11 +2547,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2598,8 +2557,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2618,16 +2592,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,133 +2636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -3303,10 +3303,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F94" sqref="F94"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7632,9 +7632,9 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F105" sqref="F105"/>
+      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10644,7 +10644,7 @@
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20">
-        <v>100</v>
+        <v>4800</v>
       </c>
       <c r="G119" s="20"/>
       <c r="H119" s="60" t="s">
@@ -10670,9 +10670,9 @@
   <dimension ref="A1:I148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -13085,7 +13085,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
+      <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16811,9 +16811,9 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
+      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="497">
   <si>
     <t>id|任务id</t>
   </si>
@@ -2075,10 +2075,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -2114,6 +2114,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2127,23 +2141,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2157,39 +2177,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2211,31 +2200,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2250,16 +2224,42 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -2337,19 +2337,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2361,25 +2373,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2391,31 +2397,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2433,13 +2415,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2451,7 +2439,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,13 +2457,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2481,7 +2475,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2537,6 +2537,63 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -2561,73 +2618,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,136 +2636,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3306,10 +3306,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E122" sqref="E122"/>
+      <selection pane="bottomLeft" activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7637,7 +7637,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B120" sqref="B120"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10672,10 +10672,10 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F141" sqref="F141"/>
+      <selection pane="bottomLeft" activeCell="D138" sqref="D138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16811,12 +16811,12 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -18087,10 +18087,10 @@
         <v>41</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E74" s="4">
         <v>2</v>
@@ -18101,15 +18101,32 @@
         <v>74</v>
       </c>
       <c r="B75" s="4">
+        <v>41</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="12">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4">
         <v>42</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C76" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="D75" s="4">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4">
+      <c r="D76" s="4">
+        <v>1</v>
+      </c>
+      <c r="E76" s="4">
         <v>3</v>
       </c>
     </row>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -1779,7 +1779,7 @@
     <t>fish_prop</t>
   </si>
   <si>
-    <t>prop_3d_fish_frozen,prop_3d_fish_lock,prop_3d_fish_accelerate,prop_3d_fish_wild,prop_3d_fish_doubled,prop_3d_fish_summon_fish</t>
+    <t>"prop_3d_fish_frozen","prop_3d_fish_lock","prop_3d_fish_accelerate","prop_3d_fish_wild","prop_3d_fish_doubled","prop_3d_fish_summon_fish"</t>
   </si>
   <si>
     <t>pay_money</t>
@@ -2075,8 +2075,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -2114,6 +2114,29 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -2129,36 +2152,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2173,47 +2175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2235,8 +2197,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2249,9 +2250,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2337,13 +2337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2367,13 +2373,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,13 +2403,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2403,19 +2421,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2427,31 +2463,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,19 +2475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2547,9 +2547,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2593,28 +2610,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2624,10 +2624,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2636,133 +2636,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -3303,10 +3303,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U118"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7631,10 +7631,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F128" sqref="F128"/>
+      <selection pane="bottomLeft" activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -10640,7 +10640,7 @@
       </c>
       <c r="C119" s="20"/>
       <c r="D119" s="20">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E119" s="20"/>
       <c r="F119" s="20">
@@ -10672,7 +10672,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <selection pane="bottomLeft" activeCell="B135" sqref="B135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -16810,10 +16810,10 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -3779,9 +3779,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D134" sqref="D134"/>
+      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8638,9 +8638,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H138" sqref="H138"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="C131" s="86"/>
       <c r="D131" s="86">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="E131" s="86"/>
       <c r="F131" s="93" t="s">
@@ -11996,8 +11996,8 @@
   <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H159" sqref="H159"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F120" sqref="B120:F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -54558,16 +54558,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1529" uniqueCount="604">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3041,6 +3041,44 @@
   </si>
   <si>
     <t>新人七天乐（day7）-累计充值10-100-200-500-1000元</t>
+  </si>
+  <si>
+    <t>p_new_player_task</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_new_player_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p_new_player_task</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_2</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3779,9 +3817,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C124" sqref="C124"/>
+      <selection pane="bottomLeft" activeCell="F115" activeCellId="1" sqref="D128 F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8180,8 +8218,8 @@
       <c r="C121" s="77" t="s">
         <v>499</v>
       </c>
-      <c r="D121" s="77" t="s">
-        <v>502</v>
+      <c r="D121" s="78" t="s">
+        <v>602</v>
       </c>
       <c r="E121" s="78" t="s">
         <v>505</v>
@@ -8218,8 +8256,8 @@
       <c r="C122" s="77" t="s">
         <v>500</v>
       </c>
-      <c r="D122" s="77" t="s">
-        <v>502</v>
+      <c r="D122" s="78" t="s">
+        <v>601</v>
       </c>
       <c r="E122" s="78" t="s">
         <v>506</v>
@@ -8256,8 +8294,8 @@
       <c r="C123" s="77" t="s">
         <v>501</v>
       </c>
-      <c r="D123" s="77" t="s">
-        <v>502</v>
+      <c r="D123" s="78" t="s">
+        <v>603</v>
       </c>
       <c r="E123" s="78" t="s">
         <v>507</v>
@@ -8638,9 +8676,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
+      <selection pane="bottomLeft" activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -15991,8 +16029,8 @@
   <dimension ref="A1:I288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G284" sqref="G284"/>
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B210" sqref="B210:E211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3622,13 +3622,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3644,6 +3637,13 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3924,9 +3924,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D137" sqref="D137"/>
+      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="I133" s="12">
-        <v>1619452800</v>
+        <v>1635177600</v>
       </c>
       <c r="J133" s="12">
         <v>32503651200</v>
@@ -8835,7 +8835,7 @@
         <v>20</v>
       </c>
       <c r="I134" s="12">
-        <v>1619452800</v>
+        <v>1635177600</v>
       </c>
       <c r="J134" s="12">
         <v>32503651200</v>
@@ -8873,7 +8873,7 @@
         <v>20</v>
       </c>
       <c r="I135" s="12">
-        <v>1619452800</v>
+        <v>1635177600</v>
       </c>
       <c r="J135" s="12">
         <v>32503651200</v>
@@ -12242,72 +12242,72 @@
         <v>530</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="104" customFormat="1">
-      <c r="A134" s="101">
+    <row r="134" spans="1:9" s="101" customFormat="1">
+      <c r="A134" s="98">
         <v>133</v>
       </c>
-      <c r="B134" s="101">
+      <c r="B134" s="98">
         <v>133</v>
       </c>
-      <c r="C134" s="102"/>
-      <c r="D134" s="102">
+      <c r="C134" s="99"/>
+      <c r="D134" s="99">
         <v>96</v>
       </c>
-      <c r="E134" s="102"/>
-      <c r="F134" s="103" t="s">
+      <c r="E134" s="99"/>
+      <c r="F134" s="100" t="s">
         <v>612</v>
       </c>
-      <c r="G134" s="102"/>
-      <c r="H134" s="103" t="s">
+      <c r="G134" s="99"/>
+      <c r="H134" s="100" t="s">
         <v>610</v>
       </c>
-      <c r="I134" s="102" t="s">
+      <c r="I134" s="99" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="104" customFormat="1" ht="57">
-      <c r="A135" s="101">
+    <row r="135" spans="1:9" s="101" customFormat="1" ht="57">
+      <c r="A135" s="98">
         <v>134</v>
       </c>
-      <c r="B135" s="101">
+      <c r="B135" s="98">
         <v>134</v>
       </c>
-      <c r="C135" s="102"/>
-      <c r="D135" s="102">
+      <c r="C135" s="99"/>
+      <c r="D135" s="99">
         <v>96</v>
       </c>
-      <c r="E135" s="102"/>
-      <c r="F135" s="105" t="s">
+      <c r="E135" s="99"/>
+      <c r="F135" s="102" t="s">
         <v>613</v>
       </c>
-      <c r="G135" s="102"/>
-      <c r="H135" s="106" t="s">
+      <c r="G135" s="99"/>
+      <c r="H135" s="103" t="s">
         <v>616</v>
       </c>
-      <c r="I135" s="102" t="s">
+      <c r="I135" s="99" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="104" customFormat="1" ht="28.5">
-      <c r="A136" s="101">
+    <row r="136" spans="1:9" s="101" customFormat="1" ht="28.5">
+      <c r="A136" s="98">
         <v>135</v>
       </c>
-      <c r="B136" s="101">
+      <c r="B136" s="98">
         <v>135</v>
       </c>
-      <c r="C136" s="102"/>
-      <c r="D136" s="102">
+      <c r="C136" s="99"/>
+      <c r="D136" s="99">
         <v>97</v>
       </c>
-      <c r="E136" s="102"/>
-      <c r="F136" s="105" t="s">
+      <c r="E136" s="99"/>
+      <c r="F136" s="102" t="s">
         <v>615</v>
       </c>
-      <c r="G136" s="102"/>
-      <c r="H136" s="106" t="s">
+      <c r="G136" s="99"/>
+      <c r="H136" s="103" t="s">
         <v>617</v>
       </c>
-      <c r="I136" s="102" t="s">
+      <c r="I136" s="99" t="s">
         <v>614</v>
       </c>
     </row>
@@ -14312,7 +14312,7 @@
       <c r="D120" s="18">
         <v>0</v>
       </c>
-      <c r="F120" s="98" t="s">
+      <c r="F120" s="104" t="s">
         <v>282</v>
       </c>
     </row>
@@ -14329,7 +14329,7 @@
       <c r="D121" s="18">
         <v>0</v>
       </c>
-      <c r="F121" s="98"/>
+      <c r="F121" s="104"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="20">
@@ -14344,7 +14344,7 @@
       <c r="D122" s="18">
         <v>0</v>
       </c>
-      <c r="F122" s="98"/>
+      <c r="F122" s="104"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="20">
@@ -14359,7 +14359,7 @@
       <c r="D123" s="18">
         <v>0</v>
       </c>
-      <c r="F123" s="98"/>
+      <c r="F123" s="104"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20">
@@ -14374,7 +14374,7 @@
       <c r="D124" s="18">
         <v>0</v>
       </c>
-      <c r="F124" s="98"/>
+      <c r="F124" s="104"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="20">
@@ -14389,7 +14389,7 @@
       <c r="D125" s="18">
         <v>0</v>
       </c>
-      <c r="F125" s="98"/>
+      <c r="F125" s="104"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="20">
@@ -14404,7 +14404,7 @@
       <c r="D126" s="18">
         <v>0</v>
       </c>
-      <c r="F126" s="98"/>
+      <c r="F126" s="104"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="20">
@@ -14419,7 +14419,7 @@
       <c r="D127" s="18">
         <v>0</v>
       </c>
-      <c r="F127" s="98"/>
+      <c r="F127" s="104"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="20">
@@ -14434,7 +14434,7 @@
       <c r="D128" s="18">
         <v>0</v>
       </c>
-      <c r="F128" s="98"/>
+      <c r="F128" s="104"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="20">
@@ -14449,7 +14449,7 @@
       <c r="D129" s="18">
         <v>0</v>
       </c>
-      <c r="F129" s="98"/>
+      <c r="F129" s="104"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20">
@@ -14464,7 +14464,7 @@
       <c r="D130" s="18">
         <v>0</v>
       </c>
-      <c r="F130" s="98"/>
+      <c r="F130" s="104"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="20">
@@ -14479,7 +14479,7 @@
       <c r="D131" s="18">
         <v>0</v>
       </c>
-      <c r="F131" s="98"/>
+      <c r="F131" s="104"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="20">
@@ -14494,7 +14494,7 @@
       <c r="D132" s="18">
         <v>0</v>
       </c>
-      <c r="F132" s="98"/>
+      <c r="F132" s="104"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="20">
@@ -14509,7 +14509,7 @@
       <c r="D133" s="18">
         <v>0</v>
       </c>
-      <c r="F133" s="98"/>
+      <c r="F133" s="104"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="20">
@@ -14524,7 +14524,7 @@
       <c r="D134" s="18">
         <v>0</v>
       </c>
-      <c r="F134" s="98"/>
+      <c r="F134" s="104"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="20">
@@ -14539,7 +14539,7 @@
       <c r="D135" s="18">
         <v>0</v>
       </c>
-      <c r="F135" s="98"/>
+      <c r="F135" s="104"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="20">
@@ -22222,10 +22222,10 @@
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="105" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="99">
+      <c r="C2" s="105">
         <v>1</v>
       </c>
     </row>
@@ -22233,8 +22233,8 @@
       <c r="A3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -22284,10 +22284,10 @@
       <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="105" t="s">
         <v>428</v>
       </c>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="105" t="s">
         <v>423</v>
       </c>
     </row>
@@ -22295,17 +22295,17 @@
       <c r="A9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="105" t="s">
         <v>430</v>
       </c>
-      <c r="C10" s="99">
+      <c r="C10" s="105">
         <v>1</v>
       </c>
     </row>
@@ -22313,8 +22313,8 @@
       <c r="A11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -22419,10 +22419,10 @@
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="106" t="s">
         <v>445</v>
       </c>
-      <c r="C21" s="100">
+      <c r="C21" s="106">
         <v>1</v>
       </c>
     </row>
@@ -22430,8 +22430,8 @@
       <c r="A22" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -55437,10 +55437,10 @@
       <c r="A45" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="105" t="s">
         <v>478</v>
       </c>
-      <c r="C45" s="99" t="s">
+      <c r="C45" s="105" t="s">
         <v>423</v>
       </c>
     </row>
@@ -55448,8 +55448,8 @@
       <c r="A46" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="99"/>
-      <c r="C46" s="99"/>
+      <c r="B46" s="105"/>
+      <c r="C46" s="105"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -55552,16 +55552,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -3925,8 +3925,8 @@
   <dimension ref="A1:U135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I135" sqref="I135"/>
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -7429,7 +7429,7 @@
         <v>1619452800</v>
       </c>
       <c r="J97" s="12">
-        <v>32503651200</v>
+        <v>1635134399</v>
       </c>
       <c r="K97" s="12">
         <v>-1</v>
@@ -7467,7 +7467,7 @@
         <v>1619452800</v>
       </c>
       <c r="J98" s="12">
-        <v>32503651200</v>
+        <v>1635134399</v>
       </c>
       <c r="K98" s="12">
         <v>-1</v>
@@ -55552,16 +55552,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -7429,7 +7429,7 @@
         <v>1619452800</v>
       </c>
       <c r="J97" s="12">
-        <v>1635134399</v>
+        <v>1635004799</v>
       </c>
       <c r="K97" s="12">
         <v>-1</v>
@@ -7467,7 +7467,7 @@
         <v>1619452800</v>
       </c>
       <c r="J98" s="12">
-        <v>1635134399</v>
+        <v>1635004799</v>
       </c>
       <c r="K98" s="12">
         <v>-1</v>
@@ -55552,16 +55552,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task" sheetId="2" r:id="rId1"/>
@@ -3147,23 +3147,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>61,262,263,264,265,266,267,268,269,270,271,272,273,274</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>回归签到V1-V3</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3443,6 +3426,10 @@
   </si>
   <si>
     <t>10084,10,10080,10169,10190,10087,10088,10290,10291,10346,10347</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>261,261,262,263,264,265,266,267,268,269,270,271,272,273,274</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4242,7 +4229,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F135" sqref="F135"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9209,10 +9196,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="107" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D136" s="107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E136" s="108" t="s">
         <v>39</v>
@@ -9247,10 +9234,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D137" s="107" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E137" s="108" t="s">
         <v>39</v>
@@ -9285,10 +9272,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="107" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D138" s="107" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E138" s="108" t="s">
         <v>39</v>
@@ -9323,10 +9310,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="107" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D139" s="107" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E139" s="108" t="s">
         <v>39</v>
@@ -9361,13 +9348,13 @@
         <v>1</v>
       </c>
       <c r="C140" s="107" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D140" s="107" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E140" s="108" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F140" s="106">
         <v>140</v>
@@ -9399,10 +9386,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="105" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D141" s="105" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E141" s="108" t="s">
         <v>39</v>
@@ -9437,10 +9424,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D142" s="105" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E142" s="108" t="s">
         <v>39</v>
@@ -9475,13 +9462,13 @@
         <v>1</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D143" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="E143" s="12" t="s">
         <v>657</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>658</v>
       </c>
       <c r="F143" s="12">
         <v>143</v>
@@ -9517,9 +9504,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D136" sqref="D136"/>
+      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9557,7 +9544,7 @@
         <v>202</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I1" s="49" t="s">
         <v>203</v>
@@ -12991,7 +12978,7 @@
       <c r="G136" s="99"/>
       <c r="H136" s="99"/>
       <c r="I136" s="103" t="s">
-        <v>616</v>
+        <v>661</v>
       </c>
       <c r="J136" s="99" t="s">
         <v>613</v>
@@ -13008,13 +12995,13 @@
         <v>126</v>
       </c>
       <c r="F137" s="109" t="s">
+        <v>622</v>
+      </c>
+      <c r="I137" s="111" t="s">
+        <v>631</v>
+      </c>
+      <c r="J137" s="83" t="s">
         <v>623</v>
-      </c>
-      <c r="I137" s="111" t="s">
-        <v>632</v>
-      </c>
-      <c r="J137" s="83" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -13028,13 +13015,13 @@
         <v>126</v>
       </c>
       <c r="F138" s="109" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I138" s="109" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="J138" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -13048,13 +13035,13 @@
         <v>126</v>
       </c>
       <c r="F139" s="109" t="s">
+        <v>622</v>
+      </c>
+      <c r="I139" s="109" t="s">
+        <v>634</v>
+      </c>
+      <c r="J139" s="83" t="s">
         <v>623</v>
-      </c>
-      <c r="I139" s="109" t="s">
-        <v>635</v>
-      </c>
-      <c r="J139" s="83" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -13068,13 +13055,13 @@
         <v>119</v>
       </c>
       <c r="F140" s="109" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I140" s="109" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="J140" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -13090,14 +13077,14 @@
       </c>
       <c r="E141" s="104"/>
       <c r="F141" s="109" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G141" s="104"/>
       <c r="I141" s="109" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J141" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -13111,13 +13098,13 @@
         <v>126</v>
       </c>
       <c r="F142" s="109" t="s">
+        <v>646</v>
+      </c>
+      <c r="I142" s="109" t="s">
         <v>647</v>
       </c>
-      <c r="I142" s="109" t="s">
-        <v>648</v>
-      </c>
       <c r="J142" s="83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -13128,7 +13115,7 @@
         <v>142</v>
       </c>
       <c r="F143" s="48" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G143" s="4">
         <v>1</v>
@@ -13145,13 +13132,13 @@
         <v>127</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15719,7 +15706,7 @@
         <v>126</v>
       </c>
       <c r="C160" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D160" s="18">
         <v>0</v>
@@ -15733,7 +15720,7 @@
         <v>127</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D161" s="18">
         <v>49</v>
@@ -15754,7 +15741,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
@@ -16928,7 +16915,7 @@
         <v>391</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E68" s="4">
         <v>5</v>
@@ -17180,7 +17167,7 @@
         <v>49</v>
       </c>
       <c r="C83" s="83" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D83" s="4">
         <v>10641</v>
@@ -17202,8 +17189,8 @@
   <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A334" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B314" sqref="B314:D327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -20400,7 +20387,7 @@
         <v>160</v>
       </c>
       <c r="C178" s="110" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D178" s="32">
         <v>3</v>
@@ -20438,7 +20425,7 @@
         <v>162</v>
       </c>
       <c r="C180" s="110" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D180" s="32">
         <v>3</v>
@@ -22964,7 +22951,7 @@
         <v>275</v>
       </c>
       <c r="C328" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D328" s="4">
         <v>10000</v>
@@ -22981,7 +22968,7 @@
         <v>275</v>
       </c>
       <c r="C329" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D329" s="4">
         <v>1</v>
@@ -22998,7 +22985,7 @@
         <v>275</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D330" s="4">
         <v>604800</v>
@@ -23015,7 +23002,7 @@
         <v>276</v>
       </c>
       <c r="C331" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D331" s="4">
         <v>10000</v>
@@ -23032,7 +23019,7 @@
         <v>276</v>
       </c>
       <c r="C332" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D332" s="4">
         <v>3</v>
@@ -23049,7 +23036,7 @@
         <v>276</v>
       </c>
       <c r="C333" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D333" s="4">
         <v>3</v>
@@ -23066,7 +23053,7 @@
         <v>277</v>
       </c>
       <c r="C334" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D334" s="4">
         <v>10000</v>
@@ -23083,7 +23070,7 @@
         <v>277</v>
       </c>
       <c r="C335" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D335" s="4">
         <v>4</v>
@@ -23100,7 +23087,7 @@
         <v>277</v>
       </c>
       <c r="C336" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D336" s="4">
         <v>4</v>
@@ -23117,7 +23104,7 @@
         <v>278</v>
       </c>
       <c r="C337" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D337" s="4">
         <v>20000</v>
@@ -23134,7 +23121,7 @@
         <v>278</v>
       </c>
       <c r="C338" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D338" s="4">
         <v>5</v>
@@ -23151,7 +23138,7 @@
         <v>278</v>
       </c>
       <c r="C339" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D339" s="4">
         <v>5</v>
@@ -23168,7 +23155,7 @@
         <v>279</v>
       </c>
       <c r="C340" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D340" s="4">
         <v>20000</v>
@@ -23185,7 +23172,7 @@
         <v>279</v>
       </c>
       <c r="C341" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D341" s="4">
         <v>6</v>
@@ -23202,7 +23189,7 @@
         <v>279</v>
       </c>
       <c r="C342" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D342" s="4">
         <v>6</v>
@@ -23219,7 +23206,7 @@
         <v>280</v>
       </c>
       <c r="C343" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D343" s="4">
         <v>20000</v>
@@ -23236,7 +23223,7 @@
         <v>280</v>
       </c>
       <c r="C344" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D344" s="4">
         <v>8</v>
@@ -23253,7 +23240,7 @@
         <v>280</v>
       </c>
       <c r="C345" s="83" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D345" s="4">
         <v>8</v>
@@ -23270,7 +23257,7 @@
         <v>281</v>
       </c>
       <c r="C346" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D346" s="4">
         <v>50000</v>
@@ -23287,7 +23274,7 @@
         <v>281</v>
       </c>
       <c r="C347" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D347" s="4">
         <v>10</v>
@@ -23304,7 +23291,7 @@
         <v>281</v>
       </c>
       <c r="C348" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D348" s="4">
         <v>10</v>
@@ -23321,7 +23308,7 @@
         <v>282</v>
       </c>
       <c r="C349" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D349" s="4">
         <v>20000</v>
@@ -23338,7 +23325,7 @@
         <v>282</v>
       </c>
       <c r="C350" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D350" s="4">
         <v>2</v>
@@ -23355,7 +23342,7 @@
         <v>282</v>
       </c>
       <c r="C351" s="83" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D351" s="112">
         <v>604800</v>
@@ -23374,7 +23361,7 @@
         <v>283</v>
       </c>
       <c r="C352" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D352" s="4">
         <v>30000</v>
@@ -23391,7 +23378,7 @@
         <v>283</v>
       </c>
       <c r="C353" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D353" s="4">
         <v>3</v>
@@ -23408,7 +23395,7 @@
         <v>283</v>
       </c>
       <c r="C354" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D354" s="4">
         <v>3</v>
@@ -23425,7 +23412,7 @@
         <v>284</v>
       </c>
       <c r="C355" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D355" s="4">
         <v>40000</v>
@@ -23442,7 +23429,7 @@
         <v>284</v>
       </c>
       <c r="C356" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D356" s="4">
         <v>4</v>
@@ -23459,7 +23446,7 @@
         <v>284</v>
       </c>
       <c r="C357" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D357" s="4">
         <v>4</v>
@@ -23476,7 +23463,7 @@
         <v>285</v>
       </c>
       <c r="C358" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D358" s="4">
         <v>50000</v>
@@ -23493,7 +23480,7 @@
         <v>285</v>
       </c>
       <c r="C359" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D359" s="4">
         <v>5</v>
@@ -23510,7 +23497,7 @@
         <v>285</v>
       </c>
       <c r="C360" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D360" s="4">
         <v>5</v>
@@ -23527,7 +23514,7 @@
         <v>286</v>
       </c>
       <c r="C361" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D361" s="4">
         <v>60000</v>
@@ -23544,7 +23531,7 @@
         <v>286</v>
       </c>
       <c r="C362" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D362" s="4">
         <v>6</v>
@@ -23561,7 +23548,7 @@
         <v>286</v>
       </c>
       <c r="C363" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D363" s="4">
         <v>6</v>
@@ -23578,7 +23565,7 @@
         <v>287</v>
       </c>
       <c r="C364" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D364" s="4">
         <v>70000</v>
@@ -23595,7 +23582,7 @@
         <v>287</v>
       </c>
       <c r="C365" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D365" s="4">
         <v>8</v>
@@ -23612,7 +23599,7 @@
         <v>287</v>
       </c>
       <c r="C366" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D366" s="4">
         <v>8</v>
@@ -23629,7 +23616,7 @@
         <v>288</v>
       </c>
       <c r="C367" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D367" s="4">
         <v>80000</v>
@@ -23646,7 +23633,7 @@
         <v>288</v>
       </c>
       <c r="C368" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D368" s="4">
         <v>10</v>
@@ -23663,7 +23650,7 @@
         <v>288</v>
       </c>
       <c r="C369" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D369" s="4">
         <v>10</v>
@@ -23680,7 +23667,7 @@
         <v>289</v>
       </c>
       <c r="C370" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D370" s="4">
         <v>50000</v>
@@ -23697,7 +23684,7 @@
         <v>289</v>
       </c>
       <c r="C371" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D371" s="4">
         <v>5</v>
@@ -23714,7 +23701,7 @@
         <v>289</v>
       </c>
       <c r="C372" s="83" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D372" s="112">
         <v>604800</v>
@@ -23731,7 +23718,7 @@
         <v>290</v>
       </c>
       <c r="C373" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D373" s="4">
         <v>60000</v>
@@ -23748,7 +23735,7 @@
         <v>290</v>
       </c>
       <c r="C374" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D374" s="4">
         <v>6</v>
@@ -23765,7 +23752,7 @@
         <v>290</v>
       </c>
       <c r="C375" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D375" s="4">
         <v>6</v>
@@ -23782,7 +23769,7 @@
         <v>291</v>
       </c>
       <c r="C376" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D376" s="4">
         <v>70000</v>
@@ -23799,7 +23786,7 @@
         <v>291</v>
       </c>
       <c r="C377" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D377" s="4">
         <v>8</v>
@@ -23816,7 +23803,7 @@
         <v>291</v>
       </c>
       <c r="C378" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D378" s="4">
         <v>8</v>
@@ -23833,7 +23820,7 @@
         <v>292</v>
       </c>
       <c r="C379" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D379" s="4">
         <v>80000</v>
@@ -23850,7 +23837,7 @@
         <v>292</v>
       </c>
       <c r="C380" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D380" s="4">
         <v>10</v>
@@ -23867,7 +23854,7 @@
         <v>292</v>
       </c>
       <c r="C381" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D381" s="4">
         <v>10</v>
@@ -23884,7 +23871,7 @@
         <v>293</v>
       </c>
       <c r="C382" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D382" s="4">
         <v>90000</v>
@@ -23901,7 +23888,7 @@
         <v>293</v>
       </c>
       <c r="C383" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D383" s="4">
         <v>12</v>
@@ -23918,7 +23905,7 @@
         <v>293</v>
       </c>
       <c r="C384" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D384" s="4">
         <v>12</v>
@@ -23935,7 +23922,7 @@
         <v>294</v>
       </c>
       <c r="C385" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D385" s="4">
         <v>100000</v>
@@ -23952,7 +23939,7 @@
         <v>294</v>
       </c>
       <c r="C386" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D386" s="4">
         <v>15</v>
@@ -23969,7 +23956,7 @@
         <v>294</v>
       </c>
       <c r="C387" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D387" s="4">
         <v>15</v>
@@ -23986,7 +23973,7 @@
         <v>295</v>
       </c>
       <c r="C388" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D388" s="4">
         <v>200000</v>
@@ -24003,7 +23990,7 @@
         <v>295</v>
       </c>
       <c r="C389" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D389" s="4">
         <v>20</v>
@@ -24020,7 +24007,7 @@
         <v>295</v>
       </c>
       <c r="C390" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D390" s="4">
         <v>20</v>
@@ -24037,7 +24024,7 @@
         <v>296</v>
       </c>
       <c r="C391" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D391" s="4">
         <v>10000</v>
@@ -24054,7 +24041,7 @@
         <v>297</v>
       </c>
       <c r="C392" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D392" s="4">
         <v>5</v>
@@ -24071,7 +24058,7 @@
         <v>298</v>
       </c>
       <c r="C393" s="83" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D393" s="4">
         <v>5</v>
@@ -24088,7 +24075,7 @@
         <v>299</v>
       </c>
       <c r="C394" s="83" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D394" s="4">
         <v>10000</v>
@@ -24105,7 +24092,7 @@
         <v>300</v>
       </c>
       <c r="C395" s="83" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D395" s="4">
         <v>15000</v>
@@ -24122,7 +24109,7 @@
         <v>301</v>
       </c>
       <c r="C396" s="83" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D396" s="4">
         <v>20000</v>
@@ -24139,7 +24126,7 @@
         <v>302</v>
       </c>
       <c r="C397" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D397" s="4">
         <v>25000</v>
@@ -24156,7 +24143,7 @@
         <v>303</v>
       </c>
       <c r="C398" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D398" s="4">
         <v>50000</v>
@@ -24173,7 +24160,7 @@
         <v>304</v>
       </c>
       <c r="C399" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D399" s="4">
         <v>1000000</v>
@@ -24207,7 +24194,7 @@
         <v>305</v>
       </c>
       <c r="C401" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D401" s="4">
         <v>1000000</v>
@@ -24241,7 +24228,7 @@
         <v>306</v>
       </c>
       <c r="C403" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D403" s="4">
         <v>1000000</v>
@@ -24275,7 +24262,7 @@
         <v>307</v>
       </c>
       <c r="C405" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D405" s="4">
         <v>100000</v>
@@ -24309,7 +24296,7 @@
         <v>308</v>
       </c>
       <c r="C407" s="83" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D407" s="4">
         <v>200000</v>
@@ -24343,7 +24330,7 @@
         <v>309</v>
       </c>
       <c r="C409" s="83" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D409" s="4">
         <v>1000</v>
@@ -57828,16 +57815,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -3126,10 +3126,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>800,3200,6000,10000,20000,50000,60000,50000,80000,120000,250000,400000,400000,400000</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>236,236,237</t>
     </r>
@@ -3430,6 +3426,10 @@
   </si>
   <si>
     <t>261,261,262,263,264,265,266,267,268,269,270,271,272,273,274</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>800,3200,6000,10000,20000,50000,60000,50000,80000,120000,250000,150000,400000,400000,400000</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -9196,10 +9196,10 @@
         <v>1</v>
       </c>
       <c r="C136" s="107" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D136" s="107" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E136" s="108" t="s">
         <v>39</v>
@@ -9234,10 +9234,10 @@
         <v>1</v>
       </c>
       <c r="C137" s="107" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D137" s="107" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E137" s="108" t="s">
         <v>39</v>
@@ -9272,10 +9272,10 @@
         <v>1</v>
       </c>
       <c r="C138" s="107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D138" s="107" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E138" s="108" t="s">
         <v>39</v>
@@ -9310,10 +9310,10 @@
         <v>1</v>
       </c>
       <c r="C139" s="107" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D139" s="107" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E139" s="108" t="s">
         <v>39</v>
@@ -9348,13 +9348,13 @@
         <v>1</v>
       </c>
       <c r="C140" s="107" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D140" s="107" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E140" s="108" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F140" s="106">
         <v>140</v>
@@ -9386,10 +9386,10 @@
         <v>1</v>
       </c>
       <c r="C141" s="105" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D141" s="105" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E141" s="108" t="s">
         <v>39</v>
@@ -9424,10 +9424,10 @@
         <v>1</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D142" s="105" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E142" s="108" t="s">
         <v>39</v>
@@ -9462,13 +9462,13 @@
         <v>1</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D143" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="E143" s="12" t="s">
         <v>656</v>
-      </c>
-      <c r="E143" s="12" t="s">
-        <v>657</v>
       </c>
       <c r="F143" s="12">
         <v>143</v>
@@ -9504,9 +9504,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I136" sqref="I136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9544,7 +9544,7 @@
         <v>202</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I1" s="49" t="s">
         <v>203</v>
@@ -12954,7 +12954,7 @@
       <c r="G135" s="99"/>
       <c r="H135" s="99"/>
       <c r="I135" s="103" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J135" s="99" t="s">
         <v>610</v>
@@ -12972,13 +12972,13 @@
         <v>97</v>
       </c>
       <c r="E136" s="99"/>
-      <c r="F136" s="102" t="s">
-        <v>614</v>
+      <c r="F136" s="103" t="s">
+        <v>661</v>
       </c>
       <c r="G136" s="99"/>
       <c r="H136" s="99"/>
       <c r="I136" s="103" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="J136" s="99" t="s">
         <v>613</v>
@@ -12995,13 +12995,13 @@
         <v>126</v>
       </c>
       <c r="F137" s="109" t="s">
+        <v>621</v>
+      </c>
+      <c r="I137" s="111" t="s">
+        <v>630</v>
+      </c>
+      <c r="J137" s="83" t="s">
         <v>622</v>
-      </c>
-      <c r="I137" s="111" t="s">
-        <v>631</v>
-      </c>
-      <c r="J137" s="83" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -13015,13 +13015,13 @@
         <v>126</v>
       </c>
       <c r="F138" s="109" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I138" s="109" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J138" s="83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -13035,13 +13035,13 @@
         <v>126</v>
       </c>
       <c r="F139" s="109" t="s">
+        <v>621</v>
+      </c>
+      <c r="I139" s="109" t="s">
+        <v>633</v>
+      </c>
+      <c r="J139" s="83" t="s">
         <v>622</v>
-      </c>
-      <c r="I139" s="109" t="s">
-        <v>634</v>
-      </c>
-      <c r="J139" s="83" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -13055,13 +13055,13 @@
         <v>119</v>
       </c>
       <c r="F140" s="109" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I140" s="109" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J140" s="83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -13077,14 +13077,14 @@
       </c>
       <c r="E141" s="104"/>
       <c r="F141" s="109" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G141" s="104"/>
       <c r="I141" s="109" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="J141" s="83" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -13098,13 +13098,13 @@
         <v>126</v>
       </c>
       <c r="F142" s="109" t="s">
+        <v>645</v>
+      </c>
+      <c r="I142" s="109" t="s">
         <v>646</v>
       </c>
-      <c r="I142" s="109" t="s">
-        <v>647</v>
-      </c>
       <c r="J142" s="83" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -13115,7 +13115,7 @@
         <v>142</v>
       </c>
       <c r="F143" s="48" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G143" s="4">
         <v>1</v>
@@ -13132,7 +13132,7 @@
         <v>127</v>
       </c>
       <c r="F144" s="48" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -15706,7 +15706,7 @@
         <v>126</v>
       </c>
       <c r="C160" s="83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D160" s="18">
         <v>0</v>
@@ -15720,7 +15720,7 @@
         <v>127</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D161" s="18">
         <v>49</v>
@@ -16915,7 +16915,7 @@
         <v>391</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E68" s="4">
         <v>5</v>
@@ -17167,7 +17167,7 @@
         <v>49</v>
       </c>
       <c r="C83" s="83" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D83" s="4">
         <v>10641</v>
@@ -20387,7 +20387,7 @@
         <v>160</v>
       </c>
       <c r="C178" s="110" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D178" s="32">
         <v>3</v>
@@ -20425,7 +20425,7 @@
         <v>162</v>
       </c>
       <c r="C180" s="110" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D180" s="32">
         <v>3</v>
@@ -22951,7 +22951,7 @@
         <v>275</v>
       </c>
       <c r="C328" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D328" s="4">
         <v>10000</v>
@@ -22968,7 +22968,7 @@
         <v>275</v>
       </c>
       <c r="C329" s="83" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D329" s="4">
         <v>1</v>
@@ -22985,7 +22985,7 @@
         <v>275</v>
       </c>
       <c r="C330" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D330" s="4">
         <v>604800</v>
@@ -23002,7 +23002,7 @@
         <v>276</v>
       </c>
       <c r="C331" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D331" s="4">
         <v>10000</v>
@@ -23019,7 +23019,7 @@
         <v>276</v>
       </c>
       <c r="C332" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D332" s="4">
         <v>3</v>
@@ -23036,7 +23036,7 @@
         <v>276</v>
       </c>
       <c r="C333" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D333" s="4">
         <v>3</v>
@@ -23053,7 +23053,7 @@
         <v>277</v>
       </c>
       <c r="C334" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D334" s="4">
         <v>10000</v>
@@ -23070,7 +23070,7 @@
         <v>277</v>
       </c>
       <c r="C335" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D335" s="4">
         <v>4</v>
@@ -23087,7 +23087,7 @@
         <v>277</v>
       </c>
       <c r="C336" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D336" s="4">
         <v>4</v>
@@ -23104,7 +23104,7 @@
         <v>278</v>
       </c>
       <c r="C337" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D337" s="4">
         <v>20000</v>
@@ -23121,7 +23121,7 @@
         <v>278</v>
       </c>
       <c r="C338" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D338" s="4">
         <v>5</v>
@@ -23138,7 +23138,7 @@
         <v>278</v>
       </c>
       <c r="C339" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D339" s="4">
         <v>5</v>
@@ -23155,7 +23155,7 @@
         <v>279</v>
       </c>
       <c r="C340" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D340" s="4">
         <v>20000</v>
@@ -23172,7 +23172,7 @@
         <v>279</v>
       </c>
       <c r="C341" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D341" s="4">
         <v>6</v>
@@ -23189,7 +23189,7 @@
         <v>279</v>
       </c>
       <c r="C342" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D342" s="4">
         <v>6</v>
@@ -23206,7 +23206,7 @@
         <v>280</v>
       </c>
       <c r="C343" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D343" s="4">
         <v>20000</v>
@@ -23223,7 +23223,7 @@
         <v>280</v>
       </c>
       <c r="C344" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D344" s="4">
         <v>8</v>
@@ -23240,7 +23240,7 @@
         <v>280</v>
       </c>
       <c r="C345" s="83" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D345" s="4">
         <v>8</v>
@@ -23257,7 +23257,7 @@
         <v>281</v>
       </c>
       <c r="C346" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D346" s="4">
         <v>50000</v>
@@ -23274,7 +23274,7 @@
         <v>281</v>
       </c>
       <c r="C347" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D347" s="4">
         <v>10</v>
@@ -23291,7 +23291,7 @@
         <v>281</v>
       </c>
       <c r="C348" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D348" s="4">
         <v>10</v>
@@ -23308,7 +23308,7 @@
         <v>282</v>
       </c>
       <c r="C349" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D349" s="4">
         <v>20000</v>
@@ -23325,7 +23325,7 @@
         <v>282</v>
       </c>
       <c r="C350" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D350" s="4">
         <v>2</v>
@@ -23342,7 +23342,7 @@
         <v>282</v>
       </c>
       <c r="C351" s="83" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D351" s="112">
         <v>604800</v>
@@ -23361,7 +23361,7 @@
         <v>283</v>
       </c>
       <c r="C352" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D352" s="4">
         <v>30000</v>
@@ -23378,7 +23378,7 @@
         <v>283</v>
       </c>
       <c r="C353" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D353" s="4">
         <v>3</v>
@@ -23395,7 +23395,7 @@
         <v>283</v>
       </c>
       <c r="C354" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D354" s="4">
         <v>3</v>
@@ -23412,7 +23412,7 @@
         <v>284</v>
       </c>
       <c r="C355" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D355" s="4">
         <v>40000</v>
@@ -23429,7 +23429,7 @@
         <v>284</v>
       </c>
       <c r="C356" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D356" s="4">
         <v>4</v>
@@ -23446,7 +23446,7 @@
         <v>284</v>
       </c>
       <c r="C357" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D357" s="4">
         <v>4</v>
@@ -23463,7 +23463,7 @@
         <v>285</v>
       </c>
       <c r="C358" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D358" s="4">
         <v>50000</v>
@@ -23480,7 +23480,7 @@
         <v>285</v>
       </c>
       <c r="C359" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D359" s="4">
         <v>5</v>
@@ -23497,7 +23497,7 @@
         <v>285</v>
       </c>
       <c r="C360" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D360" s="4">
         <v>5</v>
@@ -23514,7 +23514,7 @@
         <v>286</v>
       </c>
       <c r="C361" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D361" s="4">
         <v>60000</v>
@@ -23531,7 +23531,7 @@
         <v>286</v>
       </c>
       <c r="C362" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D362" s="4">
         <v>6</v>
@@ -23548,7 +23548,7 @@
         <v>286</v>
       </c>
       <c r="C363" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D363" s="4">
         <v>6</v>
@@ -23565,7 +23565,7 @@
         <v>287</v>
       </c>
       <c r="C364" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D364" s="4">
         <v>70000</v>
@@ -23582,7 +23582,7 @@
         <v>287</v>
       </c>
       <c r="C365" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D365" s="4">
         <v>8</v>
@@ -23599,7 +23599,7 @@
         <v>287</v>
       </c>
       <c r="C366" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D366" s="4">
         <v>8</v>
@@ -23616,7 +23616,7 @@
         <v>288</v>
       </c>
       <c r="C367" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D367" s="4">
         <v>80000</v>
@@ -23633,7 +23633,7 @@
         <v>288</v>
       </c>
       <c r="C368" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D368" s="4">
         <v>10</v>
@@ -23650,7 +23650,7 @@
         <v>288</v>
       </c>
       <c r="C369" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D369" s="4">
         <v>10</v>
@@ -23667,7 +23667,7 @@
         <v>289</v>
       </c>
       <c r="C370" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D370" s="4">
         <v>50000</v>
@@ -23684,7 +23684,7 @@
         <v>289</v>
       </c>
       <c r="C371" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D371" s="4">
         <v>5</v>
@@ -23701,7 +23701,7 @@
         <v>289</v>
       </c>
       <c r="C372" s="83" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D372" s="112">
         <v>604800</v>
@@ -23718,7 +23718,7 @@
         <v>290</v>
       </c>
       <c r="C373" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D373" s="4">
         <v>60000</v>
@@ -23735,7 +23735,7 @@
         <v>290</v>
       </c>
       <c r="C374" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D374" s="4">
         <v>6</v>
@@ -23752,7 +23752,7 @@
         <v>290</v>
       </c>
       <c r="C375" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D375" s="4">
         <v>6</v>
@@ -23769,7 +23769,7 @@
         <v>291</v>
       </c>
       <c r="C376" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D376" s="4">
         <v>70000</v>
@@ -23786,7 +23786,7 @@
         <v>291</v>
       </c>
       <c r="C377" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D377" s="4">
         <v>8</v>
@@ -23803,7 +23803,7 @@
         <v>291</v>
       </c>
       <c r="C378" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D378" s="4">
         <v>8</v>
@@ -23820,7 +23820,7 @@
         <v>292</v>
       </c>
       <c r="C379" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D379" s="4">
         <v>80000</v>
@@ -23837,7 +23837,7 @@
         <v>292</v>
       </c>
       <c r="C380" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D380" s="4">
         <v>10</v>
@@ -23854,7 +23854,7 @@
         <v>292</v>
       </c>
       <c r="C381" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D381" s="4">
         <v>10</v>
@@ -23871,7 +23871,7 @@
         <v>293</v>
       </c>
       <c r="C382" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D382" s="4">
         <v>90000</v>
@@ -23888,7 +23888,7 @@
         <v>293</v>
       </c>
       <c r="C383" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D383" s="4">
         <v>12</v>
@@ -23905,7 +23905,7 @@
         <v>293</v>
       </c>
       <c r="C384" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D384" s="4">
         <v>12</v>
@@ -23922,7 +23922,7 @@
         <v>294</v>
       </c>
       <c r="C385" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D385" s="4">
         <v>100000</v>
@@ -23939,7 +23939,7 @@
         <v>294</v>
       </c>
       <c r="C386" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D386" s="4">
         <v>15</v>
@@ -23956,7 +23956,7 @@
         <v>294</v>
       </c>
       <c r="C387" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D387" s="4">
         <v>15</v>
@@ -23973,7 +23973,7 @@
         <v>295</v>
       </c>
       <c r="C388" s="83" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D388" s="4">
         <v>200000</v>
@@ -23990,7 +23990,7 @@
         <v>295</v>
       </c>
       <c r="C389" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D389" s="4">
         <v>20</v>
@@ -24007,7 +24007,7 @@
         <v>295</v>
       </c>
       <c r="C390" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D390" s="4">
         <v>20</v>
@@ -24024,7 +24024,7 @@
         <v>296</v>
       </c>
       <c r="C391" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D391" s="4">
         <v>10000</v>
@@ -24041,7 +24041,7 @@
         <v>297</v>
       </c>
       <c r="C392" s="83" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D392" s="4">
         <v>5</v>
@@ -24058,7 +24058,7 @@
         <v>298</v>
       </c>
       <c r="C393" s="83" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D393" s="4">
         <v>5</v>
@@ -24075,7 +24075,7 @@
         <v>299</v>
       </c>
       <c r="C394" s="83" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D394" s="4">
         <v>10000</v>
@@ -24092,7 +24092,7 @@
         <v>300</v>
       </c>
       <c r="C395" s="83" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D395" s="4">
         <v>15000</v>
@@ -24109,7 +24109,7 @@
         <v>301</v>
       </c>
       <c r="C396" s="83" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D396" s="4">
         <v>20000</v>
@@ -24126,7 +24126,7 @@
         <v>302</v>
       </c>
       <c r="C397" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D397" s="4">
         <v>25000</v>
@@ -24143,7 +24143,7 @@
         <v>303</v>
       </c>
       <c r="C398" s="83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D398" s="4">
         <v>50000</v>
@@ -24160,7 +24160,7 @@
         <v>304</v>
       </c>
       <c r="C399" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D399" s="4">
         <v>1000000</v>
@@ -24194,7 +24194,7 @@
         <v>305</v>
       </c>
       <c r="C401" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D401" s="4">
         <v>1000000</v>
@@ -24228,7 +24228,7 @@
         <v>306</v>
       </c>
       <c r="C403" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D403" s="4">
         <v>1000000</v>
@@ -24262,7 +24262,7 @@
         <v>307</v>
       </c>
       <c r="C405" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D405" s="4">
         <v>100000</v>
@@ -24296,7 +24296,7 @@
         <v>308</v>
       </c>
       <c r="C407" s="83" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D407" s="4">
         <v>200000</v>
@@ -24330,7 +24330,7 @@
         <v>309</v>
       </c>
       <c r="C409" s="83" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D409" s="4">
         <v>1000</v>
@@ -57815,16 +57815,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C45:C46"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C45:C46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config_debug/task_server.xlsx
+++ b/config_debug/task_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_11.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1755" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="683">
   <si>
     <t>id|任务id</t>
   </si>
@@ -3488,12 +3488,50 @@
     <t>other|</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>限时红包</t>
+  </si>
+  <si>
+    <t>xian_shi_hong_bao_task</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_observe</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>withdraw_cash_xshb</t>
+  </si>
+  <si>
+    <t>p_xshb_cjj_xdjb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3548,6 +3586,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -3687,7 +3731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4000,11 +4044,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4284,11 +4340,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomLeft" activeCell="D149" sqref="D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9618,6 +9674,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="12">
+        <v>30045</v>
+      </c>
+      <c r="B145" s="12">
+        <v>1</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="D145" s="118" t="s">
+        <v>682</v>
+      </c>
+      <c r="E145" s="50" t="s">
+        <v>677</v>
+      </c>
+      <c r="F145" s="12">
+        <v>145</v>
+      </c>
+      <c r="G145" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H145" s="12">
+        <v>1</v>
+      </c>
+      <c r="I145" s="12">
+        <v>1623114000</v>
+      </c>
+      <c r="J145" s="38">
+        <v>32503651200</v>
+      </c>
+      <c r="K145" s="12">
+        <v>-1</v>
+      </c>
+      <c r="L145" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="C146" s="13"/>
+      <c r="D146" s="118"/>
+      <c r="E146" s="50"/>
+      <c r="J146" s="38"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9628,11 +9728,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:L145"/>
+  <dimension ref="A1:L146"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I145" sqref="I145"/>
+      <selection pane="bottomLeft" activeCell="I151" sqref="I151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -13281,6 +13381,30 @@
         <v>667</v>
       </c>
     </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="114">
+        <v>145</v>
+      </c>
+      <c r="B146" s="114">
+        <v>145</v>
+      </c>
+      <c r="C146" s="114"/>
+      <c r="D146" s="114">
+        <v>129</v>
+      </c>
+      <c r="E146" s="114"/>
+      <c r="F146" s="114">
+        <v>1</v>
+      </c>
+      <c r="G146" s="91"/>
+      <c r="H146" s="91"/>
+      <c r="I146" s="109" t="s">
+        <v>678</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13291,11 +13415,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A142" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+      <selection pane="bottomLeft" activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -15279,7 +15403,7 @@
       <c r="D120" s="18">
         <v>0</v>
       </c>
-      <c r="F120" s="114" t="s">
+      <c r="F120" s="115" t="s">
         <v>282</v>
       </c>
     </row>
@@ -15296,7 +15420,7 @@
       <c r="D121" s="18">
         <v>0</v>
       </c>
-      <c r="F121" s="114"/>
+      <c r="F121" s="115"/>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="20">
@@ -15311,7 +15435,7 @@
       <c r="D122" s="18">
         <v>0</v>
       </c>
-      <c r="F122" s="114"/>
+      <c r="F122" s="115"/>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="20">
@@ -15326,7 +15450,7 @@
       <c r="D123" s="18">
         <v>0</v>
       </c>
-      <c r="F123" s="114"/>
+      <c r="F123" s="115"/>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="20">
@@ -15341,7 +15465,7 @@
       <c r="D124" s="18">
         <v>0</v>
       </c>
-      <c r="F124" s="114"/>
+      <c r="F124" s="115"/>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="20">
@@ -15356,7 +15480,7 @@
       <c r="D125" s="18">
         <v>0</v>
       </c>
-      <c r="F125" s="114"/>
+      <c r="F125" s="115"/>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="20">
@@ -15371,7 +15495,7 @@
       <c r="D126" s="18">
         <v>0</v>
       </c>
-      <c r="F126" s="114"/>
+      <c r="F126" s="115"/>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="20">
@@ -15386,7 +15510,7 @@
       <c r="D127" s="18">
         <v>0</v>
       </c>
-      <c r="F127" s="114"/>
+      <c r="F127" s="115"/>
     </row>
     <row r="128" spans="1:6">
       <c r="A128" s="20">
@@ -15401,7 +15525,7 @@
       <c r="D128" s="18">
         <v>0</v>
       </c>
-      <c r="F128" s="114"/>
+      <c r="F128" s="115"/>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" s="20">
@@ -15416,7 +15540,7 @@
       <c r="D129" s="18">
         <v>0</v>
       </c>
-      <c r="F129" s="114"/>
+      <c r="F129" s="115"/>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" s="20">
@@ -15431,7 +15555,7 @@
       <c r="D130" s="18">
         <v>0</v>
       </c>
-      <c r="F130" s="114"/>
+      <c r="F130" s="115"/>
     </row>
     <row r="131" spans="1:6">
       <c r="A131" s="20">
@@ -15446,7 +15570,7 @@
       <c r="D131" s="18">
         <v>0</v>
       </c>
-      <c r="F131" s="114"/>
+      <c r="F131" s="115"/>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" s="20">
@@ -15461,7 +15585,7 @@
       <c r="D132" s="18">
         <v>0</v>
       </c>
-      <c r="F132" s="114"/>
+      <c r="F132" s="115"/>
     </row>
     <row r="133" spans="1:6">
       <c r="A133" s="20">
@@ -15476,7 +15600,7 @@
       <c r="D133" s="18">
         <v>0</v>
       </c>
-      <c r="F133" s="114"/>
+      <c r="F133" s="115"/>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="20">
@@ -15491,7 +15615,7 @@
       <c r="D134" s="18">
         <v>0</v>
       </c>
-      <c r="F134" s="114"/>
+      <c r="F134" s="115"/>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" s="20">
@@ -15506,7 +15630,7 @@
       <c r="D135" s="18">
         <v>0</v>
       </c>
-      <c r="F135" s="114"/>
+      <c r="F135" s="115"/>
     </row>
     <row r="136" spans="1:6">
       <c r="A136" s="20">
@@ -15884,6 +16008,20 @@
       </c>
       <c r="D162" s="18">
         <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="4">
+        <v>162</v>
+      </c>
+      <c r="B163" s="4">
+        <v>129</v>
+      </c>
+      <c r="C163" s="83" t="s">
+        <v>679</v>
+      </c>
+      <c r="D163" s="18">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -15899,11 +16037,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A84" sqref="A84:XFD84"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -17336,6 +17474,40 @@
         <v>2</v>
       </c>
     </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="12">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4">
+        <v>50</v>
+      </c>
+      <c r="C84" s="114" t="s">
+        <v>387</v>
+      </c>
+      <c r="D84" s="114" t="s">
+        <v>316</v>
+      </c>
+      <c r="E84" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="12">
+        <v>8</v>
+      </c>
+      <c r="B85" s="4">
+        <v>50</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D85" s="119" t="s">
+        <v>680</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -17346,11 +17518,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:I433"/>
+  <dimension ref="A1:I434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A398" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H425" sqref="H425"/>
+      <pane ySplit="1" topLeftCell="A419" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C442" sqref="C442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -24904,6 +25076,23 @@
         <v>12</v>
       </c>
       <c r="E433" s="113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" ht="15.75">
+      <c r="A434" s="12">
+        <v>433</v>
+      </c>
+      <c r="B434" s="4">
+        <v>322</v>
+      </c>
+      <c r="C434" s="120" t="s">
+        <v>681</v>
+      </c>
+      <c r="D434" s="114">
+        <v>50</v>
+      </c>
+      <c r="E434" s="114">
         <v>1</v>
       </c>
     </row>
@@ -25053,10 +25242,10 @@
       <c r="A2" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>419</v>
       </c>
-      <c r="C2" s="115">
+      <c r="C2" s="116">
         <v>1</v>
       </c>
     </row>
@@ -25064,8 +25253,8 @@
       <c r="A3" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1">
       <c r="A4" s="6" t="s">
@@ -25115,10 +25304,10 @@
       <c r="A8" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="116" t="s">
         <v>427</v>
       </c>
-      <c r="C8" s="115" t="s">
+      <c r="C8" s="116" t="s">
         <v>422</v>
       </c>
     </row>
@@ -25126,17 +25315,17 @@
       <c r="A9" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
     </row>
     <row r="10" spans="1:8" s="1" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="116" t="s">
         <v>429</v>
       </c>
-      <c r="C10" s="115">
+      <c r="C10" s="116">
         <v>1</v>
       </c>
     </row>
@@ -25144,8 +25333,8 @@
       <c r="A11" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
     </row>
     <row r="12" spans="1:8" s="2" customFormat="1">
       <c r="A12" s="7" t="s">
@@ -25250,10 +25439,10 @@
       <c r="A21" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B21" s="116" t="s">
+      <c r="B21" s="117" t="s">
         <v>444</v>
       </c>
-      <c r="C21" s="116">
+      <c r="C21" s="117">
         <v>1</v>
       </c>
     </row>
@@ -25261,8 +25450,8 @@
       <c r="A22" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B22" s="116"/>
-      <c r="C22" s="116"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
     </row>
     <row r="23" spans="1:3" s="3" customFormat="1">
       <c r="A23" s="8" t="s">
@@ -58268,10 +58457,10 @@
       <c r="A45" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B45" s="115" t="s">
+      <c r="B45" s="116" t="s">
         <v>477</v>
       </c>
-      <c r="C45" s="115" t="s">
+      <c r="C45" s="116" t="s">
         <v>422</v>
       </c>
     </row>
@@ -58279,8 +58468,8 @@
       <c r="A46" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B46" s="115"/>
-      <c r="C46" s="115"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="116"/>
     </row>
     <row r="47" spans="1:16384" s="1" customFormat="1">
       <c r="A47" s="6" t="s">
@@ -58383,16 +58572,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B45:B46"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
